--- a/biz/MC-MSC-Web/qxy接口定义文档2016-8-8/【千校云】接口列表.xlsx
+++ b/biz/MC-MSC-Web/qxy接口定义文档2016-8-8/【千校云】接口列表.xlsx
@@ -145,7 +145,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2066" uniqueCount="1194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2068" uniqueCount="1196">
   <si>
     <t>DELETE</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -5555,34 +5555,30 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>引用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>引用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>引用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>引用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/qxy/task/search?courseId=[courseId]&amp;taskName=[taskName]&amp;token=[token]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>/qxy/task?token=[token]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>引用</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>引用</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>引用</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>引用</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/qxy/task/search?courseId=[courseId]&amp;taskName=[taskName]&amp;token=[token]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/qxy/task?token=[token]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>/qxy/task?termId=[termId]&amp;cid=[cid]&amp;page=[page]&amp;size=[size]&amp;token=[token]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -5643,10 +5639,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/qxy/moraleducation/class/score/info/mecItemId=[mecItemId]&amp;token=[token]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>德育个人评分详情删除接口</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -5655,10 +5647,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/qxy/moraleducation/personal/score/info?mepItemId=[mepItemId]&amp;token=[token]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>/qxy/moraleducation/personal?token=[token]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -5735,6 +5723,26 @@
   </si>
   <si>
     <t>/qxy/results/course?token=[token]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/qxy/task/set?token=[token]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/qxy/moraleducation/personal/score/info?token=[token]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mepScoreId=[mepScoreId]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mecScoreId=[mecScoreId]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/qxy/moraleducation/class/score/info?token=[token]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -9268,11 +9276,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-849263904"/>
-        <c:axId val="-849265536"/>
+        <c:axId val="-1587831392"/>
+        <c:axId val="-1587836288"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-849263904"/>
+        <c:axId val="-1587831392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9314,7 +9322,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-849265536"/>
+        <c:crossAx val="-1587836288"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9322,7 +9330,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-849265536"/>
+        <c:axId val="-1587836288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9372,7 +9380,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-849263904"/>
+        <c:crossAx val="-1587831392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -19828,7 +19836,7 @@
         <v>896</v>
       </c>
       <c r="G199" s="3" t="s">
-        <v>1185</v>
+        <v>1182</v>
       </c>
       <c r="J199" s="35" t="s">
         <v>944</v>
@@ -20305,7 +20313,7 @@
       <pane xSplit="7" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E30" sqref="E30"/>
+      <selection pane="bottomRight" activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -20399,7 +20407,7 @@
         <v>1126</v>
       </c>
       <c r="G2" s="41" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="3" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -20410,7 +20418,7 @@
         <v>6</v>
       </c>
       <c r="G3" s="41" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="4" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -20443,7 +20451,7 @@
         <v>1129</v>
       </c>
       <c r="G6" s="41" t="s">
-        <v>1148</v>
+        <v>1191</v>
       </c>
       <c r="AJ6" s="1" t="s">
         <v>253</v>
@@ -20463,7 +20471,7 @@
         <v>1130</v>
       </c>
       <c r="G7" s="41" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="AJ7" s="1" t="s">
         <v>255</v>
@@ -20480,7 +20488,7 @@
         <v>1141</v>
       </c>
       <c r="G8" s="41" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="AJ8" s="1" t="s">
         <v>255</v>
@@ -20497,7 +20505,7 @@
         <v>1142</v>
       </c>
       <c r="G9" s="41" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="AJ9" s="1" t="s">
         <v>255</v>
@@ -20514,7 +20522,7 @@
         <v>1143</v>
       </c>
       <c r="G10" s="41" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="AJ10" s="1" t="s">
         <v>255</v>
@@ -20531,7 +20539,7 @@
         <v>1144</v>
       </c>
       <c r="G11" s="41" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="AJ11" s="1" t="s">
         <v>255</v>
@@ -20574,7 +20582,7 @@
         <v>1141</v>
       </c>
       <c r="G13" s="41" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="AJ13" s="1" t="s">
         <v>255</v>
@@ -20594,7 +20602,7 @@
         <v>1126</v>
       </c>
       <c r="G14" s="41" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="AJ14" s="1" t="s">
         <v>255</v>
@@ -20608,13 +20616,13 @@
     </row>
     <row r="15" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E15" s="5" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="F15" s="4" t="s">
         <v>1126</v>
       </c>
       <c r="G15" s="41" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="AJ15" s="1" t="s">
         <v>255</v>
@@ -20634,7 +20642,7 @@
         <v>1131</v>
       </c>
       <c r="G16" s="41" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="AK16" s="1" t="s">
         <v>258</v>
@@ -20648,19 +20656,22 @@
         <v>6</v>
       </c>
       <c r="G17" s="41" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="18" spans="3:38" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C18" s="42"/>
       <c r="E18" s="5" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="F18" s="4" t="s">
         <v>0</v>
       </c>
       <c r="G18" s="41" t="s">
-        <v>1170</v>
+        <v>1195</v>
+      </c>
+      <c r="P18" s="2" t="s">
+        <v>1194</v>
       </c>
     </row>
     <row r="19" spans="3:38" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -20671,7 +20682,7 @@
         <v>6</v>
       </c>
       <c r="G19" s="41" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="20" spans="3:38" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -20682,7 +20693,7 @@
         <v>1132</v>
       </c>
       <c r="G20" s="41" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="21" spans="3:38" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -20693,7 +20704,7 @@
         <v>1129</v>
       </c>
       <c r="G21" s="41" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="22" spans="3:38" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -20704,7 +20715,7 @@
         <v>1129</v>
       </c>
       <c r="G22" s="41" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="23" spans="3:38" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -20715,7 +20726,7 @@
         <v>1133</v>
       </c>
       <c r="G23" s="41" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="24" spans="3:38" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -20729,7 +20740,7 @@
         <v>1141</v>
       </c>
       <c r="G24" s="41" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="AJ24" s="1" t="s">
         <v>255</v>
@@ -20749,7 +20760,7 @@
         <v>1135</v>
       </c>
       <c r="G25" s="41" t="s">
-        <v>1181</v>
+        <v>1178</v>
       </c>
       <c r="AJ25" s="1" t="s">
         <v>255</v>
@@ -20763,13 +20774,13 @@
     </row>
     <row r="26" spans="3:38" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E26" s="5" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="F26" s="4" t="s">
         <v>1135</v>
       </c>
       <c r="G26" s="41" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="AJ26" s="1" t="s">
         <v>255</v>
@@ -20789,7 +20800,7 @@
         <v>1126</v>
       </c>
       <c r="G27" s="41" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="AK27" s="1" t="s">
         <v>258</v>
@@ -20803,18 +20814,21 @@
         <v>1131</v>
       </c>
       <c r="G28" s="41" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="29" spans="3:38" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E29" s="5" t="s">
-        <v>1171</v>
+        <v>1169</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>1172</v>
+        <v>1170</v>
       </c>
       <c r="G29" s="41" t="s">
-        <v>1173</v>
+        <v>1192</v>
+      </c>
+      <c r="P29" s="2" t="s">
+        <v>1193</v>
       </c>
     </row>
     <row r="30" spans="3:38" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -20825,7 +20839,7 @@
         <v>1126</v>
       </c>
       <c r="G30" s="41" t="s">
-        <v>1174</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="31" spans="3:38" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -20836,7 +20850,7 @@
         <v>1134</v>
       </c>
       <c r="G31" s="41" t="s">
-        <v>1175</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="32" spans="3:38" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -20847,7 +20861,7 @@
         <v>2</v>
       </c>
       <c r="G32" s="41" t="s">
-        <v>1176</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="33" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -20858,7 +20872,7 @@
         <v>1136</v>
       </c>
       <c r="G33" s="41" t="s">
-        <v>1177</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="34" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -20869,7 +20883,7 @@
         <v>1130</v>
       </c>
       <c r="G34" s="41" t="s">
-        <v>1178</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="35" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -20897,7 +20911,7 @@
         <v>1137</v>
       </c>
       <c r="G36" s="41" t="s">
-        <v>1184</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="37" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -20908,7 +20922,7 @@
         <v>1134</v>
       </c>
       <c r="G37" s="41" t="s">
-        <v>1179</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="38" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -20919,7 +20933,7 @@
         <v>1138</v>
       </c>
       <c r="G38" s="41" t="s">
-        <v>1180</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="39" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -20930,7 +20944,7 @@
         <v>1139</v>
       </c>
       <c r="G39" s="41" t="s">
-        <v>1179</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="40" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -20941,7 +20955,7 @@
         <v>1131</v>
       </c>
       <c r="G40" s="41" t="s">
-        <v>1183</v>
+        <v>1180</v>
       </c>
       <c r="N40" s="26"/>
     </row>
@@ -20950,13 +20964,13 @@
         <v>1121</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>1182</v>
+        <v>1179</v>
       </c>
       <c r="F41" s="4" t="s">
         <v>1131</v>
       </c>
       <c r="G41" s="41" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="42" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -20967,7 +20981,7 @@
         <v>1131</v>
       </c>
       <c r="G42" s="41" t="s">
-        <v>1188</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="43" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -20978,7 +20992,7 @@
         <v>4</v>
       </c>
       <c r="G43" s="41" t="s">
-        <v>1186</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="44" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -20989,7 +21003,7 @@
         <v>1126</v>
       </c>
       <c r="G44" s="41" t="s">
-        <v>1187</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="45" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -21000,7 +21014,7 @@
         <v>1139</v>
       </c>
       <c r="G45" s="41" t="s">
-        <v>1189</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="46" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -21011,7 +21025,7 @@
         <v>6</v>
       </c>
       <c r="G46" s="41" t="s">
-        <v>1192</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="47" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -21022,7 +21036,7 @@
         <v>1134</v>
       </c>
       <c r="G47" s="41" t="s">
-        <v>1193</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="48" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -21033,7 +21047,7 @@
         <v>1140</v>
       </c>
       <c r="G48" s="41" t="s">
-        <v>1190</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="49" spans="3:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -21044,7 +21058,7 @@
         <v>1139</v>
       </c>
       <c r="G49" s="41" t="s">
-        <v>1191</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="50" spans="3:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">

--- a/biz/MC-MSC-Web/qxy接口定义文档2016-8-8/【千校云】接口列表.xlsx
+++ b/biz/MC-MSC-Web/qxy接口定义文档2016-8-8/【千校云】接口列表.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\svn\trunk\biz\MC-MSC-Web\qxy接口定义文档2016-8-8\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\mkq\svn\trunk\biz\MC-MSC-Web\qxy接口定义文档2016-8-8\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -142,7 +142,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2049" uniqueCount="1234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2049" uniqueCount="1235">
   <si>
     <t>DELETE</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -5325,18 +5325,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>/qxy/moraleducation/personal/set?token=[token]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>/qxy/moraleducation/personal?token=[token]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/qxy/moraleducation/personal/set?token=[token]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/qxy/moraleducation/personal?token=[token]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>/qxy/results/tag?token=[token]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -5522,10 +5518,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>德育个人评分个人搜索接口</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>德育个人评分详情列表查询接口</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -5535,10 +5527,6 @@
   </si>
   <si>
     <t>/qxy/moraleducation/personal/score/list?studentId=[studentId]&amp;page=[page]&amp;size=[size]&amp;token=[token]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/qxy/moraleducation/personal/score/list/search?mepItemId=[mepItemId]&amp;startTime=[startTime]&amp;endTime=[endTime]&amp;page=[page]&amp;size=[size]&amp;token=[token]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -5894,6 +5882,22 @@
   </si>
   <si>
     <t>/qxy/results/class/course/student?resultsTagId=[resultsTagId]&amp;cid=[cid]&amp;courseId=[courseId]&amp;page=[page]&amp;size=[size]&amp;order=[order]&amp;token=[token]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>德育个人评分个人搜索接口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/qxy/moraleducation/personal/score/list/search?studentId=[studentId]&amp;mepItemId=[mepItemId]&amp;startTime=[startTime]&amp;endTime=[endTime]&amp;page=[page]&amp;size=[size]&amp;token=[token]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/qxy/moraleducation/personal?sid=[sid]&amp;token=[token]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/qxy/moraleducation/class?sid=[sid]&amp;token=[token]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -10148,16 +10152,16 @@
     <row r="1" spans="2:5" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="2:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B2" s="48" t="s">
+        <v>1137</v>
+      </c>
+      <c r="C2" s="49" t="s">
+        <v>1138</v>
+      </c>
+      <c r="D2" s="49" t="s">
+        <v>1139</v>
+      </c>
+      <c r="E2" s="50" t="s">
         <v>1140</v>
-      </c>
-      <c r="C2" s="49" t="s">
-        <v>1141</v>
-      </c>
-      <c r="D2" s="49" t="s">
-        <v>1142</v>
-      </c>
-      <c r="E2" s="50" t="s">
-        <v>1143</v>
       </c>
     </row>
     <row r="3" spans="2:5" ht="24" x14ac:dyDescent="0.15">
@@ -10169,10 +10173,10 @@
         <v>42635</v>
       </c>
       <c r="D3" s="42" t="s">
-        <v>1203</v>
+        <v>1200</v>
       </c>
       <c r="E3" s="52" t="s">
-        <v>1204</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="4" spans="2:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -10537,10 +10541,10 @@
   <dimension ref="A1:AL211"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="H149" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="H74" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E176" sqref="E176:E179"/>
+      <selection pane="bottomRight" activeCell="G129" sqref="G129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -10738,10 +10742,10 @@
         <v>231</v>
       </c>
       <c r="D6" s="23" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>146</v>
@@ -11209,7 +11213,7 @@
     </row>
     <row r="21" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D21" s="23" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="E21" s="5" t="s">
         <v>1008</v>
@@ -12318,7 +12322,7 @@
     <row r="60" spans="1:16" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A60" s="6"/>
       <c r="D60" s="23" t="s">
-        <v>1187</v>
+        <v>1184</v>
       </c>
       <c r="E60" s="18" t="s">
         <v>173</v>
@@ -12327,7 +12331,7 @@
         <v>146</v>
       </c>
       <c r="G60" s="3" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="H60" s="24" t="s">
         <v>251</v>
@@ -12358,7 +12362,7 @@
     <row r="61" spans="1:16" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61" s="6"/>
       <c r="D61" s="23" t="s">
-        <v>1184</v>
+        <v>1181</v>
       </c>
       <c r="E61" s="18" t="s">
         <v>407</v>
@@ -13984,7 +13988,7 @@
         <v>97</v>
       </c>
       <c r="D106" s="23" t="s">
-        <v>1182</v>
+        <v>1179</v>
       </c>
       <c r="E106" s="5" t="s">
         <v>96</v>
@@ -14675,7 +14679,7 @@
         <v>6</v>
       </c>
       <c r="G125" s="3" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="H125" s="24" t="s">
         <v>251</v>
@@ -15272,7 +15276,7 @@
         <v>50</v>
       </c>
       <c r="D142" s="23" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="E142" s="5" t="s">
         <v>49</v>
@@ -15416,7 +15420,7 @@
         <v>44</v>
       </c>
       <c r="D146" s="23" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="E146" s="5" t="s">
         <v>692</v>
@@ -16497,19 +16501,19 @@
       <c r="A176" s="6"/>
       <c r="B176" s="5"/>
       <c r="C176" s="5" t="s">
+        <v>1085</v>
+      </c>
+      <c r="D176" s="23" t="s">
+        <v>1100</v>
+      </c>
+      <c r="E176" s="5" t="s">
         <v>1086</v>
       </c>
-      <c r="D176" s="23" t="s">
-        <v>1101</v>
-      </c>
-      <c r="E176" s="5" t="s">
-        <v>1087</v>
-      </c>
       <c r="F176" s="4" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="G176" s="3" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="H176" s="24"/>
       <c r="I176" s="24" t="s">
@@ -16528,16 +16532,16 @@
       <c r="B177" s="5"/>
       <c r="C177" s="5"/>
       <c r="D177" s="23" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="E177" s="5" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="F177" s="4" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="G177" s="3" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="H177" s="24"/>
       <c r="I177" s="24" t="s">
@@ -16556,16 +16560,16 @@
       <c r="B178" s="5"/>
       <c r="C178" s="5"/>
       <c r="D178" s="23" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="E178" s="5" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="F178" s="4" t="s">
         <v>841</v>
       </c>
       <c r="G178" s="3" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="H178" s="24"/>
       <c r="I178" s="24" t="s">
@@ -16584,16 +16588,16 @@
       <c r="B179" s="5"/>
       <c r="C179" s="5"/>
       <c r="D179" s="23" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="E179" s="5" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="F179" s="4" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="G179" s="3" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="H179" s="24"/>
       <c r="I179" s="24" t="s">
@@ -17083,7 +17087,7 @@
         <v>835</v>
       </c>
       <c r="G202" s="3" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="J202" s="35" t="s">
         <v>881</v>
@@ -17704,10 +17708,10 @@
   <dimension ref="A1:AL214"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="H35" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="H47" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G63" sqref="G63"/>
+      <selection pane="bottomRight" activeCell="F39" sqref="F39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -17806,7 +17810,7 @@
     </row>
     <row r="3" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D3" s="23" t="s">
-        <v>1172</v>
+        <v>1169</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>1013</v>
@@ -17820,7 +17824,7 @@
     </row>
     <row r="4" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D4" s="23" t="s">
-        <v>1173</v>
+        <v>1170</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>1046</v>
@@ -17834,7 +17838,7 @@
     </row>
     <row r="5" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D5" s="23" t="s">
-        <v>1174</v>
+        <v>1171</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>1016</v>
@@ -17848,7 +17852,7 @@
     </row>
     <row r="6" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D6" s="23" t="s">
-        <v>1175</v>
+        <v>1172</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>1014</v>
@@ -17857,7 +17861,7 @@
         <v>1048</v>
       </c>
       <c r="G6" s="38" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="AJ6" s="1" t="s">
         <v>252</v>
@@ -17871,7 +17875,7 @@
     </row>
     <row r="7" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D7" s="23" t="s">
-        <v>1176</v>
+        <v>1173</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>1015</v>
@@ -17894,13 +17898,13 @@
     </row>
     <row r="8" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D8" s="23" t="s">
-        <v>1177</v>
+        <v>1174</v>
       </c>
       <c r="E8" s="5" t="s">
         <v>1060</v>
       </c>
       <c r="G8" s="38" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="AJ8" s="1" t="s">
         <v>254</v>
@@ -17911,40 +17915,40 @@
     </row>
     <row r="9" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D9" s="23" t="s">
-        <v>1178</v>
+        <v>1175</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>1061</v>
       </c>
       <c r="G9" s="38" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="10" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D10" s="23" t="s">
-        <v>1179</v>
+        <v>1176</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>1062</v>
       </c>
       <c r="G10" s="38" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="11" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D11" s="23" t="s">
-        <v>1180</v>
+        <v>1177</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>1063</v>
       </c>
       <c r="G11" s="38" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="12" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C12" s="5" t="s">
-        <v>1139</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="13" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -17964,12 +17968,12 @@
         <v>1060</v>
       </c>
       <c r="G13" s="38" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="14" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D14" s="23" t="s">
-        <v>1160</v>
+        <v>1157</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>1017</v>
@@ -17978,12 +17982,12 @@
         <v>1045</v>
       </c>
       <c r="G14" s="38" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="15" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D15" s="23" t="s">
-        <v>1161</v>
+        <v>1158</v>
       </c>
       <c r="E15" s="5" t="s">
         <v>1070</v>
@@ -17992,86 +17996,86 @@
         <v>1045</v>
       </c>
       <c r="G15" s="38" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="16" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D16" s="23" t="s">
-        <v>1162</v>
+        <v>1159</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="F16" s="4" t="s">
         <v>1050</v>
       </c>
       <c r="G16" s="38" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="17" spans="3:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D17" s="23" t="s">
-        <v>1163</v>
+        <v>1160</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="F17" s="4" t="s">
         <v>6</v>
       </c>
       <c r="G17" s="38" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="18" spans="3:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D18" s="23" t="s">
-        <v>1164</v>
+        <v>1161</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="G18" s="38" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="19" spans="3:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C19" s="39"/>
       <c r="D19" s="23" t="s">
-        <v>1165</v>
+        <v>1162</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="F19" s="4" t="s">
         <v>0</v>
       </c>
       <c r="G19" s="38" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="P19" s="2" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="20" spans="3:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D20" s="23" t="s">
-        <v>1166</v>
+        <v>1163</v>
       </c>
       <c r="E20" s="5" t="s">
+        <v>1120</v>
+      </c>
+      <c r="F20" s="4" t="s">
         <v>1121</v>
       </c>
-      <c r="F20" s="4" t="s">
-        <v>1122</v>
-      </c>
       <c r="G20" s="38" t="s">
-        <v>1137</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="21" spans="3:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D21" s="23" t="s">
-        <v>1167</v>
+        <v>1164</v>
       </c>
       <c r="E21" s="5" t="s">
         <v>1018</v>
@@ -18080,12 +18084,12 @@
         <v>6</v>
       </c>
       <c r="G21" s="38" t="s">
-        <v>1074</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="22" spans="3:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D22" s="23" t="s">
-        <v>1168</v>
+        <v>1165</v>
       </c>
       <c r="E22" s="5" t="s">
         <v>1019</v>
@@ -18099,7 +18103,7 @@
     </row>
     <row r="23" spans="3:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D23" s="23" t="s">
-        <v>1169</v>
+        <v>1166</v>
       </c>
       <c r="E23" s="5" t="s">
         <v>1020</v>
@@ -18113,7 +18117,7 @@
     </row>
     <row r="24" spans="3:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D24" s="23" t="s">
-        <v>1170</v>
+        <v>1167</v>
       </c>
       <c r="E24" s="5" t="s">
         <v>1021</v>
@@ -18127,7 +18131,7 @@
     </row>
     <row r="25" spans="3:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D25" s="23" t="s">
-        <v>1171</v>
+        <v>1168</v>
       </c>
       <c r="E25" s="5" t="s">
         <v>1022</v>
@@ -18150,12 +18154,12 @@
         <v>1060</v>
       </c>
       <c r="G26" s="38" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="27" spans="3:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D27" s="23" t="s">
-        <v>1148</v>
+        <v>1145</v>
       </c>
       <c r="E27" s="5" t="s">
         <v>1023</v>
@@ -18164,105 +18168,105 @@
         <v>1054</v>
       </c>
       <c r="G27" s="38" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="28" spans="3:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D28" s="23" t="s">
-        <v>1149</v>
+        <v>1146</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>1128</v>
+        <v>1231</v>
       </c>
       <c r="F28" s="4" t="s">
         <v>1054</v>
       </c>
       <c r="G28" s="38" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="29" spans="3:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D29" s="23" t="s">
-        <v>1150</v>
+        <v>1147</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>1129</v>
+        <v>1127</v>
       </c>
       <c r="F29" s="4" t="s">
         <v>1045</v>
       </c>
       <c r="G29" s="38" t="s">
-        <v>1131</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="30" spans="3:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D30" s="23" t="s">
-        <v>1151</v>
+        <v>1148</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>1130</v>
+        <v>1128</v>
       </c>
       <c r="F30" s="4" t="s">
         <v>1050</v>
       </c>
       <c r="G30" s="38" t="s">
-        <v>1132</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="31" spans="3:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D31" s="23" t="s">
-        <v>1152</v>
+        <v>1149</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>1134</v>
+        <v>1131</v>
       </c>
       <c r="F31" s="4" t="s">
         <v>0</v>
       </c>
       <c r="G31" s="38" t="s">
-        <v>1133</v>
+        <v>1130</v>
       </c>
       <c r="P31" s="2" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="32" spans="3:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D32" s="23" t="s">
-        <v>1153</v>
+        <v>1150</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>1135</v>
+        <v>1132</v>
       </c>
       <c r="F32" s="4" t="s">
         <v>0</v>
       </c>
       <c r="G32" s="38" t="s">
-        <v>1133</v>
+        <v>1130</v>
       </c>
       <c r="P32" s="2" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="33" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D33" s="23" t="s">
-        <v>1154</v>
+        <v>1151</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>1136</v>
+        <v>1133</v>
       </c>
       <c r="F33" s="4" t="s">
         <v>1075</v>
       </c>
       <c r="G33" s="38" t="s">
-        <v>1138</v>
+        <v>1135</v>
       </c>
       <c r="P33" s="2" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="34" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D34" s="23" t="s">
-        <v>1155</v>
+        <v>1152</v>
       </c>
       <c r="E34" s="5" t="s">
         <v>1024</v>
@@ -18271,12 +18275,12 @@
         <v>1045</v>
       </c>
       <c r="G34" s="38" t="s">
-        <v>1076</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="35" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D35" s="23" t="s">
-        <v>1156</v>
+        <v>1153</v>
       </c>
       <c r="E35" s="5" t="s">
         <v>1025</v>
@@ -18285,12 +18289,12 @@
         <v>1053</v>
       </c>
       <c r="G35" s="38" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="36" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D36" s="23" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
       <c r="E36" s="5" t="s">
         <v>1026</v>
@@ -18299,12 +18303,12 @@
         <v>2</v>
       </c>
       <c r="G36" s="38" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="37" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D37" s="23" t="s">
-        <v>1158</v>
+        <v>1155</v>
       </c>
       <c r="E37" s="5" t="s">
         <v>1027</v>
@@ -18313,12 +18317,12 @@
         <v>1055</v>
       </c>
       <c r="G37" s="38" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="38" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D38" s="23" t="s">
-        <v>1159</v>
+        <v>1156</v>
       </c>
       <c r="E38" s="5" t="s">
         <v>1028</v>
@@ -18327,7 +18331,7 @@
         <v>1049</v>
       </c>
       <c r="G38" s="38" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="39" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -18344,32 +18348,32 @@
         <v>1043</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>1206</v>
+        <v>1203</v>
       </c>
       <c r="F39" s="4" t="s">
         <v>1056</v>
       </c>
       <c r="G39" s="38" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="40" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D40" s="23" t="s">
-        <v>1144</v>
+        <v>1141</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>1205</v>
+        <v>1202</v>
       </c>
       <c r="F40" s="4" t="s">
         <v>1053</v>
       </c>
       <c r="G40" s="38" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="41" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D41" s="23" t="s">
-        <v>1145</v>
+        <v>1142</v>
       </c>
       <c r="E41" s="5" t="s">
         <v>1029</v>
@@ -18378,12 +18382,12 @@
         <v>1057</v>
       </c>
       <c r="G41" s="38" t="s">
-        <v>1207</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="42" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D42" s="23" t="s">
-        <v>1146</v>
+        <v>1143</v>
       </c>
       <c r="E42" s="5" t="s">
         <v>1030</v>
@@ -18392,50 +18396,50 @@
         <v>1058</v>
       </c>
       <c r="G42" s="38" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="43" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D43" s="23" t="s">
-        <v>1147</v>
+        <v>1144</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>1208</v>
+        <v>1205</v>
       </c>
       <c r="F43" s="4" t="s">
         <v>1050</v>
       </c>
       <c r="G43" s="38" t="s">
-        <v>1209</v>
+        <v>1206</v>
       </c>
       <c r="N43" s="26"/>
     </row>
     <row r="44" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D44" s="23" t="s">
-        <v>1181</v>
+        <v>1178</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>1214</v>
+        <v>1211</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>1186</v>
+        <v>1183</v>
       </c>
       <c r="G44" s="38" t="s">
-        <v>1218</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="45" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D45" s="23" t="s">
-        <v>1185</v>
+        <v>1182</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>1210</v>
+        <v>1207</v>
       </c>
       <c r="F45" s="4" t="s">
         <v>6</v>
       </c>
       <c r="G45" s="38" t="s">
-        <v>1211</v>
+        <v>1208</v>
       </c>
       <c r="N45" s="26"/>
     </row>
@@ -18444,49 +18448,49 @@
         <v>1044</v>
       </c>
       <c r="D46" s="23" t="s">
-        <v>1183</v>
+        <v>1180</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>1215</v>
+        <v>1212</v>
       </c>
       <c r="F46" s="4" t="s">
         <v>1050</v>
       </c>
       <c r="G46" s="38" t="s">
-        <v>1212</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="47" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D47" s="23" t="s">
-        <v>1192</v>
+        <v>1189</v>
       </c>
       <c r="E47" s="5" t="s">
-        <v>1216</v>
+        <v>1213</v>
       </c>
       <c r="F47" s="4" t="s">
         <v>6</v>
       </c>
       <c r="G47" s="38" t="s">
-        <v>1213</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="48" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D48" s="23" t="s">
-        <v>1193</v>
+        <v>1190</v>
       </c>
       <c r="E48" s="5" t="s">
-        <v>1217</v>
+        <v>1214</v>
       </c>
       <c r="F48" s="4" t="s">
         <v>1050</v>
       </c>
       <c r="G48" s="38" t="s">
-        <v>1219</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="49" spans="4:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D49" s="23" t="s">
-        <v>1194</v>
+        <v>1191</v>
       </c>
       <c r="E49" s="5" t="s">
         <v>1031</v>
@@ -18495,40 +18499,40 @@
         <v>1045</v>
       </c>
       <c r="G49" s="38" t="s">
-        <v>1223</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="50" spans="4:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D50" s="23" t="s">
-        <v>1195</v>
+        <v>1192</v>
       </c>
       <c r="E50" s="5" t="s">
-        <v>1220</v>
+        <v>1217</v>
       </c>
       <c r="F50" s="4" t="s">
         <v>1058</v>
       </c>
       <c r="G50" s="38" t="s">
-        <v>1221</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="51" spans="4:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D51" s="23" t="s">
-        <v>1196</v>
+        <v>1193</v>
       </c>
       <c r="E51" s="5" t="s">
-        <v>1222</v>
+        <v>1219</v>
       </c>
       <c r="F51" s="4" t="s">
         <v>6</v>
       </c>
       <c r="G51" s="38" t="s">
-        <v>1224</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="52" spans="4:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D52" s="23" t="s">
-        <v>1225</v>
+        <v>1222</v>
       </c>
       <c r="E52" s="5" t="s">
         <v>1032</v>
@@ -18537,12 +18541,12 @@
         <v>1053</v>
       </c>
       <c r="G52" s="38" t="s">
-        <v>1226</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="53" spans="4:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D53" s="23" t="s">
-        <v>1197</v>
+        <v>1194</v>
       </c>
       <c r="E53" s="5" t="s">
         <v>1033</v>
@@ -18551,12 +18555,12 @@
         <v>1059</v>
       </c>
       <c r="G53" s="38" t="s">
-        <v>1189</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="54" spans="4:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D54" s="23" t="s">
-        <v>1198</v>
+        <v>1195</v>
       </c>
       <c r="E54" s="5" t="s">
         <v>1034</v>
@@ -18565,63 +18569,63 @@
         <v>1058</v>
       </c>
       <c r="G54" s="38" t="s">
-        <v>1189</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="55" spans="4:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D55" s="23" t="s">
-        <v>1199</v>
+        <v>1196</v>
       </c>
       <c r="E55" s="5" t="s">
-        <v>1227</v>
+        <v>1224</v>
       </c>
       <c r="F55" s="4" t="s">
         <v>4</v>
       </c>
       <c r="G55" s="38" t="s">
-        <v>1190</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="56" spans="4:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D56" s="23" t="s">
-        <v>1200</v>
+        <v>1197</v>
       </c>
       <c r="E56" s="5" t="s">
-        <v>1228</v>
+        <v>1225</v>
       </c>
       <c r="F56" s="4" t="s">
-        <v>1188</v>
+        <v>1185</v>
       </c>
       <c r="G56" s="38" t="s">
-        <v>1229</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="57" spans="4:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D57" s="23" t="s">
-        <v>1201</v>
+        <v>1198</v>
       </c>
       <c r="E57" s="5" t="s">
-        <v>1230</v>
+        <v>1227</v>
       </c>
       <c r="F57" s="4" t="s">
-        <v>1191</v>
+        <v>1188</v>
       </c>
       <c r="G57" s="38" t="s">
-        <v>1231</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="58" spans="4:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D58" s="23" t="s">
-        <v>1202</v>
+        <v>1199</v>
       </c>
       <c r="E58" s="5" t="s">
-        <v>1232</v>
+        <v>1229</v>
       </c>
       <c r="F58" s="4" t="s">
         <v>6</v>
       </c>
       <c r="G58" s="38" t="s">
-        <v>1233</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="92" spans="1:16" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">

--- a/biz/MC-MSC-Web/qxy接口定义文档2016-8-8/【千校云】接口列表.xlsx
+++ b/biz/MC-MSC-Web/qxy接口定义文档2016-8-8/【千校云】接口列表.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\mkq\svn\trunk\biz\MC-MSC-Web\qxy接口定义文档2016-8-8\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
+  <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12585" activeTab="2"/>
   </bookViews>
@@ -34,7 +29,7 @@
     <definedName name="_a12">#REF!</definedName>
     <definedName name="_au１２">[1]目次!$C$39</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'业务接口（2016-8-10）'!$A$1:$AL$183</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'业务接口（2016-9-21)'!$A$1:$AL$213</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'业务接口（2016-9-21)'!$A$1:$AL$214</definedName>
     <definedName name="_ｑ12" localSheetId="1">#REF!</definedName>
     <definedName name="_ｑ12" localSheetId="2">#REF!</definedName>
     <definedName name="_ｑ12">#REF!</definedName>
@@ -132,7 +127,7 @@
     <definedName name="作成日">[6]表紙!$T$27</definedName>
     <definedName name="作成者">[6]表紙!$V$27</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="124519"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -142,7 +137,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2049" uniqueCount="1235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2053" uniqueCount="1237">
   <si>
     <t>DELETE</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -5281,10 +5276,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/qxy/task/search?courseId=[courseId]&amp;taskName=[taskName]&amp;token=[token]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>/qxy/task?token=[token]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -5898,14 +5889,26 @@
   </si>
   <si>
     <t>/qxy/moraleducation/class?sid=[sid]&amp;token=[token]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>作业修改接口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/qxy/task?token=[token]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/qxy/task/search?courseId=[courseId]&amp;taskName=[taskName]&amp;page=[page]&amp;size=[size]&amp;token=[token]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="13" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -6407,7 +6410,145 @@
     <cellStyle name="常规 2" xfId="1"/>
     <cellStyle name="超链接" xfId="2" builtinId="8"/>
   </cellStyles>
-  <dxfs count="356">
+  <dxfs count="371">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -9562,7 +9703,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="ﾋﾞｭｰ定義書 (4)"/>
@@ -9601,7 +9742,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="WBS(1)"/>
@@ -9626,7 +9767,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="初期設定"/>
@@ -9667,7 +9808,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink4.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="WBS(1)"/>
@@ -9712,7 +9853,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink5.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="WBS(1)"/>
@@ -9737,7 +9878,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink6.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="表紙"/>
@@ -9827,7 +9968,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink7.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="初期設定"/>
@@ -9912,7 +10053,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -9947,7 +10088,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -10124,21 +10265,21 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:E42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.25" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="17.25" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="2.875" style="40" customWidth="1"/>
     <col min="2" max="2" width="9" style="41"/>
@@ -10149,22 +10290,22 @@
     <col min="7" max="16384" width="9" style="40"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="2" spans="2:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="2:5" ht="17.25" customHeight="1" thickBot="1"/>
+    <row r="2" spans="2:5" ht="17.25" customHeight="1">
       <c r="B2" s="48" t="s">
+        <v>1136</v>
+      </c>
+      <c r="C2" s="49" t="s">
         <v>1137</v>
       </c>
-      <c r="C2" s="49" t="s">
+      <c r="D2" s="49" t="s">
         <v>1138</v>
       </c>
-      <c r="D2" s="49" t="s">
+      <c r="E2" s="50" t="s">
         <v>1139</v>
       </c>
-      <c r="E2" s="50" t="s">
-        <v>1140</v>
-      </c>
-    </row>
-    <row r="3" spans="2:5" ht="24" x14ac:dyDescent="0.15">
+    </row>
+    <row r="3" spans="2:5" ht="24">
       <c r="B3" s="43">
         <f>ROW()-2</f>
         <v>1</v>
@@ -10173,13 +10314,13 @@
         <v>42635</v>
       </c>
       <c r="D3" s="42" t="s">
+        <v>1199</v>
+      </c>
+      <c r="E3" s="52" t="s">
         <v>1200</v>
       </c>
-      <c r="E3" s="52" t="s">
-        <v>1201</v>
-      </c>
-    </row>
-    <row r="4" spans="2:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="4" spans="2:5" ht="17.25" customHeight="1">
       <c r="B4" s="43">
         <f t="shared" ref="B4:B42" si="0">ROW()-2</f>
         <v>2</v>
@@ -10188,7 +10329,7 @@
       <c r="D4" s="42"/>
       <c r="E4" s="44"/>
     </row>
-    <row r="5" spans="2:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:5" ht="17.25" customHeight="1">
       <c r="B5" s="43">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -10197,7 +10338,7 @@
       <c r="D5" s="42"/>
       <c r="E5" s="44"/>
     </row>
-    <row r="6" spans="2:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:5" ht="17.25" customHeight="1">
       <c r="B6" s="43">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -10206,7 +10347,7 @@
       <c r="D6" s="42"/>
       <c r="E6" s="44"/>
     </row>
-    <row r="7" spans="2:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:5" ht="17.25" customHeight="1">
       <c r="B7" s="43">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -10215,7 +10356,7 @@
       <c r="D7" s="42"/>
       <c r="E7" s="44"/>
     </row>
-    <row r="8" spans="2:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:5" ht="17.25" customHeight="1">
       <c r="B8" s="43">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -10224,7 +10365,7 @@
       <c r="D8" s="42"/>
       <c r="E8" s="44"/>
     </row>
-    <row r="9" spans="2:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:5" ht="17.25" customHeight="1">
       <c r="B9" s="43">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -10233,7 +10374,7 @@
       <c r="D9" s="42"/>
       <c r="E9" s="44"/>
     </row>
-    <row r="10" spans="2:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:5" ht="17.25" customHeight="1">
       <c r="B10" s="43">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -10242,7 +10383,7 @@
       <c r="D10" s="42"/>
       <c r="E10" s="44"/>
     </row>
-    <row r="11" spans="2:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:5" ht="17.25" customHeight="1">
       <c r="B11" s="43">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -10251,7 +10392,7 @@
       <c r="D11" s="42"/>
       <c r="E11" s="44"/>
     </row>
-    <row r="12" spans="2:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="2:5" ht="17.25" customHeight="1">
       <c r="B12" s="43">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -10260,7 +10401,7 @@
       <c r="D12" s="42"/>
       <c r="E12" s="44"/>
     </row>
-    <row r="13" spans="2:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="2:5" ht="17.25" customHeight="1">
       <c r="B13" s="43">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -10269,7 +10410,7 @@
       <c r="D13" s="42"/>
       <c r="E13" s="44"/>
     </row>
-    <row r="14" spans="2:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="2:5" ht="17.25" customHeight="1">
       <c r="B14" s="43">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -10278,7 +10419,7 @@
       <c r="D14" s="42"/>
       <c r="E14" s="44"/>
     </row>
-    <row r="15" spans="2:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="2:5" ht="17.25" customHeight="1">
       <c r="B15" s="43">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -10287,7 +10428,7 @@
       <c r="D15" s="42"/>
       <c r="E15" s="44"/>
     </row>
-    <row r="16" spans="2:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="2:5" ht="17.25" customHeight="1">
       <c r="B16" s="43">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -10296,7 +10437,7 @@
       <c r="D16" s="42"/>
       <c r="E16" s="44"/>
     </row>
-    <row r="17" spans="2:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:5" ht="17.25" customHeight="1">
       <c r="B17" s="43">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -10305,7 +10446,7 @@
       <c r="D17" s="42"/>
       <c r="E17" s="44"/>
     </row>
-    <row r="18" spans="2:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:5" ht="17.25" customHeight="1">
       <c r="B18" s="43">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -10314,7 +10455,7 @@
       <c r="D18" s="42"/>
       <c r="E18" s="44"/>
     </row>
-    <row r="19" spans="2:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:5" ht="17.25" customHeight="1">
       <c r="B19" s="43">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -10323,7 +10464,7 @@
       <c r="D19" s="42"/>
       <c r="E19" s="44"/>
     </row>
-    <row r="20" spans="2:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:5" ht="17.25" customHeight="1">
       <c r="B20" s="43">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -10332,7 +10473,7 @@
       <c r="D20" s="42"/>
       <c r="E20" s="44"/>
     </row>
-    <row r="21" spans="2:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:5" ht="17.25" customHeight="1">
       <c r="B21" s="43">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -10341,7 +10482,7 @@
       <c r="D21" s="42"/>
       <c r="E21" s="44"/>
     </row>
-    <row r="22" spans="2:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:5" ht="17.25" customHeight="1">
       <c r="B22" s="43">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -10350,7 +10491,7 @@
       <c r="D22" s="42"/>
       <c r="E22" s="44"/>
     </row>
-    <row r="23" spans="2:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:5" ht="17.25" customHeight="1">
       <c r="B23" s="43">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -10359,7 +10500,7 @@
       <c r="D23" s="42"/>
       <c r="E23" s="44"/>
     </row>
-    <row r="24" spans="2:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:5" ht="17.25" customHeight="1">
       <c r="B24" s="43">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -10368,7 +10509,7 @@
       <c r="D24" s="42"/>
       <c r="E24" s="44"/>
     </row>
-    <row r="25" spans="2:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:5" ht="17.25" customHeight="1">
       <c r="B25" s="43">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -10377,7 +10518,7 @@
       <c r="D25" s="42"/>
       <c r="E25" s="44"/>
     </row>
-    <row r="26" spans="2:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:5" ht="17.25" customHeight="1">
       <c r="B26" s="43">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -10386,7 +10527,7 @@
       <c r="D26" s="42"/>
       <c r="E26" s="44"/>
     </row>
-    <row r="27" spans="2:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:5" ht="17.25" customHeight="1">
       <c r="B27" s="43">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -10395,7 +10536,7 @@
       <c r="D27" s="42"/>
       <c r="E27" s="44"/>
     </row>
-    <row r="28" spans="2:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:5" ht="17.25" customHeight="1">
       <c r="B28" s="43">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -10404,7 +10545,7 @@
       <c r="D28" s="42"/>
       <c r="E28" s="44"/>
     </row>
-    <row r="29" spans="2:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:5" ht="17.25" customHeight="1">
       <c r="B29" s="43">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -10413,7 +10554,7 @@
       <c r="D29" s="42"/>
       <c r="E29" s="44"/>
     </row>
-    <row r="30" spans="2:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:5" ht="17.25" customHeight="1">
       <c r="B30" s="43">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -10422,7 +10563,7 @@
       <c r="D30" s="42"/>
       <c r="E30" s="44"/>
     </row>
-    <row r="31" spans="2:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:5" ht="17.25" customHeight="1">
       <c r="B31" s="43">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -10431,7 +10572,7 @@
       <c r="D31" s="42"/>
       <c r="E31" s="44"/>
     </row>
-    <row r="32" spans="2:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:5" ht="17.25" customHeight="1">
       <c r="B32" s="43">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -10440,7 +10581,7 @@
       <c r="D32" s="42"/>
       <c r="E32" s="44"/>
     </row>
-    <row r="33" spans="2:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:5" ht="17.25" customHeight="1">
       <c r="B33" s="43">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -10449,7 +10590,7 @@
       <c r="D33" s="42"/>
       <c r="E33" s="44"/>
     </row>
-    <row r="34" spans="2:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:5" ht="17.25" customHeight="1">
       <c r="B34" s="43">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -10458,7 +10599,7 @@
       <c r="D34" s="42"/>
       <c r="E34" s="44"/>
     </row>
-    <row r="35" spans="2:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:5" ht="17.25" customHeight="1">
       <c r="B35" s="43">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -10467,7 +10608,7 @@
       <c r="D35" s="42"/>
       <c r="E35" s="44"/>
     </row>
-    <row r="36" spans="2:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:5" ht="17.25" customHeight="1">
       <c r="B36" s="43">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -10476,7 +10617,7 @@
       <c r="D36" s="42"/>
       <c r="E36" s="44"/>
     </row>
-    <row r="37" spans="2:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="2:5" ht="17.25" customHeight="1">
       <c r="B37" s="43">
         <f t="shared" si="0"/>
         <v>35</v>
@@ -10485,7 +10626,7 @@
       <c r="D37" s="42"/>
       <c r="E37" s="44"/>
     </row>
-    <row r="38" spans="2:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="2:5" ht="17.25" customHeight="1">
       <c r="B38" s="43">
         <f t="shared" si="0"/>
         <v>36</v>
@@ -10494,7 +10635,7 @@
       <c r="D38" s="42"/>
       <c r="E38" s="44"/>
     </row>
-    <row r="39" spans="2:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="2:5" ht="17.25" customHeight="1">
       <c r="B39" s="43">
         <f t="shared" si="0"/>
         <v>37</v>
@@ -10503,7 +10644,7 @@
       <c r="D39" s="42"/>
       <c r="E39" s="44"/>
     </row>
-    <row r="40" spans="2:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="2:5" ht="17.25" customHeight="1">
       <c r="B40" s="43">
         <f t="shared" si="0"/>
         <v>38</v>
@@ -10512,7 +10653,7 @@
       <c r="D40" s="42"/>
       <c r="E40" s="44"/>
     </row>
-    <row r="41" spans="2:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="2:5" ht="17.25" customHeight="1">
       <c r="B41" s="43">
         <f t="shared" si="0"/>
         <v>39</v>
@@ -10521,7 +10662,7 @@
       <c r="D41" s="42"/>
       <c r="E41" s="44"/>
     </row>
-    <row r="42" spans="2:5" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:5" ht="17.25" customHeight="1" thickBot="1">
       <c r="B42" s="45">
         <f t="shared" si="0"/>
         <v>40</v>
@@ -10537,17 +10678,17 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AL211"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="H74" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="H56" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G129" sqref="G129"/>
+      <selection pane="bottomRight" activeCell="E103" sqref="E103"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="6.25" style="6" customWidth="1"/>
     <col min="2" max="2" width="7.375" style="5" customWidth="1"/>
@@ -10568,7 +10709,7 @@
     <col min="17" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:38" ht="15" customHeight="1">
       <c r="A1" s="6" t="s">
         <v>248</v>
       </c>
@@ -10618,7 +10759,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="2" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:38" ht="15" customHeight="1">
       <c r="A2" s="6">
         <v>1</v>
       </c>
@@ -10650,7 +10791,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="3" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:38" ht="15" customHeight="1">
       <c r="D3" s="23" t="s">
         <v>417</v>
       </c>
@@ -10682,7 +10823,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="4" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:38" ht="15" customHeight="1">
       <c r="D4" s="23" t="s">
         <v>418</v>
       </c>
@@ -10702,7 +10843,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="5" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:38" ht="15" customHeight="1">
       <c r="D5" s="23" t="s">
         <v>419</v>
       </c>
@@ -10737,15 +10878,15 @@
         <v>258</v>
       </c>
     </row>
-    <row r="6" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:38" ht="15" customHeight="1">
       <c r="C6" s="5" t="s">
         <v>231</v>
       </c>
       <c r="D6" s="23" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>146</v>
@@ -10778,7 +10919,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="7" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:38" ht="15" customHeight="1">
       <c r="D7" s="23" t="s">
         <v>420</v>
       </c>
@@ -10810,7 +10951,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="8" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:38" ht="15" customHeight="1">
       <c r="D8" s="23" t="s">
         <v>421</v>
       </c>
@@ -10842,7 +10983,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="9" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:38" ht="15" customHeight="1">
       <c r="D9" s="23" t="s">
         <v>422</v>
       </c>
@@ -10871,7 +11012,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="10" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:38" ht="15" customHeight="1">
       <c r="D10" s="23" t="s">
         <v>423</v>
       </c>
@@ -10894,7 +11035,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="11" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:38" ht="15" customHeight="1">
       <c r="D11" s="23" t="s">
         <v>424</v>
       </c>
@@ -10929,7 +11070,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="12" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:38" ht="15" customHeight="1">
       <c r="D12" s="23" t="s">
         <v>425</v>
       </c>
@@ -10964,7 +11105,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="13" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:38" ht="15" customHeight="1">
       <c r="A13" s="6">
         <v>2</v>
       </c>
@@ -11005,7 +11146,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="14" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:38" ht="15" customHeight="1">
       <c r="D14" s="23" t="s">
         <v>427</v>
       </c>
@@ -11037,7 +11178,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="15" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:38" ht="15" customHeight="1">
       <c r="D15" s="23" t="s">
         <v>998</v>
       </c>
@@ -11060,7 +11201,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="16" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:38" ht="15" customHeight="1">
       <c r="D16" s="23" t="s">
         <v>794</v>
       </c>
@@ -11092,7 +11233,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="17" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:16" ht="15" customHeight="1">
       <c r="D17" s="23" t="s">
         <v>795</v>
       </c>
@@ -11124,7 +11265,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="18" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:16" ht="15" customHeight="1">
       <c r="D18" s="23" t="s">
         <v>796</v>
       </c>
@@ -11156,7 +11297,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="19" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:16" ht="15" customHeight="1">
       <c r="D19" s="23" t="s">
         <v>797</v>
       </c>
@@ -11188,7 +11329,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="20" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:16" ht="15" customHeight="1">
       <c r="D20" s="23" t="s">
         <v>428</v>
       </c>
@@ -11211,9 +11352,9 @@
         <v>270</v>
       </c>
     </row>
-    <row r="21" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:16" ht="15" customHeight="1">
       <c r="D21" s="23" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="E21" s="5" t="s">
         <v>1008</v>
@@ -11228,7 +11369,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="22" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:16" ht="33" customHeight="1">
       <c r="C22" s="17" t="s">
         <v>218</v>
       </c>
@@ -11257,7 +11398,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="23" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:16" ht="15" customHeight="1">
       <c r="D23" s="23" t="s">
         <v>430</v>
       </c>
@@ -11286,7 +11427,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="24" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:16" ht="15" customHeight="1">
       <c r="D24" s="23" t="s">
         <v>431</v>
       </c>
@@ -11312,7 +11453,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="25" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:16" ht="15" customHeight="1">
       <c r="D25" s="23" t="s">
         <v>432</v>
       </c>
@@ -11344,7 +11485,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="26" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:16" ht="15" customHeight="1">
       <c r="A26" s="6">
         <v>3</v>
       </c>
@@ -11385,7 +11526,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="27" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:16" ht="15" customHeight="1">
       <c r="D27" s="23" t="s">
         <v>434</v>
       </c>
@@ -11420,7 +11561,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="28" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:16" ht="15" customHeight="1">
       <c r="D28" s="23" t="s">
         <v>435</v>
       </c>
@@ -11455,7 +11596,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="29" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:16" ht="15" customHeight="1">
       <c r="D29" s="23" t="s">
         <v>436</v>
       </c>
@@ -11484,7 +11625,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="30" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:16" ht="15" customHeight="1">
       <c r="D30" s="23" t="s">
         <v>437</v>
       </c>
@@ -11513,7 +11654,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="31" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:16" ht="15" customHeight="1">
       <c r="D31" s="23" t="s">
         <v>438</v>
       </c>
@@ -11542,7 +11683,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="32" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:16" ht="15" customHeight="1">
       <c r="D32" s="23" t="s">
         <v>439</v>
       </c>
@@ -11568,7 +11709,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="33" spans="3:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="3:16" ht="15" customHeight="1">
       <c r="D33" s="23" t="s">
         <v>440</v>
       </c>
@@ -11597,7 +11738,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="34" spans="3:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="3:16" ht="15" customHeight="1">
       <c r="D34" s="23" t="s">
         <v>441</v>
       </c>
@@ -11626,7 +11767,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="35" spans="3:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="3:16" ht="15" customHeight="1">
       <c r="D35" s="23" t="s">
         <v>442</v>
       </c>
@@ -11646,7 +11787,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="36" spans="3:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="3:16" ht="15" customHeight="1">
       <c r="D36" s="23" t="s">
         <v>443</v>
       </c>
@@ -11666,7 +11807,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="37" spans="3:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="3:16" ht="15" customHeight="1">
       <c r="C37" s="17" t="s">
         <v>201</v>
       </c>
@@ -11695,7 +11836,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="38" spans="3:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="3:16" ht="15" customHeight="1">
       <c r="D38" s="23" t="s">
         <v>445</v>
       </c>
@@ -11724,7 +11865,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="39" spans="3:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="3:16" ht="15" customHeight="1">
       <c r="D39" s="23" t="s">
         <v>446</v>
       </c>
@@ -11753,7 +11894,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="40" spans="3:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="3:16" ht="15" customHeight="1">
       <c r="C40" s="17" t="s">
         <v>197</v>
       </c>
@@ -11779,7 +11920,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="41" spans="3:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="3:16" ht="15" customHeight="1">
       <c r="D41" s="23" t="s">
         <v>447</v>
       </c>
@@ -11805,7 +11946,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="42" spans="3:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="3:16" ht="15" customHeight="1">
       <c r="D42" s="23" t="s">
         <v>416</v>
       </c>
@@ -11837,7 +11978,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="43" spans="3:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="3:16" ht="15" customHeight="1">
       <c r="C43" s="5" t="s">
         <v>192</v>
       </c>
@@ -11866,7 +12007,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="44" spans="3:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="3:16" ht="15" customHeight="1">
       <c r="D44" s="23" t="s">
         <v>994</v>
       </c>
@@ -11892,7 +12033,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="45" spans="3:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="3:16" ht="15" customHeight="1">
       <c r="D45" s="23" t="s">
         <v>450</v>
       </c>
@@ -11924,7 +12065,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="46" spans="3:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="3:16" ht="15" customHeight="1">
       <c r="D46" s="23" t="s">
         <v>451</v>
       </c>
@@ -11947,7 +12088,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="47" spans="3:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="3:16" ht="15" customHeight="1">
       <c r="D47" s="23" t="s">
         <v>452</v>
       </c>
@@ -11979,7 +12120,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="48" spans="3:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="48" spans="3:16" ht="15" customHeight="1">
       <c r="D48" s="23" t="s">
         <v>453</v>
       </c>
@@ -12011,7 +12152,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="49" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:16" ht="15" customHeight="1">
       <c r="C49" s="17" t="s">
         <v>186</v>
       </c>
@@ -12040,7 +12181,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="50" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:16" ht="15" customHeight="1">
       <c r="D50" s="23" t="s">
         <v>455</v>
       </c>
@@ -12063,7 +12204,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="51" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:16" ht="15" customHeight="1">
       <c r="D51" s="23" t="s">
         <v>456</v>
       </c>
@@ -12089,7 +12230,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="52" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:16" ht="15" customHeight="1">
       <c r="D52" s="23" t="s">
         <v>457</v>
       </c>
@@ -12118,7 +12259,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="53" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:16" ht="15" customHeight="1">
       <c r="C53" s="17" t="s">
         <v>180</v>
       </c>
@@ -12159,7 +12300,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="54" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:16" ht="15" customHeight="1">
       <c r="D54" s="23" t="s">
         <v>459</v>
       </c>
@@ -12185,7 +12326,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="55" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:16" ht="15" customHeight="1">
       <c r="D55" s="23" t="s">
         <v>460</v>
       </c>
@@ -12214,7 +12355,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="56" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:16" ht="15" customHeight="1">
       <c r="D56" s="23" t="s">
         <v>461</v>
       </c>
@@ -12243,7 +12384,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="57" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:16" ht="15" customHeight="1">
       <c r="D57" s="23" t="s">
         <v>462</v>
       </c>
@@ -12263,7 +12404,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="58" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:16" ht="15" customHeight="1">
       <c r="D58" s="23" t="s">
         <v>463</v>
       </c>
@@ -12283,7 +12424,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="59" spans="1:16" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:16" s="5" customFormat="1" ht="15" customHeight="1">
       <c r="A59" s="6">
         <v>4</v>
       </c>
@@ -12319,10 +12460,10 @@
       <c r="O59" s="34"/>
       <c r="P59" s="2"/>
     </row>
-    <row r="60" spans="1:16" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:16" s="5" customFormat="1" ht="15" customHeight="1">
       <c r="A60" s="6"/>
       <c r="D60" s="23" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="E60" s="18" t="s">
         <v>173</v>
@@ -12331,7 +12472,7 @@
         <v>146</v>
       </c>
       <c r="G60" s="3" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="H60" s="24" t="s">
         <v>251</v>
@@ -12359,10 +12500,10 @@
         <v>148</v>
       </c>
     </row>
-    <row r="61" spans="1:16" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:16" s="5" customFormat="1" ht="15" customHeight="1">
       <c r="A61" s="6"/>
       <c r="D61" s="23" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="E61" s="18" t="s">
         <v>407</v>
@@ -12399,7 +12540,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="62" spans="1:16" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:16" s="5" customFormat="1" ht="15" customHeight="1">
       <c r="A62" s="6"/>
       <c r="D62" s="23" t="s">
         <v>465</v>
@@ -12427,7 +12568,7 @@
       <c r="O62" s="34"/>
       <c r="P62" s="2"/>
     </row>
-    <row r="63" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1">
       <c r="A63" s="6"/>
       <c r="B63" s="5"/>
       <c r="C63" s="5" t="s">
@@ -12469,7 +12610,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="64" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1">
       <c r="A64" s="6"/>
       <c r="B64" s="5"/>
       <c r="C64" s="5"/>
@@ -12499,7 +12640,7 @@
       <c r="O64" s="34"/>
       <c r="P64" s="2"/>
     </row>
-    <row r="65" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1">
       <c r="A65" s="6"/>
       <c r="B65" s="5"/>
       <c r="C65" s="5"/>
@@ -12535,7 +12676,7 @@
       <c r="O65" s="34"/>
       <c r="P65" s="2"/>
     </row>
-    <row r="66" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1">
       <c r="A66" s="6"/>
       <c r="B66" s="5"/>
       <c r="C66" s="5"/>
@@ -12577,7 +12718,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="67" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1">
       <c r="A67" s="6"/>
       <c r="B67" s="5"/>
       <c r="C67" s="5"/>
@@ -12619,7 +12760,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="68" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1">
       <c r="A68" s="6"/>
       <c r="B68" s="5"/>
       <c r="C68" s="5"/>
@@ -12659,7 +12800,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="69" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1">
       <c r="A69" s="6"/>
       <c r="B69" s="5"/>
       <c r="C69" s="5"/>
@@ -12689,7 +12830,7 @@
       <c r="O69" s="34"/>
       <c r="P69" s="2"/>
     </row>
-    <row r="70" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1">
       <c r="A70" s="6"/>
       <c r="B70" s="5"/>
       <c r="C70" s="5"/>
@@ -12719,7 +12860,7 @@
       <c r="O70" s="34"/>
       <c r="P70" s="2"/>
     </row>
-    <row r="71" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1">
       <c r="A71" s="6"/>
       <c r="B71" s="5"/>
       <c r="C71" s="5" t="s">
@@ -12761,7 +12902,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="72" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1">
       <c r="A72" s="6"/>
       <c r="B72" s="5"/>
       <c r="C72" s="5"/>
@@ -12797,7 +12938,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="73" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1">
       <c r="A73" s="6"/>
       <c r="B73" s="5"/>
       <c r="C73" s="5"/>
@@ -12835,7 +12976,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="74" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1">
       <c r="A74" s="6"/>
       <c r="B74" s="5"/>
       <c r="C74" s="5"/>
@@ -12875,7 +13016,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="75" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1">
       <c r="A75" s="6"/>
       <c r="B75" s="5"/>
       <c r="C75" s="5"/>
@@ -12911,7 +13052,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="76" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1">
       <c r="A76" s="6"/>
       <c r="B76" s="5"/>
       <c r="C76" s="5"/>
@@ -12951,7 +13092,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="77" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1">
       <c r="A77" s="6"/>
       <c r="B77" s="5"/>
       <c r="C77" s="5"/>
@@ -12991,7 +13132,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="78" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1">
       <c r="A78" s="6"/>
       <c r="B78" s="5"/>
       <c r="C78" s="5"/>
@@ -13033,7 +13174,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="79" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1">
       <c r="A79" s="6"/>
       <c r="B79" s="5"/>
       <c r="C79" s="5"/>
@@ -13075,7 +13216,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="80" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1">
       <c r="A80" s="6"/>
       <c r="B80" s="5"/>
       <c r="C80" s="5"/>
@@ -13115,7 +13256,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="81" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1">
       <c r="A81" s="6"/>
       <c r="B81" s="5"/>
       <c r="C81" s="5" t="s">
@@ -13147,7 +13288,7 @@
       <c r="O81" s="34"/>
       <c r="P81" s="2"/>
     </row>
-    <row r="82" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1">
       <c r="A82" s="6"/>
       <c r="B82" s="5"/>
       <c r="C82" s="5"/>
@@ -13189,7 +13330,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="83" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1">
       <c r="A83" s="6"/>
       <c r="B83" s="5"/>
       <c r="C83" s="5"/>
@@ -13231,7 +13372,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="84" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1">
       <c r="A84" s="6"/>
       <c r="B84" s="5"/>
       <c r="C84" s="5"/>
@@ -13261,7 +13402,7 @@
       <c r="O84" s="34"/>
       <c r="P84" s="2"/>
     </row>
-    <row r="85" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1">
       <c r="A85" s="6"/>
       <c r="B85" s="5"/>
       <c r="C85" s="5"/>
@@ -13291,7 +13432,7 @@
       <c r="O85" s="34"/>
       <c r="P85" s="2"/>
     </row>
-    <row r="86" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1">
       <c r="A86" s="6"/>
       <c r="B86" s="5"/>
       <c r="C86" s="5"/>
@@ -13323,7 +13464,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="87" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1">
       <c r="A87" s="6"/>
       <c r="B87" s="5"/>
       <c r="C87" s="5"/>
@@ -13353,7 +13494,7 @@
       <c r="O87" s="34"/>
       <c r="P87" s="2"/>
     </row>
-    <row r="88" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1">
       <c r="A88" s="6"/>
       <c r="B88" s="5"/>
       <c r="C88" s="5"/>
@@ -13391,7 +13532,7 @@
       <c r="O88" s="34"/>
       <c r="P88" s="2"/>
     </row>
-    <row r="89" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1">
       <c r="A89" s="6">
         <v>5</v>
       </c>
@@ -13427,7 +13568,7 @@
       <c r="O89" s="34"/>
       <c r="P89" s="2"/>
     </row>
-    <row r="90" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1">
       <c r="A90" s="6"/>
       <c r="B90" s="5"/>
       <c r="C90" s="5"/>
@@ -13469,7 +13610,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="91" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1">
       <c r="A91" s="6"/>
       <c r="B91" s="5"/>
       <c r="C91" s="5"/>
@@ -13499,7 +13640,7 @@
       <c r="O91" s="34"/>
       <c r="P91" s="2"/>
     </row>
-    <row r="92" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1">
       <c r="A92" s="6"/>
       <c r="B92" s="5"/>
       <c r="C92" s="5" t="s">
@@ -13531,7 +13672,7 @@
       <c r="O92" s="34"/>
       <c r="P92" s="2"/>
     </row>
-    <row r="93" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1">
       <c r="A93" s="6"/>
       <c r="B93" s="5"/>
       <c r="C93" s="5"/>
@@ -13561,7 +13702,7 @@
       <c r="O93" s="34"/>
       <c r="P93" s="2"/>
     </row>
-    <row r="94" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1">
       <c r="A94" s="6"/>
       <c r="B94" s="5"/>
       <c r="C94" s="5"/>
@@ -13591,7 +13732,7 @@
       <c r="O94" s="34"/>
       <c r="P94" s="2"/>
     </row>
-    <row r="95" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1">
       <c r="A95" s="6"/>
       <c r="B95" s="5"/>
       <c r="C95" s="5"/>
@@ -13621,7 +13762,7 @@
       <c r="O95" s="34"/>
       <c r="P95" s="2"/>
     </row>
-    <row r="96" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1">
       <c r="A96" s="6"/>
       <c r="B96" s="5"/>
       <c r="C96" s="5" t="s">
@@ -13665,7 +13806,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="97" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1">
       <c r="A97" s="6"/>
       <c r="B97" s="5"/>
       <c r="C97" s="5"/>
@@ -13707,7 +13848,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="98" spans="1:16" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:16" s="5" customFormat="1" ht="15" customHeight="1">
       <c r="A98" s="6"/>
       <c r="D98" s="23" t="s">
         <v>501</v>
@@ -13747,7 +13888,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="99" spans="1:16" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:16" s="5" customFormat="1" ht="15" customHeight="1">
       <c r="A99" s="6"/>
       <c r="C99" s="5" t="s">
         <v>108</v>
@@ -13778,7 +13919,7 @@
       <c r="O99" s="34"/>
       <c r="P99" s="2"/>
     </row>
-    <row r="100" spans="1:16" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:16" s="5" customFormat="1" ht="15" customHeight="1">
       <c r="A100" s="6"/>
       <c r="D100" s="23" t="s">
         <v>503</v>
@@ -13806,7 +13947,7 @@
       <c r="O100" s="34"/>
       <c r="P100" s="2"/>
     </row>
-    <row r="101" spans="1:16" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:16" s="5" customFormat="1" ht="15" customHeight="1">
       <c r="A101" s="6">
         <v>6</v>
       </c>
@@ -13848,7 +13989,7 @@
       <c r="O101" s="34"/>
       <c r="P101" s="2"/>
     </row>
-    <row r="102" spans="1:16" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:16" s="5" customFormat="1" ht="15" customHeight="1">
       <c r="A102" s="6"/>
       <c r="D102" s="37" t="s">
         <v>505</v>
@@ -13882,7 +14023,7 @@
       <c r="O102" s="34"/>
       <c r="P102" s="2"/>
     </row>
-    <row r="103" spans="1:16" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:16" s="5" customFormat="1" ht="15" customHeight="1">
       <c r="A103" s="6"/>
       <c r="D103" s="23" t="s">
         <v>506</v>
@@ -13916,7 +14057,7 @@
       <c r="O103" s="34"/>
       <c r="P103" s="2"/>
     </row>
-    <row r="104" spans="1:16" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:16" s="5" customFormat="1" ht="15" customHeight="1">
       <c r="A104" s="6"/>
       <c r="D104" s="23" t="s">
         <v>507</v>
@@ -13950,7 +14091,7 @@
       <c r="O104" s="34"/>
       <c r="P104" s="2"/>
     </row>
-    <row r="105" spans="1:16" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:16" s="5" customFormat="1" ht="15" customHeight="1">
       <c r="A105" s="6"/>
       <c r="D105" s="23" t="s">
         <v>508</v>
@@ -13982,13 +14123,13 @@
       <c r="O105" s="34"/>
       <c r="P105" s="2"/>
     </row>
-    <row r="106" spans="1:16" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:16" s="5" customFormat="1" ht="15" customHeight="1">
       <c r="A106" s="6"/>
       <c r="C106" s="5" t="s">
         <v>97</v>
       </c>
       <c r="D106" s="23" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="E106" s="5" t="s">
         <v>96</v>
@@ -14019,7 +14160,7 @@
       <c r="O106" s="34"/>
       <c r="P106" s="2"/>
     </row>
-    <row r="107" spans="1:16" s="5" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:16" s="5" customFormat="1" ht="46.5" customHeight="1">
       <c r="A107" s="6"/>
       <c r="D107" s="23" t="s">
         <v>509</v>
@@ -14053,7 +14194,7 @@
       <c r="O107" s="34"/>
       <c r="P107" s="2"/>
     </row>
-    <row r="108" spans="1:16" s="5" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:16" s="5" customFormat="1" ht="45" customHeight="1">
       <c r="A108" s="6"/>
       <c r="D108" s="23" t="s">
         <v>510</v>
@@ -14089,7 +14230,7 @@
       <c r="O108" s="34"/>
       <c r="P108" s="2"/>
     </row>
-    <row r="109" spans="1:16" s="5" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:16" s="5" customFormat="1" ht="35.25" customHeight="1">
       <c r="A109" s="6"/>
       <c r="D109" s="23" t="s">
         <v>511</v>
@@ -14121,7 +14262,7 @@
       <c r="O109" s="34"/>
       <c r="P109" s="2"/>
     </row>
-    <row r="110" spans="1:16" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:16" s="5" customFormat="1" ht="15" customHeight="1">
       <c r="A110" s="6">
         <v>7</v>
       </c>
@@ -14161,7 +14302,7 @@
       <c r="O110" s="34"/>
       <c r="P110" s="2"/>
     </row>
-    <row r="111" spans="1:16" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:16" s="5" customFormat="1" ht="15" customHeight="1">
       <c r="A111" s="6"/>
       <c r="D111" s="23" t="s">
         <v>513</v>
@@ -14197,7 +14338,7 @@
       <c r="O111" s="34"/>
       <c r="P111" s="2"/>
     </row>
-    <row r="112" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1">
       <c r="A112" s="6"/>
       <c r="B112" s="5"/>
       <c r="C112" s="5"/>
@@ -14235,7 +14376,7 @@
       <c r="O112" s="34"/>
       <c r="P112" s="2"/>
     </row>
-    <row r="113" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1">
       <c r="A113" s="6"/>
       <c r="B113" s="5"/>
       <c r="C113" s="5"/>
@@ -14269,7 +14410,7 @@
       <c r="O113" s="34"/>
       <c r="P113" s="2"/>
     </row>
-    <row r="114" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1">
       <c r="A114" s="6"/>
       <c r="B114" s="5"/>
       <c r="C114" s="5"/>
@@ -14303,7 +14444,7 @@
       <c r="O114" s="34"/>
       <c r="P114" s="2"/>
     </row>
-    <row r="115" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1">
       <c r="A115" s="6"/>
       <c r="B115" s="5"/>
       <c r="C115" s="5" t="s">
@@ -14339,7 +14480,7 @@
       <c r="O115" s="34"/>
       <c r="P115" s="2"/>
     </row>
-    <row r="116" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1">
       <c r="A116" s="6"/>
       <c r="B116" s="5"/>
       <c r="C116" s="5"/>
@@ -14375,7 +14516,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="117" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1">
       <c r="A117" s="6"/>
       <c r="B117" s="5"/>
       <c r="C117" s="5"/>
@@ -14413,7 +14554,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="118" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1">
       <c r="A118" s="6"/>
       <c r="B118" s="5"/>
       <c r="C118" s="5"/>
@@ -14445,7 +14586,7 @@
       <c r="O118" s="34"/>
       <c r="P118" s="2"/>
     </row>
-    <row r="119" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1">
       <c r="A119" s="6"/>
       <c r="B119" s="5"/>
       <c r="C119" s="17" t="s">
@@ -14479,7 +14620,7 @@
       <c r="O119" s="34"/>
       <c r="P119" s="2"/>
     </row>
-    <row r="120" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1">
       <c r="A120" s="6"/>
       <c r="B120" s="5"/>
       <c r="C120" s="5"/>
@@ -14513,7 +14654,7 @@
       <c r="O120" s="34"/>
       <c r="P120" s="2"/>
     </row>
-    <row r="121" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1">
       <c r="A121" s="6"/>
       <c r="B121" s="5"/>
       <c r="C121" s="5"/>
@@ -14545,7 +14686,7 @@
       <c r="O121" s="34"/>
       <c r="P121" s="2"/>
     </row>
-    <row r="122" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1">
       <c r="A122" s="6">
         <v>8</v>
       </c>
@@ -14581,7 +14722,7 @@
       <c r="O122" s="34"/>
       <c r="P122" s="2"/>
     </row>
-    <row r="123" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1">
       <c r="A123" s="6"/>
       <c r="B123" s="5"/>
       <c r="C123" s="5"/>
@@ -14621,7 +14762,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="124" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1">
       <c r="A124" s="6"/>
       <c r="B124" s="5"/>
       <c r="C124" s="37"/>
@@ -14663,7 +14804,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="125" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1">
       <c r="A125" s="6"/>
       <c r="B125" s="5"/>
       <c r="C125" s="5" t="s">
@@ -14679,7 +14820,7 @@
         <v>6</v>
       </c>
       <c r="G125" s="3" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="H125" s="24" t="s">
         <v>251</v>
@@ -14695,7 +14836,7 @@
       <c r="O125" s="34"/>
       <c r="P125" s="2"/>
     </row>
-    <row r="126" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1">
       <c r="A126" s="6"/>
       <c r="B126" s="5"/>
       <c r="C126" s="5"/>
@@ -14731,7 +14872,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="127" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1">
       <c r="A127" s="6"/>
       <c r="B127" s="5"/>
       <c r="C127" s="5"/>
@@ -14771,7 +14912,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="128" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1">
       <c r="A128" s="6"/>
       <c r="B128" s="5"/>
       <c r="C128" s="5"/>
@@ -14805,7 +14946,7 @@
       <c r="O128" s="34"/>
       <c r="P128" s="2"/>
     </row>
-    <row r="129" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1">
       <c r="A129" s="6"/>
       <c r="B129" s="5"/>
       <c r="C129" s="5"/>
@@ -14839,7 +14980,7 @@
       <c r="O129" s="34"/>
       <c r="P129" s="2"/>
     </row>
-    <row r="130" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1">
       <c r="A130" s="6"/>
       <c r="B130" s="5"/>
       <c r="C130" s="5"/>
@@ -14875,7 +15016,7 @@
       <c r="O130" s="34"/>
       <c r="P130" s="2"/>
     </row>
-    <row r="131" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1">
       <c r="A131" s="6"/>
       <c r="B131" s="5"/>
       <c r="C131" s="5"/>
@@ -14911,7 +15052,7 @@
       <c r="O131" s="34"/>
       <c r="P131" s="2"/>
     </row>
-    <row r="132" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1">
       <c r="A132" s="6"/>
       <c r="B132" s="5"/>
       <c r="C132" s="5"/>
@@ -14947,7 +15088,7 @@
       <c r="O132" s="34"/>
       <c r="P132" s="2"/>
     </row>
-    <row r="133" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1">
       <c r="A133" s="6"/>
       <c r="B133" s="5"/>
       <c r="C133" s="17" t="s">
@@ -14979,7 +15120,7 @@
       <c r="O133" s="34"/>
       <c r="P133" s="2"/>
     </row>
-    <row r="134" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1">
       <c r="A134" s="6"/>
       <c r="B134" s="5"/>
       <c r="C134" s="5"/>
@@ -15021,7 +15162,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="135" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1">
       <c r="A135" s="6"/>
       <c r="B135" s="5"/>
       <c r="C135" s="5"/>
@@ -15063,7 +15204,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="136" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1">
       <c r="A136" s="6"/>
       <c r="B136" s="5"/>
       <c r="C136" s="5"/>
@@ -15097,7 +15238,7 @@
       <c r="O136" s="34"/>
       <c r="P136" s="2"/>
     </row>
-    <row r="137" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="137" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1">
       <c r="A137" s="6"/>
       <c r="B137" s="5"/>
       <c r="C137" s="5"/>
@@ -15129,7 +15270,7 @@
       <c r="O137" s="34"/>
       <c r="P137" s="2"/>
     </row>
-    <row r="138" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1">
       <c r="A138" s="6"/>
       <c r="B138" s="5"/>
       <c r="C138" s="5"/>
@@ -15161,7 +15302,7 @@
       <c r="O138" s="34"/>
       <c r="P138" s="2"/>
     </row>
-    <row r="139" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="139" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1">
       <c r="A139" s="6"/>
       <c r="B139" s="5"/>
       <c r="C139" s="5"/>
@@ -15195,7 +15336,7 @@
       <c r="O139" s="34"/>
       <c r="P139" s="2"/>
     </row>
-    <row r="140" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1">
       <c r="A140" s="6"/>
       <c r="B140" s="5"/>
       <c r="C140" s="5"/>
@@ -15231,7 +15372,7 @@
       <c r="O140" s="34"/>
       <c r="P140" s="2"/>
     </row>
-    <row r="141" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1">
       <c r="A141" s="6">
         <v>9</v>
       </c>
@@ -15269,14 +15410,14 @@
       <c r="O141" s="34"/>
       <c r="P141" s="2"/>
     </row>
-    <row r="142" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="142" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1">
       <c r="A142" s="6"/>
       <c r="B142" s="5"/>
       <c r="C142" s="17" t="s">
         <v>50</v>
       </c>
       <c r="D142" s="23" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="E142" s="5" t="s">
         <v>49</v>
@@ -15307,7 +15448,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="143" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="143" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1">
       <c r="A143" s="6"/>
       <c r="B143" s="5"/>
       <c r="C143" s="5"/>
@@ -15341,7 +15482,7 @@
       <c r="O143" s="34"/>
       <c r="P143" s="2"/>
     </row>
-    <row r="144" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="144" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1">
       <c r="A144" s="6"/>
       <c r="B144" s="5"/>
       <c r="C144" s="5"/>
@@ -15379,7 +15520,7 @@
       <c r="O144" s="34"/>
       <c r="P144" s="2"/>
     </row>
-    <row r="145" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="145" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1">
       <c r="A145" s="6"/>
       <c r="B145" s="5"/>
       <c r="C145" s="5"/>
@@ -15413,14 +15554,14 @@
       <c r="O145" s="34"/>
       <c r="P145" s="2"/>
     </row>
-    <row r="146" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="146" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1">
       <c r="A146" s="6"/>
       <c r="B146" s="5"/>
       <c r="C146" s="5" t="s">
         <v>44</v>
       </c>
       <c r="D146" s="23" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="E146" s="5" t="s">
         <v>692</v>
@@ -15447,7 +15588,7 @@
       <c r="O146" s="34"/>
       <c r="P146" s="2"/>
     </row>
-    <row r="147" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="147" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1">
       <c r="A147" s="6"/>
       <c r="B147" s="5"/>
       <c r="C147" s="5"/>
@@ -15489,7 +15630,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="148" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="148" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1">
       <c r="A148" s="6"/>
       <c r="B148" s="5"/>
       <c r="C148" s="5"/>
@@ -15531,7 +15672,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="149" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="149" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1">
       <c r="A149" s="6"/>
       <c r="B149" s="5"/>
       <c r="C149" s="5"/>
@@ -15565,7 +15706,7 @@
       <c r="O149" s="34"/>
       <c r="P149" s="2"/>
     </row>
-    <row r="150" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="150" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1">
       <c r="A150" s="6"/>
       <c r="B150" s="5"/>
       <c r="C150" s="5"/>
@@ -15599,7 +15740,7 @@
       <c r="O150" s="34"/>
       <c r="P150" s="2"/>
     </row>
-    <row r="151" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="151" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1">
       <c r="A151" s="6"/>
       <c r="B151" s="5"/>
       <c r="C151" s="5"/>
@@ -15633,7 +15774,7 @@
       <c r="O151" s="34"/>
       <c r="P151" s="2"/>
     </row>
-    <row r="152" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="152" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1">
       <c r="A152" s="6"/>
       <c r="B152" s="5"/>
       <c r="C152" s="5"/>
@@ -15673,7 +15814,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="153" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="153" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1">
       <c r="A153" s="6"/>
       <c r="B153" s="5"/>
       <c r="C153" s="5" t="s">
@@ -15717,7 +15858,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="154" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="154" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1">
       <c r="A154" s="6"/>
       <c r="B154" s="5"/>
       <c r="C154" s="5"/>
@@ -15757,7 +15898,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="155" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="155" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1">
       <c r="A155" s="6"/>
       <c r="B155" s="5"/>
       <c r="C155" s="5"/>
@@ -15791,7 +15932,7 @@
       <c r="O155" s="34"/>
       <c r="P155" s="2"/>
     </row>
-    <row r="156" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="156" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1">
       <c r="A156" s="6"/>
       <c r="B156" s="5"/>
       <c r="C156" s="5"/>
@@ -15825,7 +15966,7 @@
       <c r="O156" s="34"/>
       <c r="P156" s="2"/>
     </row>
-    <row r="157" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="157" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1">
       <c r="A157" s="6"/>
       <c r="B157" s="5"/>
       <c r="C157" s="5"/>
@@ -15861,7 +16002,7 @@
       <c r="O157" s="34"/>
       <c r="P157" s="2"/>
     </row>
-    <row r="158" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="158" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1">
       <c r="A158" s="6"/>
       <c r="B158" s="5"/>
       <c r="C158" s="5"/>
@@ -15897,7 +16038,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="159" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="159" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1">
       <c r="A159" s="6"/>
       <c r="B159" s="5"/>
       <c r="C159" s="5"/>
@@ -15931,7 +16072,7 @@
       <c r="O159" s="34"/>
       <c r="P159" s="2"/>
     </row>
-    <row r="160" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="160" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1">
       <c r="A160" s="6"/>
       <c r="B160" s="5"/>
       <c r="C160" s="5"/>
@@ -15965,7 +16106,7 @@
       <c r="O160" s="34"/>
       <c r="P160" s="2"/>
     </row>
-    <row r="161" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="161" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1">
       <c r="A161" s="6"/>
       <c r="B161" s="5"/>
       <c r="C161" s="5"/>
@@ -15997,7 +16138,7 @@
       <c r="O161" s="34"/>
       <c r="P161" s="2"/>
     </row>
-    <row r="162" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="162" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1">
       <c r="A162" s="6"/>
       <c r="B162" s="5"/>
       <c r="C162" s="5"/>
@@ -16035,7 +16176,7 @@
       <c r="O162" s="34"/>
       <c r="P162" s="2"/>
     </row>
-    <row r="163" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="163" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1">
       <c r="A163" s="6"/>
       <c r="B163" s="5"/>
       <c r="C163" s="5"/>
@@ -16069,7 +16210,7 @@
       <c r="O163" s="34"/>
       <c r="P163" s="2"/>
     </row>
-    <row r="164" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="164" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1">
       <c r="A164" s="6"/>
       <c r="B164" s="5"/>
       <c r="C164" s="5"/>
@@ -16105,7 +16246,7 @@
       <c r="O164" s="34"/>
       <c r="P164" s="2"/>
     </row>
-    <row r="165" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="165" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1">
       <c r="A165" s="6"/>
       <c r="B165" s="5"/>
       <c r="C165" s="5"/>
@@ -16141,7 +16282,7 @@
       <c r="O165" s="34"/>
       <c r="P165" s="2"/>
     </row>
-    <row r="166" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="166" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1">
       <c r="A166" s="6"/>
       <c r="B166" s="5"/>
       <c r="C166" s="17" t="s">
@@ -16179,7 +16320,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="167" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="167" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1">
       <c r="A167" s="6"/>
       <c r="B167" s="5"/>
       <c r="C167" s="5"/>
@@ -16213,7 +16354,7 @@
       <c r="O167" s="34"/>
       <c r="P167" s="2"/>
     </row>
-    <row r="168" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="168" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1">
       <c r="A168" s="6"/>
       <c r="B168" s="5"/>
       <c r="C168" s="5"/>
@@ -16247,7 +16388,7 @@
       <c r="O168" s="34"/>
       <c r="P168" s="2"/>
     </row>
-    <row r="169" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="169" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1">
       <c r="A169" s="6"/>
       <c r="B169" s="5"/>
       <c r="C169" s="5"/>
@@ -16281,7 +16422,7 @@
       <c r="O169" s="34"/>
       <c r="P169" s="2"/>
     </row>
-    <row r="170" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="170" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1">
       <c r="A170" s="6"/>
       <c r="B170" s="5"/>
       <c r="C170" s="17" t="s">
@@ -16321,7 +16462,7 @@
       <c r="O170" s="34"/>
       <c r="P170" s="2"/>
     </row>
-    <row r="171" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="171" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1">
       <c r="A171" s="6"/>
       <c r="B171" s="5"/>
       <c r="C171" s="5"/>
@@ -16355,7 +16496,7 @@
       <c r="O171" s="34"/>
       <c r="P171" s="2"/>
     </row>
-    <row r="172" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="172" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1">
       <c r="A172" s="6"/>
       <c r="B172" s="5"/>
       <c r="C172" s="5"/>
@@ -16389,7 +16530,7 @@
       <c r="O172" s="34"/>
       <c r="P172" s="2"/>
     </row>
-    <row r="173" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="173" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1">
       <c r="A173" s="6"/>
       <c r="B173" s="5"/>
       <c r="C173" s="5"/>
@@ -16425,7 +16566,7 @@
       <c r="O173" s="34"/>
       <c r="P173" s="2"/>
     </row>
-    <row r="174" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="174" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1">
       <c r="A174" s="6"/>
       <c r="B174" s="5"/>
       <c r="C174" s="5"/>
@@ -16467,7 +16608,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="175" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="175" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1">
       <c r="A175" s="6"/>
       <c r="B175" s="5"/>
       <c r="C175" s="5"/>
@@ -16497,23 +16638,23 @@
         <v>11</v>
       </c>
     </row>
-    <row r="176" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="176" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1">
       <c r="A176" s="6"/>
       <c r="B176" s="5"/>
       <c r="C176" s="5" t="s">
+        <v>1084</v>
+      </c>
+      <c r="D176" s="23" t="s">
+        <v>1099</v>
+      </c>
+      <c r="E176" s="5" t="s">
         <v>1085</v>
       </c>
-      <c r="D176" s="23" t="s">
-        <v>1100</v>
-      </c>
-      <c r="E176" s="5" t="s">
-        <v>1086</v>
-      </c>
       <c r="F176" s="4" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="G176" s="3" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="H176" s="24"/>
       <c r="I176" s="24" t="s">
@@ -16527,21 +16668,21 @@
       <c r="O176" s="34"/>
       <c r="P176" s="2"/>
     </row>
-    <row r="177" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="177" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1">
       <c r="A177" s="6"/>
       <c r="B177" s="5"/>
       <c r="C177" s="5"/>
       <c r="D177" s="23" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="E177" s="5" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="F177" s="4" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="G177" s="3" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="H177" s="24"/>
       <c r="I177" s="24" t="s">
@@ -16555,21 +16696,21 @@
       <c r="O177" s="34"/>
       <c r="P177" s="2"/>
     </row>
-    <row r="178" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="178" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1">
       <c r="A178" s="6"/>
       <c r="B178" s="5"/>
       <c r="C178" s="5"/>
       <c r="D178" s="23" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="E178" s="5" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="F178" s="4" t="s">
         <v>841</v>
       </c>
       <c r="G178" s="3" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="H178" s="24"/>
       <c r="I178" s="24" t="s">
@@ -16583,21 +16724,21 @@
       <c r="O178" s="34"/>
       <c r="P178" s="2"/>
     </row>
-    <row r="179" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="179" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1">
       <c r="A179" s="6"/>
       <c r="B179" s="5"/>
       <c r="C179" s="5"/>
       <c r="D179" s="23" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="E179" s="5" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="F179" s="4" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="G179" s="3" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="H179" s="24"/>
       <c r="I179" s="24" t="s">
@@ -16611,7 +16752,7 @@
       <c r="O179" s="34"/>
       <c r="P179" s="2"/>
     </row>
-    <row r="180" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="180" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1">
       <c r="A180" s="6" t="s">
         <v>10</v>
       </c>
@@ -16651,7 +16792,7 @@
       <c r="O180" s="34"/>
       <c r="P180" s="2"/>
     </row>
-    <row r="181" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="181" spans="1:16" ht="15" customHeight="1">
       <c r="D181" s="23" t="s">
         <v>574</v>
       </c>
@@ -16682,7 +16823,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="182" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="182" spans="1:16" ht="15" customHeight="1">
       <c r="D182" s="23" t="s">
         <v>575</v>
       </c>
@@ -16711,7 +16852,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="183" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="183" spans="1:16" ht="15" customHeight="1">
       <c r="D183" s="23" t="s">
         <v>576</v>
       </c>
@@ -16740,7 +16881,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="184" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="184" spans="1:16" ht="15" customHeight="1">
       <c r="D184" s="23" t="s">
         <v>1003</v>
       </c>
@@ -16769,7 +16910,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="185" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="185" spans="1:16" ht="15" customHeight="1">
       <c r="B185" s="5" t="s">
         <v>807</v>
       </c>
@@ -16789,7 +16930,7 @@
         <v>914</v>
       </c>
     </row>
-    <row r="186" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="186" spans="1:16" ht="15" customHeight="1">
       <c r="D186" s="23" t="s">
         <v>809</v>
       </c>
@@ -16803,7 +16944,7 @@
         <v>914</v>
       </c>
     </row>
-    <row r="187" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="187" spans="1:16" ht="15" customHeight="1">
       <c r="D187" s="23" t="s">
         <v>811</v>
       </c>
@@ -16820,7 +16961,7 @@
         <v>914</v>
       </c>
     </row>
-    <row r="188" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="188" spans="1:16" ht="15" customHeight="1">
       <c r="D188" s="23" t="s">
         <v>813</v>
       </c>
@@ -16834,7 +16975,7 @@
         <v>914</v>
       </c>
     </row>
-    <row r="189" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="189" spans="1:16" ht="15" customHeight="1">
       <c r="D189" s="23" t="s">
         <v>815</v>
       </c>
@@ -16851,7 +16992,7 @@
         <v>914</v>
       </c>
     </row>
-    <row r="190" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="190" spans="1:16" ht="15" customHeight="1">
       <c r="C190" s="5" t="s">
         <v>854</v>
       </c>
@@ -16871,7 +17012,7 @@
         <v>914</v>
       </c>
     </row>
-    <row r="191" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="191" spans="1:16" ht="15" customHeight="1">
       <c r="D191" s="23" t="s">
         <v>819</v>
       </c>
@@ -16888,7 +17029,7 @@
         <v>914</v>
       </c>
     </row>
-    <row r="192" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="192" spans="1:16" ht="15" customHeight="1">
       <c r="D192" s="23" t="s">
         <v>821</v>
       </c>
@@ -16905,7 +17046,7 @@
         <v>914</v>
       </c>
     </row>
-    <row r="193" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="193" spans="1:11" ht="15" customHeight="1">
       <c r="D193" s="23" t="s">
         <v>823</v>
       </c>
@@ -16922,7 +17063,7 @@
         <v>914</v>
       </c>
     </row>
-    <row r="194" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="194" spans="1:11" ht="15" customHeight="1">
       <c r="D194" s="23" t="s">
         <v>825</v>
       </c>
@@ -16939,7 +17080,7 @@
         <v>914</v>
       </c>
     </row>
-    <row r="195" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="195" spans="1:11" ht="15" customHeight="1">
       <c r="C195" s="5" t="s">
         <v>855</v>
       </c>
@@ -16959,7 +17100,7 @@
         <v>912</v>
       </c>
     </row>
-    <row r="196" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="196" spans="1:11" ht="15" customHeight="1">
       <c r="D196" s="23" t="s">
         <v>1001</v>
       </c>
@@ -16979,7 +17120,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="197" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="197" spans="1:11" ht="15" customHeight="1">
       <c r="D197" s="23" t="s">
         <v>828</v>
       </c>
@@ -16999,7 +17140,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="198" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="198" spans="1:11" ht="15" customHeight="1">
       <c r="D198" s="23" t="s">
         <v>830</v>
       </c>
@@ -17016,7 +17157,7 @@
         <v>912</v>
       </c>
     </row>
-    <row r="199" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="199" spans="1:11" ht="15" customHeight="1">
       <c r="D199" s="23" t="s">
         <v>832</v>
       </c>
@@ -17036,7 +17177,7 @@
         <v>12233</v>
       </c>
     </row>
-    <row r="200" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="200" spans="1:11" ht="15" customHeight="1">
       <c r="D200" s="23" t="s">
         <v>851</v>
       </c>
@@ -17050,7 +17191,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="201" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="201" spans="1:11" ht="15" customHeight="1">
       <c r="A201" s="6">
         <v>10</v>
       </c>
@@ -17076,7 +17217,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="202" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="202" spans="1:11" ht="15" customHeight="1">
       <c r="D202" s="23" t="s">
         <v>873</v>
       </c>
@@ -17087,13 +17228,13 @@
         <v>835</v>
       </c>
       <c r="G202" s="3" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="J202" s="35" t="s">
         <v>881</v>
       </c>
     </row>
-    <row r="203" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="203" spans="1:11" ht="15" customHeight="1">
       <c r="D203" s="23" t="s">
         <v>874</v>
       </c>
@@ -17110,7 +17251,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="204" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="204" spans="1:11" ht="15" customHeight="1">
       <c r="D204" s="23" t="s">
         <v>871</v>
       </c>
@@ -17127,7 +17268,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="205" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="205" spans="1:11" ht="15" customHeight="1">
       <c r="D205" s="23" t="s">
         <v>870</v>
       </c>
@@ -17144,7 +17285,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="206" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="206" spans="1:11" ht="15" customHeight="1">
       <c r="C206" s="5" t="s">
         <v>856</v>
       </c>
@@ -17164,7 +17305,7 @@
         <v>926</v>
       </c>
     </row>
-    <row r="207" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="207" spans="1:11" ht="15" customHeight="1">
       <c r="D207" s="23" t="s">
         <v>866</v>
       </c>
@@ -17181,7 +17322,7 @@
         <v>926</v>
       </c>
     </row>
-    <row r="208" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="208" spans="1:11" ht="15" customHeight="1">
       <c r="D208" s="23" t="s">
         <v>867</v>
       </c>
@@ -17201,7 +17342,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="209" spans="3:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="209" spans="3:10" ht="15" customHeight="1">
       <c r="D209" s="23" t="s">
         <v>868</v>
       </c>
@@ -17221,7 +17362,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="210" spans="3:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="210" spans="3:10" ht="15" customHeight="1">
       <c r="D210" s="23" t="s">
         <v>869</v>
       </c>
@@ -17235,7 +17376,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="211" spans="3:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="211" spans="3:10" ht="15" customHeight="1">
       <c r="C211" s="5" t="s">
         <v>859</v>
       </c>
@@ -17247,428 +17388,428 @@
   <autoFilter ref="A1:AL183"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="J163:J174 J1:J43 J210:J1048576 J179:J183 J45:J161 J185:J207">
-    <cfRule type="cellIs" dxfId="355" priority="182" operator="equal">
+    <cfRule type="cellIs" dxfId="370" priority="182" operator="equal">
       <formula>$J$34</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="354" priority="183" operator="equal">
+    <cfRule type="cellIs" dxfId="369" priority="183" operator="equal">
       <formula>$J$26</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="353" priority="184" operator="equal">
+    <cfRule type="cellIs" dxfId="368" priority="184" operator="equal">
       <formula>$J$23</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="352" priority="185" operator="equal">
+    <cfRule type="cellIs" dxfId="367" priority="185" operator="equal">
       <formula>$J$15</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="351" priority="186" operator="equal">
+    <cfRule type="cellIs" dxfId="366" priority="186" operator="equal">
       <formula>$J$15</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="350" priority="187" operator="equal">
+    <cfRule type="cellIs" dxfId="365" priority="187" operator="equal">
       <formula>$J$26</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="349" priority="188" operator="equal">
+    <cfRule type="cellIs" dxfId="364" priority="188" operator="equal">
       <formula>$J$26</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="348" priority="189" operator="equal">
+    <cfRule type="cellIs" dxfId="363" priority="189" operator="equal">
       <formula>$J$26</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="347" priority="190" operator="equal">
+    <cfRule type="cellIs" dxfId="362" priority="190" operator="equal">
       <formula>$J$5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J175">
-    <cfRule type="cellIs" dxfId="346" priority="173" operator="equal">
+    <cfRule type="cellIs" dxfId="361" priority="173" operator="equal">
       <formula>$J$34</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="345" priority="174" operator="equal">
+    <cfRule type="cellIs" dxfId="360" priority="174" operator="equal">
       <formula>$J$26</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="344" priority="175" operator="equal">
+    <cfRule type="cellIs" dxfId="359" priority="175" operator="equal">
       <formula>$J$23</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="343" priority="176" operator="equal">
+    <cfRule type="cellIs" dxfId="358" priority="176" operator="equal">
       <formula>$J$15</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="342" priority="177" operator="equal">
+    <cfRule type="cellIs" dxfId="357" priority="177" operator="equal">
       <formula>$J$15</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="341" priority="178" operator="equal">
+    <cfRule type="cellIs" dxfId="356" priority="178" operator="equal">
       <formula>$J$26</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="340" priority="179" operator="equal">
+    <cfRule type="cellIs" dxfId="355" priority="179" operator="equal">
       <formula>$J$26</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="339" priority="180" operator="equal">
+    <cfRule type="cellIs" dxfId="354" priority="180" operator="equal">
       <formula>$J$26</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="338" priority="181" operator="equal">
+    <cfRule type="cellIs" dxfId="353" priority="181" operator="equal">
       <formula>$J$5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J1:J43 J210:J1048576 J163:J175 J45:J161 J185:J207 J179:J183">
-    <cfRule type="cellIs" dxfId="337" priority="166" operator="equal">
+    <cfRule type="cellIs" dxfId="352" priority="166" operator="equal">
       <formula>"正常返回"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="336" priority="167" operator="equal">
+    <cfRule type="cellIs" dxfId="351" priority="167" operator="equal">
       <formula>"待测试"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="335" priority="168" operator="equal">
+    <cfRule type="cellIs" dxfId="350" priority="168" operator="equal">
       <formula>"需要处理"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="334" priority="169" operator="equal">
+    <cfRule type="cellIs" dxfId="349" priority="169" operator="equal">
       <formula>"需要处理"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="333" priority="170" operator="equal">
+    <cfRule type="cellIs" dxfId="348" priority="170" operator="equal">
       <formula>"需要处理"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="332" priority="172" operator="equal">
+    <cfRule type="cellIs" dxfId="347" priority="172" operator="equal">
       <formula>"正常返回"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J27:J28">
-    <cfRule type="cellIs" dxfId="331" priority="171" operator="equal">
+    <cfRule type="cellIs" dxfId="346" priority="171" operator="equal">
       <formula>"url参数变更，待处理测试"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J162">
-    <cfRule type="cellIs" dxfId="330" priority="157" operator="equal">
+    <cfRule type="cellIs" dxfId="345" priority="157" operator="equal">
       <formula>$J$34</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="329" priority="158" operator="equal">
+    <cfRule type="cellIs" dxfId="344" priority="158" operator="equal">
       <formula>$J$26</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="328" priority="159" operator="equal">
+    <cfRule type="cellIs" dxfId="343" priority="159" operator="equal">
       <formula>$J$23</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="327" priority="160" operator="equal">
+    <cfRule type="cellIs" dxfId="342" priority="160" operator="equal">
       <formula>$J$15</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="326" priority="161" operator="equal">
+    <cfRule type="cellIs" dxfId="341" priority="161" operator="equal">
       <formula>$J$15</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="325" priority="162" operator="equal">
+    <cfRule type="cellIs" dxfId="340" priority="162" operator="equal">
       <formula>$J$26</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="324" priority="163" operator="equal">
+    <cfRule type="cellIs" dxfId="339" priority="163" operator="equal">
       <formula>$J$26</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="323" priority="164" operator="equal">
+    <cfRule type="cellIs" dxfId="338" priority="164" operator="equal">
       <formula>$J$26</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="322" priority="165" operator="equal">
+    <cfRule type="cellIs" dxfId="337" priority="165" operator="equal">
       <formula>$J$5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J162">
-    <cfRule type="cellIs" dxfId="321" priority="151" operator="equal">
+    <cfRule type="cellIs" dxfId="336" priority="151" operator="equal">
       <formula>"正常返回"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="320" priority="152" operator="equal">
+    <cfRule type="cellIs" dxfId="335" priority="152" operator="equal">
       <formula>"待测试"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="319" priority="153" operator="equal">
+    <cfRule type="cellIs" dxfId="334" priority="153" operator="equal">
       <formula>"需要处理"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="318" priority="154" operator="equal">
+    <cfRule type="cellIs" dxfId="333" priority="154" operator="equal">
       <formula>"需要处理"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="317" priority="155" operator="equal">
+    <cfRule type="cellIs" dxfId="332" priority="155" operator="equal">
       <formula>"需要处理"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="316" priority="156" operator="equal">
+    <cfRule type="cellIs" dxfId="331" priority="156" operator="equal">
       <formula>"正常返回"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J208:J209">
-    <cfRule type="cellIs" dxfId="315" priority="82" operator="equal">
+    <cfRule type="cellIs" dxfId="330" priority="82" operator="equal">
       <formula>$J$34</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="314" priority="83" operator="equal">
+    <cfRule type="cellIs" dxfId="329" priority="83" operator="equal">
       <formula>$J$26</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="313" priority="84" operator="equal">
+    <cfRule type="cellIs" dxfId="328" priority="84" operator="equal">
       <formula>$J$23</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="312" priority="85" operator="equal">
+    <cfRule type="cellIs" dxfId="327" priority="85" operator="equal">
       <formula>$J$15</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="311" priority="86" operator="equal">
+    <cfRule type="cellIs" dxfId="326" priority="86" operator="equal">
       <formula>$J$15</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="310" priority="87" operator="equal">
+    <cfRule type="cellIs" dxfId="325" priority="87" operator="equal">
       <formula>$J$26</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="309" priority="88" operator="equal">
+    <cfRule type="cellIs" dxfId="324" priority="88" operator="equal">
       <formula>$J$26</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="308" priority="89" operator="equal">
+    <cfRule type="cellIs" dxfId="323" priority="89" operator="equal">
       <formula>$J$26</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="307" priority="90" operator="equal">
+    <cfRule type="cellIs" dxfId="322" priority="90" operator="equal">
       <formula>$J$5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J208:J209">
-    <cfRule type="cellIs" dxfId="306" priority="76" operator="equal">
+    <cfRule type="cellIs" dxfId="321" priority="76" operator="equal">
       <formula>"正常返回"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="305" priority="77" operator="equal">
+    <cfRule type="cellIs" dxfId="320" priority="77" operator="equal">
       <formula>"待测试"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="304" priority="78" operator="equal">
+    <cfRule type="cellIs" dxfId="319" priority="78" operator="equal">
       <formula>"需要处理"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="303" priority="79" operator="equal">
+    <cfRule type="cellIs" dxfId="318" priority="79" operator="equal">
       <formula>"需要处理"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="302" priority="80" operator="equal">
+    <cfRule type="cellIs" dxfId="317" priority="80" operator="equal">
       <formula>"需要处理"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="301" priority="81" operator="equal">
+    <cfRule type="cellIs" dxfId="316" priority="81" operator="equal">
       <formula>"正常返回"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J44">
-    <cfRule type="cellIs" dxfId="300" priority="67" operator="equal">
+    <cfRule type="cellIs" dxfId="315" priority="67" operator="equal">
       <formula>$J$34</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="299" priority="68" operator="equal">
+    <cfRule type="cellIs" dxfId="314" priority="68" operator="equal">
       <formula>$J$26</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="298" priority="69" operator="equal">
+    <cfRule type="cellIs" dxfId="313" priority="69" operator="equal">
       <formula>$J$23</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="297" priority="70" operator="equal">
+    <cfRule type="cellIs" dxfId="312" priority="70" operator="equal">
       <formula>$J$15</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="296" priority="71" operator="equal">
+    <cfRule type="cellIs" dxfId="311" priority="71" operator="equal">
       <formula>$J$15</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="295" priority="72" operator="equal">
+    <cfRule type="cellIs" dxfId="310" priority="72" operator="equal">
       <formula>$J$26</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="294" priority="73" operator="equal">
+    <cfRule type="cellIs" dxfId="309" priority="73" operator="equal">
       <formula>$J$26</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="293" priority="74" operator="equal">
+    <cfRule type="cellIs" dxfId="308" priority="74" operator="equal">
       <formula>$J$26</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="292" priority="75" operator="equal">
+    <cfRule type="cellIs" dxfId="307" priority="75" operator="equal">
       <formula>$J$5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J44">
-    <cfRule type="cellIs" dxfId="291" priority="61" operator="equal">
+    <cfRule type="cellIs" dxfId="306" priority="61" operator="equal">
       <formula>"正常返回"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="290" priority="62" operator="equal">
+    <cfRule type="cellIs" dxfId="305" priority="62" operator="equal">
       <formula>"待测试"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="289" priority="63" operator="equal">
+    <cfRule type="cellIs" dxfId="304" priority="63" operator="equal">
       <formula>"需要处理"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="288" priority="64" operator="equal">
+    <cfRule type="cellIs" dxfId="303" priority="64" operator="equal">
       <formula>"需要处理"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="287" priority="65" operator="equal">
+    <cfRule type="cellIs" dxfId="302" priority="65" operator="equal">
       <formula>"需要处理"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="286" priority="66" operator="equal">
+    <cfRule type="cellIs" dxfId="301" priority="66" operator="equal">
       <formula>"正常返回"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J184">
-    <cfRule type="cellIs" dxfId="285" priority="52" operator="equal">
+    <cfRule type="cellIs" dxfId="300" priority="52" operator="equal">
       <formula>$J$34</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="284" priority="53" operator="equal">
+    <cfRule type="cellIs" dxfId="299" priority="53" operator="equal">
       <formula>$J$26</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="283" priority="54" operator="equal">
+    <cfRule type="cellIs" dxfId="298" priority="54" operator="equal">
       <formula>$J$23</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="282" priority="55" operator="equal">
+    <cfRule type="cellIs" dxfId="297" priority="55" operator="equal">
       <formula>$J$15</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="281" priority="56" operator="equal">
+    <cfRule type="cellIs" dxfId="296" priority="56" operator="equal">
       <formula>$J$15</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="280" priority="57" operator="equal">
+    <cfRule type="cellIs" dxfId="295" priority="57" operator="equal">
       <formula>$J$26</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="279" priority="58" operator="equal">
+    <cfRule type="cellIs" dxfId="294" priority="58" operator="equal">
       <formula>$J$26</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="278" priority="59" operator="equal">
+    <cfRule type="cellIs" dxfId="293" priority="59" operator="equal">
       <formula>$J$26</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="277" priority="60" operator="equal">
+    <cfRule type="cellIs" dxfId="292" priority="60" operator="equal">
       <formula>$J$5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J184">
-    <cfRule type="cellIs" dxfId="276" priority="46" operator="equal">
+    <cfRule type="cellIs" dxfId="291" priority="46" operator="equal">
       <formula>"正常返回"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="275" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="290" priority="47" operator="equal">
       <formula>"待测试"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="274" priority="48" operator="equal">
+    <cfRule type="cellIs" dxfId="289" priority="48" operator="equal">
       <formula>"需要处理"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="273" priority="49" operator="equal">
+    <cfRule type="cellIs" dxfId="288" priority="49" operator="equal">
       <formula>"需要处理"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="272" priority="50" operator="equal">
+    <cfRule type="cellIs" dxfId="287" priority="50" operator="equal">
       <formula>"需要处理"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="271" priority="51" operator="equal">
+    <cfRule type="cellIs" dxfId="286" priority="51" operator="equal">
       <formula>"正常返回"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J178">
-    <cfRule type="cellIs" dxfId="270" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="285" priority="37" operator="equal">
       <formula>$J$34</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="269" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="284" priority="38" operator="equal">
       <formula>$J$26</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="268" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="283" priority="39" operator="equal">
       <formula>$J$23</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="267" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="282" priority="40" operator="equal">
       <formula>$J$15</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="266" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="281" priority="41" operator="equal">
       <formula>$J$15</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="265" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="280" priority="42" operator="equal">
       <formula>$J$26</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="264" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="279" priority="43" operator="equal">
       <formula>$J$26</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="263" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="278" priority="44" operator="equal">
       <formula>$J$26</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="262" priority="45" operator="equal">
+    <cfRule type="cellIs" dxfId="277" priority="45" operator="equal">
       <formula>$J$5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J178">
-    <cfRule type="cellIs" dxfId="261" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="276" priority="31" operator="equal">
       <formula>"正常返回"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="260" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="275" priority="32" operator="equal">
       <formula>"待测试"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="259" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="274" priority="33" operator="equal">
       <formula>"需要处理"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="258" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="273" priority="34" operator="equal">
       <formula>"需要处理"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="257" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="272" priority="35" operator="equal">
       <formula>"需要处理"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="256" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="271" priority="36" operator="equal">
       <formula>"正常返回"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J177">
-    <cfRule type="cellIs" dxfId="255" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="270" priority="22" operator="equal">
       <formula>$J$34</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="254" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="269" priority="23" operator="equal">
       <formula>$J$26</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="253" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="268" priority="24" operator="equal">
       <formula>$J$23</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="252" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="267" priority="25" operator="equal">
       <formula>$J$15</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="251" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="266" priority="26" operator="equal">
       <formula>$J$15</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="250" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="265" priority="27" operator="equal">
       <formula>$J$26</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="249" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="264" priority="28" operator="equal">
       <formula>$J$26</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="248" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="263" priority="29" operator="equal">
       <formula>$J$26</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="247" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="262" priority="30" operator="equal">
       <formula>$J$5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J177">
-    <cfRule type="cellIs" dxfId="246" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="261" priority="16" operator="equal">
       <formula>"正常返回"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="245" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="260" priority="17" operator="equal">
       <formula>"待测试"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="244" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="259" priority="18" operator="equal">
       <formula>"需要处理"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="243" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="258" priority="19" operator="equal">
       <formula>"需要处理"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="242" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="257" priority="20" operator="equal">
       <formula>"需要处理"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="241" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="256" priority="21" operator="equal">
       <formula>"正常返回"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J176">
-    <cfRule type="cellIs" dxfId="240" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="255" priority="7" operator="equal">
       <formula>$J$34</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="239" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="254" priority="8" operator="equal">
       <formula>$J$26</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="238" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="253" priority="9" operator="equal">
       <formula>$J$23</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="237" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="252" priority="10" operator="equal">
       <formula>$J$15</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="236" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="251" priority="11" operator="equal">
       <formula>$J$15</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="235" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="250" priority="12" operator="equal">
       <formula>$J$26</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="234" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="249" priority="13" operator="equal">
       <formula>$J$26</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="233" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="248" priority="14" operator="equal">
       <formula>$J$26</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="232" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="247" priority="15" operator="equal">
       <formula>$J$5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J176">
-    <cfRule type="cellIs" dxfId="231" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="246" priority="1" operator="equal">
       <formula>"正常返回"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="230" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="245" priority="2" operator="equal">
       <formula>"待测试"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="229" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="244" priority="3" operator="equal">
       <formula>"需要处理"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="228" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="243" priority="4" operator="equal">
       <formula>"需要处理"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="227" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="242" priority="5" operator="equal">
       <formula>"需要处理"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="226" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="241" priority="6" operator="equal">
       <formula>"正常返回"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17704,17 +17845,17 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AL214"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AL215"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="H47" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F39" sqref="F39"/>
+      <selection pane="bottomRight" activeCell="G72" sqref="G72"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="6.25" style="6" customWidth="1"/>
     <col min="2" max="2" width="8" style="5" customWidth="1"/>
@@ -17735,7 +17876,7 @@
     <col min="17" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:38" ht="15" customHeight="1">
       <c r="A1" s="6" t="s">
         <v>248</v>
       </c>
@@ -17785,7 +17926,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="2" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:38" ht="15" customHeight="1">
       <c r="A2" s="6">
         <v>11</v>
       </c>
@@ -17805,12 +17946,12 @@
         <v>1045</v>
       </c>
       <c r="G2" s="38" t="s">
-        <v>1069</v>
-      </c>
-    </row>
-    <row r="3" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="3" spans="1:38" ht="15" customHeight="1">
       <c r="D3" s="23" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>1013</v>
@@ -17819,12 +17960,12 @@
         <v>6</v>
       </c>
       <c r="G3" s="38" t="s">
-        <v>1067</v>
-      </c>
-    </row>
-    <row r="4" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>1236</v>
+      </c>
+    </row>
+    <row r="4" spans="1:38" ht="15" customHeight="1">
       <c r="D4" s="23" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>1046</v>
@@ -17836,817 +17977,815 @@
         <v>1065</v>
       </c>
     </row>
-    <row r="5" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:38" ht="15" customHeight="1">
       <c r="D5" s="23" t="s">
+        <v>1169</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>1234</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>841</v>
+      </c>
+      <c r="G5" s="38" t="s">
+        <v>1235</v>
+      </c>
+    </row>
+    <row r="6" spans="1:38" ht="15" customHeight="1">
+      <c r="D6" s="23" t="s">
+        <v>1170</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>1016</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>1045</v>
+      </c>
+      <c r="G6" s="38" t="s">
+        <v>1066</v>
+      </c>
+    </row>
+    <row r="7" spans="1:38" ht="15" customHeight="1">
+      <c r="D7" s="23" t="s">
         <v>1171</v>
       </c>
-      <c r="E5" s="5" t="s">
-        <v>1016</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>1045</v>
-      </c>
-      <c r="G5" s="38" t="s">
-        <v>1066</v>
-      </c>
-    </row>
-    <row r="6" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D6" s="23" t="s">
+      <c r="E7" s="5" t="s">
+        <v>1014</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>1048</v>
+      </c>
+      <c r="G7" s="38" t="s">
+        <v>1082</v>
+      </c>
+      <c r="AJ7" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="AK7" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="AL7" s="1" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="8" spans="1:38" ht="15" customHeight="1">
+      <c r="D8" s="23" t="s">
         <v>1172</v>
       </c>
-      <c r="E6" s="5" t="s">
-        <v>1014</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>1048</v>
-      </c>
-      <c r="G6" s="38" t="s">
-        <v>1083</v>
-      </c>
-      <c r="AJ6" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="AK6" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="AL6" s="1" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="7" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D7" s="23" t="s">
-        <v>1173</v>
-      </c>
-      <c r="E7" s="5" t="s">
+      <c r="E8" s="5" t="s">
         <v>1015</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="F8" s="4" t="s">
         <v>1049</v>
       </c>
-      <c r="G7" s="38" t="s">
-        <v>1068</v>
-      </c>
-      <c r="AJ7" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="AK7" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="AL7" s="1" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="8" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D8" s="23" t="s">
-        <v>1174</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>1060</v>
-      </c>
       <c r="G8" s="38" t="s">
-        <v>1105</v>
+        <v>1067</v>
       </c>
       <c r="AJ8" s="1" t="s">
         <v>254</v>
       </c>
       <c r="AK8" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="AL8" s="1" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="9" spans="1:38" ht="15" customHeight="1">
+      <c r="D9" s="23" t="s">
+        <v>1173</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>1060</v>
+      </c>
+      <c r="G9" s="38" t="s">
+        <v>1104</v>
+      </c>
+      <c r="AJ9" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="AK9" s="1" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="9" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D9" s="23" t="s">
+    <row r="10" spans="1:38" ht="15" customHeight="1">
+      <c r="D10" s="23" t="s">
+        <v>1174</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>1061</v>
+      </c>
+      <c r="G10" s="38" t="s">
+        <v>1102</v>
+      </c>
+    </row>
+    <row r="11" spans="1:38" ht="15" customHeight="1">
+      <c r="D11" s="23" t="s">
         <v>1175</v>
       </c>
-      <c r="E9" s="5" t="s">
-        <v>1061</v>
-      </c>
-      <c r="G9" s="38" t="s">
-        <v>1103</v>
-      </c>
-    </row>
-    <row r="10" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D10" s="23" t="s">
+      <c r="E11" s="5" t="s">
+        <v>1062</v>
+      </c>
+      <c r="G11" s="38" t="s">
+        <v>1107</v>
+      </c>
+    </row>
+    <row r="12" spans="1:38" ht="15" customHeight="1">
+      <c r="D12" s="23" t="s">
         <v>1176</v>
       </c>
-      <c r="E10" s="5" t="s">
-        <v>1062</v>
-      </c>
-      <c r="G10" s="38" t="s">
-        <v>1108</v>
-      </c>
-    </row>
-    <row r="11" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D11" s="23" t="s">
-        <v>1177</v>
-      </c>
-      <c r="E11" s="5" t="s">
+      <c r="E12" s="5" t="s">
         <v>1063</v>
       </c>
-      <c r="G11" s="38" t="s">
-        <v>1110</v>
-      </c>
-    </row>
-    <row r="12" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C12" s="5" t="s">
-        <v>1136</v>
-      </c>
-    </row>
-    <row r="13" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="6">
+      <c r="G12" s="38" t="s">
+        <v>1109</v>
+      </c>
+    </row>
+    <row r="13" spans="1:38" ht="15" customHeight="1">
+      <c r="C13" s="5" t="s">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="14" spans="1:38" ht="15" customHeight="1">
+      <c r="A14" s="6">
         <v>12</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B14" s="5" t="s">
         <v>1036</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C14" s="5" t="s">
         <v>1037</v>
       </c>
-      <c r="D13" s="23" t="s">
+      <c r="D14" s="23" t="s">
         <v>1039</v>
       </c>
-      <c r="E13" s="5" t="s">
+      <c r="E14" s="5" t="s">
         <v>1060</v>
       </c>
-      <c r="G13" s="38" t="s">
-        <v>1105</v>
-      </c>
-    </row>
-    <row r="14" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D14" s="23" t="s">
-        <v>1157</v>
-      </c>
-      <c r="E14" s="5" t="s">
+      <c r="G14" s="38" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="15" spans="1:38" ht="15" customHeight="1">
+      <c r="D15" s="23" t="s">
+        <v>1156</v>
+      </c>
+      <c r="E15" s="5" t="s">
         <v>1017</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>1045</v>
-      </c>
-      <c r="G14" s="38" t="s">
-        <v>1114</v>
-      </c>
-    </row>
-    <row r="15" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D15" s="23" t="s">
-        <v>1158</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>1070</v>
       </c>
       <c r="F15" s="4" t="s">
         <v>1045</v>
       </c>
       <c r="G15" s="38" t="s">
+        <v>1113</v>
+      </c>
+    </row>
+    <row r="16" spans="1:38" ht="15" customHeight="1">
+      <c r="D16" s="23" t="s">
+        <v>1157</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>1069</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>1045</v>
+      </c>
+      <c r="G16" s="38" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="17" spans="3:16" ht="15" customHeight="1">
+      <c r="D17" s="23" t="s">
+        <v>1158</v>
+      </c>
+      <c r="E17" s="5" t="s">
         <v>1115</v>
       </c>
-    </row>
-    <row r="16" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D16" s="23" t="s">
+      <c r="F17" s="4" t="s">
+        <v>1050</v>
+      </c>
+      <c r="G17" s="38" t="s">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="18" spans="3:16" ht="15" customHeight="1">
+      <c r="D18" s="23" t="s">
         <v>1159</v>
       </c>
-      <c r="E16" s="5" t="s">
-        <v>1116</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>1050</v>
-      </c>
-      <c r="G16" s="38" t="s">
+      <c r="E18" s="5" t="s">
+        <v>1123</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G18" s="38" t="s">
+        <v>1122</v>
+      </c>
+    </row>
+    <row r="19" spans="3:16" ht="15" customHeight="1">
+      <c r="D19" s="23" t="s">
+        <v>1160</v>
+      </c>
+      <c r="E19" s="5" t="s">
         <v>1117</v>
       </c>
-    </row>
-    <row r="17" spans="3:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D17" s="23" t="s">
-        <v>1160</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>1124</v>
-      </c>
-      <c r="F17" s="4" t="s">
+      <c r="F19" s="4" t="s">
+        <v>1112</v>
+      </c>
+      <c r="G19" s="38" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="20" spans="3:16" ht="15" customHeight="1">
+      <c r="C20" s="39"/>
+      <c r="D20" s="23" t="s">
+        <v>1161</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>1118</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G20" s="38" t="s">
+        <v>1111</v>
+      </c>
+      <c r="P20" s="2" t="s">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="21" spans="3:16" ht="15" customHeight="1">
+      <c r="D21" s="23" t="s">
+        <v>1162</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>1119</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>1120</v>
+      </c>
+      <c r="G21" s="38" t="s">
+        <v>1133</v>
+      </c>
+    </row>
+    <row r="22" spans="3:16" ht="15" customHeight="1">
+      <c r="D22" s="23" t="s">
+        <v>1163</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>1018</v>
+      </c>
+      <c r="F22" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="G17" s="38" t="s">
-        <v>1123</v>
-      </c>
-    </row>
-    <row r="18" spans="3:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D18" s="23" t="s">
-        <v>1161</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>1118</v>
-      </c>
-      <c r="F18" s="4" t="s">
-        <v>1113</v>
-      </c>
-      <c r="G18" s="38" t="s">
-        <v>1112</v>
-      </c>
-    </row>
-    <row r="19" spans="3:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C19" s="39"/>
-      <c r="D19" s="23" t="s">
-        <v>1162</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>1119</v>
-      </c>
-      <c r="F19" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="G19" s="38" t="s">
-        <v>1112</v>
-      </c>
-      <c r="P19" s="2" t="s">
-        <v>1122</v>
-      </c>
-    </row>
-    <row r="20" spans="3:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D20" s="23" t="s">
-        <v>1163</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>1120</v>
-      </c>
-      <c r="F20" s="4" t="s">
-        <v>1121</v>
-      </c>
-      <c r="G20" s="38" t="s">
-        <v>1134</v>
-      </c>
-    </row>
-    <row r="21" spans="3:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D21" s="23" t="s">
+      <c r="G22" s="38" t="s">
+        <v>1233</v>
+      </c>
+    </row>
+    <row r="23" spans="3:16" ht="15" customHeight="1">
+      <c r="D23" s="23" t="s">
         <v>1164</v>
       </c>
-      <c r="E21" s="5" t="s">
-        <v>1018</v>
-      </c>
-      <c r="F21" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G21" s="38" t="s">
-        <v>1234</v>
-      </c>
-    </row>
-    <row r="22" spans="3:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D22" s="23" t="s">
+      <c r="E23" s="5" t="s">
+        <v>1019</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>1051</v>
+      </c>
+      <c r="G23" s="38" t="s">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="24" spans="3:16" ht="15" customHeight="1">
+      <c r="D24" s="23" t="s">
         <v>1165</v>
       </c>
-      <c r="E22" s="5" t="s">
-        <v>1019</v>
-      </c>
-      <c r="F22" s="4" t="s">
-        <v>1051</v>
-      </c>
-      <c r="G22" s="38" t="s">
-        <v>1071</v>
-      </c>
-    </row>
-    <row r="23" spans="3:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D23" s="23" t="s">
-        <v>1166</v>
-      </c>
-      <c r="E23" s="5" t="s">
+      <c r="E24" s="5" t="s">
         <v>1020</v>
-      </c>
-      <c r="F23" s="4" t="s">
-        <v>1048</v>
-      </c>
-      <c r="G23" s="38" t="s">
-        <v>1072</v>
-      </c>
-    </row>
-    <row r="24" spans="3:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D24" s="23" t="s">
-        <v>1167</v>
-      </c>
-      <c r="E24" s="5" t="s">
-        <v>1021</v>
       </c>
       <c r="F24" s="4" t="s">
         <v>1048</v>
       </c>
       <c r="G24" s="38" t="s">
+        <v>1071</v>
+      </c>
+    </row>
+    <row r="25" spans="3:16" ht="15" customHeight="1">
+      <c r="D25" s="23" t="s">
+        <v>1166</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>1021</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>1048</v>
+      </c>
+      <c r="G25" s="38" t="s">
+        <v>1072</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" ht="15" customHeight="1">
+      <c r="D26" s="23" t="s">
+        <v>1167</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>1022</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>1052</v>
+      </c>
+      <c r="G26" s="38" t="s">
         <v>1073</v>
       </c>
     </row>
-    <row r="25" spans="3:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D25" s="23" t="s">
-        <v>1168</v>
-      </c>
-      <c r="E25" s="5" t="s">
-        <v>1022</v>
-      </c>
-      <c r="F25" s="4" t="s">
-        <v>1052</v>
-      </c>
-      <c r="G25" s="38" t="s">
-        <v>1074</v>
-      </c>
-    </row>
-    <row r="26" spans="3:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C26" s="5" t="s">
+    <row r="27" spans="3:16" ht="15" customHeight="1">
+      <c r="C27" s="5" t="s">
         <v>1038</v>
       </c>
-      <c r="D26" s="23" t="s">
+      <c r="D27" s="23" t="s">
         <v>1040</v>
       </c>
-      <c r="E26" s="5" t="s">
+      <c r="E27" s="5" t="s">
         <v>1060</v>
       </c>
-      <c r="G26" s="38" t="s">
-        <v>1105</v>
-      </c>
-    </row>
-    <row r="27" spans="3:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D27" s="23" t="s">
-        <v>1145</v>
-      </c>
-      <c r="E27" s="5" t="s">
+      <c r="G27" s="38" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="28" spans="3:16" ht="15" customHeight="1">
+      <c r="D28" s="23" t="s">
+        <v>1144</v>
+      </c>
+      <c r="E28" s="5" t="s">
         <v>1023</v>
-      </c>
-      <c r="F27" s="4" t="s">
-        <v>1054</v>
-      </c>
-      <c r="G27" s="38" t="s">
-        <v>1125</v>
-      </c>
-    </row>
-    <row r="28" spans="3:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D28" s="23" t="s">
-        <v>1146</v>
-      </c>
-      <c r="E28" s="5" t="s">
-        <v>1231</v>
       </c>
       <c r="F28" s="4" t="s">
         <v>1054</v>
       </c>
       <c r="G28" s="38" t="s">
+        <v>1124</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" ht="15" customHeight="1">
+      <c r="D29" s="23" t="s">
+        <v>1145</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>1230</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>1054</v>
+      </c>
+      <c r="G29" s="38" t="s">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="30" spans="3:16" ht="15" customHeight="1">
+      <c r="D30" s="23" t="s">
+        <v>1146</v>
+      </c>
+      <c r="E30" s="5" t="s">
         <v>1126</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D29" s="23" t="s">
+      <c r="F30" s="4" t="s">
+        <v>1045</v>
+      </c>
+      <c r="G30" s="38" t="s">
+        <v>1128</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" ht="15" customHeight="1">
+      <c r="D31" s="23" t="s">
         <v>1147</v>
       </c>
-      <c r="E29" s="5" t="s">
+      <c r="E31" s="5" t="s">
         <v>1127</v>
       </c>
-      <c r="F29" s="4" t="s">
-        <v>1045</v>
-      </c>
-      <c r="G29" s="38" t="s">
-        <v>1129</v>
-      </c>
-    </row>
-    <row r="30" spans="3:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D30" s="23" t="s">
+      <c r="F31" s="4" t="s">
+        <v>1050</v>
+      </c>
+      <c r="G31" s="38" t="s">
+        <v>1231</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" ht="15" customHeight="1">
+      <c r="D32" s="23" t="s">
         <v>1148</v>
       </c>
-      <c r="E30" s="5" t="s">
-        <v>1128</v>
-      </c>
-      <c r="F30" s="4" t="s">
-        <v>1050</v>
-      </c>
-      <c r="G30" s="38" t="s">
-        <v>1232</v>
-      </c>
-    </row>
-    <row r="31" spans="3:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D31" s="23" t="s">
-        <v>1149</v>
-      </c>
-      <c r="E31" s="5" t="s">
-        <v>1131</v>
-      </c>
-      <c r="F31" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="G31" s="38" t="s">
+      <c r="E32" s="5" t="s">
         <v>1130</v>
-      </c>
-      <c r="P31" s="2" t="s">
-        <v>1084</v>
-      </c>
-    </row>
-    <row r="32" spans="3:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D32" s="23" t="s">
-        <v>1150</v>
-      </c>
-      <c r="E32" s="5" t="s">
-        <v>1132</v>
       </c>
       <c r="F32" s="4" t="s">
         <v>0</v>
       </c>
       <c r="G32" s="38" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="P32" s="2" t="s">
-        <v>1084</v>
-      </c>
-    </row>
-    <row r="33" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" ht="15" customHeight="1">
       <c r="D33" s="23" t="s">
+        <v>1149</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>1131</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G33" s="38" t="s">
+        <v>1129</v>
+      </c>
+      <c r="P33" s="2" t="s">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" ht="15" customHeight="1">
+      <c r="D34" s="23" t="s">
+        <v>1150</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>1132</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>1074</v>
+      </c>
+      <c r="G34" s="38" t="s">
+        <v>1134</v>
+      </c>
+      <c r="P34" s="2" t="s">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" ht="15" customHeight="1">
+      <c r="D35" s="23" t="s">
         <v>1151</v>
       </c>
-      <c r="E33" s="5" t="s">
-        <v>1133</v>
-      </c>
-      <c r="F33" s="4" t="s">
+      <c r="E35" s="5" t="s">
+        <v>1024</v>
+      </c>
+      <c r="F35" s="4" t="s">
+        <v>1045</v>
+      </c>
+      <c r="G35" s="38" t="s">
+        <v>1232</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" ht="15" customHeight="1">
+      <c r="D36" s="23" t="s">
+        <v>1152</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>1025</v>
+      </c>
+      <c r="F36" s="4" t="s">
+        <v>1053</v>
+      </c>
+      <c r="G36" s="38" t="s">
         <v>1075</v>
       </c>
-      <c r="G33" s="38" t="s">
-        <v>1135</v>
-      </c>
-      <c r="P33" s="2" t="s">
-        <v>1084</v>
-      </c>
-    </row>
-    <row r="34" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D34" s="23" t="s">
-        <v>1152</v>
-      </c>
-      <c r="E34" s="5" t="s">
-        <v>1024</v>
-      </c>
-      <c r="F34" s="4" t="s">
-        <v>1045</v>
-      </c>
-      <c r="G34" s="38" t="s">
-        <v>1233</v>
-      </c>
-    </row>
-    <row r="35" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D35" s="23" t="s">
+    </row>
+    <row r="37" spans="1:16" ht="15" customHeight="1">
+      <c r="D37" s="23" t="s">
         <v>1153</v>
       </c>
-      <c r="E35" s="5" t="s">
-        <v>1025</v>
-      </c>
-      <c r="F35" s="4" t="s">
-        <v>1053</v>
-      </c>
-      <c r="G35" s="38" t="s">
+      <c r="E37" s="5" t="s">
+        <v>1026</v>
+      </c>
+      <c r="F37" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="G37" s="38" t="s">
         <v>1076</v>
       </c>
     </row>
-    <row r="36" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D36" s="23" t="s">
+    <row r="38" spans="1:16" ht="15" customHeight="1">
+      <c r="D38" s="23" t="s">
         <v>1154</v>
       </c>
-      <c r="E36" s="5" t="s">
-        <v>1026</v>
-      </c>
-      <c r="F36" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="G36" s="38" t="s">
+      <c r="E38" s="5" t="s">
+        <v>1027</v>
+      </c>
+      <c r="F38" s="4" t="s">
+        <v>1055</v>
+      </c>
+      <c r="G38" s="38" t="s">
         <v>1077</v>
       </c>
     </row>
-    <row r="37" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D37" s="23" t="s">
+    <row r="39" spans="1:16" ht="15" customHeight="1">
+      <c r="D39" s="23" t="s">
         <v>1155</v>
       </c>
-      <c r="E37" s="5" t="s">
-        <v>1027</v>
-      </c>
-      <c r="F37" s="4" t="s">
-        <v>1055</v>
-      </c>
-      <c r="G37" s="38" t="s">
+      <c r="E39" s="5" t="s">
+        <v>1028</v>
+      </c>
+      <c r="F39" s="4" t="s">
+        <v>1049</v>
+      </c>
+      <c r="G39" s="38" t="s">
         <v>1078</v>
       </c>
     </row>
-    <row r="38" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D38" s="23" t="s">
-        <v>1156</v>
-      </c>
-      <c r="E38" s="5" t="s">
-        <v>1028</v>
-      </c>
-      <c r="F38" s="4" t="s">
-        <v>1049</v>
-      </c>
-      <c r="G38" s="38" t="s">
-        <v>1079</v>
-      </c>
-    </row>
-    <row r="39" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="6">
+    <row r="40" spans="1:16" ht="15" customHeight="1">
+      <c r="A40" s="6">
         <v>13</v>
       </c>
-      <c r="B39" s="5" t="s">
+      <c r="B40" s="5" t="s">
         <v>1041</v>
       </c>
-      <c r="C39" s="5" t="s">
+      <c r="C40" s="5" t="s">
         <v>1042</v>
       </c>
-      <c r="D39" s="23" t="s">
+      <c r="D40" s="23" t="s">
         <v>1043</v>
-      </c>
-      <c r="E39" s="5" t="s">
-        <v>1203</v>
-      </c>
-      <c r="F39" s="4" t="s">
-        <v>1056</v>
-      </c>
-      <c r="G39" s="38" t="s">
-        <v>1081</v>
-      </c>
-    </row>
-    <row r="40" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D40" s="23" t="s">
-        <v>1141</v>
       </c>
       <c r="E40" s="5" t="s">
         <v>1202</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>1053</v>
+        <v>1056</v>
       </c>
       <c r="G40" s="38" t="s">
         <v>1080</v>
       </c>
     </row>
-    <row r="41" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:16" ht="15" customHeight="1">
       <c r="D41" s="23" t="s">
+        <v>1140</v>
+      </c>
+      <c r="E41" s="5" t="s">
+        <v>1201</v>
+      </c>
+      <c r="F41" s="4" t="s">
+        <v>1053</v>
+      </c>
+      <c r="G41" s="38" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" ht="15" customHeight="1">
+      <c r="D42" s="23" t="s">
+        <v>1141</v>
+      </c>
+      <c r="E42" s="5" t="s">
+        <v>1029</v>
+      </c>
+      <c r="F42" s="4" t="s">
+        <v>1057</v>
+      </c>
+      <c r="G42" s="38" t="s">
+        <v>1203</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" ht="15" customHeight="1">
+      <c r="D43" s="23" t="s">
         <v>1142</v>
       </c>
-      <c r="E41" s="5" t="s">
-        <v>1029</v>
-      </c>
-      <c r="F41" s="4" t="s">
-        <v>1057</v>
-      </c>
-      <c r="G41" s="38" t="s">
+      <c r="E43" s="5" t="s">
+        <v>1030</v>
+      </c>
+      <c r="F43" s="4" t="s">
+        <v>1058</v>
+      </c>
+      <c r="G43" s="38" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" ht="15" customHeight="1">
+      <c r="D44" s="23" t="s">
+        <v>1143</v>
+      </c>
+      <c r="E44" s="5" t="s">
         <v>1204</v>
       </c>
-    </row>
-    <row r="42" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D42" s="23" t="s">
-        <v>1143</v>
-      </c>
-      <c r="E42" s="5" t="s">
-        <v>1030</v>
-      </c>
-      <c r="F42" s="4" t="s">
+      <c r="F44" s="4" t="s">
+        <v>1050</v>
+      </c>
+      <c r="G44" s="38" t="s">
+        <v>1205</v>
+      </c>
+      <c r="N44" s="26"/>
+    </row>
+    <row r="45" spans="1:16" ht="15" customHeight="1">
+      <c r="D45" s="23" t="s">
+        <v>1177</v>
+      </c>
+      <c r="E45" s="5" t="s">
+        <v>1210</v>
+      </c>
+      <c r="F45" s="4" t="s">
+        <v>1182</v>
+      </c>
+      <c r="G45" s="38" t="s">
+        <v>1214</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" ht="15" customHeight="1">
+      <c r="D46" s="23" t="s">
+        <v>1181</v>
+      </c>
+      <c r="E46" s="5" t="s">
+        <v>1206</v>
+      </c>
+      <c r="F46" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G46" s="38" t="s">
+        <v>1207</v>
+      </c>
+      <c r="N46" s="26"/>
+    </row>
+    <row r="47" spans="1:16" ht="15" customHeight="1">
+      <c r="C47" s="5" t="s">
+        <v>1044</v>
+      </c>
+      <c r="D47" s="23" t="s">
+        <v>1179</v>
+      </c>
+      <c r="E47" s="5" t="s">
+        <v>1211</v>
+      </c>
+      <c r="F47" s="4" t="s">
+        <v>1050</v>
+      </c>
+      <c r="G47" s="38" t="s">
+        <v>1208</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" ht="15" customHeight="1">
+      <c r="D48" s="23" t="s">
+        <v>1188</v>
+      </c>
+      <c r="E48" s="5" t="s">
+        <v>1212</v>
+      </c>
+      <c r="F48" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G48" s="38" t="s">
+        <v>1209</v>
+      </c>
+    </row>
+    <row r="49" spans="4:7" ht="15" customHeight="1">
+      <c r="D49" s="23" t="s">
+        <v>1189</v>
+      </c>
+      <c r="E49" s="5" t="s">
+        <v>1213</v>
+      </c>
+      <c r="F49" s="4" t="s">
+        <v>1050</v>
+      </c>
+      <c r="G49" s="38" t="s">
+        <v>1215</v>
+      </c>
+    </row>
+    <row r="50" spans="4:7" ht="15" customHeight="1">
+      <c r="D50" s="23" t="s">
+        <v>1190</v>
+      </c>
+      <c r="E50" s="5" t="s">
+        <v>1031</v>
+      </c>
+      <c r="F50" s="4" t="s">
+        <v>1045</v>
+      </c>
+      <c r="G50" s="38" t="s">
+        <v>1219</v>
+      </c>
+    </row>
+    <row r="51" spans="4:7" ht="15" customHeight="1">
+      <c r="D51" s="23" t="s">
+        <v>1191</v>
+      </c>
+      <c r="E51" s="5" t="s">
+        <v>1216</v>
+      </c>
+      <c r="F51" s="4" t="s">
         <v>1058</v>
       </c>
-      <c r="G42" s="38" t="s">
-        <v>1080</v>
-      </c>
-    </row>
-    <row r="43" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D43" s="23" t="s">
-        <v>1144</v>
-      </c>
-      <c r="E43" s="5" t="s">
-        <v>1205</v>
-      </c>
-      <c r="F43" s="4" t="s">
-        <v>1050</v>
-      </c>
-      <c r="G43" s="38" t="s">
-        <v>1206</v>
-      </c>
-      <c r="N43" s="26"/>
-    </row>
-    <row r="44" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D44" s="23" t="s">
-        <v>1178</v>
-      </c>
-      <c r="E44" s="5" t="s">
-        <v>1211</v>
-      </c>
-      <c r="F44" s="4" t="s">
-        <v>1183</v>
-      </c>
-      <c r="G44" s="38" t="s">
-        <v>1215</v>
-      </c>
-    </row>
-    <row r="45" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D45" s="23" t="s">
-        <v>1182</v>
-      </c>
-      <c r="E45" s="5" t="s">
-        <v>1207</v>
-      </c>
-      <c r="F45" s="4" t="s">
+      <c r="G51" s="38" t="s">
+        <v>1217</v>
+      </c>
+    </row>
+    <row r="52" spans="4:7" ht="15" customHeight="1">
+      <c r="D52" s="23" t="s">
+        <v>1192</v>
+      </c>
+      <c r="E52" s="5" t="s">
+        <v>1218</v>
+      </c>
+      <c r="F52" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="G45" s="38" t="s">
-        <v>1208</v>
-      </c>
-      <c r="N45" s="26"/>
-    </row>
-    <row r="46" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C46" s="5" t="s">
-        <v>1044</v>
-      </c>
-      <c r="D46" s="23" t="s">
-        <v>1180</v>
-      </c>
-      <c r="E46" s="5" t="s">
-        <v>1212</v>
-      </c>
-      <c r="F46" s="4" t="s">
-        <v>1050</v>
-      </c>
-      <c r="G46" s="38" t="s">
-        <v>1209</v>
-      </c>
-    </row>
-    <row r="47" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D47" s="23" t="s">
-        <v>1189</v>
-      </c>
-      <c r="E47" s="5" t="s">
-        <v>1213</v>
-      </c>
-      <c r="F47" s="4" t="s">
+      <c r="G52" s="38" t="s">
+        <v>1220</v>
+      </c>
+    </row>
+    <row r="53" spans="4:7" ht="15" customHeight="1">
+      <c r="D53" s="23" t="s">
+        <v>1221</v>
+      </c>
+      <c r="E53" s="5" t="s">
+        <v>1032</v>
+      </c>
+      <c r="F53" s="4" t="s">
+        <v>1053</v>
+      </c>
+      <c r="G53" s="38" t="s">
+        <v>1222</v>
+      </c>
+    </row>
+    <row r="54" spans="4:7" ht="15" customHeight="1">
+      <c r="D54" s="23" t="s">
+        <v>1193</v>
+      </c>
+      <c r="E54" s="5" t="s">
+        <v>1033</v>
+      </c>
+      <c r="F54" s="4" t="s">
+        <v>1059</v>
+      </c>
+      <c r="G54" s="38" t="s">
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="55" spans="4:7" ht="15" customHeight="1">
+      <c r="D55" s="23" t="s">
+        <v>1194</v>
+      </c>
+      <c r="E55" s="5" t="s">
+        <v>1034</v>
+      </c>
+      <c r="F55" s="4" t="s">
+        <v>1058</v>
+      </c>
+      <c r="G55" s="38" t="s">
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="56" spans="4:7" ht="15" customHeight="1">
+      <c r="D56" s="23" t="s">
+        <v>1195</v>
+      </c>
+      <c r="E56" s="5" t="s">
+        <v>1223</v>
+      </c>
+      <c r="F56" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G56" s="38" t="s">
+        <v>1186</v>
+      </c>
+    </row>
+    <row r="57" spans="4:7" ht="15" customHeight="1">
+      <c r="D57" s="23" t="s">
+        <v>1196</v>
+      </c>
+      <c r="E57" s="5" t="s">
+        <v>1224</v>
+      </c>
+      <c r="F57" s="4" t="s">
+        <v>1184</v>
+      </c>
+      <c r="G57" s="38" t="s">
+        <v>1225</v>
+      </c>
+    </row>
+    <row r="58" spans="4:7" ht="15" customHeight="1">
+      <c r="D58" s="23" t="s">
+        <v>1197</v>
+      </c>
+      <c r="E58" s="5" t="s">
+        <v>1226</v>
+      </c>
+      <c r="F58" s="4" t="s">
+        <v>1187</v>
+      </c>
+      <c r="G58" s="38" t="s">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="59" spans="4:7" ht="15" customHeight="1">
+      <c r="D59" s="23" t="s">
+        <v>1198</v>
+      </c>
+      <c r="E59" s="5" t="s">
+        <v>1228</v>
+      </c>
+      <c r="F59" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="G47" s="38" t="s">
-        <v>1210</v>
-      </c>
-    </row>
-    <row r="48" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D48" s="23" t="s">
-        <v>1190</v>
-      </c>
-      <c r="E48" s="5" t="s">
-        <v>1214</v>
-      </c>
-      <c r="F48" s="4" t="s">
-        <v>1050</v>
-      </c>
-      <c r="G48" s="38" t="s">
-        <v>1216</v>
-      </c>
-    </row>
-    <row r="49" spans="4:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D49" s="23" t="s">
-        <v>1191</v>
-      </c>
-      <c r="E49" s="5" t="s">
-        <v>1031</v>
-      </c>
-      <c r="F49" s="4" t="s">
-        <v>1045</v>
-      </c>
-      <c r="G49" s="38" t="s">
-        <v>1220</v>
-      </c>
-    </row>
-    <row r="50" spans="4:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D50" s="23" t="s">
-        <v>1192</v>
-      </c>
-      <c r="E50" s="5" t="s">
-        <v>1217</v>
-      </c>
-      <c r="F50" s="4" t="s">
-        <v>1058</v>
-      </c>
-      <c r="G50" s="38" t="s">
-        <v>1218</v>
-      </c>
-    </row>
-    <row r="51" spans="4:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D51" s="23" t="s">
-        <v>1193</v>
-      </c>
-      <c r="E51" s="5" t="s">
-        <v>1219</v>
-      </c>
-      <c r="F51" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G51" s="38" t="s">
-        <v>1221</v>
-      </c>
-    </row>
-    <row r="52" spans="4:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D52" s="23" t="s">
-        <v>1222</v>
-      </c>
-      <c r="E52" s="5" t="s">
-        <v>1032</v>
-      </c>
-      <c r="F52" s="4" t="s">
-        <v>1053</v>
-      </c>
-      <c r="G52" s="38" t="s">
-        <v>1223</v>
-      </c>
-    </row>
-    <row r="53" spans="4:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D53" s="23" t="s">
-        <v>1194</v>
-      </c>
-      <c r="E53" s="5" t="s">
-        <v>1033</v>
-      </c>
-      <c r="F53" s="4" t="s">
-        <v>1059</v>
-      </c>
-      <c r="G53" s="38" t="s">
-        <v>1186</v>
-      </c>
-    </row>
-    <row r="54" spans="4:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D54" s="23" t="s">
-        <v>1195</v>
-      </c>
-      <c r="E54" s="5" t="s">
-        <v>1034</v>
-      </c>
-      <c r="F54" s="4" t="s">
-        <v>1058</v>
-      </c>
-      <c r="G54" s="38" t="s">
-        <v>1186</v>
-      </c>
-    </row>
-    <row r="55" spans="4:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D55" s="23" t="s">
-        <v>1196</v>
-      </c>
-      <c r="E55" s="5" t="s">
-        <v>1224</v>
-      </c>
-      <c r="F55" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="G55" s="38" t="s">
-        <v>1187</v>
-      </c>
-    </row>
-    <row r="56" spans="4:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D56" s="23" t="s">
-        <v>1197</v>
-      </c>
-      <c r="E56" s="5" t="s">
-        <v>1225</v>
-      </c>
-      <c r="F56" s="4" t="s">
-        <v>1185</v>
-      </c>
-      <c r="G56" s="38" t="s">
-        <v>1226</v>
-      </c>
-    </row>
-    <row r="57" spans="4:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D57" s="23" t="s">
-        <v>1198</v>
-      </c>
-      <c r="E57" s="5" t="s">
-        <v>1227</v>
-      </c>
-      <c r="F57" s="4" t="s">
-        <v>1188</v>
-      </c>
-      <c r="G57" s="38" t="s">
-        <v>1228</v>
-      </c>
-    </row>
-    <row r="58" spans="4:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D58" s="23" t="s">
-        <v>1199</v>
-      </c>
-      <c r="E58" s="5" t="s">
+      <c r="G59" s="38" t="s">
         <v>1229</v>
       </c>
-      <c r="F58" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G58" s="38" t="s">
-        <v>1230</v>
-      </c>
-    </row>
-    <row r="92" spans="1:16" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A92" s="6"/>
-      <c r="D92" s="23"/>
-      <c r="F92" s="4"/>
-      <c r="G92" s="38"/>
-      <c r="H92" s="24"/>
-      <c r="I92" s="24"/>
-      <c r="J92" s="24"/>
-      <c r="K92" s="25"/>
-      <c r="L92" s="25"/>
-      <c r="M92" s="25"/>
-      <c r="N92" s="24"/>
-      <c r="O92" s="34"/>
-      <c r="P92" s="2"/>
-    </row>
-    <row r="93" spans="1:16" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="93" spans="1:16" s="5" customFormat="1" ht="15" customHeight="1">
       <c r="A93" s="6"/>
       <c r="D93" s="23"/>
-      <c r="E93" s="18"/>
       <c r="F93" s="4"/>
       <c r="G93" s="38"/>
       <c r="H93" s="24"/>
@@ -18659,7 +18798,7 @@
       <c r="O93" s="34"/>
       <c r="P93" s="2"/>
     </row>
-    <row r="94" spans="1:16" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:16" s="5" customFormat="1" ht="15" customHeight="1">
       <c r="A94" s="6"/>
       <c r="D94" s="23"/>
       <c r="E94" s="18"/>
@@ -18675,9 +18814,10 @@
       <c r="O94" s="34"/>
       <c r="P94" s="2"/>
     </row>
-    <row r="95" spans="1:16" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:16" s="5" customFormat="1" ht="15" customHeight="1">
       <c r="A95" s="6"/>
       <c r="D95" s="23"/>
+      <c r="E95" s="18"/>
       <c r="F95" s="4"/>
       <c r="G95" s="38"/>
       <c r="H95" s="24"/>
@@ -18690,12 +18830,9 @@
       <c r="O95" s="34"/>
       <c r="P95" s="2"/>
     </row>
-    <row r="96" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:16" s="5" customFormat="1" ht="15" customHeight="1">
       <c r="A96" s="6"/>
-      <c r="B96" s="5"/>
-      <c r="C96" s="5"/>
       <c r="D96" s="23"/>
-      <c r="E96" s="5"/>
       <c r="F96" s="4"/>
       <c r="G96" s="38"/>
       <c r="H96" s="24"/>
@@ -18708,7 +18845,7 @@
       <c r="O96" s="34"/>
       <c r="P96" s="2"/>
     </row>
-    <row r="97" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1">
       <c r="A97" s="6"/>
       <c r="B97" s="5"/>
       <c r="C97" s="5"/>
@@ -18726,7 +18863,7 @@
       <c r="O97" s="34"/>
       <c r="P97" s="2"/>
     </row>
-    <row r="98" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1">
       <c r="A98" s="6"/>
       <c r="B98" s="5"/>
       <c r="C98" s="5"/>
@@ -18744,7 +18881,7 @@
       <c r="O98" s="34"/>
       <c r="P98" s="2"/>
     </row>
-    <row r="99" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1">
       <c r="A99" s="6"/>
       <c r="B99" s="5"/>
       <c r="C99" s="5"/>
@@ -18762,7 +18899,7 @@
       <c r="O99" s="34"/>
       <c r="P99" s="2"/>
     </row>
-    <row r="100" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1">
       <c r="A100" s="6"/>
       <c r="B100" s="5"/>
       <c r="C100" s="5"/>
@@ -18780,7 +18917,7 @@
       <c r="O100" s="34"/>
       <c r="P100" s="2"/>
     </row>
-    <row r="101" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1">
       <c r="A101" s="6"/>
       <c r="B101" s="5"/>
       <c r="C101" s="5"/>
@@ -18798,7 +18935,7 @@
       <c r="O101" s="34"/>
       <c r="P101" s="2"/>
     </row>
-    <row r="102" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1">
       <c r="A102" s="6"/>
       <c r="B102" s="5"/>
       <c r="C102" s="5"/>
@@ -18816,7 +18953,7 @@
       <c r="O102" s="34"/>
       <c r="P102" s="2"/>
     </row>
-    <row r="103" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1">
       <c r="A103" s="6"/>
       <c r="B103" s="5"/>
       <c r="C103" s="5"/>
@@ -18834,7 +18971,7 @@
       <c r="O103" s="34"/>
       <c r="P103" s="2"/>
     </row>
-    <row r="104" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1">
       <c r="A104" s="6"/>
       <c r="B104" s="5"/>
       <c r="C104" s="5"/>
@@ -18852,7 +18989,7 @@
       <c r="O104" s="34"/>
       <c r="P104" s="2"/>
     </row>
-    <row r="105" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1">
       <c r="A105" s="6"/>
       <c r="B105" s="5"/>
       <c r="C105" s="5"/>
@@ -18870,7 +19007,7 @@
       <c r="O105" s="34"/>
       <c r="P105" s="2"/>
     </row>
-    <row r="106" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1">
       <c r="A106" s="6"/>
       <c r="B106" s="5"/>
       <c r="C106" s="5"/>
@@ -18888,7 +19025,7 @@
       <c r="O106" s="34"/>
       <c r="P106" s="2"/>
     </row>
-    <row r="107" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1">
       <c r="A107" s="6"/>
       <c r="B107" s="5"/>
       <c r="C107" s="5"/>
@@ -18906,7 +19043,7 @@
       <c r="O107" s="34"/>
       <c r="P107" s="2"/>
     </row>
-    <row r="108" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1">
       <c r="A108" s="6"/>
       <c r="B108" s="5"/>
       <c r="C108" s="5"/>
@@ -18924,7 +19061,7 @@
       <c r="O108" s="34"/>
       <c r="P108" s="2"/>
     </row>
-    <row r="109" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1">
       <c r="A109" s="6"/>
       <c r="B109" s="5"/>
       <c r="C109" s="5"/>
@@ -18942,7 +19079,7 @@
       <c r="O109" s="34"/>
       <c r="P109" s="2"/>
     </row>
-    <row r="110" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1">
       <c r="A110" s="6"/>
       <c r="B110" s="5"/>
       <c r="C110" s="5"/>
@@ -18960,7 +19097,7 @@
       <c r="O110" s="34"/>
       <c r="P110" s="2"/>
     </row>
-    <row r="111" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1">
       <c r="A111" s="6"/>
       <c r="B111" s="5"/>
       <c r="C111" s="5"/>
@@ -18978,7 +19115,7 @@
       <c r="O111" s="34"/>
       <c r="P111" s="2"/>
     </row>
-    <row r="112" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1">
       <c r="A112" s="6"/>
       <c r="B112" s="5"/>
       <c r="C112" s="5"/>
@@ -18996,7 +19133,7 @@
       <c r="O112" s="34"/>
       <c r="P112" s="2"/>
     </row>
-    <row r="113" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1">
       <c r="A113" s="6"/>
       <c r="B113" s="5"/>
       <c r="C113" s="5"/>
@@ -19014,7 +19151,7 @@
       <c r="O113" s="34"/>
       <c r="P113" s="2"/>
     </row>
-    <row r="114" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1">
       <c r="A114" s="6"/>
       <c r="B114" s="5"/>
       <c r="C114" s="5"/>
@@ -19032,7 +19169,7 @@
       <c r="O114" s="34"/>
       <c r="P114" s="2"/>
     </row>
-    <row r="115" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1">
       <c r="A115" s="6"/>
       <c r="B115" s="5"/>
       <c r="C115" s="5"/>
@@ -19050,7 +19187,7 @@
       <c r="O115" s="34"/>
       <c r="P115" s="2"/>
     </row>
-    <row r="116" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1">
       <c r="A116" s="6"/>
       <c r="B116" s="5"/>
       <c r="C116" s="5"/>
@@ -19068,7 +19205,7 @@
       <c r="O116" s="34"/>
       <c r="P116" s="2"/>
     </row>
-    <row r="117" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1">
       <c r="A117" s="6"/>
       <c r="B117" s="5"/>
       <c r="C117" s="5"/>
@@ -19086,7 +19223,7 @@
       <c r="O117" s="34"/>
       <c r="P117" s="2"/>
     </row>
-    <row r="118" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1">
       <c r="A118" s="6"/>
       <c r="B118" s="5"/>
       <c r="C118" s="5"/>
@@ -19104,7 +19241,7 @@
       <c r="O118" s="34"/>
       <c r="P118" s="2"/>
     </row>
-    <row r="119" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1">
       <c r="A119" s="6"/>
       <c r="B119" s="5"/>
       <c r="C119" s="5"/>
@@ -19122,7 +19259,7 @@
       <c r="O119" s="34"/>
       <c r="P119" s="2"/>
     </row>
-    <row r="120" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1">
       <c r="A120" s="6"/>
       <c r="B120" s="5"/>
       <c r="C120" s="5"/>
@@ -19140,7 +19277,7 @@
       <c r="O120" s="34"/>
       <c r="P120" s="2"/>
     </row>
-    <row r="121" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1">
       <c r="A121" s="6"/>
       <c r="B121" s="5"/>
       <c r="C121" s="5"/>
@@ -19158,7 +19295,7 @@
       <c r="O121" s="34"/>
       <c r="P121" s="2"/>
     </row>
-    <row r="122" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1">
       <c r="A122" s="6"/>
       <c r="B122" s="5"/>
       <c r="C122" s="5"/>
@@ -19176,12 +19313,12 @@
       <c r="O122" s="34"/>
       <c r="P122" s="2"/>
     </row>
-    <row r="123" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1">
       <c r="A123" s="6"/>
       <c r="B123" s="5"/>
       <c r="C123" s="5"/>
       <c r="D123" s="23"/>
-      <c r="E123" s="16"/>
+      <c r="E123" s="5"/>
       <c r="F123" s="4"/>
       <c r="G123" s="38"/>
       <c r="H123" s="24"/>
@@ -19194,12 +19331,12 @@
       <c r="O123" s="34"/>
       <c r="P123" s="2"/>
     </row>
-    <row r="124" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1">
       <c r="A124" s="6"/>
       <c r="B124" s="5"/>
       <c r="C124" s="5"/>
       <c r="D124" s="23"/>
-      <c r="E124" s="5"/>
+      <c r="E124" s="16"/>
       <c r="F124" s="4"/>
       <c r="G124" s="38"/>
       <c r="H124" s="24"/>
@@ -19212,7 +19349,7 @@
       <c r="O124" s="34"/>
       <c r="P124" s="2"/>
     </row>
-    <row r="125" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1">
       <c r="A125" s="6"/>
       <c r="B125" s="5"/>
       <c r="C125" s="5"/>
@@ -19230,7 +19367,7 @@
       <c r="O125" s="34"/>
       <c r="P125" s="2"/>
     </row>
-    <row r="126" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1">
       <c r="A126" s="6"/>
       <c r="B126" s="5"/>
       <c r="C126" s="5"/>
@@ -19248,7 +19385,7 @@
       <c r="O126" s="34"/>
       <c r="P126" s="2"/>
     </row>
-    <row r="127" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1">
       <c r="A127" s="6"/>
       <c r="B127" s="5"/>
       <c r="C127" s="5"/>
@@ -19266,7 +19403,7 @@
       <c r="O127" s="34"/>
       <c r="P127" s="2"/>
     </row>
-    <row r="128" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1">
       <c r="A128" s="6"/>
       <c r="B128" s="5"/>
       <c r="C128" s="5"/>
@@ -19284,12 +19421,12 @@
       <c r="O128" s="34"/>
       <c r="P128" s="2"/>
     </row>
-    <row r="129" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1">
       <c r="A129" s="6"/>
       <c r="B129" s="5"/>
       <c r="C129" s="5"/>
       <c r="D129" s="23"/>
-      <c r="E129" s="16"/>
+      <c r="E129" s="5"/>
       <c r="F129" s="4"/>
       <c r="G129" s="38"/>
       <c r="H129" s="24"/>
@@ -19302,7 +19439,7 @@
       <c r="O129" s="34"/>
       <c r="P129" s="2"/>
     </row>
-    <row r="130" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1">
       <c r="A130" s="6"/>
       <c r="B130" s="5"/>
       <c r="C130" s="5"/>
@@ -19320,8 +19457,10 @@
       <c r="O130" s="34"/>
       <c r="P130" s="2"/>
     </row>
-    <row r="131" spans="1:16" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1">
       <c r="A131" s="6"/>
+      <c r="B131" s="5"/>
+      <c r="C131" s="5"/>
       <c r="D131" s="23"/>
       <c r="E131" s="16"/>
       <c r="F131" s="4"/>
@@ -19336,9 +19475,10 @@
       <c r="O131" s="34"/>
       <c r="P131" s="2"/>
     </row>
-    <row r="132" spans="1:16" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:16" s="5" customFormat="1" ht="15" customHeight="1">
       <c r="A132" s="6"/>
       <c r="D132" s="23"/>
+      <c r="E132" s="16"/>
       <c r="F132" s="4"/>
       <c r="G132" s="38"/>
       <c r="H132" s="24"/>
@@ -19351,7 +19491,7 @@
       <c r="O132" s="34"/>
       <c r="P132" s="2"/>
     </row>
-    <row r="133" spans="1:16" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:16" s="5" customFormat="1" ht="15" customHeight="1">
       <c r="A133" s="6"/>
       <c r="D133" s="23"/>
       <c r="F133" s="4"/>
@@ -19366,7 +19506,7 @@
       <c r="O133" s="34"/>
       <c r="P133" s="2"/>
     </row>
-    <row r="134" spans="1:16" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:16" s="5" customFormat="1" ht="15" customHeight="1">
       <c r="A134" s="6"/>
       <c r="D134" s="23"/>
       <c r="F134" s="4"/>
@@ -19381,7 +19521,7 @@
       <c r="O134" s="34"/>
       <c r="P134" s="2"/>
     </row>
-    <row r="135" spans="1:16" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:16" s="5" customFormat="1" ht="15" customHeight="1">
       <c r="A135" s="6"/>
       <c r="D135" s="23"/>
       <c r="F135" s="4"/>
@@ -19396,7 +19536,7 @@
       <c r="O135" s="34"/>
       <c r="P135" s="2"/>
     </row>
-    <row r="136" spans="1:16" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:16" s="5" customFormat="1" ht="15" customHeight="1">
       <c r="A136" s="6"/>
       <c r="D136" s="23"/>
       <c r="F136" s="4"/>
@@ -19411,7 +19551,7 @@
       <c r="O136" s="34"/>
       <c r="P136" s="2"/>
     </row>
-    <row r="137" spans="1:16" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="137" spans="1:16" s="5" customFormat="1" ht="15" customHeight="1">
       <c r="A137" s="6"/>
       <c r="D137" s="23"/>
       <c r="F137" s="4"/>
@@ -19426,7 +19566,7 @@
       <c r="O137" s="34"/>
       <c r="P137" s="2"/>
     </row>
-    <row r="138" spans="1:16" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:16" s="5" customFormat="1" ht="15" customHeight="1">
       <c r="A138" s="6"/>
       <c r="D138" s="23"/>
       <c r="F138" s="4"/>
@@ -19441,7 +19581,7 @@
       <c r="O138" s="34"/>
       <c r="P138" s="2"/>
     </row>
-    <row r="139" spans="1:16" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="139" spans="1:16" s="5" customFormat="1" ht="15" customHeight="1">
       <c r="A139" s="6"/>
       <c r="D139" s="23"/>
       <c r="F139" s="4"/>
@@ -19450,13 +19590,13 @@
       <c r="I139" s="24"/>
       <c r="J139" s="24"/>
       <c r="K139" s="25"/>
-      <c r="L139" s="28"/>
-      <c r="M139" s="27"/>
+      <c r="L139" s="25"/>
+      <c r="M139" s="25"/>
       <c r="N139" s="24"/>
       <c r="O139" s="34"/>
       <c r="P139" s="2"/>
     </row>
-    <row r="140" spans="1:16" s="5" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:16" s="5" customFormat="1" ht="15" customHeight="1">
       <c r="A140" s="6"/>
       <c r="D140" s="23"/>
       <c r="F140" s="4"/>
@@ -19464,14 +19604,14 @@
       <c r="H140" s="24"/>
       <c r="I140" s="24"/>
       <c r="J140" s="24"/>
-      <c r="K140" s="26"/>
-      <c r="L140" s="26"/>
-      <c r="M140" s="26"/>
+      <c r="K140" s="25"/>
+      <c r="L140" s="28"/>
+      <c r="M140" s="27"/>
       <c r="N140" s="24"/>
       <c r="O140" s="34"/>
       <c r="P140" s="2"/>
     </row>
-    <row r="141" spans="1:16" s="5" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:16" s="5" customFormat="1" ht="46.5" customHeight="1">
       <c r="A141" s="6"/>
       <c r="D141" s="23"/>
       <c r="F141" s="4"/>
@@ -19479,14 +19619,14 @@
       <c r="H141" s="24"/>
       <c r="I141" s="24"/>
       <c r="J141" s="24"/>
-      <c r="K141" s="25"/>
-      <c r="L141" s="25"/>
-      <c r="M141" s="25"/>
+      <c r="K141" s="26"/>
+      <c r="L141" s="26"/>
+      <c r="M141" s="26"/>
       <c r="N141" s="24"/>
       <c r="O141" s="34"/>
       <c r="P141" s="2"/>
     </row>
-    <row r="142" spans="1:16" s="5" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="142" spans="1:16" s="5" customFormat="1" ht="45" customHeight="1">
       <c r="A142" s="6"/>
       <c r="D142" s="23"/>
       <c r="F142" s="4"/>
@@ -19501,7 +19641,7 @@
       <c r="O142" s="34"/>
       <c r="P142" s="2"/>
     </row>
-    <row r="143" spans="1:16" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="143" spans="1:16" s="5" customFormat="1" ht="35.25" customHeight="1">
       <c r="A143" s="6"/>
       <c r="D143" s="23"/>
       <c r="F143" s="4"/>
@@ -19511,12 +19651,12 @@
       <c r="J143" s="24"/>
       <c r="K143" s="25"/>
       <c r="L143" s="25"/>
-      <c r="M143" s="27"/>
+      <c r="M143" s="25"/>
       <c r="N143" s="24"/>
       <c r="O143" s="34"/>
       <c r="P143" s="2"/>
     </row>
-    <row r="144" spans="1:16" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="144" spans="1:16" s="5" customFormat="1" ht="15" customHeight="1">
       <c r="A144" s="6"/>
       <c r="D144" s="23"/>
       <c r="F144" s="4"/>
@@ -19525,31 +19665,28 @@
       <c r="I144" s="24"/>
       <c r="J144" s="24"/>
       <c r="K144" s="25"/>
-      <c r="L144" s="28"/>
+      <c r="L144" s="25"/>
       <c r="M144" s="27"/>
       <c r="N144" s="24"/>
       <c r="O144" s="34"/>
       <c r="P144" s="2"/>
     </row>
-    <row r="145" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="145" spans="1:16" s="5" customFormat="1" ht="15" customHeight="1">
       <c r="A145" s="6"/>
-      <c r="B145" s="5"/>
-      <c r="C145" s="5"/>
       <c r="D145" s="23"/>
-      <c r="E145" s="5"/>
       <c r="F145" s="4"/>
       <c r="G145" s="38"/>
       <c r="H145" s="24"/>
       <c r="I145" s="24"/>
       <c r="J145" s="24"/>
       <c r="K145" s="25"/>
-      <c r="L145" s="25"/>
-      <c r="M145" s="25"/>
+      <c r="L145" s="28"/>
+      <c r="M145" s="27"/>
       <c r="N145" s="24"/>
       <c r="O145" s="34"/>
       <c r="P145" s="2"/>
     </row>
-    <row r="146" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="146" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1">
       <c r="A146" s="6"/>
       <c r="B146" s="5"/>
       <c r="C146" s="5"/>
@@ -19567,7 +19704,7 @@
       <c r="O146" s="34"/>
       <c r="P146" s="2"/>
     </row>
-    <row r="147" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="147" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1">
       <c r="A147" s="6"/>
       <c r="B147" s="5"/>
       <c r="C147" s="5"/>
@@ -19585,7 +19722,7 @@
       <c r="O147" s="34"/>
       <c r="P147" s="2"/>
     </row>
-    <row r="148" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="148" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1">
       <c r="A148" s="6"/>
       <c r="B148" s="5"/>
       <c r="C148" s="5"/>
@@ -19603,7 +19740,7 @@
       <c r="O148" s="34"/>
       <c r="P148" s="2"/>
     </row>
-    <row r="149" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="149" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1">
       <c r="A149" s="6"/>
       <c r="B149" s="5"/>
       <c r="C149" s="5"/>
@@ -19621,7 +19758,7 @@
       <c r="O149" s="34"/>
       <c r="P149" s="2"/>
     </row>
-    <row r="150" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="150" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1">
       <c r="A150" s="6"/>
       <c r="B150" s="5"/>
       <c r="C150" s="5"/>
@@ -19639,7 +19776,7 @@
       <c r="O150" s="34"/>
       <c r="P150" s="2"/>
     </row>
-    <row r="151" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="151" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1">
       <c r="A151" s="6"/>
       <c r="B151" s="5"/>
       <c r="C151" s="5"/>
@@ -19657,7 +19794,7 @@
       <c r="O151" s="34"/>
       <c r="P151" s="2"/>
     </row>
-    <row r="152" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="152" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1">
       <c r="A152" s="6"/>
       <c r="B152" s="5"/>
       <c r="C152" s="5"/>
@@ -19675,7 +19812,7 @@
       <c r="O152" s="34"/>
       <c r="P152" s="2"/>
     </row>
-    <row r="153" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="153" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1">
       <c r="A153" s="6"/>
       <c r="B153" s="5"/>
       <c r="C153" s="5"/>
@@ -19693,7 +19830,7 @@
       <c r="O153" s="34"/>
       <c r="P153" s="2"/>
     </row>
-    <row r="154" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="154" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1">
       <c r="A154" s="6"/>
       <c r="B154" s="5"/>
       <c r="C154" s="5"/>
@@ -19711,7 +19848,7 @@
       <c r="O154" s="34"/>
       <c r="P154" s="2"/>
     </row>
-    <row r="155" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="155" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1">
       <c r="A155" s="6"/>
       <c r="B155" s="5"/>
       <c r="C155" s="5"/>
@@ -19729,7 +19866,7 @@
       <c r="O155" s="34"/>
       <c r="P155" s="2"/>
     </row>
-    <row r="156" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="156" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1">
       <c r="A156" s="6"/>
       <c r="B156" s="5"/>
       <c r="C156" s="5"/>
@@ -19747,7 +19884,7 @@
       <c r="O156" s="34"/>
       <c r="P156" s="2"/>
     </row>
-    <row r="157" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="157" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1">
       <c r="A157" s="6"/>
       <c r="B157" s="5"/>
       <c r="C157" s="5"/>
@@ -19765,7 +19902,7 @@
       <c r="O157" s="34"/>
       <c r="P157" s="2"/>
     </row>
-    <row r="158" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="158" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1">
       <c r="A158" s="6"/>
       <c r="B158" s="5"/>
       <c r="C158" s="5"/>
@@ -19783,12 +19920,12 @@
       <c r="O158" s="34"/>
       <c r="P158" s="2"/>
     </row>
-    <row r="159" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="159" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1">
       <c r="A159" s="6"/>
       <c r="B159" s="5"/>
       <c r="C159" s="5"/>
       <c r="D159" s="23"/>
-      <c r="E159" s="18"/>
+      <c r="E159" s="5"/>
       <c r="F159" s="4"/>
       <c r="G159" s="38"/>
       <c r="H159" s="24"/>
@@ -19801,7 +19938,7 @@
       <c r="O159" s="34"/>
       <c r="P159" s="2"/>
     </row>
-    <row r="160" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="160" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1">
       <c r="A160" s="6"/>
       <c r="B160" s="5"/>
       <c r="C160" s="5"/>
@@ -19819,12 +19956,12 @@
       <c r="O160" s="34"/>
       <c r="P160" s="2"/>
     </row>
-    <row r="161" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="161" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1">
       <c r="A161" s="6"/>
       <c r="B161" s="5"/>
       <c r="C161" s="5"/>
       <c r="D161" s="23"/>
-      <c r="E161" s="5"/>
+      <c r="E161" s="18"/>
       <c r="F161" s="4"/>
       <c r="G161" s="38"/>
       <c r="H161" s="24"/>
@@ -19837,7 +19974,7 @@
       <c r="O161" s="34"/>
       <c r="P161" s="2"/>
     </row>
-    <row r="162" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="162" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1">
       <c r="A162" s="6"/>
       <c r="B162" s="5"/>
       <c r="C162" s="5"/>
@@ -19855,7 +19992,7 @@
       <c r="O162" s="34"/>
       <c r="P162" s="2"/>
     </row>
-    <row r="163" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="163" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1">
       <c r="A163" s="6"/>
       <c r="B163" s="5"/>
       <c r="C163" s="5"/>
@@ -19873,7 +20010,7 @@
       <c r="O163" s="34"/>
       <c r="P163" s="2"/>
     </row>
-    <row r="164" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="164" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1">
       <c r="A164" s="6"/>
       <c r="B164" s="5"/>
       <c r="C164" s="5"/>
@@ -19891,7 +20028,7 @@
       <c r="O164" s="34"/>
       <c r="P164" s="2"/>
     </row>
-    <row r="165" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="165" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1">
       <c r="A165" s="6"/>
       <c r="B165" s="5"/>
       <c r="C165" s="5"/>
@@ -19909,7 +20046,7 @@
       <c r="O165" s="34"/>
       <c r="P165" s="2"/>
     </row>
-    <row r="166" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="166" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1">
       <c r="A166" s="6"/>
       <c r="B166" s="5"/>
       <c r="C166" s="5"/>
@@ -19927,12 +20064,12 @@
       <c r="O166" s="34"/>
       <c r="P166" s="2"/>
     </row>
-    <row r="167" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="167" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1">
       <c r="A167" s="6"/>
       <c r="B167" s="5"/>
       <c r="C167" s="5"/>
       <c r="D167" s="23"/>
-      <c r="E167" s="18"/>
+      <c r="E167" s="5"/>
       <c r="F167" s="4"/>
       <c r="G167" s="38"/>
       <c r="H167" s="24"/>
@@ -19945,7 +20082,7 @@
       <c r="O167" s="34"/>
       <c r="P167" s="2"/>
     </row>
-    <row r="168" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="168" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1">
       <c r="A168" s="6"/>
       <c r="B168" s="5"/>
       <c r="C168" s="5"/>
@@ -19963,12 +20100,12 @@
       <c r="O168" s="34"/>
       <c r="P168" s="2"/>
     </row>
-    <row r="169" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="169" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1">
       <c r="A169" s="6"/>
       <c r="B169" s="5"/>
       <c r="C169" s="5"/>
       <c r="D169" s="23"/>
-      <c r="E169" s="5"/>
+      <c r="E169" s="18"/>
       <c r="F169" s="4"/>
       <c r="G169" s="38"/>
       <c r="H169" s="24"/>
@@ -19981,7 +20118,7 @@
       <c r="O169" s="34"/>
       <c r="P169" s="2"/>
     </row>
-    <row r="170" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="170" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1">
       <c r="A170" s="6"/>
       <c r="B170" s="5"/>
       <c r="C170" s="5"/>
@@ -19999,7 +20136,7 @@
       <c r="O170" s="34"/>
       <c r="P170" s="2"/>
     </row>
-    <row r="171" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="171" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1">
       <c r="A171" s="6"/>
       <c r="B171" s="5"/>
       <c r="C171" s="5"/>
@@ -20017,12 +20154,12 @@
       <c r="O171" s="34"/>
       <c r="P171" s="2"/>
     </row>
-    <row r="172" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="172" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1">
       <c r="A172" s="6"/>
       <c r="B172" s="5"/>
       <c r="C172" s="5"/>
       <c r="D172" s="23"/>
-      <c r="E172" s="18"/>
+      <c r="E172" s="5"/>
       <c r="F172" s="4"/>
       <c r="G172" s="38"/>
       <c r="H172" s="24"/>
@@ -20035,7 +20172,7 @@
       <c r="O172" s="34"/>
       <c r="P172" s="2"/>
     </row>
-    <row r="173" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="173" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1">
       <c r="A173" s="6"/>
       <c r="B173" s="5"/>
       <c r="C173" s="5"/>
@@ -20053,12 +20190,12 @@
       <c r="O173" s="34"/>
       <c r="P173" s="2"/>
     </row>
-    <row r="174" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="174" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1">
       <c r="A174" s="6"/>
       <c r="B174" s="5"/>
       <c r="C174" s="5"/>
       <c r="D174" s="23"/>
-      <c r="E174" s="5"/>
+      <c r="E174" s="18"/>
       <c r="F174" s="4"/>
       <c r="G174" s="38"/>
       <c r="H174" s="24"/>
@@ -20071,7 +20208,7 @@
       <c r="O174" s="34"/>
       <c r="P174" s="2"/>
     </row>
-    <row r="175" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="175" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1">
       <c r="A175" s="6"/>
       <c r="B175" s="5"/>
       <c r="C175" s="5"/>
@@ -20083,13 +20220,13 @@
       <c r="I175" s="24"/>
       <c r="J175" s="24"/>
       <c r="K175" s="25"/>
-      <c r="L175" s="28"/>
-      <c r="M175" s="27"/>
+      <c r="L175" s="25"/>
+      <c r="M175" s="25"/>
       <c r="N175" s="24"/>
       <c r="O175" s="34"/>
       <c r="P175" s="2"/>
     </row>
-    <row r="176" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="176" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1">
       <c r="A176" s="6"/>
       <c r="B176" s="5"/>
       <c r="C176" s="5"/>
@@ -20100,14 +20237,14 @@
       <c r="H176" s="24"/>
       <c r="I176" s="24"/>
       <c r="J176" s="24"/>
-      <c r="K176" s="27"/>
-      <c r="L176" s="27"/>
+      <c r="K176" s="25"/>
+      <c r="L176" s="28"/>
       <c r="M176" s="27"/>
       <c r="N176" s="24"/>
       <c r="O176" s="34"/>
       <c r="P176" s="2"/>
     </row>
-    <row r="177" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="177" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1">
       <c r="A177" s="6"/>
       <c r="B177" s="5"/>
       <c r="C177" s="5"/>
@@ -20118,14 +20255,14 @@
       <c r="H177" s="24"/>
       <c r="I177" s="24"/>
       <c r="J177" s="24"/>
-      <c r="K177" s="25"/>
-      <c r="L177" s="25"/>
+      <c r="K177" s="27"/>
+      <c r="L177" s="27"/>
       <c r="M177" s="27"/>
       <c r="N177" s="24"/>
       <c r="O177" s="34"/>
       <c r="P177" s="2"/>
     </row>
-    <row r="178" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="178" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1">
       <c r="A178" s="6"/>
       <c r="B178" s="5"/>
       <c r="C178" s="5"/>
@@ -20143,7 +20280,7 @@
       <c r="O178" s="34"/>
       <c r="P178" s="2"/>
     </row>
-    <row r="179" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="179" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1">
       <c r="A179" s="6"/>
       <c r="B179" s="5"/>
       <c r="C179" s="5"/>
@@ -20154,14 +20291,14 @@
       <c r="H179" s="24"/>
       <c r="I179" s="24"/>
       <c r="J179" s="24"/>
-      <c r="K179" s="28"/>
-      <c r="L179" s="28"/>
+      <c r="K179" s="25"/>
+      <c r="L179" s="25"/>
       <c r="M179" s="27"/>
       <c r="N179" s="24"/>
       <c r="O179" s="34"/>
       <c r="P179" s="2"/>
     </row>
-    <row r="180" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="180" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1">
       <c r="A180" s="6"/>
       <c r="B180" s="5"/>
       <c r="C180" s="5"/>
@@ -20174,12 +20311,12 @@
       <c r="J180" s="24"/>
       <c r="K180" s="28"/>
       <c r="L180" s="28"/>
-      <c r="M180" s="24"/>
+      <c r="M180" s="27"/>
       <c r="N180" s="24"/>
       <c r="O180" s="34"/>
       <c r="P180" s="2"/>
     </row>
-    <row r="181" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="181" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1">
       <c r="A181" s="6"/>
       <c r="B181" s="5"/>
       <c r="C181" s="5"/>
@@ -20197,7 +20334,7 @@
       <c r="O181" s="34"/>
       <c r="P181" s="2"/>
     </row>
-    <row r="182" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="182" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1">
       <c r="A182" s="6"/>
       <c r="B182" s="5"/>
       <c r="C182" s="5"/>
@@ -20208,14 +20345,14 @@
       <c r="H182" s="24"/>
       <c r="I182" s="24"/>
       <c r="J182" s="24"/>
-      <c r="K182" s="24"/>
-      <c r="L182" s="24"/>
+      <c r="K182" s="28"/>
+      <c r="L182" s="28"/>
       <c r="M182" s="24"/>
       <c r="N182" s="24"/>
       <c r="O182" s="34"/>
       <c r="P182" s="2"/>
     </row>
-    <row r="183" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="183" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1">
       <c r="A183" s="6"/>
       <c r="B183" s="5"/>
       <c r="C183" s="5"/>
@@ -20226,14 +20363,14 @@
       <c r="H183" s="24"/>
       <c r="I183" s="24"/>
       <c r="J183" s="24"/>
-      <c r="K183" s="25"/>
-      <c r="L183" s="25"/>
-      <c r="M183" s="25"/>
+      <c r="K183" s="24"/>
+      <c r="L183" s="24"/>
+      <c r="M183" s="24"/>
       <c r="N183" s="24"/>
       <c r="O183" s="34"/>
       <c r="P183" s="2"/>
     </row>
-    <row r="184" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="184" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1">
       <c r="A184" s="6"/>
       <c r="B184" s="5"/>
       <c r="C184" s="5"/>
@@ -20251,7 +20388,7 @@
       <c r="O184" s="34"/>
       <c r="P184" s="2"/>
     </row>
-    <row r="185" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="185" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1">
       <c r="A185" s="6"/>
       <c r="B185" s="5"/>
       <c r="C185" s="5"/>
@@ -20269,7 +20406,7 @@
       <c r="O185" s="34"/>
       <c r="P185" s="2"/>
     </row>
-    <row r="186" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="186" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1">
       <c r="A186" s="6"/>
       <c r="B186" s="5"/>
       <c r="C186" s="5"/>
@@ -20280,14 +20417,14 @@
       <c r="H186" s="24"/>
       <c r="I186" s="24"/>
       <c r="J186" s="24"/>
-      <c r="K186" s="28"/>
-      <c r="L186" s="28"/>
-      <c r="M186" s="27"/>
+      <c r="K186" s="25"/>
+      <c r="L186" s="25"/>
+      <c r="M186" s="25"/>
       <c r="N186" s="24"/>
       <c r="O186" s="34"/>
       <c r="P186" s="2"/>
     </row>
-    <row r="187" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="187" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1">
       <c r="A187" s="6"/>
       <c r="B187" s="5"/>
       <c r="C187" s="5"/>
@@ -20305,7 +20442,7 @@
       <c r="O187" s="34"/>
       <c r="P187" s="2"/>
     </row>
-    <row r="188" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="188" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1">
       <c r="A188" s="6"/>
       <c r="B188" s="5"/>
       <c r="C188" s="5"/>
@@ -20316,14 +20453,14 @@
       <c r="H188" s="24"/>
       <c r="I188" s="24"/>
       <c r="J188" s="24"/>
-      <c r="K188" s="24"/>
-      <c r="L188" s="24"/>
-      <c r="M188" s="24"/>
+      <c r="K188" s="28"/>
+      <c r="L188" s="28"/>
+      <c r="M188" s="27"/>
       <c r="N188" s="24"/>
       <c r="O188" s="34"/>
       <c r="P188" s="2"/>
     </row>
-    <row r="189" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="189" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1">
       <c r="A189" s="6"/>
       <c r="B189" s="5"/>
       <c r="C189" s="5"/>
@@ -20334,14 +20471,14 @@
       <c r="H189" s="24"/>
       <c r="I189" s="24"/>
       <c r="J189" s="24"/>
-      <c r="K189" s="25"/>
-      <c r="L189" s="25"/>
-      <c r="M189" s="25"/>
+      <c r="K189" s="24"/>
+      <c r="L189" s="24"/>
+      <c r="M189" s="24"/>
       <c r="N189" s="24"/>
       <c r="O189" s="34"/>
       <c r="P189" s="2"/>
     </row>
-    <row r="190" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="190" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1">
       <c r="A190" s="6"/>
       <c r="B190" s="5"/>
       <c r="C190" s="5"/>
@@ -20359,7 +20496,7 @@
       <c r="O190" s="34"/>
       <c r="P190" s="2"/>
     </row>
-    <row r="191" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="191" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1">
       <c r="A191" s="6"/>
       <c r="B191" s="5"/>
       <c r="C191" s="5"/>
@@ -20372,12 +20509,12 @@
       <c r="J191" s="24"/>
       <c r="K191" s="25"/>
       <c r="L191" s="25"/>
-      <c r="M191" s="27"/>
+      <c r="M191" s="25"/>
       <c r="N191" s="24"/>
       <c r="O191" s="34"/>
       <c r="P191" s="2"/>
     </row>
-    <row r="192" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="192" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1">
       <c r="A192" s="6"/>
       <c r="B192" s="5"/>
       <c r="C192" s="5"/>
@@ -20388,14 +20525,14 @@
       <c r="H192" s="24"/>
       <c r="I192" s="24"/>
       <c r="J192" s="24"/>
-      <c r="K192" s="26"/>
-      <c r="L192" s="26"/>
+      <c r="K192" s="25"/>
+      <c r="L192" s="25"/>
       <c r="M192" s="27"/>
       <c r="N192" s="24"/>
       <c r="O192" s="34"/>
       <c r="P192" s="2"/>
     </row>
-    <row r="193" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="193" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1">
       <c r="A193" s="6"/>
       <c r="B193" s="5"/>
       <c r="C193" s="5"/>
@@ -20406,14 +20543,14 @@
       <c r="H193" s="24"/>
       <c r="I193" s="24"/>
       <c r="J193" s="24"/>
-      <c r="K193" s="25"/>
-      <c r="L193" s="25"/>
-      <c r="M193" s="25"/>
+      <c r="K193" s="26"/>
+      <c r="L193" s="26"/>
+      <c r="M193" s="27"/>
       <c r="N193" s="24"/>
       <c r="O193" s="34"/>
       <c r="P193" s="2"/>
     </row>
-    <row r="194" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="194" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1">
       <c r="A194" s="6"/>
       <c r="B194" s="5"/>
       <c r="C194" s="5"/>
@@ -20431,7 +20568,7 @@
       <c r="O194" s="34"/>
       <c r="P194" s="2"/>
     </row>
-    <row r="195" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="195" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1">
       <c r="A195" s="6"/>
       <c r="B195" s="5"/>
       <c r="C195" s="5"/>
@@ -20449,7 +20586,7 @@
       <c r="O195" s="34"/>
       <c r="P195" s="2"/>
     </row>
-    <row r="196" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="196" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1">
       <c r="A196" s="6"/>
       <c r="B196" s="5"/>
       <c r="C196" s="5"/>
@@ -20467,7 +20604,7 @@
       <c r="O196" s="34"/>
       <c r="P196" s="2"/>
     </row>
-    <row r="197" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="197" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1">
       <c r="A197" s="6"/>
       <c r="B197" s="5"/>
       <c r="C197" s="5"/>
@@ -20485,7 +20622,7 @@
       <c r="O197" s="34"/>
       <c r="P197" s="2"/>
     </row>
-    <row r="198" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="198" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1">
       <c r="A198" s="6"/>
       <c r="B198" s="5"/>
       <c r="C198" s="5"/>
@@ -20503,7 +20640,7 @@
       <c r="O198" s="34"/>
       <c r="P198" s="2"/>
     </row>
-    <row r="199" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="199" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1">
       <c r="A199" s="6"/>
       <c r="B199" s="5"/>
       <c r="C199" s="5"/>
@@ -20515,13 +20652,13 @@
       <c r="I199" s="24"/>
       <c r="J199" s="24"/>
       <c r="K199" s="25"/>
-      <c r="L199" s="28"/>
-      <c r="M199" s="27"/>
+      <c r="L199" s="25"/>
+      <c r="M199" s="25"/>
       <c r="N199" s="24"/>
       <c r="O199" s="34"/>
       <c r="P199" s="2"/>
     </row>
-    <row r="200" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="200" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1">
       <c r="A200" s="6"/>
       <c r="B200" s="5"/>
       <c r="C200" s="5"/>
@@ -20532,14 +20669,14 @@
       <c r="H200" s="24"/>
       <c r="I200" s="24"/>
       <c r="J200" s="24"/>
-      <c r="K200" s="27"/>
-      <c r="L200" s="27"/>
+      <c r="K200" s="25"/>
+      <c r="L200" s="28"/>
       <c r="M200" s="27"/>
       <c r="N200" s="24"/>
       <c r="O200" s="34"/>
       <c r="P200" s="2"/>
     </row>
-    <row r="201" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="201" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1">
       <c r="A201" s="6"/>
       <c r="B201" s="5"/>
       <c r="C201" s="5"/>
@@ -20557,7 +20694,7 @@
       <c r="O201" s="34"/>
       <c r="P201" s="2"/>
     </row>
-    <row r="202" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="202" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1">
       <c r="A202" s="6"/>
       <c r="B202" s="5"/>
       <c r="C202" s="5"/>
@@ -20575,7 +20712,7 @@
       <c r="O202" s="34"/>
       <c r="P202" s="2"/>
     </row>
-    <row r="203" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="203" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1">
       <c r="A203" s="6"/>
       <c r="B203" s="5"/>
       <c r="C203" s="5"/>
@@ -20586,14 +20723,14 @@
       <c r="H203" s="24"/>
       <c r="I203" s="24"/>
       <c r="J203" s="24"/>
-      <c r="K203" s="25"/>
-      <c r="L203" s="28"/>
+      <c r="K203" s="27"/>
+      <c r="L203" s="27"/>
       <c r="M203" s="27"/>
       <c r="N203" s="24"/>
       <c r="O203" s="34"/>
       <c r="P203" s="2"/>
     </row>
-    <row r="204" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="204" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1">
       <c r="A204" s="6"/>
       <c r="B204" s="5"/>
       <c r="C204" s="5"/>
@@ -20604,14 +20741,14 @@
       <c r="H204" s="24"/>
       <c r="I204" s="24"/>
       <c r="J204" s="24"/>
-      <c r="K204" s="24"/>
-      <c r="L204" s="24"/>
-      <c r="M204" s="24"/>
+      <c r="K204" s="25"/>
+      <c r="L204" s="28"/>
+      <c r="M204" s="27"/>
       <c r="N204" s="24"/>
       <c r="O204" s="34"/>
       <c r="P204" s="2"/>
     </row>
-    <row r="205" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="205" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1">
       <c r="A205" s="6"/>
       <c r="B205" s="5"/>
       <c r="C205" s="5"/>
@@ -20622,14 +20759,14 @@
       <c r="H205" s="24"/>
       <c r="I205" s="24"/>
       <c r="J205" s="24"/>
-      <c r="K205" s="26"/>
-      <c r="L205" s="26"/>
-      <c r="M205" s="27"/>
+      <c r="K205" s="24"/>
+      <c r="L205" s="24"/>
+      <c r="M205" s="24"/>
       <c r="N205" s="24"/>
       <c r="O205" s="34"/>
       <c r="P205" s="2"/>
     </row>
-    <row r="206" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="206" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1">
       <c r="A206" s="6"/>
       <c r="B206" s="5"/>
       <c r="C206" s="5"/>
@@ -20647,7 +20784,7 @@
       <c r="O206" s="34"/>
       <c r="P206" s="2"/>
     </row>
-    <row r="207" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="207" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1">
       <c r="A207" s="6"/>
       <c r="B207" s="5"/>
       <c r="C207" s="5"/>
@@ -20658,14 +20795,14 @@
       <c r="H207" s="24"/>
       <c r="I207" s="24"/>
       <c r="J207" s="24"/>
-      <c r="K207" s="25"/>
-      <c r="L207" s="28"/>
+      <c r="K207" s="26"/>
+      <c r="L207" s="26"/>
       <c r="M207" s="27"/>
       <c r="N207" s="24"/>
       <c r="O207" s="34"/>
       <c r="P207" s="2"/>
     </row>
-    <row r="208" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="208" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1">
       <c r="A208" s="6"/>
       <c r="B208" s="5"/>
       <c r="C208" s="5"/>
@@ -20677,13 +20814,13 @@
       <c r="I208" s="24"/>
       <c r="J208" s="24"/>
       <c r="K208" s="25"/>
-      <c r="L208" s="25"/>
+      <c r="L208" s="28"/>
       <c r="M208" s="27"/>
       <c r="N208" s="24"/>
       <c r="O208" s="34"/>
       <c r="P208" s="2"/>
     </row>
-    <row r="209" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="209" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1">
       <c r="A209" s="6"/>
       <c r="B209" s="5"/>
       <c r="C209" s="5"/>
@@ -20696,819 +20833,837 @@
       <c r="J209" s="24"/>
       <c r="K209" s="25"/>
       <c r="L209" s="25"/>
-      <c r="M209" s="25"/>
+      <c r="M209" s="27"/>
       <c r="N209" s="24"/>
       <c r="O209" s="34"/>
       <c r="P209" s="2"/>
     </row>
-    <row r="210" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="210" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1">
       <c r="A210" s="6"/>
       <c r="B210" s="5"/>
       <c r="C210" s="5"/>
       <c r="D210" s="23"/>
-      <c r="E210" s="16"/>
+      <c r="E210" s="5"/>
       <c r="F210" s="4"/>
       <c r="G210" s="38"/>
       <c r="H210" s="24"/>
       <c r="I210" s="24"/>
       <c r="J210" s="24"/>
-      <c r="K210" s="28"/>
-      <c r="L210" s="28"/>
-      <c r="M210" s="27"/>
+      <c r="K210" s="25"/>
+      <c r="L210" s="25"/>
+      <c r="M210" s="25"/>
       <c r="N210" s="24"/>
       <c r="O210" s="34"/>
       <c r="P210" s="2"/>
     </row>
-    <row r="211" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="211" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1">
+      <c r="A211" s="6"/>
+      <c r="B211" s="5"/>
+      <c r="C211" s="5"/>
+      <c r="D211" s="23"/>
       <c r="E211" s="16"/>
-      <c r="K211" s="26"/>
-      <c r="L211" s="29"/>
+      <c r="F211" s="4"/>
+      <c r="G211" s="38"/>
+      <c r="H211" s="24"/>
+      <c r="I211" s="24"/>
+      <c r="J211" s="24"/>
+      <c r="K211" s="28"/>
+      <c r="L211" s="28"/>
       <c r="M211" s="27"/>
-    </row>
-    <row r="212" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="N211" s="24"/>
+      <c r="O211" s="34"/>
+      <c r="P211" s="2"/>
+    </row>
+    <row r="212" spans="1:16" ht="15" customHeight="1">
       <c r="E212" s="16"/>
-      <c r="K212" s="27"/>
-      <c r="L212" s="27"/>
+      <c r="K212" s="26"/>
+      <c r="L212" s="29"/>
       <c r="M212" s="27"/>
     </row>
-    <row r="213" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="213" spans="1:16" ht="15" customHeight="1">
       <c r="E213" s="16"/>
       <c r="K213" s="27"/>
       <c r="L213" s="27"/>
       <c r="M213" s="27"/>
     </row>
-    <row r="214" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="214" spans="1:16" ht="15" customHeight="1">
       <c r="E214" s="16"/>
       <c r="K214" s="27"/>
       <c r="L214" s="27"/>
       <c r="M214" s="27"/>
     </row>
+    <row r="215" spans="1:16" ht="15" customHeight="1">
+      <c r="E215" s="16"/>
+      <c r="K215" s="27"/>
+      <c r="L215" s="27"/>
+      <c r="M215" s="27"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:AL213"/>
+  <autoFilter ref="A1:AL214"/>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="J1:J4 J240:J1048576 J196:J213 J78:J194 J215:J237 J13 J6 J39:J43 J16:J17 J21 J48:J53 J55:J76">
-    <cfRule type="cellIs" dxfId="225" priority="628" operator="equal">
+  <conditionalFormatting sqref="J241:J1048576 J197:J214 J79:J195 J216:J238 J14 J7 J40:J44 J17:J18 J22 J49:J54 J56:J77 J1:J5">
+    <cfRule type="cellIs" dxfId="240" priority="628" operator="equal">
       <formula>"正常返回"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="224" priority="629" operator="equal">
+    <cfRule type="cellIs" dxfId="239" priority="629" operator="equal">
       <formula>"待测试"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="223" priority="630" operator="equal">
+    <cfRule type="cellIs" dxfId="238" priority="630" operator="equal">
       <formula>"需要处理"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="222" priority="631" operator="equal">
+    <cfRule type="cellIs" dxfId="237" priority="631" operator="equal">
       <formula>"需要处理"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="221" priority="632" operator="equal">
+    <cfRule type="cellIs" dxfId="236" priority="632" operator="equal">
       <formula>"需要处理"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="220" priority="634" operator="equal">
+    <cfRule type="cellIs" dxfId="235" priority="634" operator="equal">
       <formula>"正常返回"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J60:J61">
-    <cfRule type="cellIs" dxfId="219" priority="633" operator="equal">
+  <conditionalFormatting sqref="J61:J62">
+    <cfRule type="cellIs" dxfId="234" priority="633" operator="equal">
       <formula>"url参数变更，待处理测试"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J195">
-    <cfRule type="cellIs" dxfId="218" priority="613" operator="equal">
+  <conditionalFormatting sqref="J196">
+    <cfRule type="cellIs" dxfId="233" priority="613" operator="equal">
       <formula>"正常返回"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="217" priority="614" operator="equal">
+    <cfRule type="cellIs" dxfId="232" priority="614" operator="equal">
       <formula>"待测试"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="216" priority="615" operator="equal">
+    <cfRule type="cellIs" dxfId="231" priority="615" operator="equal">
       <formula>"需要处理"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="215" priority="616" operator="equal">
+    <cfRule type="cellIs" dxfId="230" priority="616" operator="equal">
       <formula>"需要处理"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="214" priority="617" operator="equal">
+    <cfRule type="cellIs" dxfId="229" priority="617" operator="equal">
       <formula>"需要处理"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="213" priority="618" operator="equal">
+    <cfRule type="cellIs" dxfId="228" priority="618" operator="equal">
       <formula>"正常返回"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J238:J239">
-    <cfRule type="cellIs" dxfId="212" priority="598" operator="equal">
+  <conditionalFormatting sqref="J239:J240">
+    <cfRule type="cellIs" dxfId="227" priority="598" operator="equal">
       <formula>"正常返回"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="211" priority="599" operator="equal">
+    <cfRule type="cellIs" dxfId="226" priority="599" operator="equal">
       <formula>"待测试"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="210" priority="600" operator="equal">
+    <cfRule type="cellIs" dxfId="225" priority="600" operator="equal">
       <formula>"需要处理"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="209" priority="601" operator="equal">
+    <cfRule type="cellIs" dxfId="224" priority="601" operator="equal">
       <formula>"需要处理"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="208" priority="602" operator="equal">
+    <cfRule type="cellIs" dxfId="223" priority="602" operator="equal">
       <formula>"需要处理"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="207" priority="603" operator="equal">
+    <cfRule type="cellIs" dxfId="222" priority="603" operator="equal">
       <formula>"正常返回"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J77">
-    <cfRule type="cellIs" dxfId="206" priority="583" operator="equal">
+  <conditionalFormatting sqref="J78">
+    <cfRule type="cellIs" dxfId="221" priority="583" operator="equal">
       <formula>"正常返回"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="205" priority="584" operator="equal">
+    <cfRule type="cellIs" dxfId="220" priority="584" operator="equal">
       <formula>"待测试"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="204" priority="585" operator="equal">
+    <cfRule type="cellIs" dxfId="219" priority="585" operator="equal">
       <formula>"需要处理"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="203" priority="586" operator="equal">
+    <cfRule type="cellIs" dxfId="218" priority="586" operator="equal">
       <formula>"需要处理"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="202" priority="587" operator="equal">
+    <cfRule type="cellIs" dxfId="217" priority="587" operator="equal">
       <formula>"需要处理"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="201" priority="588" operator="equal">
+    <cfRule type="cellIs" dxfId="216" priority="588" operator="equal">
       <formula>"正常返回"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J214">
-    <cfRule type="cellIs" dxfId="200" priority="568" operator="equal">
+  <conditionalFormatting sqref="J215">
+    <cfRule type="cellIs" dxfId="215" priority="568" operator="equal">
       <formula>"正常返回"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="199" priority="569" operator="equal">
+    <cfRule type="cellIs" dxfId="214" priority="569" operator="equal">
       <formula>"待测试"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="198" priority="570" operator="equal">
+    <cfRule type="cellIs" dxfId="213" priority="570" operator="equal">
       <formula>"需要处理"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="197" priority="571" operator="equal">
+    <cfRule type="cellIs" dxfId="212" priority="571" operator="equal">
       <formula>"需要处理"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="196" priority="572" operator="equal">
+    <cfRule type="cellIs" dxfId="211" priority="572" operator="equal">
       <formula>"需要处理"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="195" priority="573" operator="equal">
+    <cfRule type="cellIs" dxfId="210" priority="573" operator="equal">
       <formula>"正常返回"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J7">
-    <cfRule type="cellIs" dxfId="194" priority="553" operator="equal">
+  <conditionalFormatting sqref="J8">
+    <cfRule type="cellIs" dxfId="209" priority="553" operator="equal">
       <formula>"正常返回"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="193" priority="554" operator="equal">
+    <cfRule type="cellIs" dxfId="208" priority="554" operator="equal">
       <formula>"待测试"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="192" priority="555" operator="equal">
+    <cfRule type="cellIs" dxfId="207" priority="555" operator="equal">
       <formula>"需要处理"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="191" priority="556" operator="equal">
+    <cfRule type="cellIs" dxfId="206" priority="556" operator="equal">
       <formula>"需要处理"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="190" priority="557" operator="equal">
+    <cfRule type="cellIs" dxfId="205" priority="557" operator="equal">
       <formula>"需要处理"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="189" priority="558" operator="equal">
+    <cfRule type="cellIs" dxfId="204" priority="558" operator="equal">
+      <formula>"正常返回"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J13">
+    <cfRule type="cellIs" dxfId="203" priority="538" operator="equal">
+      <formula>"正常返回"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="202" priority="539" operator="equal">
+      <formula>"待测试"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="201" priority="540" operator="equal">
+      <formula>"需要处理"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="200" priority="541" operator="equal">
+      <formula>"需要处理"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="199" priority="542" operator="equal">
+      <formula>"需要处理"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="198" priority="543" operator="equal">
+      <formula>"正常返回"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J6">
+    <cfRule type="cellIs" dxfId="197" priority="523" operator="equal">
+      <formula>"正常返回"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="196" priority="524" operator="equal">
+      <formula>"待测试"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="195" priority="525" operator="equal">
+      <formula>"需要处理"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="194" priority="526" operator="equal">
+      <formula>"需要处理"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="193" priority="527" operator="equal">
+      <formula>"需要处理"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="192" priority="528" operator="equal">
+      <formula>"正常返回"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J23">
+    <cfRule type="cellIs" dxfId="191" priority="508" operator="equal">
+      <formula>"正常返回"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="190" priority="509" operator="equal">
+      <formula>"待测试"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="189" priority="510" operator="equal">
+      <formula>"需要处理"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="188" priority="511" operator="equal">
+      <formula>"需要处理"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="187" priority="512" operator="equal">
+      <formula>"需要处理"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="186" priority="513" operator="equal">
+      <formula>"正常返回"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J25">
+    <cfRule type="cellIs" dxfId="185" priority="493" operator="equal">
+      <formula>"正常返回"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="184" priority="494" operator="equal">
+      <formula>"待测试"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="183" priority="495" operator="equal">
+      <formula>"需要处理"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="182" priority="496" operator="equal">
+      <formula>"需要处理"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="181" priority="497" operator="equal">
+      <formula>"需要处理"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="180" priority="498" operator="equal">
+      <formula>"正常返回"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J26">
+    <cfRule type="cellIs" dxfId="179" priority="478" operator="equal">
+      <formula>"正常返回"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="178" priority="479" operator="equal">
+      <formula>"待测试"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="177" priority="480" operator="equal">
+      <formula>"需要处理"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="176" priority="481" operator="equal">
+      <formula>"需要处理"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="175" priority="482" operator="equal">
+      <formula>"需要处理"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="174" priority="483" operator="equal">
+      <formula>"正常返回"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J24">
+    <cfRule type="cellIs" dxfId="173" priority="463" operator="equal">
+      <formula>"正常返回"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="172" priority="464" operator="equal">
+      <formula>"待测试"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="171" priority="465" operator="equal">
+      <formula>"需要处理"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="170" priority="466" operator="equal">
+      <formula>"需要处理"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="169" priority="467" operator="equal">
+      <formula>"需要处理"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="168" priority="468" operator="equal">
+      <formula>"正常返回"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J28 J30:J31 J35">
+    <cfRule type="cellIs" dxfId="167" priority="373" operator="equal">
+      <formula>"正常返回"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="166" priority="374" operator="equal">
+      <formula>"待测试"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="165" priority="375" operator="equal">
+      <formula>"需要处理"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="164" priority="376" operator="equal">
+      <formula>"需要处理"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="163" priority="377" operator="equal">
+      <formula>"需要处理"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="162" priority="378" operator="equal">
+      <formula>"正常返回"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J36">
+    <cfRule type="cellIs" dxfId="161" priority="367" operator="equal">
+      <formula>"正常返回"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="160" priority="368" operator="equal">
+      <formula>"待测试"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="159" priority="369" operator="equal">
+      <formula>"需要处理"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="158" priority="370" operator="equal">
+      <formula>"需要处理"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="157" priority="371" operator="equal">
+      <formula>"需要处理"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="156" priority="372" operator="equal">
+      <formula>"正常返回"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J38">
+    <cfRule type="cellIs" dxfId="155" priority="361" operator="equal">
+      <formula>"正常返回"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="154" priority="362" operator="equal">
+      <formula>"待测试"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="153" priority="363" operator="equal">
+      <formula>"需要处理"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="152" priority="364" operator="equal">
+      <formula>"需要处理"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="151" priority="365" operator="equal">
+      <formula>"需要处理"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="150" priority="366" operator="equal">
+      <formula>"正常返回"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J39">
+    <cfRule type="cellIs" dxfId="149" priority="355" operator="equal">
+      <formula>"正常返回"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="148" priority="356" operator="equal">
+      <formula>"待测试"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="147" priority="357" operator="equal">
+      <formula>"需要处理"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="146" priority="358" operator="equal">
+      <formula>"需要处理"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="145" priority="359" operator="equal">
+      <formula>"需要处理"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="144" priority="360" operator="equal">
+      <formula>"正常返回"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J37">
+    <cfRule type="cellIs" dxfId="143" priority="349" operator="equal">
+      <formula>"正常返回"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="142" priority="350" operator="equal">
+      <formula>"待测试"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="141" priority="351" operator="equal">
+      <formula>"需要处理"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="140" priority="352" operator="equal">
+      <formula>"需要处理"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="139" priority="353" operator="equal">
+      <formula>"需要处理"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="138" priority="354" operator="equal">
+      <formula>"正常返回"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J55">
+    <cfRule type="cellIs" dxfId="137" priority="301" operator="equal">
+      <formula>"正常返回"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="136" priority="302" operator="equal">
+      <formula>"待测试"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="135" priority="303" operator="equal">
+      <formula>"需要处理"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="134" priority="304" operator="equal">
+      <formula>"需要处理"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="133" priority="305" operator="equal">
+      <formula>"需要处理"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="132" priority="306" operator="equal">
+      <formula>"正常返回"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J9">
+    <cfRule type="cellIs" dxfId="131" priority="271" operator="equal">
+      <formula>"正常返回"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="130" priority="272" operator="equal">
+      <formula>"待测试"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="129" priority="273" operator="equal">
+      <formula>"需要处理"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="128" priority="274" operator="equal">
+      <formula>"需要处理"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="127" priority="275" operator="equal">
+      <formula>"需要处理"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="126" priority="276" operator="equal">
+      <formula>"正常返回"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J10">
+    <cfRule type="cellIs" dxfId="125" priority="256" operator="equal">
+      <formula>"正常返回"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="124" priority="257" operator="equal">
+      <formula>"待测试"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="123" priority="258" operator="equal">
+      <formula>"需要处理"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="122" priority="259" operator="equal">
+      <formula>"需要处理"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="121" priority="260" operator="equal">
+      <formula>"需要处理"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="120" priority="261" operator="equal">
+      <formula>"正常返回"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J11">
+    <cfRule type="cellIs" dxfId="119" priority="241" operator="equal">
+      <formula>"正常返回"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="118" priority="242" operator="equal">
+      <formula>"待测试"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="117" priority="243" operator="equal">
+      <formula>"需要处理"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="116" priority="244" operator="equal">
+      <formula>"需要处理"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="115" priority="245" operator="equal">
+      <formula>"需要处理"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="114" priority="246" operator="equal">
       <formula>"正常返回"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J12">
-    <cfRule type="cellIs" dxfId="188" priority="538" operator="equal">
+    <cfRule type="cellIs" dxfId="113" priority="226" operator="equal">
       <formula>"正常返回"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="187" priority="539" operator="equal">
+    <cfRule type="cellIs" dxfId="112" priority="227" operator="equal">
       <formula>"待测试"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="186" priority="540" operator="equal">
+    <cfRule type="cellIs" dxfId="111" priority="228" operator="equal">
       <formula>"需要处理"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="185" priority="541" operator="equal">
+    <cfRule type="cellIs" dxfId="110" priority="229" operator="equal">
       <formula>"需要处理"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="184" priority="542" operator="equal">
+    <cfRule type="cellIs" dxfId="109" priority="230" operator="equal">
       <formula>"需要处理"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="183" priority="543" operator="equal">
-      <formula>"正常返回"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J5">
-    <cfRule type="cellIs" dxfId="182" priority="523" operator="equal">
-      <formula>"正常返回"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="181" priority="524" operator="equal">
-      <formula>"待测试"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="180" priority="525" operator="equal">
-      <formula>"需要处理"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="179" priority="526" operator="equal">
-      <formula>"需要处理"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="178" priority="527" operator="equal">
-      <formula>"需要处理"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="177" priority="528" operator="equal">
-      <formula>"正常返回"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J22">
-    <cfRule type="cellIs" dxfId="176" priority="508" operator="equal">
-      <formula>"正常返回"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="175" priority="509" operator="equal">
-      <formula>"待测试"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="174" priority="510" operator="equal">
-      <formula>"需要处理"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="173" priority="511" operator="equal">
-      <formula>"需要处理"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="172" priority="512" operator="equal">
-      <formula>"需要处理"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="171" priority="513" operator="equal">
-      <formula>"正常返回"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J24">
-    <cfRule type="cellIs" dxfId="170" priority="493" operator="equal">
-      <formula>"正常返回"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="169" priority="494" operator="equal">
-      <formula>"待测试"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="168" priority="495" operator="equal">
-      <formula>"需要处理"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="167" priority="496" operator="equal">
-      <formula>"需要处理"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="166" priority="497" operator="equal">
-      <formula>"需要处理"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="165" priority="498" operator="equal">
-      <formula>"正常返回"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J25">
-    <cfRule type="cellIs" dxfId="164" priority="478" operator="equal">
-      <formula>"正常返回"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="163" priority="479" operator="equal">
-      <formula>"待测试"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="162" priority="480" operator="equal">
-      <formula>"需要处理"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="161" priority="481" operator="equal">
-      <formula>"需要处理"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="160" priority="482" operator="equal">
-      <formula>"需要处理"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="159" priority="483" operator="equal">
-      <formula>"正常返回"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J23">
-    <cfRule type="cellIs" dxfId="158" priority="463" operator="equal">
-      <formula>"正常返回"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="157" priority="464" operator="equal">
-      <formula>"待测试"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="156" priority="465" operator="equal">
-      <formula>"需要处理"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="155" priority="466" operator="equal">
-      <formula>"需要处理"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="154" priority="467" operator="equal">
-      <formula>"需要处理"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="153" priority="468" operator="equal">
-      <formula>"正常返回"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J27 J29:J30 J34">
-    <cfRule type="cellIs" dxfId="152" priority="373" operator="equal">
-      <formula>"正常返回"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="151" priority="374" operator="equal">
-      <formula>"待测试"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="150" priority="375" operator="equal">
-      <formula>"需要处理"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="149" priority="376" operator="equal">
-      <formula>"需要处理"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="148" priority="377" operator="equal">
-      <formula>"需要处理"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="147" priority="378" operator="equal">
-      <formula>"正常返回"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J35">
-    <cfRule type="cellIs" dxfId="146" priority="367" operator="equal">
-      <formula>"正常返回"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="145" priority="368" operator="equal">
-      <formula>"待测试"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="144" priority="369" operator="equal">
-      <formula>"需要处理"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="143" priority="370" operator="equal">
-      <formula>"需要处理"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="142" priority="371" operator="equal">
-      <formula>"需要处理"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="141" priority="372" operator="equal">
-      <formula>"正常返回"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J37">
-    <cfRule type="cellIs" dxfId="140" priority="361" operator="equal">
-      <formula>"正常返回"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="139" priority="362" operator="equal">
-      <formula>"待测试"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="138" priority="363" operator="equal">
-      <formula>"需要处理"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="137" priority="364" operator="equal">
-      <formula>"需要处理"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="136" priority="365" operator="equal">
-      <formula>"需要处理"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="135" priority="366" operator="equal">
-      <formula>"正常返回"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J38">
-    <cfRule type="cellIs" dxfId="134" priority="355" operator="equal">
-      <formula>"正常返回"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="133" priority="356" operator="equal">
-      <formula>"待测试"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="132" priority="357" operator="equal">
-      <formula>"需要处理"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="131" priority="358" operator="equal">
-      <formula>"需要处理"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="130" priority="359" operator="equal">
-      <formula>"需要处理"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="129" priority="360" operator="equal">
-      <formula>"正常返回"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J36">
-    <cfRule type="cellIs" dxfId="128" priority="349" operator="equal">
-      <formula>"正常返回"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="127" priority="350" operator="equal">
-      <formula>"待测试"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="126" priority="351" operator="equal">
-      <formula>"需要处理"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="125" priority="352" operator="equal">
-      <formula>"需要处理"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="124" priority="353" operator="equal">
-      <formula>"需要处理"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="123" priority="354" operator="equal">
-      <formula>"正常返回"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J54">
-    <cfRule type="cellIs" dxfId="122" priority="301" operator="equal">
-      <formula>"正常返回"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="121" priority="302" operator="equal">
-      <formula>"待测试"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="120" priority="303" operator="equal">
-      <formula>"需要处理"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="119" priority="304" operator="equal">
-      <formula>"需要处理"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="118" priority="305" operator="equal">
-      <formula>"需要处理"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="117" priority="306" operator="equal">
-      <formula>"正常返回"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J8">
-    <cfRule type="cellIs" dxfId="116" priority="271" operator="equal">
-      <formula>"正常返回"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="115" priority="272" operator="equal">
-      <formula>"待测试"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="114" priority="273" operator="equal">
-      <formula>"需要处理"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="113" priority="274" operator="equal">
-      <formula>"需要处理"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="112" priority="275" operator="equal">
-      <formula>"需要处理"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="111" priority="276" operator="equal">
-      <formula>"正常返回"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J9">
-    <cfRule type="cellIs" dxfId="110" priority="256" operator="equal">
-      <formula>"正常返回"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="109" priority="257" operator="equal">
-      <formula>"待测试"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="108" priority="258" operator="equal">
-      <formula>"需要处理"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="107" priority="259" operator="equal">
-      <formula>"需要处理"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="106" priority="260" operator="equal">
-      <formula>"需要处理"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="105" priority="261" operator="equal">
-      <formula>"正常返回"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J10">
-    <cfRule type="cellIs" dxfId="104" priority="241" operator="equal">
-      <formula>"正常返回"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="103" priority="242" operator="equal">
-      <formula>"待测试"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="102" priority="243" operator="equal">
-      <formula>"需要处理"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="101" priority="244" operator="equal">
-      <formula>"需要处理"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="100" priority="245" operator="equal">
-      <formula>"需要处理"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="99" priority="246" operator="equal">
-      <formula>"正常返回"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J11">
-    <cfRule type="cellIs" dxfId="98" priority="226" operator="equal">
-      <formula>"正常返回"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="97" priority="227" operator="equal">
-      <formula>"待测试"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="96" priority="228" operator="equal">
-      <formula>"需要处理"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="95" priority="229" operator="equal">
-      <formula>"需要处理"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="94" priority="230" operator="equal">
-      <formula>"需要处理"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="93" priority="231" operator="equal">
-      <formula>"正常返回"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J14">
-    <cfRule type="cellIs" dxfId="92" priority="196" operator="equal">
-      <formula>"正常返回"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="91" priority="197" operator="equal">
-      <formula>"待测试"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="90" priority="198" operator="equal">
-      <formula>"需要处理"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="89" priority="199" operator="equal">
-      <formula>"需要处理"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="88" priority="200" operator="equal">
-      <formula>"需要处理"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="87" priority="201" operator="equal">
-      <formula>"正常返回"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J26">
-    <cfRule type="cellIs" dxfId="86" priority="181" operator="equal">
-      <formula>"正常返回"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="85" priority="182" operator="equal">
-      <formula>"待测试"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="84" priority="183" operator="equal">
-      <formula>"需要处理"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="83" priority="184" operator="equal">
-      <formula>"需要处理"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="82" priority="185" operator="equal">
-      <formula>"需要处理"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="81" priority="186" operator="equal">
+    <cfRule type="cellIs" dxfId="108" priority="231" operator="equal">
       <formula>"正常返回"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J15">
-    <cfRule type="cellIs" dxfId="80" priority="166" operator="equal">
+    <cfRule type="cellIs" dxfId="107" priority="196" operator="equal">
       <formula>"正常返回"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="79" priority="167" operator="equal">
+    <cfRule type="cellIs" dxfId="106" priority="197" operator="equal">
       <formula>"待测试"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="78" priority="168" operator="equal">
+    <cfRule type="cellIs" dxfId="105" priority="198" operator="equal">
       <formula>"需要处理"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="77" priority="169" operator="equal">
+    <cfRule type="cellIs" dxfId="104" priority="199" operator="equal">
       <formula>"需要处理"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="76" priority="170" operator="equal">
+    <cfRule type="cellIs" dxfId="103" priority="200" operator="equal">
       <formula>"需要处理"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="75" priority="171" operator="equal">
+    <cfRule type="cellIs" dxfId="102" priority="201" operator="equal">
       <formula>"正常返回"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J28">
-    <cfRule type="cellIs" dxfId="74" priority="151" operator="equal">
+  <conditionalFormatting sqref="J27">
+    <cfRule type="cellIs" dxfId="101" priority="181" operator="equal">
       <formula>"正常返回"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="73" priority="152" operator="equal">
+    <cfRule type="cellIs" dxfId="100" priority="182" operator="equal">
       <formula>"待测试"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="72" priority="153" operator="equal">
+    <cfRule type="cellIs" dxfId="99" priority="183" operator="equal">
       <formula>"需要处理"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="71" priority="154" operator="equal">
+    <cfRule type="cellIs" dxfId="98" priority="184" operator="equal">
       <formula>"需要处理"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="70" priority="155" operator="equal">
+    <cfRule type="cellIs" dxfId="97" priority="185" operator="equal">
       <formula>"需要处理"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="69" priority="156" operator="equal">
+    <cfRule type="cellIs" dxfId="96" priority="186" operator="equal">
+      <formula>"正常返回"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J16">
+    <cfRule type="cellIs" dxfId="95" priority="166" operator="equal">
+      <formula>"正常返回"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="94" priority="167" operator="equal">
+      <formula>"待测试"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="93" priority="168" operator="equal">
+      <formula>"需要处理"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="92" priority="169" operator="equal">
+      <formula>"需要处理"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="91" priority="170" operator="equal">
+      <formula>"需要处理"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="90" priority="171" operator="equal">
+      <formula>"正常返回"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J29">
+    <cfRule type="cellIs" dxfId="89" priority="151" operator="equal">
+      <formula>"正常返回"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="88" priority="152" operator="equal">
+      <formula>"待测试"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="87" priority="153" operator="equal">
+      <formula>"需要处理"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="86" priority="154" operator="equal">
+      <formula>"需要处理"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="85" priority="155" operator="equal">
+      <formula>"需要处理"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="84" priority="156" operator="equal">
+      <formula>"正常返回"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J20">
+    <cfRule type="cellIs" dxfId="83" priority="136" operator="equal">
+      <formula>"正常返回"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="82" priority="137" operator="equal">
+      <formula>"待测试"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="81" priority="138" operator="equal">
+      <formula>"需要处理"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="80" priority="139" operator="equal">
+      <formula>"需要处理"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="79" priority="140" operator="equal">
+      <formula>"需要处理"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="78" priority="141" operator="equal">
+      <formula>"正常返回"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J34">
+    <cfRule type="cellIs" dxfId="77" priority="121" operator="equal">
+      <formula>"正常返回"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="76" priority="122" operator="equal">
+      <formula>"待测试"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="75" priority="123" operator="equal">
+      <formula>"需要处理"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="74" priority="124" operator="equal">
+      <formula>"需要处理"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="73" priority="125" operator="equal">
+      <formula>"需要处理"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="72" priority="126" operator="equal">
+      <formula>"正常返回"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J47">
+    <cfRule type="cellIs" dxfId="71" priority="106" operator="equal">
+      <formula>"正常返回"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="70" priority="107" operator="equal">
+      <formula>"待测试"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="69" priority="108" operator="equal">
+      <formula>"需要处理"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="68" priority="109" operator="equal">
+      <formula>"需要处理"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="67" priority="110" operator="equal">
+      <formula>"需要处理"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="66" priority="111" operator="equal">
       <formula>"正常返回"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J19">
-    <cfRule type="cellIs" dxfId="68" priority="136" operator="equal">
+    <cfRule type="cellIs" dxfId="65" priority="91" operator="equal">
       <formula>"正常返回"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="67" priority="137" operator="equal">
+    <cfRule type="cellIs" dxfId="64" priority="92" operator="equal">
       <formula>"待测试"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="66" priority="138" operator="equal">
+    <cfRule type="cellIs" dxfId="63" priority="93" operator="equal">
       <formula>"需要处理"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="65" priority="139" operator="equal">
+    <cfRule type="cellIs" dxfId="62" priority="94" operator="equal">
       <formula>"需要处理"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="64" priority="140" operator="equal">
+    <cfRule type="cellIs" dxfId="61" priority="95" operator="equal">
       <formula>"需要处理"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="63" priority="141" operator="equal">
+    <cfRule type="cellIs" dxfId="60" priority="96" operator="equal">
+      <formula>"正常返回"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J21">
+    <cfRule type="cellIs" dxfId="59" priority="76" operator="equal">
+      <formula>"正常返回"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="58" priority="77" operator="equal">
+      <formula>"待测试"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="57" priority="78" operator="equal">
+      <formula>"需要处理"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="56" priority="79" operator="equal">
+      <formula>"需要处理"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="55" priority="80" operator="equal">
+      <formula>"需要处理"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="54" priority="81" operator="equal">
       <formula>"正常返回"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J33">
-    <cfRule type="cellIs" dxfId="62" priority="121" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="61" operator="equal">
       <formula>"正常返回"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="61" priority="122" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="62" operator="equal">
       <formula>"待测试"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="60" priority="123" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="63" operator="equal">
       <formula>"需要处理"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="59" priority="124" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="64" operator="equal">
       <formula>"需要处理"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="58" priority="125" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="65" operator="equal">
       <formula>"需要处理"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="57" priority="126" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="66" operator="equal">
       <formula>"正常返回"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J32">
+    <cfRule type="cellIs" dxfId="47" priority="46" operator="equal">
+      <formula>"正常返回"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="46" priority="47" operator="equal">
+      <formula>"待测试"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="45" priority="48" operator="equal">
+      <formula>"需要处理"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="44" priority="49" operator="equal">
+      <formula>"需要处理"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="43" priority="50" operator="equal">
+      <formula>"需要处理"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="42" priority="51" operator="equal">
+      <formula>"正常返回"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J1:J1048576">
+    <cfRule type="cellIs" dxfId="41" priority="653" operator="equal">
+      <formula>$J$68</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="40" priority="654" operator="equal">
+      <formula>$J$60</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="39" priority="655" operator="equal">
+      <formula>$J$57</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="38" priority="656" operator="equal">
+      <formula>$J$49</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="37" priority="657" operator="equal">
+      <formula>$J$49</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="36" priority="658" operator="equal">
+      <formula>$J$60</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="35" priority="659" operator="equal">
+      <formula>$J$60</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="34" priority="660" operator="equal">
+      <formula>$J$60</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="33" priority="661" operator="equal">
+      <formula>$J$7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J46">
-    <cfRule type="cellIs" dxfId="56" priority="106" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="31" operator="equal">
       <formula>"正常返回"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="55" priority="107" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="32" operator="equal">
       <formula>"待测试"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="54" priority="108" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="33" operator="equal">
       <formula>"需要处理"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="53" priority="109" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="34" operator="equal">
       <formula>"需要处理"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="52" priority="110" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="35" operator="equal">
       <formula>"需要处理"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="51" priority="111" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="36" operator="equal">
       <formula>"正常返回"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J18">
-    <cfRule type="cellIs" dxfId="50" priority="91" operator="equal">
+  <conditionalFormatting sqref="J48">
+    <cfRule type="cellIs" dxfId="26" priority="16" operator="equal">
       <formula>"正常返回"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="49" priority="92" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="17" operator="equal">
       <formula>"待测试"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="48" priority="93" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="18" operator="equal">
       <formula>"需要处理"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="47" priority="94" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="19" operator="equal">
       <formula>"需要处理"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="46" priority="95" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="20" operator="equal">
       <formula>"需要处理"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="45" priority="96" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="21" operator="equal">
       <formula>"正常返回"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J20">
-    <cfRule type="cellIs" dxfId="44" priority="76" operator="equal">
-      <formula>"正常返回"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="43" priority="77" operator="equal">
-      <formula>"待测试"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="42" priority="78" operator="equal">
-      <formula>"需要处理"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="41" priority="79" operator="equal">
-      <formula>"需要处理"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="80" operator="equal">
-      <formula>"需要处理"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="39" priority="81" operator="equal">
-      <formula>"正常返回"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J32">
-    <cfRule type="cellIs" dxfId="38" priority="61" operator="equal">
-      <formula>"正常返回"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="37" priority="62" operator="equal">
-      <formula>"待测试"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="63" operator="equal">
-      <formula>"需要处理"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="35" priority="64" operator="equal">
-      <formula>"需要处理"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="65" operator="equal">
-      <formula>"需要处理"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="66" operator="equal">
-      <formula>"正常返回"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J31">
-    <cfRule type="cellIs" dxfId="32" priority="46" operator="equal">
-      <formula>"正常返回"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="31" priority="47" operator="equal">
-      <formula>"待测试"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="48" operator="equal">
-      <formula>"需要处理"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="29" priority="49" operator="equal">
-      <formula>"需要处理"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="50" operator="equal">
-      <formula>"需要处理"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="51" operator="equal">
-      <formula>"正常返回"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J1:J1048576">
-    <cfRule type="cellIs" dxfId="26" priority="653" operator="equal">
-      <formula>$J$67</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="654" operator="equal">
-      <formula>$J$59</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="655" operator="equal">
-      <formula>$J$56</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="23" priority="656" operator="equal">
-      <formula>$J$48</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="657" operator="equal">
-      <formula>$J$48</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="658" operator="equal">
-      <formula>$J$59</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="659" operator="equal">
-      <formula>$J$59</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="660" operator="equal">
-      <formula>$J$59</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="661" operator="equal">
-      <formula>$J$6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J45">
-    <cfRule type="cellIs" dxfId="17" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="1" operator="equal">
       <formula>"正常返回"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="2" operator="equal">
       <formula>"待测试"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="3" operator="equal">
       <formula>"需要处理"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="4" operator="equal">
       <formula>"需要处理"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="5" operator="equal">
       <formula>"需要处理"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="36" operator="equal">
-      <formula>"正常返回"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J47">
-    <cfRule type="cellIs" dxfId="11" priority="16" operator="equal">
-      <formula>"正常返回"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="17" operator="equal">
-      <formula>"待测试"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="18" operator="equal">
-      <formula>"需要处理"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="19" operator="equal">
-      <formula>"需要处理"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="20" operator="equal">
-      <formula>"需要处理"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="21" operator="equal">
-      <formula>"正常返回"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J44">
-    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
-      <formula>"正常返回"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
-      <formula>"待测试"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
-      <formula>"需要处理"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
-      <formula>"需要处理"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="5" operator="equal">
-      <formula>"需要处理"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="6" operator="equal">
       <formula>"正常返回"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O1:O1048576">
-      <formula1>$AL$6:$AL$13</formula1>
+      <formula1>$AL$7:$AL$14</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1:H1048576">
-      <formula1>$AJ$6:$AJ$8</formula1>
+      <formula1>$AJ$7:$AJ$9</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I1048576">
-      <formula1>$AK$6:$AK$15</formula1>
+      <formula1>$AK$7:$AK$16</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/biz/MC-MSC-Web/qxy接口定义文档2016-8-8/【千校云】接口列表.xlsx
+++ b/biz/MC-MSC-Web/qxy接口定义文档2016-8-8/【千校云】接口列表.xlsx
@@ -142,7 +142,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2066" uniqueCount="1249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2068" uniqueCount="1251">
   <si>
     <t>DELETE</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -5392,14 +5392,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/qxy/moraleducation/class?termId=[termId]&amp;page=[page]&amp;size=[size]&amp;token=[token]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/qxy/moraleducation/class/search?cid=[cid]&amp;token=[token]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>德育班级评分详情列表查询接口</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -5436,14 +5428,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/qxy/moraleducation/personal?termId=[termId]&amp;cid=[cid]&amp;page=[page]&amp;size=[size]&amp;token=[token]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/qxy/moraleducation/personal/search?studentId=[studentId]&amp;token=[token]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>德育个人评分详情列表查询接口</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -5508,12 +5492,6 @@
     <t>13.1.5</t>
   </si>
   <si>
-    <t>12.2.2</t>
-  </si>
-  <si>
-    <t>12.2.3</t>
-  </si>
-  <si>
     <t>12.2.4</t>
   </si>
   <si>
@@ -5545,9 +5523,6 @@
   </si>
   <si>
     <t>12.1.2</t>
-  </si>
-  <si>
-    <t>12.1.3</t>
   </si>
   <si>
     <t>12.1.4</t>
@@ -5954,6 +5929,42 @@
     <t>1、新增作业管理接口定义文档；模块序号为11
 2、新增德育管理接口定义文档；模块序号为12
 3、新增成绩管理接口定义文档；模块序号为13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/qxy/moraleducation/class/score?termId=[termId]&amp;page=[page]&amp;size=[size]&amp;token=[token]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/qxy/moraleducation/class/score/search?cid=[cid]&amp;token=[token]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12.1.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12.2.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12.2.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/qxy/moraleducation/personal/score?termId=[termId]&amp;cid=[cid]&amp;page=[page]&amp;size=[size]&amp;token=[token]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/qxy/moraleducation/personal/score/search?studentId=[studentId]&amp;token=[token]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12.1.2，12.1.3，12.2.2，12.2.3接口定义url变更</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>luodibashi</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -6479,7 +6490,7 @@
     <cellStyle name="常规 2" xfId="1"/>
     <cellStyle name="超链接" xfId="2" builtinId="8"/>
   </cellStyles>
-  <dxfs count="380">
+  <dxfs count="365">
     <dxf>
       <fill>
         <patternFill>
@@ -9611,144 +9622,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="4" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
         </patternFill>
       </fill>
     </dxf>
@@ -10432,7 +10305,7 @@
   <dimension ref="B1:F42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -10450,22 +10323,22 @@
     <row r="1" spans="2:6" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B2" s="46" t="s">
-        <v>1117</v>
+        <v>1113</v>
       </c>
       <c r="C2" s="47" t="s">
-        <v>1118</v>
+        <v>1114</v>
       </c>
       <c r="D2" s="47" t="s">
-        <v>1119</v>
+        <v>1115</v>
       </c>
       <c r="E2" s="54" t="s">
-        <v>1120</v>
+        <v>1116</v>
       </c>
       <c r="F2" s="51" t="s">
-        <v>1243</v>
-      </c>
-    </row>
-    <row r="3" spans="2:6" ht="36" x14ac:dyDescent="0.15">
+        <v>1236</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" ht="24" x14ac:dyDescent="0.15">
       <c r="B3" s="43">
         <f>ROW()-2</f>
         <v>1</v>
@@ -10474,10 +10347,10 @@
         <v>42635</v>
       </c>
       <c r="D3" s="42" t="s">
-        <v>1179</v>
+        <v>1172</v>
       </c>
       <c r="E3" s="55" t="s">
-        <v>1244</v>
+        <v>1237</v>
       </c>
       <c r="F3" s="49"/>
     </row>
@@ -10490,13 +10363,13 @@
         <v>42636</v>
       </c>
       <c r="D4" s="42" t="s">
-        <v>1241</v>
+        <v>1234</v>
       </c>
       <c r="E4" s="55" t="s">
-        <v>1245</v>
+        <v>1238</v>
       </c>
       <c r="F4" s="49" t="s">
-        <v>1246</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="5" spans="2:6" ht="50.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -10508,13 +10381,13 @@
         <v>42636</v>
       </c>
       <c r="D5" s="42" t="s">
-        <v>1242</v>
+        <v>1235</v>
       </c>
       <c r="E5" s="55" t="s">
-        <v>1247</v>
+        <v>1240</v>
       </c>
       <c r="F5" s="49" t="s">
-        <v>1248</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="6" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -10522,9 +10395,15 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C6" s="42"/>
-      <c r="D6" s="42"/>
-      <c r="E6" s="55"/>
+      <c r="C6" s="48">
+        <v>42636</v>
+      </c>
+      <c r="D6" s="42" t="s">
+        <v>1249</v>
+      </c>
+      <c r="E6" s="55" t="s">
+        <v>1248</v>
+      </c>
       <c r="F6" s="49"/>
     </row>
     <row r="7" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -12679,7 +12558,7 @@
     <row r="60" spans="1:16" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A60" s="6"/>
       <c r="D60" s="23" t="s">
-        <v>1163</v>
+        <v>1156</v>
       </c>
       <c r="E60" s="18" t="s">
         <v>173</v>
@@ -12719,7 +12598,7 @@
     <row r="61" spans="1:16" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61" s="6"/>
       <c r="D61" s="23" t="s">
-        <v>1160</v>
+        <v>1153</v>
       </c>
       <c r="E61" s="18" t="s">
         <v>407</v>
@@ -14345,7 +14224,7 @@
         <v>97</v>
       </c>
       <c r="D106" s="23" t="s">
-        <v>1158</v>
+        <v>1151</v>
       </c>
       <c r="E106" s="5" t="s">
         <v>96</v>
@@ -16645,10 +16524,10 @@
         <v>16</v>
       </c>
       <c r="D170" s="23" t="s">
-        <v>1229</v>
+        <v>1222</v>
       </c>
       <c r="E170" s="5" t="s">
-        <v>1231</v>
+        <v>1224</v>
       </c>
       <c r="F170" s="4" t="s">
         <v>6</v>
@@ -16685,16 +16564,16 @@
       <c r="B171" s="5"/>
       <c r="C171" s="5"/>
       <c r="D171" s="23" t="s">
-        <v>1230</v>
+        <v>1223</v>
       </c>
       <c r="E171" s="5" t="s">
-        <v>1232</v>
+        <v>1225</v>
       </c>
       <c r="F171" s="4" t="s">
         <v>68</v>
       </c>
       <c r="G171" s="14" t="s">
-        <v>1240</v>
+        <v>1233</v>
       </c>
       <c r="H171" s="24" t="s">
         <v>253</v>
@@ -16893,16 +16772,16 @@
         <v>1076</v>
       </c>
       <c r="D177" s="23" t="s">
-        <v>1234</v>
+        <v>1227</v>
       </c>
       <c r="E177" s="5" t="s">
-        <v>1238</v>
+        <v>1231</v>
       </c>
       <c r="F177" s="4" t="s">
         <v>1080</v>
       </c>
       <c r="G177" s="3" t="s">
-        <v>1233</v>
+        <v>1226</v>
       </c>
       <c r="H177" s="24"/>
       <c r="I177" s="24" t="s">
@@ -16921,7 +16800,7 @@
       <c r="B178" s="5"/>
       <c r="C178" s="5"/>
       <c r="D178" s="23" t="s">
-        <v>1235</v>
+        <v>1228</v>
       </c>
       <c r="E178" s="5" t="s">
         <v>1077</v>
@@ -16930,7 +16809,7 @@
         <v>1081</v>
       </c>
       <c r="G178" s="3" t="s">
-        <v>1239</v>
+        <v>1232</v>
       </c>
       <c r="H178" s="24"/>
       <c r="I178" s="24" t="s">
@@ -16949,7 +16828,7 @@
       <c r="B179" s="5"/>
       <c r="C179" s="5"/>
       <c r="D179" s="23" t="s">
-        <v>1236</v>
+        <v>1229</v>
       </c>
       <c r="E179" s="5" t="s">
         <v>1078</v>
@@ -16977,7 +16856,7 @@
       <c r="B180" s="5"/>
       <c r="C180" s="5"/>
       <c r="D180" s="23" t="s">
-        <v>1237</v>
+        <v>1230</v>
       </c>
       <c r="E180" s="5" t="s">
         <v>1079</v>
@@ -18146,10 +18025,10 @@
   <dimension ref="A1:AL214"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="H11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E19" sqref="E19"/>
+      <selection pane="bottomRight" activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -18248,10 +18127,10 @@
     </row>
     <row r="3" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D3" s="23" t="s">
-        <v>1217</v>
+        <v>1210</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>1216</v>
+        <v>1209</v>
       </c>
       <c r="F3" s="4" t="s">
         <v>1040</v>
@@ -18262,21 +18141,21 @@
     </row>
     <row r="4" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D4" s="23" t="s">
-        <v>1149</v>
+        <v>1142</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>1218</v>
+        <v>1211</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>6</v>
       </c>
       <c r="G4" s="38" t="s">
-        <v>1215</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="5" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D5" s="23" t="s">
-        <v>1150</v>
+        <v>1143</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>1041</v>
@@ -18290,10 +18169,10 @@
     </row>
     <row r="6" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D6" s="23" t="s">
-        <v>1151</v>
+        <v>1144</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>1219</v>
+        <v>1212</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>1043</v>
@@ -18313,21 +18192,21 @@
     </row>
     <row r="7" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D7" s="23" t="s">
-        <v>1152</v>
+        <v>1145</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>1213</v>
+        <v>1206</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>839</v>
       </c>
       <c r="G7" s="38" t="s">
-        <v>1214</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="8" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D8" s="23" t="s">
-        <v>1153</v>
+        <v>1146</v>
       </c>
       <c r="E8" s="5" t="s">
         <v>1011</v>
@@ -18350,13 +18229,13 @@
     </row>
     <row r="9" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D9" s="23" t="s">
-        <v>1154</v>
+        <v>1147</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>1221</v>
+        <v>1214</v>
       </c>
       <c r="G9" s="38" t="s">
-        <v>1222</v>
+        <v>1215</v>
       </c>
       <c r="AJ9" s="1" t="s">
         <v>254</v>
@@ -18367,35 +18246,35 @@
     </row>
     <row r="10" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D10" s="23" t="s">
-        <v>1155</v>
+        <v>1148</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>1224</v>
+        <v>1217</v>
       </c>
       <c r="G10" s="38" t="s">
-        <v>1223</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="11" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D11" s="23" t="s">
-        <v>1156</v>
+        <v>1149</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>1225</v>
+        <v>1218</v>
       </c>
       <c r="G11" s="38" t="s">
-        <v>1226</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="12" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D12" s="23" t="s">
+        <v>1213</v>
+      </c>
+      <c r="E12" s="5" t="s">
         <v>1220</v>
       </c>
-      <c r="E12" s="5" t="s">
-        <v>1227</v>
-      </c>
       <c r="G12" s="38" t="s">
-        <v>1228</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="13" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -18420,7 +18299,7 @@
     </row>
     <row r="14" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D14" s="23" t="s">
-        <v>1137</v>
+        <v>1131</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>1012</v>
@@ -18429,12 +18308,12 @@
         <v>1040</v>
       </c>
       <c r="G14" s="38" t="s">
-        <v>1095</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="15" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D15" s="23" t="s">
-        <v>1138</v>
+        <v>1243</v>
       </c>
       <c r="E15" s="5" t="s">
         <v>1061</v>
@@ -18443,43 +18322,43 @@
         <v>1040</v>
       </c>
       <c r="G15" s="38" t="s">
-        <v>1096</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="16" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D16" s="23" t="s">
-        <v>1139</v>
+        <v>1132</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>1097</v>
+        <v>1095</v>
       </c>
       <c r="F16" s="4" t="s">
         <v>1045</v>
       </c>
       <c r="G16" s="38" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="17" spans="3:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D17" s="23" t="s">
-        <v>1140</v>
+        <v>1133</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
       <c r="F17" s="4" t="s">
         <v>6</v>
       </c>
       <c r="G17" s="38" t="s">
-        <v>1104</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="18" spans="3:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D18" s="23" t="s">
-        <v>1141</v>
+        <v>1134</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
       <c r="F18" s="4" t="s">
         <v>1094</v>
@@ -18491,10 +18370,10 @@
     <row r="19" spans="3:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C19" s="39"/>
       <c r="D19" s="23" t="s">
-        <v>1142</v>
+        <v>1135</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>1100</v>
+        <v>1098</v>
       </c>
       <c r="F19" s="4" t="s">
         <v>0</v>
@@ -18503,26 +18382,26 @@
         <v>1093</v>
       </c>
       <c r="P19" s="2" t="s">
-        <v>1103</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="20" spans="3:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D20" s="23" t="s">
-        <v>1143</v>
+        <v>1136</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>1102</v>
+        <v>1100</v>
       </c>
       <c r="G20" s="38" t="s">
-        <v>1115</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="21" spans="3:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D21" s="23" t="s">
-        <v>1144</v>
+        <v>1137</v>
       </c>
       <c r="E21" s="5" t="s">
         <v>1013</v>
@@ -18531,12 +18410,12 @@
         <v>6</v>
       </c>
       <c r="G21" s="38" t="s">
-        <v>1212</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="22" spans="3:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D22" s="23" t="s">
-        <v>1145</v>
+        <v>1138</v>
       </c>
       <c r="E22" s="5" t="s">
         <v>1014</v>
@@ -18550,7 +18429,7 @@
     </row>
     <row r="23" spans="3:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D23" s="23" t="s">
-        <v>1146</v>
+        <v>1139</v>
       </c>
       <c r="E23" s="5" t="s">
         <v>1015</v>
@@ -18564,7 +18443,7 @@
     </row>
     <row r="24" spans="3:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D24" s="23" t="s">
-        <v>1147</v>
+        <v>1140</v>
       </c>
       <c r="E24" s="5" t="s">
         <v>1016</v>
@@ -18578,7 +18457,7 @@
     </row>
     <row r="25" spans="3:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D25" s="23" t="s">
-        <v>1148</v>
+        <v>1141</v>
       </c>
       <c r="E25" s="5" t="s">
         <v>1017</v>
@@ -18606,7 +18485,7 @@
     </row>
     <row r="27" spans="3:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D27" s="23" t="s">
-        <v>1125</v>
+        <v>1244</v>
       </c>
       <c r="E27" s="5" t="s">
         <v>1018</v>
@@ -18615,63 +18494,63 @@
         <v>1049</v>
       </c>
       <c r="G27" s="38" t="s">
-        <v>1106</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="28" spans="3:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D28" s="23" t="s">
-        <v>1126</v>
+        <v>1245</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>1209</v>
+        <v>1202</v>
       </c>
       <c r="F28" s="4" t="s">
         <v>1049</v>
       </c>
       <c r="G28" s="38" t="s">
-        <v>1107</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="29" spans="3:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D29" s="23" t="s">
-        <v>1127</v>
+        <v>1121</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>1108</v>
+        <v>1104</v>
       </c>
       <c r="F29" s="4" t="s">
         <v>1040</v>
       </c>
       <c r="G29" s="38" t="s">
-        <v>1110</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="30" spans="3:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D30" s="23" t="s">
-        <v>1128</v>
+        <v>1122</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>1109</v>
+        <v>1105</v>
       </c>
       <c r="F30" s="4" t="s">
         <v>1045</v>
       </c>
       <c r="G30" s="38" t="s">
-        <v>1210</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="31" spans="3:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D31" s="23" t="s">
-        <v>1129</v>
+        <v>1123</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>1112</v>
+        <v>1108</v>
       </c>
       <c r="F31" s="4" t="s">
         <v>0</v>
       </c>
       <c r="G31" s="38" t="s">
-        <v>1111</v>
+        <v>1107</v>
       </c>
       <c r="P31" s="2" t="s">
         <v>1075</v>
@@ -18679,16 +18558,16 @@
     </row>
     <row r="32" spans="3:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D32" s="23" t="s">
-        <v>1130</v>
+        <v>1124</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>1113</v>
+        <v>1109</v>
       </c>
       <c r="F32" s="4" t="s">
         <v>0</v>
       </c>
       <c r="G32" s="38" t="s">
-        <v>1111</v>
+        <v>1107</v>
       </c>
       <c r="P32" s="2" t="s">
         <v>1075</v>
@@ -18696,16 +18575,16 @@
     </row>
     <row r="33" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D33" s="23" t="s">
-        <v>1131</v>
+        <v>1125</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>1114</v>
+        <v>1110</v>
       </c>
       <c r="F33" s="4" t="s">
         <v>1066</v>
       </c>
       <c r="G33" s="38" t="s">
-        <v>1116</v>
+        <v>1112</v>
       </c>
       <c r="P33" s="2" t="s">
         <v>1075</v>
@@ -18713,7 +18592,7 @@
     </row>
     <row r="34" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D34" s="23" t="s">
-        <v>1132</v>
+        <v>1126</v>
       </c>
       <c r="E34" s="5" t="s">
         <v>1019</v>
@@ -18722,12 +18601,12 @@
         <v>1040</v>
       </c>
       <c r="G34" s="38" t="s">
-        <v>1211</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="35" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D35" s="23" t="s">
-        <v>1133</v>
+        <v>1127</v>
       </c>
       <c r="E35" s="5" t="s">
         <v>1020</v>
@@ -18741,7 +18620,7 @@
     </row>
     <row r="36" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D36" s="23" t="s">
-        <v>1134</v>
+        <v>1128</v>
       </c>
       <c r="E36" s="5" t="s">
         <v>1021</v>
@@ -18755,7 +18634,7 @@
     </row>
     <row r="37" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D37" s="23" t="s">
-        <v>1135</v>
+        <v>1129</v>
       </c>
       <c r="E37" s="5" t="s">
         <v>1022</v>
@@ -18769,7 +18648,7 @@
     </row>
     <row r="38" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D38" s="23" t="s">
-        <v>1136</v>
+        <v>1130</v>
       </c>
       <c r="E38" s="5" t="s">
         <v>1023</v>
@@ -18795,7 +18674,7 @@
         <v>1038</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>1181</v>
+        <v>1174</v>
       </c>
       <c r="F39" s="4" t="s">
         <v>1051</v>
@@ -18806,10 +18685,10 @@
     </row>
     <row r="40" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D40" s="23" t="s">
-        <v>1121</v>
+        <v>1117</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>1180</v>
+        <v>1173</v>
       </c>
       <c r="F40" s="4" t="s">
         <v>1048</v>
@@ -18820,7 +18699,7 @@
     </row>
     <row r="41" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D41" s="23" t="s">
-        <v>1122</v>
+        <v>1118</v>
       </c>
       <c r="E41" s="5" t="s">
         <v>1024</v>
@@ -18829,12 +18708,12 @@
         <v>1052</v>
       </c>
       <c r="G41" s="38" t="s">
-        <v>1182</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="42" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D42" s="23" t="s">
-        <v>1123</v>
+        <v>1119</v>
       </c>
       <c r="E42" s="5" t="s">
         <v>1025</v>
@@ -18848,45 +18727,45 @@
     </row>
     <row r="43" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D43" s="23" t="s">
-        <v>1124</v>
+        <v>1120</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>1183</v>
+        <v>1176</v>
       </c>
       <c r="F43" s="4" t="s">
         <v>1045</v>
       </c>
       <c r="G43" s="38" t="s">
-        <v>1184</v>
+        <v>1177</v>
       </c>
       <c r="N43" s="26"/>
     </row>
     <row r="44" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D44" s="23" t="s">
-        <v>1157</v>
+        <v>1150</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>1189</v>
+        <v>1182</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>1162</v>
+        <v>1155</v>
       </c>
       <c r="G44" s="38" t="s">
-        <v>1193</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="45" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D45" s="23" t="s">
-        <v>1161</v>
+        <v>1154</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>1185</v>
+        <v>1178</v>
       </c>
       <c r="F45" s="4" t="s">
         <v>6</v>
       </c>
       <c r="G45" s="38" t="s">
-        <v>1186</v>
+        <v>1179</v>
       </c>
       <c r="N45" s="26"/>
     </row>
@@ -18895,49 +18774,49 @@
         <v>1039</v>
       </c>
       <c r="D46" s="23" t="s">
-        <v>1159</v>
+        <v>1152</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>1190</v>
+        <v>1183</v>
       </c>
       <c r="F46" s="4" t="s">
         <v>1045</v>
       </c>
       <c r="G46" s="38" t="s">
-        <v>1187</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="47" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D47" s="23" t="s">
-        <v>1168</v>
+        <v>1161</v>
       </c>
       <c r="E47" s="5" t="s">
-        <v>1191</v>
+        <v>1184</v>
       </c>
       <c r="F47" s="4" t="s">
         <v>6</v>
       </c>
       <c r="G47" s="38" t="s">
-        <v>1188</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="48" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D48" s="23" t="s">
-        <v>1169</v>
+        <v>1162</v>
       </c>
       <c r="E48" s="5" t="s">
-        <v>1192</v>
+        <v>1185</v>
       </c>
       <c r="F48" s="4" t="s">
         <v>1045</v>
       </c>
       <c r="G48" s="38" t="s">
-        <v>1194</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="49" spans="4:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D49" s="23" t="s">
-        <v>1170</v>
+        <v>1163</v>
       </c>
       <c r="E49" s="5" t="s">
         <v>1026</v>
@@ -18946,40 +18825,40 @@
         <v>1040</v>
       </c>
       <c r="G49" s="38" t="s">
-        <v>1198</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="50" spans="4:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D50" s="23" t="s">
-        <v>1171</v>
+        <v>1164</v>
       </c>
       <c r="E50" s="5" t="s">
-        <v>1195</v>
+        <v>1188</v>
       </c>
       <c r="F50" s="4" t="s">
         <v>1053</v>
       </c>
       <c r="G50" s="38" t="s">
-        <v>1196</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="51" spans="4:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D51" s="23" t="s">
-        <v>1172</v>
+        <v>1165</v>
       </c>
       <c r="E51" s="5" t="s">
-        <v>1197</v>
+        <v>1190</v>
       </c>
       <c r="F51" s="4" t="s">
         <v>6</v>
       </c>
       <c r="G51" s="38" t="s">
-        <v>1199</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="52" spans="4:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D52" s="23" t="s">
-        <v>1200</v>
+        <v>1193</v>
       </c>
       <c r="E52" s="5" t="s">
         <v>1027</v>
@@ -18988,12 +18867,12 @@
         <v>1048</v>
       </c>
       <c r="G52" s="38" t="s">
-        <v>1201</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="53" spans="4:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D53" s="23" t="s">
-        <v>1173</v>
+        <v>1166</v>
       </c>
       <c r="E53" s="5" t="s">
         <v>1028</v>
@@ -19002,12 +18881,12 @@
         <v>1054</v>
       </c>
       <c r="G53" s="38" t="s">
-        <v>1165</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="54" spans="4:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D54" s="23" t="s">
-        <v>1174</v>
+        <v>1167</v>
       </c>
       <c r="E54" s="5" t="s">
         <v>1029</v>
@@ -19016,63 +18895,63 @@
         <v>1053</v>
       </c>
       <c r="G54" s="38" t="s">
-        <v>1165</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="55" spans="4:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D55" s="23" t="s">
-        <v>1175</v>
+        <v>1168</v>
       </c>
       <c r="E55" s="5" t="s">
-        <v>1202</v>
+        <v>1195</v>
       </c>
       <c r="F55" s="4" t="s">
         <v>4</v>
       </c>
       <c r="G55" s="38" t="s">
-        <v>1166</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="56" spans="4:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D56" s="23" t="s">
-        <v>1176</v>
+        <v>1169</v>
       </c>
       <c r="E56" s="5" t="s">
-        <v>1203</v>
+        <v>1196</v>
       </c>
       <c r="F56" s="4" t="s">
-        <v>1164</v>
+        <v>1157</v>
       </c>
       <c r="G56" s="38" t="s">
-        <v>1204</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="57" spans="4:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D57" s="23" t="s">
-        <v>1177</v>
+        <v>1170</v>
       </c>
       <c r="E57" s="5" t="s">
-        <v>1205</v>
+        <v>1198</v>
       </c>
       <c r="F57" s="4" t="s">
-        <v>1167</v>
+        <v>1160</v>
       </c>
       <c r="G57" s="38" t="s">
-        <v>1206</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="58" spans="4:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D58" s="23" t="s">
-        <v>1178</v>
+        <v>1171</v>
       </c>
       <c r="E58" s="5" t="s">
-        <v>1207</v>
+        <v>1200</v>
       </c>
       <c r="F58" s="4" t="s">
         <v>6</v>
       </c>
       <c r="G58" s="38" t="s">
-        <v>1208</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="92" spans="1:16" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">

--- a/biz/MC-MSC-Web/qxy接口定义文档2016-8-8/【千校云】接口列表.xlsx
+++ b/biz/MC-MSC-Web/qxy接口定义文档2016-8-8/【千校云】接口列表.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\svn\trunk\biz\MC-MSC-Web\qxy接口定义文档2016-8-8\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\workspacedev\MC-MSC-Web\qxy接口定义文档2016-8-8\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -34,7 +34,7 @@
     <definedName name="_a12">#REF!</definedName>
     <definedName name="_au１２">[1]目次!$C$39</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'业务接口（1-10）'!$A$1:$AL$184</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'业务接口（11-13)'!$A$1:$AL$213</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'业务接口（11-13)'!$A$1:$AL$214</definedName>
     <definedName name="_ｑ12" localSheetId="1">#REF!</definedName>
     <definedName name="_ｑ12" localSheetId="2">#REF!</definedName>
     <definedName name="_ｑ12">#REF!</definedName>
@@ -142,7 +142,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2068" uniqueCount="1251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2074" uniqueCount="1256">
   <si>
     <t>DELETE</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -5049,14 +5049,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>11.1.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>作业列表查询接口</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>作业删除接口</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -5250,10 +5242,6 @@
   </si>
   <si>
     <t>/qxy/task?token=[token]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/qxy/task?termId=[termId]&amp;cid=[cid]&amp;page=[page]&amp;size=[size]&amp;token=[token]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -5969,6 +5957,38 @@
   </si>
   <si>
     <t>接口定义完成，待接口完成部署</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11.1.1-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/qxy/task/class?termId=[termId]&amp;cid=[cid]&amp;page=[page]&amp;size=[size]&amp;token=[token]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/qxy/task/teacher?termId=[termId]&amp;tid=[tid]&amp;page=[page]&amp;size=[size]&amp;token=[token]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>作业教师布置作业列表查询接口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>luodibashi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>作业班级作业列表查询接口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11.1.1-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增作业教师布置作业列表查询接口(11.1.1-2)，变更作业班级作业列表查询接口(11.1.1-1)url</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -6490,7 +6510,283 @@
     <cellStyle name="常规 2" xfId="1"/>
     <cellStyle name="超链接" xfId="2" builtinId="8"/>
   </cellStyles>
-  <dxfs count="365">
+  <dxfs count="395">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -10305,7 +10601,7 @@
   <dimension ref="B1:F42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -10323,19 +10619,19 @@
     <row r="1" spans="2:6" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B2" s="46" t="s">
+        <v>1110</v>
+      </c>
+      <c r="C2" s="47" t="s">
+        <v>1111</v>
+      </c>
+      <c r="D2" s="47" t="s">
+        <v>1112</v>
+      </c>
+      <c r="E2" s="54" t="s">
         <v>1113</v>
       </c>
-      <c r="C2" s="47" t="s">
-        <v>1114</v>
-      </c>
-      <c r="D2" s="47" t="s">
-        <v>1115</v>
-      </c>
-      <c r="E2" s="54" t="s">
-        <v>1116</v>
-      </c>
       <c r="F2" s="51" t="s">
-        <v>1236</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="3" spans="2:6" ht="24" x14ac:dyDescent="0.15">
@@ -10347,10 +10643,10 @@
         <v>42635</v>
       </c>
       <c r="D3" s="42" t="s">
-        <v>1172</v>
+        <v>1169</v>
       </c>
       <c r="E3" s="55" t="s">
-        <v>1237</v>
+        <v>1234</v>
       </c>
       <c r="F3" s="49"/>
     </row>
@@ -10363,13 +10659,13 @@
         <v>42636</v>
       </c>
       <c r="D4" s="42" t="s">
-        <v>1234</v>
+        <v>1231</v>
       </c>
       <c r="E4" s="55" t="s">
-        <v>1238</v>
+        <v>1235</v>
       </c>
       <c r="F4" s="49" t="s">
-        <v>1239</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="5" spans="2:6" ht="50.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -10381,13 +10677,13 @@
         <v>42636</v>
       </c>
       <c r="D5" s="42" t="s">
-        <v>1235</v>
+        <v>1232</v>
       </c>
       <c r="E5" s="55" t="s">
-        <v>1240</v>
+        <v>1237</v>
       </c>
       <c r="F5" s="49" t="s">
-        <v>1250</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="6" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -10399,10 +10695,10 @@
         <v>42636</v>
       </c>
       <c r="D6" s="42" t="s">
-        <v>1249</v>
+        <v>1246</v>
       </c>
       <c r="E6" s="55" t="s">
-        <v>1248</v>
+        <v>1245</v>
       </c>
       <c r="F6" s="49"/>
     </row>
@@ -10411,9 +10707,15 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C7" s="42"/>
-      <c r="D7" s="42"/>
-      <c r="E7" s="55"/>
+      <c r="C7" s="48">
+        <v>42637</v>
+      </c>
+      <c r="D7" s="42" t="s">
+        <v>1252</v>
+      </c>
+      <c r="E7" s="55" t="s">
+        <v>1255</v>
+      </c>
       <c r="F7" s="49"/>
     </row>
     <row r="8" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -10897,7 +11199,7 @@
         <v>146</v>
       </c>
       <c r="G3" s="19" t="s">
-        <v>1056</v>
+        <v>1054</v>
       </c>
       <c r="H3" s="24" t="s">
         <v>251</v>
@@ -10978,10 +11280,10 @@
         <v>231</v>
       </c>
       <c r="D6" s="23" t="s">
-        <v>1090</v>
+        <v>1087</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>1089</v>
+        <v>1086</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>146</v>
@@ -11449,7 +11751,7 @@
     </row>
     <row r="21" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D21" s="23" t="s">
-        <v>1091</v>
+        <v>1088</v>
       </c>
       <c r="E21" s="5" t="s">
         <v>1006</v>
@@ -12558,7 +12860,7 @@
     <row r="60" spans="1:16" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A60" s="6"/>
       <c r="D60" s="23" t="s">
-        <v>1156</v>
+        <v>1153</v>
       </c>
       <c r="E60" s="18" t="s">
         <v>173</v>
@@ -12567,7 +12869,7 @@
         <v>146</v>
       </c>
       <c r="G60" s="3" t="s">
-        <v>1092</v>
+        <v>1089</v>
       </c>
       <c r="H60" s="24" t="s">
         <v>251</v>
@@ -12598,7 +12900,7 @@
     <row r="61" spans="1:16" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61" s="6"/>
       <c r="D61" s="23" t="s">
-        <v>1153</v>
+        <v>1150</v>
       </c>
       <c r="E61" s="18" t="s">
         <v>407</v>
@@ -14224,7 +14526,7 @@
         <v>97</v>
       </c>
       <c r="D106" s="23" t="s">
-        <v>1151</v>
+        <v>1148</v>
       </c>
       <c r="E106" s="5" t="s">
         <v>96</v>
@@ -14915,7 +15217,7 @@
         <v>6</v>
       </c>
       <c r="G125" s="3" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="H125" s="24" t="s">
         <v>251</v>
@@ -15512,7 +15814,7 @@
         <v>50</v>
       </c>
       <c r="D142" s="23" t="s">
-        <v>1086</v>
+        <v>1083</v>
       </c>
       <c r="E142" s="5" t="s">
         <v>49</v>
@@ -15656,7 +15958,7 @@
         <v>44</v>
       </c>
       <c r="D146" s="23" t="s">
-        <v>1087</v>
+        <v>1084</v>
       </c>
       <c r="E146" s="5" t="s">
         <v>691</v>
@@ -16524,10 +16826,10 @@
         <v>16</v>
       </c>
       <c r="D170" s="23" t="s">
-        <v>1222</v>
+        <v>1219</v>
       </c>
       <c r="E170" s="5" t="s">
-        <v>1224</v>
+        <v>1221</v>
       </c>
       <c r="F170" s="4" t="s">
         <v>6</v>
@@ -16564,16 +16866,16 @@
       <c r="B171" s="5"/>
       <c r="C171" s="5"/>
       <c r="D171" s="23" t="s">
-        <v>1223</v>
+        <v>1220</v>
       </c>
       <c r="E171" s="5" t="s">
-        <v>1225</v>
+        <v>1222</v>
       </c>
       <c r="F171" s="4" t="s">
         <v>68</v>
       </c>
       <c r="G171" s="14" t="s">
-        <v>1233</v>
+        <v>1230</v>
       </c>
       <c r="H171" s="24" t="s">
         <v>253</v>
@@ -16769,19 +17071,19 @@
       <c r="A177" s="6"/>
       <c r="B177" s="5"/>
       <c r="C177" s="5" t="s">
-        <v>1076</v>
+        <v>1073</v>
       </c>
       <c r="D177" s="23" t="s">
-        <v>1227</v>
+        <v>1224</v>
       </c>
       <c r="E177" s="5" t="s">
-        <v>1231</v>
+        <v>1228</v>
       </c>
       <c r="F177" s="4" t="s">
-        <v>1080</v>
+        <v>1077</v>
       </c>
       <c r="G177" s="3" t="s">
-        <v>1226</v>
+        <v>1223</v>
       </c>
       <c r="H177" s="24"/>
       <c r="I177" s="24" t="s">
@@ -16800,16 +17102,16 @@
       <c r="B178" s="5"/>
       <c r="C178" s="5"/>
       <c r="D178" s="23" t="s">
-        <v>1228</v>
+        <v>1225</v>
       </c>
       <c r="E178" s="5" t="s">
-        <v>1077</v>
+        <v>1074</v>
       </c>
       <c r="F178" s="4" t="s">
-        <v>1081</v>
+        <v>1078</v>
       </c>
       <c r="G178" s="3" t="s">
-        <v>1232</v>
+        <v>1229</v>
       </c>
       <c r="H178" s="24"/>
       <c r="I178" s="24" t="s">
@@ -16828,16 +17130,16 @@
       <c r="B179" s="5"/>
       <c r="C179" s="5"/>
       <c r="D179" s="23" t="s">
-        <v>1229</v>
+        <v>1226</v>
       </c>
       <c r="E179" s="5" t="s">
-        <v>1078</v>
+        <v>1075</v>
       </c>
       <c r="F179" s="4" t="s">
         <v>839</v>
       </c>
       <c r="G179" s="3" t="s">
-        <v>1084</v>
+        <v>1081</v>
       </c>
       <c r="H179" s="24"/>
       <c r="I179" s="24" t="s">
@@ -16856,16 +17158,16 @@
       <c r="B180" s="5"/>
       <c r="C180" s="5"/>
       <c r="D180" s="23" t="s">
-        <v>1230</v>
+        <v>1227</v>
       </c>
       <c r="E180" s="5" t="s">
+        <v>1076</v>
+      </c>
+      <c r="F180" s="4" t="s">
         <v>1079</v>
       </c>
-      <c r="F180" s="4" t="s">
-        <v>1082</v>
-      </c>
       <c r="G180" s="3" t="s">
-        <v>1083</v>
+        <v>1080</v>
       </c>
       <c r="H180" s="24"/>
       <c r="I180" s="24" t="s">
@@ -17355,7 +17657,7 @@
         <v>833</v>
       </c>
       <c r="G203" s="3" t="s">
-        <v>1073</v>
+        <v>1070</v>
       </c>
       <c r="J203" s="35" t="s">
         <v>879</v>
@@ -17515,477 +17817,477 @@
   <autoFilter ref="A1:AL184"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="J163:J170 J1:J43 J211:J1048576 J180:J184 J45:J161 J186:J208 J172:J175">
-    <cfRule type="cellIs" dxfId="364" priority="197" operator="equal">
+    <cfRule type="cellIs" dxfId="394" priority="197" operator="equal">
       <formula>$J$34</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="363" priority="198" operator="equal">
+    <cfRule type="cellIs" dxfId="393" priority="198" operator="equal">
       <formula>$J$26</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="362" priority="199" operator="equal">
+    <cfRule type="cellIs" dxfId="392" priority="199" operator="equal">
       <formula>$J$23</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="361" priority="200" operator="equal">
+    <cfRule type="cellIs" dxfId="391" priority="200" operator="equal">
       <formula>$J$15</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="360" priority="201" operator="equal">
+    <cfRule type="cellIs" dxfId="390" priority="201" operator="equal">
       <formula>$J$15</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="359" priority="202" operator="equal">
+    <cfRule type="cellIs" dxfId="389" priority="202" operator="equal">
       <formula>$J$26</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="358" priority="203" operator="equal">
+    <cfRule type="cellIs" dxfId="388" priority="203" operator="equal">
       <formula>$J$26</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="357" priority="204" operator="equal">
+    <cfRule type="cellIs" dxfId="387" priority="204" operator="equal">
       <formula>$J$26</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="356" priority="205" operator="equal">
+    <cfRule type="cellIs" dxfId="386" priority="205" operator="equal">
       <formula>$J$5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J176">
-    <cfRule type="cellIs" dxfId="355" priority="188" operator="equal">
+    <cfRule type="cellIs" dxfId="385" priority="188" operator="equal">
       <formula>$J$34</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="354" priority="189" operator="equal">
+    <cfRule type="cellIs" dxfId="384" priority="189" operator="equal">
       <formula>$J$26</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="353" priority="190" operator="equal">
+    <cfRule type="cellIs" dxfId="383" priority="190" operator="equal">
       <formula>$J$23</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="352" priority="191" operator="equal">
+    <cfRule type="cellIs" dxfId="382" priority="191" operator="equal">
       <formula>$J$15</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="351" priority="192" operator="equal">
+    <cfRule type="cellIs" dxfId="381" priority="192" operator="equal">
       <formula>$J$15</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="350" priority="193" operator="equal">
+    <cfRule type="cellIs" dxfId="380" priority="193" operator="equal">
       <formula>$J$26</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="349" priority="194" operator="equal">
+    <cfRule type="cellIs" dxfId="379" priority="194" operator="equal">
       <formula>$J$26</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="348" priority="195" operator="equal">
+    <cfRule type="cellIs" dxfId="378" priority="195" operator="equal">
       <formula>$J$26</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="347" priority="196" operator="equal">
+    <cfRule type="cellIs" dxfId="377" priority="196" operator="equal">
       <formula>$J$5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J1:J43 J211:J1048576 J163:J170 J45:J161 J186:J208 J180:J184 J172:J176">
-    <cfRule type="cellIs" dxfId="346" priority="181" operator="equal">
+    <cfRule type="cellIs" dxfId="376" priority="181" operator="equal">
       <formula>"正常返回"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="345" priority="182" operator="equal">
+    <cfRule type="cellIs" dxfId="375" priority="182" operator="equal">
       <formula>"待测试"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="344" priority="183" operator="equal">
+    <cfRule type="cellIs" dxfId="374" priority="183" operator="equal">
       <formula>"需要处理"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="343" priority="184" operator="equal">
+    <cfRule type="cellIs" dxfId="373" priority="184" operator="equal">
       <formula>"需要处理"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="342" priority="185" operator="equal">
+    <cfRule type="cellIs" dxfId="372" priority="185" operator="equal">
       <formula>"需要处理"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="341" priority="187" operator="equal">
+    <cfRule type="cellIs" dxfId="371" priority="187" operator="equal">
       <formula>"正常返回"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J27:J28">
-    <cfRule type="cellIs" dxfId="340" priority="186" operator="equal">
+    <cfRule type="cellIs" dxfId="370" priority="186" operator="equal">
       <formula>"url参数变更，待处理测试"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J162">
-    <cfRule type="cellIs" dxfId="339" priority="172" operator="equal">
+    <cfRule type="cellIs" dxfId="369" priority="172" operator="equal">
       <formula>$J$34</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="338" priority="173" operator="equal">
+    <cfRule type="cellIs" dxfId="368" priority="173" operator="equal">
       <formula>$J$26</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="337" priority="174" operator="equal">
+    <cfRule type="cellIs" dxfId="367" priority="174" operator="equal">
       <formula>$J$23</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="336" priority="175" operator="equal">
+    <cfRule type="cellIs" dxfId="366" priority="175" operator="equal">
       <formula>$J$15</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="335" priority="176" operator="equal">
+    <cfRule type="cellIs" dxfId="365" priority="176" operator="equal">
       <formula>$J$15</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="334" priority="177" operator="equal">
+    <cfRule type="cellIs" dxfId="364" priority="177" operator="equal">
       <formula>$J$26</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="333" priority="178" operator="equal">
+    <cfRule type="cellIs" dxfId="363" priority="178" operator="equal">
       <formula>$J$26</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="332" priority="179" operator="equal">
+    <cfRule type="cellIs" dxfId="362" priority="179" operator="equal">
       <formula>$J$26</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="331" priority="180" operator="equal">
+    <cfRule type="cellIs" dxfId="361" priority="180" operator="equal">
       <formula>$J$5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J162">
-    <cfRule type="cellIs" dxfId="330" priority="166" operator="equal">
+    <cfRule type="cellIs" dxfId="360" priority="166" operator="equal">
       <formula>"正常返回"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="329" priority="167" operator="equal">
+    <cfRule type="cellIs" dxfId="359" priority="167" operator="equal">
       <formula>"待测试"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="328" priority="168" operator="equal">
+    <cfRule type="cellIs" dxfId="358" priority="168" operator="equal">
       <formula>"需要处理"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="327" priority="169" operator="equal">
+    <cfRule type="cellIs" dxfId="357" priority="169" operator="equal">
       <formula>"需要处理"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="326" priority="170" operator="equal">
+    <cfRule type="cellIs" dxfId="356" priority="170" operator="equal">
       <formula>"需要处理"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="325" priority="171" operator="equal">
+    <cfRule type="cellIs" dxfId="355" priority="171" operator="equal">
       <formula>"正常返回"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J209:J210">
-    <cfRule type="cellIs" dxfId="324" priority="97" operator="equal">
+    <cfRule type="cellIs" dxfId="354" priority="97" operator="equal">
       <formula>$J$34</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="323" priority="98" operator="equal">
+    <cfRule type="cellIs" dxfId="353" priority="98" operator="equal">
       <formula>$J$26</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="322" priority="99" operator="equal">
+    <cfRule type="cellIs" dxfId="352" priority="99" operator="equal">
       <formula>$J$23</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="321" priority="100" operator="equal">
+    <cfRule type="cellIs" dxfId="351" priority="100" operator="equal">
       <formula>$J$15</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="320" priority="101" operator="equal">
+    <cfRule type="cellIs" dxfId="350" priority="101" operator="equal">
       <formula>$J$15</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="319" priority="102" operator="equal">
+    <cfRule type="cellIs" dxfId="349" priority="102" operator="equal">
       <formula>$J$26</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="318" priority="103" operator="equal">
+    <cfRule type="cellIs" dxfId="348" priority="103" operator="equal">
       <formula>$J$26</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="317" priority="104" operator="equal">
+    <cfRule type="cellIs" dxfId="347" priority="104" operator="equal">
       <formula>$J$26</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="316" priority="105" operator="equal">
+    <cfRule type="cellIs" dxfId="346" priority="105" operator="equal">
       <formula>$J$5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J209:J210">
-    <cfRule type="cellIs" dxfId="315" priority="91" operator="equal">
+    <cfRule type="cellIs" dxfId="345" priority="91" operator="equal">
       <formula>"正常返回"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="314" priority="92" operator="equal">
+    <cfRule type="cellIs" dxfId="344" priority="92" operator="equal">
       <formula>"待测试"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="313" priority="93" operator="equal">
+    <cfRule type="cellIs" dxfId="343" priority="93" operator="equal">
       <formula>"需要处理"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="312" priority="94" operator="equal">
+    <cfRule type="cellIs" dxfId="342" priority="94" operator="equal">
       <formula>"需要处理"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="311" priority="95" operator="equal">
+    <cfRule type="cellIs" dxfId="341" priority="95" operator="equal">
       <formula>"需要处理"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="310" priority="96" operator="equal">
+    <cfRule type="cellIs" dxfId="340" priority="96" operator="equal">
       <formula>"正常返回"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J44">
-    <cfRule type="cellIs" dxfId="309" priority="82" operator="equal">
+    <cfRule type="cellIs" dxfId="339" priority="82" operator="equal">
       <formula>$J$34</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="308" priority="83" operator="equal">
+    <cfRule type="cellIs" dxfId="338" priority="83" operator="equal">
       <formula>$J$26</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="307" priority="84" operator="equal">
+    <cfRule type="cellIs" dxfId="337" priority="84" operator="equal">
       <formula>$J$23</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="306" priority="85" operator="equal">
+    <cfRule type="cellIs" dxfId="336" priority="85" operator="equal">
       <formula>$J$15</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="305" priority="86" operator="equal">
+    <cfRule type="cellIs" dxfId="335" priority="86" operator="equal">
       <formula>$J$15</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="304" priority="87" operator="equal">
+    <cfRule type="cellIs" dxfId="334" priority="87" operator="equal">
       <formula>$J$26</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="303" priority="88" operator="equal">
+    <cfRule type="cellIs" dxfId="333" priority="88" operator="equal">
       <formula>$J$26</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="302" priority="89" operator="equal">
+    <cfRule type="cellIs" dxfId="332" priority="89" operator="equal">
       <formula>$J$26</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="301" priority="90" operator="equal">
+    <cfRule type="cellIs" dxfId="331" priority="90" operator="equal">
       <formula>$J$5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J44">
-    <cfRule type="cellIs" dxfId="300" priority="76" operator="equal">
+    <cfRule type="cellIs" dxfId="330" priority="76" operator="equal">
       <formula>"正常返回"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="299" priority="77" operator="equal">
+    <cfRule type="cellIs" dxfId="329" priority="77" operator="equal">
       <formula>"待测试"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="298" priority="78" operator="equal">
+    <cfRule type="cellIs" dxfId="328" priority="78" operator="equal">
       <formula>"需要处理"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="297" priority="79" operator="equal">
+    <cfRule type="cellIs" dxfId="327" priority="79" operator="equal">
       <formula>"需要处理"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="296" priority="80" operator="equal">
+    <cfRule type="cellIs" dxfId="326" priority="80" operator="equal">
       <formula>"需要处理"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="295" priority="81" operator="equal">
+    <cfRule type="cellIs" dxfId="325" priority="81" operator="equal">
       <formula>"正常返回"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J185">
-    <cfRule type="cellIs" dxfId="294" priority="67" operator="equal">
+    <cfRule type="cellIs" dxfId="324" priority="67" operator="equal">
       <formula>$J$34</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="293" priority="68" operator="equal">
+    <cfRule type="cellIs" dxfId="323" priority="68" operator="equal">
       <formula>$J$26</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="292" priority="69" operator="equal">
+    <cfRule type="cellIs" dxfId="322" priority="69" operator="equal">
       <formula>$J$23</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="291" priority="70" operator="equal">
+    <cfRule type="cellIs" dxfId="321" priority="70" operator="equal">
       <formula>$J$15</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="290" priority="71" operator="equal">
+    <cfRule type="cellIs" dxfId="320" priority="71" operator="equal">
       <formula>$J$15</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="289" priority="72" operator="equal">
+    <cfRule type="cellIs" dxfId="319" priority="72" operator="equal">
       <formula>$J$26</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="288" priority="73" operator="equal">
+    <cfRule type="cellIs" dxfId="318" priority="73" operator="equal">
       <formula>$J$26</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="287" priority="74" operator="equal">
+    <cfRule type="cellIs" dxfId="317" priority="74" operator="equal">
       <formula>$J$26</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="286" priority="75" operator="equal">
+    <cfRule type="cellIs" dxfId="316" priority="75" operator="equal">
       <formula>$J$5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J185">
-    <cfRule type="cellIs" dxfId="285" priority="61" operator="equal">
+    <cfRule type="cellIs" dxfId="315" priority="61" operator="equal">
       <formula>"正常返回"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="284" priority="62" operator="equal">
+    <cfRule type="cellIs" dxfId="314" priority="62" operator="equal">
       <formula>"待测试"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="283" priority="63" operator="equal">
+    <cfRule type="cellIs" dxfId="313" priority="63" operator="equal">
       <formula>"需要处理"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="282" priority="64" operator="equal">
+    <cfRule type="cellIs" dxfId="312" priority="64" operator="equal">
       <formula>"需要处理"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="281" priority="65" operator="equal">
+    <cfRule type="cellIs" dxfId="311" priority="65" operator="equal">
       <formula>"需要处理"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="280" priority="66" operator="equal">
+    <cfRule type="cellIs" dxfId="310" priority="66" operator="equal">
       <formula>"正常返回"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J179">
-    <cfRule type="cellIs" dxfId="279" priority="52" operator="equal">
+    <cfRule type="cellIs" dxfId="309" priority="52" operator="equal">
       <formula>$J$34</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="278" priority="53" operator="equal">
+    <cfRule type="cellIs" dxfId="308" priority="53" operator="equal">
       <formula>$J$26</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="277" priority="54" operator="equal">
+    <cfRule type="cellIs" dxfId="307" priority="54" operator="equal">
       <formula>$J$23</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="276" priority="55" operator="equal">
+    <cfRule type="cellIs" dxfId="306" priority="55" operator="equal">
       <formula>$J$15</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="275" priority="56" operator="equal">
+    <cfRule type="cellIs" dxfId="305" priority="56" operator="equal">
       <formula>$J$15</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="274" priority="57" operator="equal">
+    <cfRule type="cellIs" dxfId="304" priority="57" operator="equal">
       <formula>$J$26</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="273" priority="58" operator="equal">
+    <cfRule type="cellIs" dxfId="303" priority="58" operator="equal">
       <formula>$J$26</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="272" priority="59" operator="equal">
+    <cfRule type="cellIs" dxfId="302" priority="59" operator="equal">
       <formula>$J$26</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="271" priority="60" operator="equal">
+    <cfRule type="cellIs" dxfId="301" priority="60" operator="equal">
       <formula>$J$5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J179">
-    <cfRule type="cellIs" dxfId="270" priority="46" operator="equal">
+    <cfRule type="cellIs" dxfId="300" priority="46" operator="equal">
       <formula>"正常返回"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="269" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="299" priority="47" operator="equal">
       <formula>"待测试"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="268" priority="48" operator="equal">
+    <cfRule type="cellIs" dxfId="298" priority="48" operator="equal">
       <formula>"需要处理"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="267" priority="49" operator="equal">
+    <cfRule type="cellIs" dxfId="297" priority="49" operator="equal">
       <formula>"需要处理"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="266" priority="50" operator="equal">
+    <cfRule type="cellIs" dxfId="296" priority="50" operator="equal">
       <formula>"需要处理"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="265" priority="51" operator="equal">
+    <cfRule type="cellIs" dxfId="295" priority="51" operator="equal">
       <formula>"正常返回"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J178">
-    <cfRule type="cellIs" dxfId="264" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="294" priority="37" operator="equal">
       <formula>$J$34</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="263" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="293" priority="38" operator="equal">
       <formula>$J$26</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="262" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="292" priority="39" operator="equal">
       <formula>$J$23</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="261" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="291" priority="40" operator="equal">
       <formula>$J$15</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="260" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="290" priority="41" operator="equal">
       <formula>$J$15</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="259" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="289" priority="42" operator="equal">
       <formula>$J$26</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="258" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="288" priority="43" operator="equal">
       <formula>$J$26</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="257" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="287" priority="44" operator="equal">
       <formula>$J$26</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="256" priority="45" operator="equal">
+    <cfRule type="cellIs" dxfId="286" priority="45" operator="equal">
       <formula>$J$5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J178">
-    <cfRule type="cellIs" dxfId="255" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="285" priority="31" operator="equal">
       <formula>"正常返回"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="254" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="284" priority="32" operator="equal">
       <formula>"待测试"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="253" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="283" priority="33" operator="equal">
       <formula>"需要处理"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="252" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="282" priority="34" operator="equal">
       <formula>"需要处理"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="251" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="281" priority="35" operator="equal">
       <formula>"需要处理"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="250" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="280" priority="36" operator="equal">
       <formula>"正常返回"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J177">
-    <cfRule type="cellIs" dxfId="249" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="279" priority="22" operator="equal">
       <formula>$J$34</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="248" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="278" priority="23" operator="equal">
       <formula>$J$26</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="247" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="277" priority="24" operator="equal">
       <formula>$J$23</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="246" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="276" priority="25" operator="equal">
       <formula>$J$15</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="245" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="275" priority="26" operator="equal">
       <formula>$J$15</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="244" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="274" priority="27" operator="equal">
       <formula>$J$26</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="243" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="273" priority="28" operator="equal">
       <formula>$J$26</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="242" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="272" priority="29" operator="equal">
       <formula>$J$26</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="241" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="271" priority="30" operator="equal">
       <formula>$J$5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J177">
-    <cfRule type="cellIs" dxfId="240" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="270" priority="16" operator="equal">
       <formula>"正常返回"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="239" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="269" priority="17" operator="equal">
       <formula>"待测试"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="238" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="268" priority="18" operator="equal">
       <formula>"需要处理"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="237" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="267" priority="19" operator="equal">
       <formula>"需要处理"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="236" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="266" priority="20" operator="equal">
       <formula>"需要处理"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="235" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="265" priority="21" operator="equal">
       <formula>"正常返回"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J171">
-    <cfRule type="cellIs" dxfId="234" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="264" priority="7" operator="equal">
       <formula>$J$34</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="233" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="263" priority="8" operator="equal">
       <formula>$J$26</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="232" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="262" priority="9" operator="equal">
       <formula>$J$23</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="231" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="261" priority="10" operator="equal">
       <formula>$J$15</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="230" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="260" priority="11" operator="equal">
       <formula>$J$15</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="229" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="259" priority="12" operator="equal">
       <formula>$J$26</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="228" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="258" priority="13" operator="equal">
       <formula>$J$26</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="227" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="257" priority="14" operator="equal">
       <formula>$J$26</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="226" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="256" priority="15" operator="equal">
       <formula>$J$5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J171">
-    <cfRule type="cellIs" dxfId="225" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="255" priority="1" operator="equal">
       <formula>"正常返回"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="224" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="254" priority="2" operator="equal">
       <formula>"待测试"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="223" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="253" priority="3" operator="equal">
       <formula>"需要处理"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="222" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="252" priority="4" operator="equal">
       <formula>"需要处理"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="221" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="251" priority="5" operator="equal">
       <formula>"需要处理"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="220" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="250" priority="6" operator="equal">
       <formula>"正常返回"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18022,13 +18324,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AL214"/>
+  <dimension ref="A1:AL215"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="H11" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G35" sqref="G35"/>
+      <selection pane="bottomRight" activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -18107,872 +18409,870 @@
         <v>11</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>1030</v>
+        <v>1028</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>1008</v>
       </c>
       <c r="D2" s="23" t="s">
-        <v>1009</v>
+        <v>1248</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>1010</v>
+        <v>1253</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>1040</v>
+        <v>1038</v>
       </c>
       <c r="G2" s="38" t="s">
-        <v>1060</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="3" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D3" s="23" t="s">
-        <v>1210</v>
+        <v>1254</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>1209</v>
+        <v>1251</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>1040</v>
+        <v>6</v>
       </c>
       <c r="G3" s="38" t="s">
-        <v>1058</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="4" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D4" s="23" t="s">
-        <v>1142</v>
+        <v>1207</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>1211</v>
+        <v>1206</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>6</v>
+        <v>1038</v>
       </c>
       <c r="G4" s="38" t="s">
-        <v>1208</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="5" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D5" s="23" t="s">
-        <v>1143</v>
+        <v>1139</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>1041</v>
+        <v>1208</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>1042</v>
+        <v>6</v>
       </c>
       <c r="G5" s="38" t="s">
-        <v>1057</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="6" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D6" s="23" t="s">
-        <v>1144</v>
+        <v>1140</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>1212</v>
+        <v>1039</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>1043</v>
+        <v>1040</v>
       </c>
       <c r="G6" s="38" t="s">
-        <v>1074</v>
-      </c>
-      <c r="AJ6" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="AK6" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="AL6" s="1" t="s">
-        <v>258</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="7" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D7" s="23" t="s">
-        <v>1145</v>
+        <v>1141</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>1206</v>
+        <v>1209</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>839</v>
+        <v>1041</v>
       </c>
       <c r="G7" s="38" t="s">
-        <v>1207</v>
+        <v>1071</v>
+      </c>
+      <c r="AJ7" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="AK7" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="AL7" s="1" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="8" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D8" s="23" t="s">
-        <v>1146</v>
+        <v>1142</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>1011</v>
+        <v>1203</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>1044</v>
+        <v>839</v>
       </c>
       <c r="G8" s="38" t="s">
-        <v>1059</v>
-      </c>
-      <c r="AJ8" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="AK8" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="AL8" s="1" t="s">
-        <v>259</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="9" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D9" s="23" t="s">
-        <v>1147</v>
+        <v>1143</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>1214</v>
+        <v>1009</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>1042</v>
       </c>
       <c r="G9" s="38" t="s">
-        <v>1215</v>
+        <v>1057</v>
       </c>
       <c r="AJ9" s="1" t="s">
         <v>254</v>
       </c>
       <c r="AK9" s="1" t="s">
-        <v>257</v>
+        <v>261</v>
+      </c>
+      <c r="AL9" s="1" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="10" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D10" s="23" t="s">
-        <v>1148</v>
+        <v>1144</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>1217</v>
+        <v>1211</v>
       </c>
       <c r="G10" s="38" t="s">
-        <v>1216</v>
+        <v>1212</v>
+      </c>
+      <c r="AJ10" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="AK10" s="1" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="11" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D11" s="23" t="s">
-        <v>1149</v>
+        <v>1145</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>1218</v>
+        <v>1214</v>
       </c>
       <c r="G11" s="38" t="s">
-        <v>1219</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="12" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D12" s="23" t="s">
-        <v>1213</v>
+        <v>1146</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>1220</v>
+        <v>1215</v>
       </c>
       <c r="G12" s="38" t="s">
-        <v>1221</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="13" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="6">
+      <c r="D13" s="23" t="s">
+        <v>1210</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>1217</v>
+      </c>
+      <c r="G13" s="38" t="s">
+        <v>1218</v>
+      </c>
+    </row>
+    <row r="14" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="6">
         <v>12</v>
       </c>
-      <c r="B13" s="5" t="s">
-        <v>1031</v>
-      </c>
-      <c r="C13" s="5" t="s">
+      <c r="B14" s="5" t="s">
+        <v>1029</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>1030</v>
+      </c>
+      <c r="D14" s="23" t="s">
         <v>1032</v>
       </c>
-      <c r="D13" s="23" t="s">
-        <v>1034</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>1055</v>
-      </c>
-      <c r="G13" s="38" t="s">
-        <v>1088</v>
-      </c>
-    </row>
-    <row r="14" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D14" s="23" t="s">
-        <v>1131</v>
-      </c>
       <c r="E14" s="5" t="s">
-        <v>1012</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>1040</v>
+        <v>1053</v>
       </c>
       <c r="G14" s="38" t="s">
-        <v>1241</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="15" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D15" s="23" t="s">
-        <v>1243</v>
+        <v>1128</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>1061</v>
+        <v>1010</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>1040</v>
+        <v>1038</v>
       </c>
       <c r="G15" s="38" t="s">
-        <v>1242</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="16" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D16" s="23" t="s">
-        <v>1132</v>
+        <v>1240</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>1095</v>
+        <v>1058</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>1045</v>
+        <v>1038</v>
       </c>
       <c r="G16" s="38" t="s">
-        <v>1096</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="17" spans="3:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D17" s="23" t="s">
-        <v>1133</v>
+        <v>1129</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>1103</v>
+        <v>1092</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>6</v>
+        <v>1043</v>
       </c>
       <c r="G17" s="38" t="s">
-        <v>1102</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="18" spans="3:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D18" s="23" t="s">
-        <v>1134</v>
+        <v>1130</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>1097</v>
+        <v>1100</v>
       </c>
       <c r="F18" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G18" s="38" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="19" spans="3:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D19" s="23" t="s">
+        <v>1131</v>
+      </c>
+      <c r="E19" s="5" t="s">
         <v>1094</v>
       </c>
-      <c r="G18" s="38" t="s">
-        <v>1093</v>
-      </c>
-    </row>
-    <row r="19" spans="3:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C19" s="39"/>
-      <c r="D19" s="23" t="s">
-        <v>1135</v>
-      </c>
-      <c r="E19" s="5" t="s">
+      <c r="F19" s="4" t="s">
+        <v>1091</v>
+      </c>
+      <c r="G19" s="38" t="s">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="20" spans="3:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C20" s="39"/>
+      <c r="D20" s="23" t="s">
+        <v>1132</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>1095</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G20" s="38" t="s">
+        <v>1090</v>
+      </c>
+      <c r="P20" s="2" t="s">
         <v>1098</v>
-      </c>
-      <c r="F19" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="G19" s="38" t="s">
-        <v>1093</v>
-      </c>
-      <c r="P19" s="2" t="s">
-        <v>1101</v>
-      </c>
-    </row>
-    <row r="20" spans="3:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D20" s="23" t="s">
-        <v>1136</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>1099</v>
-      </c>
-      <c r="F20" s="4" t="s">
-        <v>1100</v>
-      </c>
-      <c r="G20" s="38" t="s">
-        <v>1111</v>
       </c>
     </row>
     <row r="21" spans="3:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D21" s="23" t="s">
-        <v>1137</v>
+        <v>1133</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>1013</v>
+        <v>1096</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>6</v>
+        <v>1097</v>
       </c>
       <c r="G21" s="38" t="s">
-        <v>1205</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="22" spans="3:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D22" s="23" t="s">
-        <v>1138</v>
+        <v>1134</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>1014</v>
+        <v>1011</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>1046</v>
+        <v>6</v>
       </c>
       <c r="G22" s="38" t="s">
-        <v>1062</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="23" spans="3:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D23" s="23" t="s">
-        <v>1139</v>
+        <v>1135</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>1015</v>
+        <v>1012</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>1043</v>
+        <v>1044</v>
       </c>
       <c r="G23" s="38" t="s">
-        <v>1063</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="24" spans="3:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D24" s="23" t="s">
-        <v>1140</v>
+        <v>1136</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>1016</v>
+        <v>1013</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>1043</v>
+        <v>1041</v>
       </c>
       <c r="G24" s="38" t="s">
-        <v>1064</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="25" spans="3:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D25" s="23" t="s">
-        <v>1141</v>
+        <v>1137</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>1017</v>
+        <v>1014</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>1047</v>
+        <v>1041</v>
       </c>
       <c r="G25" s="38" t="s">
-        <v>1065</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="26" spans="3:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C26" s="5" t="s">
+      <c r="D26" s="23" t="s">
+        <v>1138</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>1015</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>1045</v>
+      </c>
+      <c r="G26" s="38" t="s">
+        <v>1062</v>
+      </c>
+    </row>
+    <row r="27" spans="3:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C27" s="5" t="s">
+        <v>1031</v>
+      </c>
+      <c r="D27" s="23" t="s">
         <v>1033</v>
       </c>
-      <c r="D26" s="23" t="s">
-        <v>1035</v>
-      </c>
-      <c r="E26" s="5" t="s">
-        <v>1055</v>
-      </c>
-      <c r="G26" s="38" t="s">
-        <v>1088</v>
-      </c>
-    </row>
-    <row r="27" spans="3:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D27" s="23" t="s">
-        <v>1244</v>
-      </c>
       <c r="E27" s="5" t="s">
-        <v>1018</v>
-      </c>
-      <c r="F27" s="4" t="s">
-        <v>1049</v>
+        <v>1053</v>
       </c>
       <c r="G27" s="38" t="s">
-        <v>1246</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="28" spans="3:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D28" s="23" t="s">
-        <v>1245</v>
+        <v>1241</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>1202</v>
+        <v>1016</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="G28" s="38" t="s">
-        <v>1247</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="29" spans="3:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D29" s="23" t="s">
-        <v>1121</v>
+        <v>1242</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>1104</v>
+        <v>1199</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>1040</v>
+        <v>1047</v>
       </c>
       <c r="G29" s="38" t="s">
-        <v>1106</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="30" spans="3:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D30" s="23" t="s">
-        <v>1122</v>
+        <v>1118</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>1105</v>
+        <v>1101</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>1045</v>
+        <v>1038</v>
       </c>
       <c r="G30" s="38" t="s">
-        <v>1203</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="31" spans="3:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D31" s="23" t="s">
-        <v>1123</v>
+        <v>1119</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>1108</v>
+        <v>1102</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>0</v>
+        <v>1043</v>
       </c>
       <c r="G31" s="38" t="s">
-        <v>1107</v>
-      </c>
-      <c r="P31" s="2" t="s">
-        <v>1075</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="32" spans="3:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D32" s="23" t="s">
-        <v>1124</v>
+        <v>1120</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>1109</v>
+        <v>1105</v>
       </c>
       <c r="F32" s="4" t="s">
         <v>0</v>
       </c>
       <c r="G32" s="38" t="s">
-        <v>1107</v>
+        <v>1104</v>
       </c>
       <c r="P32" s="2" t="s">
-        <v>1075</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="33" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D33" s="23" t="s">
-        <v>1125</v>
+        <v>1121</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>1110</v>
+        <v>1106</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>1066</v>
+        <v>0</v>
       </c>
       <c r="G33" s="38" t="s">
-        <v>1112</v>
+        <v>1104</v>
       </c>
       <c r="P33" s="2" t="s">
-        <v>1075</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="34" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D34" s="23" t="s">
-        <v>1126</v>
+        <v>1122</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>1019</v>
+        <v>1107</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>1040</v>
+        <v>1063</v>
       </c>
       <c r="G34" s="38" t="s">
-        <v>1204</v>
+        <v>1109</v>
+      </c>
+      <c r="P34" s="2" t="s">
+        <v>1072</v>
       </c>
     </row>
     <row r="35" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D35" s="23" t="s">
-        <v>1127</v>
+        <v>1123</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>1020</v>
+        <v>1017</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>1048</v>
+        <v>1038</v>
       </c>
       <c r="G35" s="38" t="s">
-        <v>1067</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="36" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D36" s="23" t="s">
-        <v>1128</v>
+        <v>1124</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>1021</v>
+        <v>1018</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>2</v>
+        <v>1046</v>
       </c>
       <c r="G36" s="38" t="s">
-        <v>1068</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="37" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D37" s="23" t="s">
-        <v>1129</v>
+        <v>1125</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>1022</v>
+        <v>1019</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>1050</v>
+        <v>2</v>
       </c>
       <c r="G37" s="38" t="s">
-        <v>1069</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="38" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D38" s="23" t="s">
-        <v>1130</v>
+        <v>1126</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>1023</v>
+        <v>1020</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>1044</v>
+        <v>1048</v>
       </c>
       <c r="G38" s="38" t="s">
-        <v>1070</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="39" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="6">
+      <c r="D39" s="23" t="s">
+        <v>1127</v>
+      </c>
+      <c r="E39" s="5" t="s">
+        <v>1021</v>
+      </c>
+      <c r="F39" s="4" t="s">
+        <v>1042</v>
+      </c>
+      <c r="G39" s="38" t="s">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A40" s="6">
         <v>13</v>
       </c>
-      <c r="B39" s="5" t="s">
+      <c r="B40" s="5" t="s">
+        <v>1034</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>1035</v>
+      </c>
+      <c r="D40" s="23" t="s">
         <v>1036</v>
       </c>
-      <c r="C39" s="5" t="s">
-        <v>1037</v>
-      </c>
-      <c r="D39" s="23" t="s">
-        <v>1038</v>
-      </c>
-      <c r="E39" s="5" t="s">
-        <v>1174</v>
-      </c>
-      <c r="F39" s="4" t="s">
-        <v>1051</v>
-      </c>
-      <c r="G39" s="38" t="s">
-        <v>1072</v>
-      </c>
-    </row>
-    <row r="40" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D40" s="23" t="s">
-        <v>1117</v>
-      </c>
       <c r="E40" s="5" t="s">
-        <v>1173</v>
+        <v>1171</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>1048</v>
+        <v>1049</v>
       </c>
       <c r="G40" s="38" t="s">
-        <v>1071</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="41" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D41" s="23" t="s">
-        <v>1118</v>
+        <v>1114</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>1024</v>
+        <v>1170</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>1052</v>
+        <v>1046</v>
       </c>
       <c r="G41" s="38" t="s">
-        <v>1175</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="42" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D42" s="23" t="s">
-        <v>1119</v>
+        <v>1115</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>1025</v>
+        <v>1022</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>1053</v>
+        <v>1050</v>
       </c>
       <c r="G42" s="38" t="s">
-        <v>1071</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="43" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D43" s="23" t="s">
-        <v>1120</v>
+        <v>1116</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>1176</v>
+        <v>1023</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>1045</v>
+        <v>1051</v>
       </c>
       <c r="G43" s="38" t="s">
-        <v>1177</v>
-      </c>
-      <c r="N43" s="26"/>
+        <v>1068</v>
+      </c>
     </row>
     <row r="44" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D44" s="23" t="s">
-        <v>1150</v>
+        <v>1117</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>1182</v>
+        <v>1173</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>1155</v>
+        <v>1043</v>
       </c>
       <c r="G44" s="38" t="s">
-        <v>1186</v>
-      </c>
+        <v>1174</v>
+      </c>
+      <c r="N44" s="26"/>
     </row>
     <row r="45" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D45" s="23" t="s">
-        <v>1154</v>
+        <v>1147</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>1178</v>
+        <v>1179</v>
       </c>
       <c r="F45" s="4" t="s">
+        <v>1152</v>
+      </c>
+      <c r="G45" s="38" t="s">
+        <v>1183</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D46" s="23" t="s">
+        <v>1151</v>
+      </c>
+      <c r="E46" s="5" t="s">
+        <v>1175</v>
+      </c>
+      <c r="F46" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="G45" s="38" t="s">
-        <v>1179</v>
-      </c>
-      <c r="N45" s="26"/>
-    </row>
-    <row r="46" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C46" s="5" t="s">
-        <v>1039</v>
-      </c>
-      <c r="D46" s="23" t="s">
-        <v>1152</v>
-      </c>
-      <c r="E46" s="5" t="s">
-        <v>1183</v>
-      </c>
-      <c r="F46" s="4" t="s">
-        <v>1045</v>
-      </c>
       <c r="G46" s="38" t="s">
+        <v>1176</v>
+      </c>
+      <c r="N46" s="26"/>
+    </row>
+    <row r="47" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C47" s="5" t="s">
+        <v>1037</v>
+      </c>
+      <c r="D47" s="23" t="s">
+        <v>1149</v>
+      </c>
+      <c r="E47" s="5" t="s">
         <v>1180</v>
       </c>
-    </row>
-    <row r="47" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D47" s="23" t="s">
-        <v>1161</v>
-      </c>
-      <c r="E47" s="5" t="s">
-        <v>1184</v>
-      </c>
       <c r="F47" s="4" t="s">
-        <v>6</v>
+        <v>1043</v>
       </c>
       <c r="G47" s="38" t="s">
-        <v>1181</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="48" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D48" s="23" t="s">
-        <v>1162</v>
+        <v>1158</v>
       </c>
       <c r="E48" s="5" t="s">
-        <v>1185</v>
+        <v>1181</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>1045</v>
+        <v>6</v>
       </c>
       <c r="G48" s="38" t="s">
-        <v>1187</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="49" spans="4:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D49" s="23" t="s">
-        <v>1163</v>
+        <v>1159</v>
       </c>
       <c r="E49" s="5" t="s">
-        <v>1026</v>
+        <v>1182</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>1040</v>
+        <v>1043</v>
       </c>
       <c r="G49" s="38" t="s">
-        <v>1191</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="50" spans="4:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D50" s="23" t="s">
-        <v>1164</v>
+        <v>1160</v>
       </c>
       <c r="E50" s="5" t="s">
+        <v>1024</v>
+      </c>
+      <c r="F50" s="4" t="s">
+        <v>1038</v>
+      </c>
+      <c r="G50" s="38" t="s">
         <v>1188</v>
-      </c>
-      <c r="F50" s="4" t="s">
-        <v>1053</v>
-      </c>
-      <c r="G50" s="38" t="s">
-        <v>1189</v>
       </c>
     </row>
     <row r="51" spans="4:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D51" s="23" t="s">
-        <v>1165</v>
+        <v>1161</v>
       </c>
       <c r="E51" s="5" t="s">
-        <v>1190</v>
+        <v>1185</v>
       </c>
       <c r="F51" s="4" t="s">
-        <v>6</v>
+        <v>1051</v>
       </c>
       <c r="G51" s="38" t="s">
-        <v>1192</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="52" spans="4:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D52" s="23" t="s">
-        <v>1193</v>
+        <v>1162</v>
       </c>
       <c r="E52" s="5" t="s">
-        <v>1027</v>
+        <v>1187</v>
       </c>
       <c r="F52" s="4" t="s">
-        <v>1048</v>
+        <v>6</v>
       </c>
       <c r="G52" s="38" t="s">
-        <v>1194</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="53" spans="4:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D53" s="23" t="s">
-        <v>1166</v>
+        <v>1190</v>
       </c>
       <c r="E53" s="5" t="s">
-        <v>1028</v>
+        <v>1025</v>
       </c>
       <c r="F53" s="4" t="s">
-        <v>1054</v>
+        <v>1046</v>
       </c>
       <c r="G53" s="38" t="s">
-        <v>1158</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="54" spans="4:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D54" s="23" t="s">
-        <v>1167</v>
+        <v>1163</v>
       </c>
       <c r="E54" s="5" t="s">
-        <v>1029</v>
+        <v>1026</v>
       </c>
       <c r="F54" s="4" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="G54" s="38" t="s">
-        <v>1158</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="55" spans="4:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D55" s="23" t="s">
-        <v>1168</v>
+        <v>1164</v>
       </c>
       <c r="E55" s="5" t="s">
-        <v>1195</v>
+        <v>1027</v>
       </c>
       <c r="F55" s="4" t="s">
-        <v>4</v>
+        <v>1051</v>
       </c>
       <c r="G55" s="38" t="s">
-        <v>1159</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="56" spans="4:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D56" s="23" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
       <c r="E56" s="5" t="s">
-        <v>1196</v>
+        <v>1192</v>
       </c>
       <c r="F56" s="4" t="s">
-        <v>1157</v>
+        <v>4</v>
       </c>
       <c r="G56" s="38" t="s">
-        <v>1197</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="57" spans="4:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D57" s="23" t="s">
-        <v>1170</v>
+        <v>1166</v>
       </c>
       <c r="E57" s="5" t="s">
-        <v>1198</v>
+        <v>1193</v>
       </c>
       <c r="F57" s="4" t="s">
-        <v>1160</v>
+        <v>1154</v>
       </c>
       <c r="G57" s="38" t="s">
-        <v>1199</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="58" spans="4:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D58" s="23" t="s">
-        <v>1171</v>
+        <v>1167</v>
       </c>
       <c r="E58" s="5" t="s">
-        <v>1200</v>
+        <v>1195</v>
       </c>
       <c r="F58" s="4" t="s">
+        <v>1157</v>
+      </c>
+      <c r="G58" s="38" t="s">
+        <v>1196</v>
+      </c>
+    </row>
+    <row r="59" spans="4:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D59" s="23" t="s">
+        <v>1168</v>
+      </c>
+      <c r="E59" s="5" t="s">
+        <v>1197</v>
+      </c>
+      <c r="F59" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="G58" s="38" t="s">
-        <v>1201</v>
-      </c>
-    </row>
-    <row r="92" spans="1:16" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A92" s="6"/>
-      <c r="D92" s="23"/>
-      <c r="F92" s="4"/>
-      <c r="G92" s="38"/>
-      <c r="H92" s="24"/>
-      <c r="I92" s="24"/>
-      <c r="J92" s="24"/>
-      <c r="K92" s="25"/>
-      <c r="L92" s="25"/>
-      <c r="M92" s="25"/>
-      <c r="N92" s="24"/>
-      <c r="O92" s="34"/>
-      <c r="P92" s="2"/>
+      <c r="G59" s="38" t="s">
+        <v>1198</v>
+      </c>
     </row>
     <row r="93" spans="1:16" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A93" s="6"/>
       <c r="D93" s="23"/>
-      <c r="E93" s="18"/>
       <c r="F93" s="4"/>
       <c r="G93" s="38"/>
       <c r="H93" s="24"/>
@@ -19004,6 +19304,7 @@
     <row r="95" spans="1:16" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A95" s="6"/>
       <c r="D95" s="23"/>
+      <c r="E95" s="18"/>
       <c r="F95" s="4"/>
       <c r="G95" s="38"/>
       <c r="H95" s="24"/>
@@ -19016,12 +19317,9 @@
       <c r="O95" s="34"/>
       <c r="P95" s="2"/>
     </row>
-    <row r="96" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:16" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A96" s="6"/>
-      <c r="B96" s="5"/>
-      <c r="C96" s="5"/>
       <c r="D96" s="23"/>
-      <c r="E96" s="5"/>
       <c r="F96" s="4"/>
       <c r="G96" s="38"/>
       <c r="H96" s="24"/>
@@ -19507,7 +19805,7 @@
       <c r="B123" s="5"/>
       <c r="C123" s="5"/>
       <c r="D123" s="23"/>
-      <c r="E123" s="16"/>
+      <c r="E123" s="5"/>
       <c r="F123" s="4"/>
       <c r="G123" s="38"/>
       <c r="H123" s="24"/>
@@ -19525,7 +19823,7 @@
       <c r="B124" s="5"/>
       <c r="C124" s="5"/>
       <c r="D124" s="23"/>
-      <c r="E124" s="5"/>
+      <c r="E124" s="16"/>
       <c r="F124" s="4"/>
       <c r="G124" s="38"/>
       <c r="H124" s="24"/>
@@ -19615,7 +19913,7 @@
       <c r="B129" s="5"/>
       <c r="C129" s="5"/>
       <c r="D129" s="23"/>
-      <c r="E129" s="16"/>
+      <c r="E129" s="5"/>
       <c r="F129" s="4"/>
       <c r="G129" s="38"/>
       <c r="H129" s="24"/>
@@ -19646,8 +19944,10 @@
       <c r="O130" s="34"/>
       <c r="P130" s="2"/>
     </row>
-    <row r="131" spans="1:16" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A131" s="6"/>
+      <c r="B131" s="5"/>
+      <c r="C131" s="5"/>
       <c r="D131" s="23"/>
       <c r="E131" s="16"/>
       <c r="F131" s="4"/>
@@ -19665,6 +19965,7 @@
     <row r="132" spans="1:16" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A132" s="6"/>
       <c r="D132" s="23"/>
+      <c r="E132" s="16"/>
       <c r="F132" s="4"/>
       <c r="G132" s="38"/>
       <c r="H132" s="24"/>
@@ -19776,13 +20077,13 @@
       <c r="I139" s="24"/>
       <c r="J139" s="24"/>
       <c r="K139" s="25"/>
-      <c r="L139" s="28"/>
-      <c r="M139" s="27"/>
+      <c r="L139" s="25"/>
+      <c r="M139" s="25"/>
       <c r="N139" s="24"/>
       <c r="O139" s="34"/>
       <c r="P139" s="2"/>
     </row>
-    <row r="140" spans="1:16" s="5" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:16" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A140" s="6"/>
       <c r="D140" s="23"/>
       <c r="F140" s="4"/>
@@ -19790,14 +20091,14 @@
       <c r="H140" s="24"/>
       <c r="I140" s="24"/>
       <c r="J140" s="24"/>
-      <c r="K140" s="26"/>
-      <c r="L140" s="26"/>
-      <c r="M140" s="26"/>
+      <c r="K140" s="25"/>
+      <c r="L140" s="28"/>
+      <c r="M140" s="27"/>
       <c r="N140" s="24"/>
       <c r="O140" s="34"/>
       <c r="P140" s="2"/>
     </row>
-    <row r="141" spans="1:16" s="5" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:16" s="5" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A141" s="6"/>
       <c r="D141" s="23"/>
       <c r="F141" s="4"/>
@@ -19805,14 +20106,14 @@
       <c r="H141" s="24"/>
       <c r="I141" s="24"/>
       <c r="J141" s="24"/>
-      <c r="K141" s="25"/>
-      <c r="L141" s="25"/>
-      <c r="M141" s="25"/>
+      <c r="K141" s="26"/>
+      <c r="L141" s="26"/>
+      <c r="M141" s="26"/>
       <c r="N141" s="24"/>
       <c r="O141" s="34"/>
       <c r="P141" s="2"/>
     </row>
-    <row r="142" spans="1:16" s="5" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="142" spans="1:16" s="5" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A142" s="6"/>
       <c r="D142" s="23"/>
       <c r="F142" s="4"/>
@@ -19827,7 +20128,7 @@
       <c r="O142" s="34"/>
       <c r="P142" s="2"/>
     </row>
-    <row r="143" spans="1:16" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="143" spans="1:16" s="5" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A143" s="6"/>
       <c r="D143" s="23"/>
       <c r="F143" s="4"/>
@@ -19837,7 +20138,7 @@
       <c r="J143" s="24"/>
       <c r="K143" s="25"/>
       <c r="L143" s="25"/>
-      <c r="M143" s="27"/>
+      <c r="M143" s="25"/>
       <c r="N143" s="24"/>
       <c r="O143" s="34"/>
       <c r="P143" s="2"/>
@@ -19851,26 +20152,23 @@
       <c r="I144" s="24"/>
       <c r="J144" s="24"/>
       <c r="K144" s="25"/>
-      <c r="L144" s="28"/>
+      <c r="L144" s="25"/>
       <c r="M144" s="27"/>
       <c r="N144" s="24"/>
       <c r="O144" s="34"/>
       <c r="P144" s="2"/>
     </row>
-    <row r="145" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="145" spans="1:16" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A145" s="6"/>
-      <c r="B145" s="5"/>
-      <c r="C145" s="5"/>
       <c r="D145" s="23"/>
-      <c r="E145" s="5"/>
       <c r="F145" s="4"/>
       <c r="G145" s="38"/>
       <c r="H145" s="24"/>
       <c r="I145" s="24"/>
       <c r="J145" s="24"/>
       <c r="K145" s="25"/>
-      <c r="L145" s="25"/>
-      <c r="M145" s="25"/>
+      <c r="L145" s="28"/>
+      <c r="M145" s="27"/>
       <c r="N145" s="24"/>
       <c r="O145" s="34"/>
       <c r="P145" s="2"/>
@@ -20114,7 +20412,7 @@
       <c r="B159" s="5"/>
       <c r="C159" s="5"/>
       <c r="D159" s="23"/>
-      <c r="E159" s="18"/>
+      <c r="E159" s="5"/>
       <c r="F159" s="4"/>
       <c r="G159" s="38"/>
       <c r="H159" s="24"/>
@@ -20150,7 +20448,7 @@
       <c r="B161" s="5"/>
       <c r="C161" s="5"/>
       <c r="D161" s="23"/>
-      <c r="E161" s="5"/>
+      <c r="E161" s="18"/>
       <c r="F161" s="4"/>
       <c r="G161" s="38"/>
       <c r="H161" s="24"/>
@@ -20258,7 +20556,7 @@
       <c r="B167" s="5"/>
       <c r="C167" s="5"/>
       <c r="D167" s="23"/>
-      <c r="E167" s="18"/>
+      <c r="E167" s="5"/>
       <c r="F167" s="4"/>
       <c r="G167" s="38"/>
       <c r="H167" s="24"/>
@@ -20294,7 +20592,7 @@
       <c r="B169" s="5"/>
       <c r="C169" s="5"/>
       <c r="D169" s="23"/>
-      <c r="E169" s="5"/>
+      <c r="E169" s="18"/>
       <c r="F169" s="4"/>
       <c r="G169" s="38"/>
       <c r="H169" s="24"/>
@@ -20348,7 +20646,7 @@
       <c r="B172" s="5"/>
       <c r="C172" s="5"/>
       <c r="D172" s="23"/>
-      <c r="E172" s="18"/>
+      <c r="E172" s="5"/>
       <c r="F172" s="4"/>
       <c r="G172" s="38"/>
       <c r="H172" s="24"/>
@@ -20384,7 +20682,7 @@
       <c r="B174" s="5"/>
       <c r="C174" s="5"/>
       <c r="D174" s="23"/>
-      <c r="E174" s="5"/>
+      <c r="E174" s="18"/>
       <c r="F174" s="4"/>
       <c r="G174" s="38"/>
       <c r="H174" s="24"/>
@@ -20409,8 +20707,8 @@
       <c r="I175" s="24"/>
       <c r="J175" s="24"/>
       <c r="K175" s="25"/>
-      <c r="L175" s="28"/>
-      <c r="M175" s="27"/>
+      <c r="L175" s="25"/>
+      <c r="M175" s="25"/>
       <c r="N175" s="24"/>
       <c r="O175" s="34"/>
       <c r="P175" s="2"/>
@@ -20426,8 +20724,8 @@
       <c r="H176" s="24"/>
       <c r="I176" s="24"/>
       <c r="J176" s="24"/>
-      <c r="K176" s="27"/>
-      <c r="L176" s="27"/>
+      <c r="K176" s="25"/>
+      <c r="L176" s="28"/>
       <c r="M176" s="27"/>
       <c r="N176" s="24"/>
       <c r="O176" s="34"/>
@@ -20444,8 +20742,8 @@
       <c r="H177" s="24"/>
       <c r="I177" s="24"/>
       <c r="J177" s="24"/>
-      <c r="K177" s="25"/>
-      <c r="L177" s="25"/>
+      <c r="K177" s="27"/>
+      <c r="L177" s="27"/>
       <c r="M177" s="27"/>
       <c r="N177" s="24"/>
       <c r="O177" s="34"/>
@@ -20480,8 +20778,8 @@
       <c r="H179" s="24"/>
       <c r="I179" s="24"/>
       <c r="J179" s="24"/>
-      <c r="K179" s="28"/>
-      <c r="L179" s="28"/>
+      <c r="K179" s="25"/>
+      <c r="L179" s="25"/>
       <c r="M179" s="27"/>
       <c r="N179" s="24"/>
       <c r="O179" s="34"/>
@@ -20500,7 +20798,7 @@
       <c r="J180" s="24"/>
       <c r="K180" s="28"/>
       <c r="L180" s="28"/>
-      <c r="M180" s="24"/>
+      <c r="M180" s="27"/>
       <c r="N180" s="24"/>
       <c r="O180" s="34"/>
       <c r="P180" s="2"/>
@@ -20534,8 +20832,8 @@
       <c r="H182" s="24"/>
       <c r="I182" s="24"/>
       <c r="J182" s="24"/>
-      <c r="K182" s="24"/>
-      <c r="L182" s="24"/>
+      <c r="K182" s="28"/>
+      <c r="L182" s="28"/>
       <c r="M182" s="24"/>
       <c r="N182" s="24"/>
       <c r="O182" s="34"/>
@@ -20552,9 +20850,9 @@
       <c r="H183" s="24"/>
       <c r="I183" s="24"/>
       <c r="J183" s="24"/>
-      <c r="K183" s="25"/>
-      <c r="L183" s="25"/>
-      <c r="M183" s="25"/>
+      <c r="K183" s="24"/>
+      <c r="L183" s="24"/>
+      <c r="M183" s="24"/>
       <c r="N183" s="24"/>
       <c r="O183" s="34"/>
       <c r="P183" s="2"/>
@@ -20606,9 +20904,9 @@
       <c r="H186" s="24"/>
       <c r="I186" s="24"/>
       <c r="J186" s="24"/>
-      <c r="K186" s="28"/>
-      <c r="L186" s="28"/>
-      <c r="M186" s="27"/>
+      <c r="K186" s="25"/>
+      <c r="L186" s="25"/>
+      <c r="M186" s="25"/>
       <c r="N186" s="24"/>
       <c r="O186" s="34"/>
       <c r="P186" s="2"/>
@@ -20642,9 +20940,9 @@
       <c r="H188" s="24"/>
       <c r="I188" s="24"/>
       <c r="J188" s="24"/>
-      <c r="K188" s="24"/>
-      <c r="L188" s="24"/>
-      <c r="M188" s="24"/>
+      <c r="K188" s="28"/>
+      <c r="L188" s="28"/>
+      <c r="M188" s="27"/>
       <c r="N188" s="24"/>
       <c r="O188" s="34"/>
       <c r="P188" s="2"/>
@@ -20660,9 +20958,9 @@
       <c r="H189" s="24"/>
       <c r="I189" s="24"/>
       <c r="J189" s="24"/>
-      <c r="K189" s="25"/>
-      <c r="L189" s="25"/>
-      <c r="M189" s="25"/>
+      <c r="K189" s="24"/>
+      <c r="L189" s="24"/>
+      <c r="M189" s="24"/>
       <c r="N189" s="24"/>
       <c r="O189" s="34"/>
       <c r="P189" s="2"/>
@@ -20698,7 +20996,7 @@
       <c r="J191" s="24"/>
       <c r="K191" s="25"/>
       <c r="L191" s="25"/>
-      <c r="M191" s="27"/>
+      <c r="M191" s="25"/>
       <c r="N191" s="24"/>
       <c r="O191" s="34"/>
       <c r="P191" s="2"/>
@@ -20714,8 +21012,8 @@
       <c r="H192" s="24"/>
       <c r="I192" s="24"/>
       <c r="J192" s="24"/>
-      <c r="K192" s="26"/>
-      <c r="L192" s="26"/>
+      <c r="K192" s="25"/>
+      <c r="L192" s="25"/>
       <c r="M192" s="27"/>
       <c r="N192" s="24"/>
       <c r="O192" s="34"/>
@@ -20732,9 +21030,9 @@
       <c r="H193" s="24"/>
       <c r="I193" s="24"/>
       <c r="J193" s="24"/>
-      <c r="K193" s="25"/>
-      <c r="L193" s="25"/>
-      <c r="M193" s="25"/>
+      <c r="K193" s="26"/>
+      <c r="L193" s="26"/>
+      <c r="M193" s="27"/>
       <c r="N193" s="24"/>
       <c r="O193" s="34"/>
       <c r="P193" s="2"/>
@@ -20841,8 +21139,8 @@
       <c r="I199" s="24"/>
       <c r="J199" s="24"/>
       <c r="K199" s="25"/>
-      <c r="L199" s="28"/>
-      <c r="M199" s="27"/>
+      <c r="L199" s="25"/>
+      <c r="M199" s="25"/>
       <c r="N199" s="24"/>
       <c r="O199" s="34"/>
       <c r="P199" s="2"/>
@@ -20858,8 +21156,8 @@
       <c r="H200" s="24"/>
       <c r="I200" s="24"/>
       <c r="J200" s="24"/>
-      <c r="K200" s="27"/>
-      <c r="L200" s="27"/>
+      <c r="K200" s="25"/>
+      <c r="L200" s="28"/>
       <c r="M200" s="27"/>
       <c r="N200" s="24"/>
       <c r="O200" s="34"/>
@@ -20912,8 +21210,8 @@
       <c r="H203" s="24"/>
       <c r="I203" s="24"/>
       <c r="J203" s="24"/>
-      <c r="K203" s="25"/>
-      <c r="L203" s="28"/>
+      <c r="K203" s="27"/>
+      <c r="L203" s="27"/>
       <c r="M203" s="27"/>
       <c r="N203" s="24"/>
       <c r="O203" s="34"/>
@@ -20930,9 +21228,9 @@
       <c r="H204" s="24"/>
       <c r="I204" s="24"/>
       <c r="J204" s="24"/>
-      <c r="K204" s="24"/>
-      <c r="L204" s="24"/>
-      <c r="M204" s="24"/>
+      <c r="K204" s="25"/>
+      <c r="L204" s="28"/>
+      <c r="M204" s="27"/>
       <c r="N204" s="24"/>
       <c r="O204" s="34"/>
       <c r="P204" s="2"/>
@@ -20948,9 +21246,9 @@
       <c r="H205" s="24"/>
       <c r="I205" s="24"/>
       <c r="J205" s="24"/>
-      <c r="K205" s="26"/>
-      <c r="L205" s="26"/>
-      <c r="M205" s="27"/>
+      <c r="K205" s="24"/>
+      <c r="L205" s="24"/>
+      <c r="M205" s="24"/>
       <c r="N205" s="24"/>
       <c r="O205" s="34"/>
       <c r="P205" s="2"/>
@@ -20984,8 +21282,8 @@
       <c r="H207" s="24"/>
       <c r="I207" s="24"/>
       <c r="J207" s="24"/>
-      <c r="K207" s="25"/>
-      <c r="L207" s="28"/>
+      <c r="K207" s="26"/>
+      <c r="L207" s="26"/>
       <c r="M207" s="27"/>
       <c r="N207" s="24"/>
       <c r="O207" s="34"/>
@@ -21003,7 +21301,7 @@
       <c r="I208" s="24"/>
       <c r="J208" s="24"/>
       <c r="K208" s="25"/>
-      <c r="L208" s="25"/>
+      <c r="L208" s="28"/>
       <c r="M208" s="27"/>
       <c r="N208" s="24"/>
       <c r="O208" s="34"/>
@@ -21022,7 +21320,7 @@
       <c r="J209" s="24"/>
       <c r="K209" s="25"/>
       <c r="L209" s="25"/>
-      <c r="M209" s="25"/>
+      <c r="M209" s="27"/>
       <c r="N209" s="24"/>
       <c r="O209" s="34"/>
       <c r="P209" s="2"/>
@@ -21032,29 +21330,41 @@
       <c r="B210" s="5"/>
       <c r="C210" s="5"/>
       <c r="D210" s="23"/>
-      <c r="E210" s="16"/>
+      <c r="E210" s="5"/>
       <c r="F210" s="4"/>
       <c r="G210" s="38"/>
       <c r="H210" s="24"/>
       <c r="I210" s="24"/>
       <c r="J210" s="24"/>
-      <c r="K210" s="28"/>
-      <c r="L210" s="28"/>
-      <c r="M210" s="27"/>
+      <c r="K210" s="25"/>
+      <c r="L210" s="25"/>
+      <c r="M210" s="25"/>
       <c r="N210" s="24"/>
       <c r="O210" s="34"/>
       <c r="P210" s="2"/>
     </row>
-    <row r="211" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="211" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A211" s="6"/>
+      <c r="B211" s="5"/>
+      <c r="C211" s="5"/>
+      <c r="D211" s="23"/>
       <c r="E211" s="16"/>
-      <c r="K211" s="26"/>
-      <c r="L211" s="29"/>
+      <c r="F211" s="4"/>
+      <c r="G211" s="38"/>
+      <c r="H211" s="24"/>
+      <c r="I211" s="24"/>
+      <c r="J211" s="24"/>
+      <c r="K211" s="28"/>
+      <c r="L211" s="28"/>
       <c r="M211" s="27"/>
+      <c r="N211" s="24"/>
+      <c r="O211" s="34"/>
+      <c r="P211" s="2"/>
     </row>
     <row r="212" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E212" s="16"/>
-      <c r="K212" s="27"/>
-      <c r="L212" s="27"/>
+      <c r="K212" s="26"/>
+      <c r="L212" s="29"/>
       <c r="M212" s="27"/>
     </row>
     <row r="213" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -21069,752 +21379,807 @@
       <c r="L214" s="27"/>
       <c r="M214" s="27"/>
     </row>
+    <row r="215" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E215" s="16"/>
+      <c r="K215" s="27"/>
+      <c r="L215" s="27"/>
+      <c r="M215" s="27"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:AL213"/>
+  <autoFilter ref="A1:AL214"/>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="J240:J1048576 J196:J213 J78:J194 J215:J237 J13 J39:J43 J16:J17 J21 J48:J53 J55:J76 J1:J2 J4:J7">
-    <cfRule type="cellIs" dxfId="219" priority="628" operator="equal">
+  <conditionalFormatting sqref="J241:J1048576 J197:J214 J79:J195 J216:J238 J14 J40:J44 J17:J18 J22 J49:J54 J56:J77 J1:J2 J5:J8">
+    <cfRule type="cellIs" dxfId="249" priority="643" operator="equal">
       <formula>"正常返回"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="218" priority="629" operator="equal">
+    <cfRule type="cellIs" dxfId="248" priority="644" operator="equal">
       <formula>"待测试"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="217" priority="630" operator="equal">
+    <cfRule type="cellIs" dxfId="247" priority="645" operator="equal">
       <formula>"需要处理"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="216" priority="631" operator="equal">
+    <cfRule type="cellIs" dxfId="246" priority="646" operator="equal">
       <formula>"需要处理"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="215" priority="632" operator="equal">
+    <cfRule type="cellIs" dxfId="245" priority="647" operator="equal">
       <formula>"需要处理"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="214" priority="634" operator="equal">
+    <cfRule type="cellIs" dxfId="244" priority="649" operator="equal">
       <formula>"正常返回"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J60:J61">
-    <cfRule type="cellIs" dxfId="213" priority="633" operator="equal">
+  <conditionalFormatting sqref="J61:J62">
+    <cfRule type="cellIs" dxfId="243" priority="648" operator="equal">
       <formula>"url参数变更，待处理测试"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J195">
-    <cfRule type="cellIs" dxfId="212" priority="613" operator="equal">
+  <conditionalFormatting sqref="J196">
+    <cfRule type="cellIs" dxfId="242" priority="628" operator="equal">
       <formula>"正常返回"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="211" priority="614" operator="equal">
+    <cfRule type="cellIs" dxfId="241" priority="629" operator="equal">
       <formula>"待测试"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="210" priority="615" operator="equal">
+    <cfRule type="cellIs" dxfId="240" priority="630" operator="equal">
       <formula>"需要处理"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="209" priority="616" operator="equal">
+    <cfRule type="cellIs" dxfId="239" priority="631" operator="equal">
       <formula>"需要处理"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="208" priority="617" operator="equal">
+    <cfRule type="cellIs" dxfId="238" priority="632" operator="equal">
       <formula>"需要处理"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="207" priority="618" operator="equal">
+    <cfRule type="cellIs" dxfId="237" priority="633" operator="equal">
       <formula>"正常返回"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J238:J239">
-    <cfRule type="cellIs" dxfId="206" priority="598" operator="equal">
+  <conditionalFormatting sqref="J239:J240">
+    <cfRule type="cellIs" dxfId="236" priority="613" operator="equal">
       <formula>"正常返回"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="205" priority="599" operator="equal">
+    <cfRule type="cellIs" dxfId="235" priority="614" operator="equal">
       <formula>"待测试"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="204" priority="600" operator="equal">
+    <cfRule type="cellIs" dxfId="234" priority="615" operator="equal">
       <formula>"需要处理"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="203" priority="601" operator="equal">
+    <cfRule type="cellIs" dxfId="233" priority="616" operator="equal">
       <formula>"需要处理"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="202" priority="602" operator="equal">
+    <cfRule type="cellIs" dxfId="232" priority="617" operator="equal">
       <formula>"需要处理"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="201" priority="603" operator="equal">
+    <cfRule type="cellIs" dxfId="231" priority="618" operator="equal">
       <formula>"正常返回"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J77">
-    <cfRule type="cellIs" dxfId="200" priority="583" operator="equal">
+  <conditionalFormatting sqref="J78">
+    <cfRule type="cellIs" dxfId="230" priority="598" operator="equal">
       <formula>"正常返回"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="199" priority="584" operator="equal">
+    <cfRule type="cellIs" dxfId="229" priority="599" operator="equal">
       <formula>"待测试"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="198" priority="585" operator="equal">
+    <cfRule type="cellIs" dxfId="228" priority="600" operator="equal">
       <formula>"需要处理"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="197" priority="586" operator="equal">
+    <cfRule type="cellIs" dxfId="227" priority="601" operator="equal">
       <formula>"需要处理"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="196" priority="587" operator="equal">
+    <cfRule type="cellIs" dxfId="226" priority="602" operator="equal">
       <formula>"需要处理"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="195" priority="588" operator="equal">
+    <cfRule type="cellIs" dxfId="225" priority="603" operator="equal">
       <formula>"正常返回"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J214">
-    <cfRule type="cellIs" dxfId="194" priority="568" operator="equal">
+  <conditionalFormatting sqref="J215">
+    <cfRule type="cellIs" dxfId="224" priority="583" operator="equal">
       <formula>"正常返回"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="193" priority="569" operator="equal">
+    <cfRule type="cellIs" dxfId="223" priority="584" operator="equal">
       <formula>"待测试"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="192" priority="570" operator="equal">
+    <cfRule type="cellIs" dxfId="222" priority="585" operator="equal">
       <formula>"需要处理"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="191" priority="571" operator="equal">
+    <cfRule type="cellIs" dxfId="221" priority="586" operator="equal">
       <formula>"需要处理"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="190" priority="572" operator="equal">
+    <cfRule type="cellIs" dxfId="220" priority="587" operator="equal">
       <formula>"需要处理"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="189" priority="573" operator="equal">
+    <cfRule type="cellIs" dxfId="219" priority="588" operator="equal">
       <formula>"正常返回"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J8">
-    <cfRule type="cellIs" dxfId="188" priority="553" operator="equal">
+  <conditionalFormatting sqref="J9">
+    <cfRule type="cellIs" dxfId="218" priority="568" operator="equal">
       <formula>"正常返回"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="187" priority="554" operator="equal">
+    <cfRule type="cellIs" dxfId="217" priority="569" operator="equal">
       <formula>"待测试"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="186" priority="555" operator="equal">
+    <cfRule type="cellIs" dxfId="216" priority="570" operator="equal">
       <formula>"需要处理"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="185" priority="556" operator="equal">
+    <cfRule type="cellIs" dxfId="215" priority="571" operator="equal">
       <formula>"需要处理"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="184" priority="557" operator="equal">
+    <cfRule type="cellIs" dxfId="214" priority="572" operator="equal">
       <formula>"需要处理"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="183" priority="558" operator="equal">
+    <cfRule type="cellIs" dxfId="213" priority="573" operator="equal">
       <formula>"正常返回"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J4">
+    <cfRule type="cellIs" dxfId="212" priority="538" operator="equal">
+      <formula>"正常返回"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="211" priority="539" operator="equal">
+      <formula>"待测试"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="210" priority="540" operator="equal">
+      <formula>"需要处理"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="209" priority="541" operator="equal">
+      <formula>"需要处理"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="208" priority="542" operator="equal">
+      <formula>"需要处理"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="207" priority="543" operator="equal">
+      <formula>"正常返回"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J23">
+    <cfRule type="cellIs" dxfId="206" priority="523" operator="equal">
+      <formula>"正常返回"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="205" priority="524" operator="equal">
+      <formula>"待测试"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="204" priority="525" operator="equal">
+      <formula>"需要处理"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="203" priority="526" operator="equal">
+      <formula>"需要处理"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="202" priority="527" operator="equal">
+      <formula>"需要处理"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="201" priority="528" operator="equal">
+      <formula>"正常返回"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J25">
+    <cfRule type="cellIs" dxfId="200" priority="508" operator="equal">
+      <formula>"正常返回"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="199" priority="509" operator="equal">
+      <formula>"待测试"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="198" priority="510" operator="equal">
+      <formula>"需要处理"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="197" priority="511" operator="equal">
+      <formula>"需要处理"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="196" priority="512" operator="equal">
+      <formula>"需要处理"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="195" priority="513" operator="equal">
+      <formula>"正常返回"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J26">
+    <cfRule type="cellIs" dxfId="194" priority="493" operator="equal">
+      <formula>"正常返回"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="193" priority="494" operator="equal">
+      <formula>"待测试"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="192" priority="495" operator="equal">
+      <formula>"需要处理"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="191" priority="496" operator="equal">
+      <formula>"需要处理"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="190" priority="497" operator="equal">
+      <formula>"需要处理"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="189" priority="498" operator="equal">
+      <formula>"正常返回"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J24">
+    <cfRule type="cellIs" dxfId="188" priority="478" operator="equal">
+      <formula>"正常返回"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="187" priority="479" operator="equal">
+      <formula>"待测试"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="186" priority="480" operator="equal">
+      <formula>"需要处理"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="185" priority="481" operator="equal">
+      <formula>"需要处理"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="184" priority="482" operator="equal">
+      <formula>"需要处理"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="183" priority="483" operator="equal">
+      <formula>"正常返回"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J28 J30:J31 J35">
+    <cfRule type="cellIs" dxfId="182" priority="388" operator="equal">
+      <formula>"正常返回"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="181" priority="389" operator="equal">
+      <formula>"待测试"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="180" priority="390" operator="equal">
+      <formula>"需要处理"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="179" priority="391" operator="equal">
+      <formula>"需要处理"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="178" priority="392" operator="equal">
+      <formula>"需要处理"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="177" priority="393" operator="equal">
+      <formula>"正常返回"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J36">
+    <cfRule type="cellIs" dxfId="176" priority="382" operator="equal">
+      <formula>"正常返回"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="175" priority="383" operator="equal">
+      <formula>"待测试"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="174" priority="384" operator="equal">
+      <formula>"需要处理"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="173" priority="385" operator="equal">
+      <formula>"需要处理"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="172" priority="386" operator="equal">
+      <formula>"需要处理"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="171" priority="387" operator="equal">
+      <formula>"正常返回"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J38">
+    <cfRule type="cellIs" dxfId="170" priority="376" operator="equal">
+      <formula>"正常返回"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="169" priority="377" operator="equal">
+      <formula>"待测试"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="168" priority="378" operator="equal">
+      <formula>"需要处理"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="167" priority="379" operator="equal">
+      <formula>"需要处理"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="166" priority="380" operator="equal">
+      <formula>"需要处理"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="165" priority="381" operator="equal">
+      <formula>"正常返回"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J39">
+    <cfRule type="cellIs" dxfId="164" priority="370" operator="equal">
+      <formula>"正常返回"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="163" priority="371" operator="equal">
+      <formula>"待测试"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="162" priority="372" operator="equal">
+      <formula>"需要处理"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="161" priority="373" operator="equal">
+      <formula>"需要处理"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="160" priority="374" operator="equal">
+      <formula>"需要处理"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="159" priority="375" operator="equal">
+      <formula>"正常返回"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J37">
+    <cfRule type="cellIs" dxfId="158" priority="364" operator="equal">
+      <formula>"正常返回"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="157" priority="365" operator="equal">
+      <formula>"待测试"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="156" priority="366" operator="equal">
+      <formula>"需要处理"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="155" priority="367" operator="equal">
+      <formula>"需要处理"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="154" priority="368" operator="equal">
+      <formula>"需要处理"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="153" priority="369" operator="equal">
+      <formula>"正常返回"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J55">
+    <cfRule type="cellIs" dxfId="152" priority="316" operator="equal">
+      <formula>"正常返回"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="151" priority="317" operator="equal">
+      <formula>"待测试"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="150" priority="318" operator="equal">
+      <formula>"需要处理"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="149" priority="319" operator="equal">
+      <formula>"需要处理"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="148" priority="320" operator="equal">
+      <formula>"需要处理"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="147" priority="321" operator="equal">
+      <formula>"正常返回"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J10">
+    <cfRule type="cellIs" dxfId="146" priority="286" operator="equal">
+      <formula>"正常返回"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="145" priority="287" operator="equal">
+      <formula>"待测试"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="144" priority="288" operator="equal">
+      <formula>"需要处理"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="143" priority="289" operator="equal">
+      <formula>"需要处理"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="142" priority="290" operator="equal">
+      <formula>"需要处理"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="141" priority="291" operator="equal">
+      <formula>"正常返回"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J11">
+    <cfRule type="cellIs" dxfId="140" priority="271" operator="equal">
+      <formula>"正常返回"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="139" priority="272" operator="equal">
+      <formula>"待测试"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="138" priority="273" operator="equal">
+      <formula>"需要处理"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="137" priority="274" operator="equal">
+      <formula>"需要处理"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="136" priority="275" operator="equal">
+      <formula>"需要处理"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="135" priority="276" operator="equal">
+      <formula>"正常返回"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J12">
+    <cfRule type="cellIs" dxfId="134" priority="256" operator="equal">
+      <formula>"正常返回"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="133" priority="257" operator="equal">
+      <formula>"待测试"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="132" priority="258" operator="equal">
+      <formula>"需要处理"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="131" priority="259" operator="equal">
+      <formula>"需要处理"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="130" priority="260" operator="equal">
+      <formula>"需要处理"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="129" priority="261" operator="equal">
+      <formula>"正常返回"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J13">
+    <cfRule type="cellIs" dxfId="128" priority="241" operator="equal">
+      <formula>"正常返回"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="127" priority="242" operator="equal">
+      <formula>"待测试"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="126" priority="243" operator="equal">
+      <formula>"需要处理"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="125" priority="244" operator="equal">
+      <formula>"需要处理"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="124" priority="245" operator="equal">
+      <formula>"需要处理"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="123" priority="246" operator="equal">
+      <formula>"正常返回"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J15">
+    <cfRule type="cellIs" dxfId="122" priority="211" operator="equal">
+      <formula>"正常返回"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="121" priority="212" operator="equal">
+      <formula>"待测试"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="120" priority="213" operator="equal">
+      <formula>"需要处理"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="119" priority="214" operator="equal">
+      <formula>"需要处理"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="118" priority="215" operator="equal">
+      <formula>"需要处理"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="117" priority="216" operator="equal">
+      <formula>"正常返回"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J27">
+    <cfRule type="cellIs" dxfId="116" priority="196" operator="equal">
+      <formula>"正常返回"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="115" priority="197" operator="equal">
+      <formula>"待测试"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="114" priority="198" operator="equal">
+      <formula>"需要处理"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="113" priority="199" operator="equal">
+      <formula>"需要处理"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="112" priority="200" operator="equal">
+      <formula>"需要处理"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="111" priority="201" operator="equal">
+      <formula>"正常返回"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J16">
+    <cfRule type="cellIs" dxfId="110" priority="181" operator="equal">
+      <formula>"正常返回"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="109" priority="182" operator="equal">
+      <formula>"待测试"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="108" priority="183" operator="equal">
+      <formula>"需要处理"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="107" priority="184" operator="equal">
+      <formula>"需要处理"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="106" priority="185" operator="equal">
+      <formula>"需要处理"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="105" priority="186" operator="equal">
+      <formula>"正常返回"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J29">
+    <cfRule type="cellIs" dxfId="104" priority="166" operator="equal">
+      <formula>"正常返回"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="103" priority="167" operator="equal">
+      <formula>"待测试"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="102" priority="168" operator="equal">
+      <formula>"需要处理"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="101" priority="169" operator="equal">
+      <formula>"需要处理"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="100" priority="170" operator="equal">
+      <formula>"需要处理"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="99" priority="171" operator="equal">
+      <formula>"正常返回"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J20">
+    <cfRule type="cellIs" dxfId="98" priority="151" operator="equal">
+      <formula>"正常返回"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="97" priority="152" operator="equal">
+      <formula>"待测试"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="96" priority="153" operator="equal">
+      <formula>"需要处理"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="95" priority="154" operator="equal">
+      <formula>"需要处理"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="94" priority="155" operator="equal">
+      <formula>"需要处理"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="93" priority="156" operator="equal">
+      <formula>"正常返回"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J34">
+    <cfRule type="cellIs" dxfId="92" priority="136" operator="equal">
+      <formula>"正常返回"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="91" priority="137" operator="equal">
+      <formula>"待测试"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="90" priority="138" operator="equal">
+      <formula>"需要处理"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="89" priority="139" operator="equal">
+      <formula>"需要处理"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="88" priority="140" operator="equal">
+      <formula>"需要处理"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="87" priority="141" operator="equal">
+      <formula>"正常返回"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J47">
+    <cfRule type="cellIs" dxfId="86" priority="121" operator="equal">
+      <formula>"正常返回"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="85" priority="122" operator="equal">
+      <formula>"待测试"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="84" priority="123" operator="equal">
+      <formula>"需要处理"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="83" priority="124" operator="equal">
+      <formula>"需要处理"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="82" priority="125" operator="equal">
+      <formula>"需要处理"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="81" priority="126" operator="equal">
+      <formula>"正常返回"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J19">
+    <cfRule type="cellIs" dxfId="80" priority="106" operator="equal">
+      <formula>"正常返回"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="79" priority="107" operator="equal">
+      <formula>"待测试"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="78" priority="108" operator="equal">
+      <formula>"需要处理"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="77" priority="109" operator="equal">
+      <formula>"需要处理"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="76" priority="110" operator="equal">
+      <formula>"需要处理"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="75" priority="111" operator="equal">
+      <formula>"正常返回"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J21">
+    <cfRule type="cellIs" dxfId="74" priority="91" operator="equal">
+      <formula>"正常返回"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="73" priority="92" operator="equal">
+      <formula>"待测试"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="72" priority="93" operator="equal">
+      <formula>"需要处理"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="71" priority="94" operator="equal">
+      <formula>"需要处理"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="70" priority="95" operator="equal">
+      <formula>"需要处理"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="69" priority="96" operator="equal">
+      <formula>"正常返回"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J33">
+    <cfRule type="cellIs" dxfId="68" priority="76" operator="equal">
+      <formula>"正常返回"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="67" priority="77" operator="equal">
+      <formula>"待测试"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="66" priority="78" operator="equal">
+      <formula>"需要处理"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="65" priority="79" operator="equal">
+      <formula>"需要处理"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="64" priority="80" operator="equal">
+      <formula>"需要处理"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="63" priority="81" operator="equal">
+      <formula>"正常返回"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J32">
+    <cfRule type="cellIs" dxfId="62" priority="61" operator="equal">
+      <formula>"正常返回"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="61" priority="62" operator="equal">
+      <formula>"待测试"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="60" priority="63" operator="equal">
+      <formula>"需要处理"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="59" priority="64" operator="equal">
+      <formula>"需要处理"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="58" priority="65" operator="equal">
+      <formula>"需要处理"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="57" priority="66" operator="equal">
+      <formula>"正常返回"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J46">
+    <cfRule type="cellIs" dxfId="56" priority="46" operator="equal">
+      <formula>"正常返回"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="55" priority="47" operator="equal">
+      <formula>"待测试"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="54" priority="48" operator="equal">
+      <formula>"需要处理"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="53" priority="49" operator="equal">
+      <formula>"需要处理"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="52" priority="50" operator="equal">
+      <formula>"需要处理"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="51" priority="51" operator="equal">
+      <formula>"正常返回"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J48">
+    <cfRule type="cellIs" dxfId="50" priority="31" operator="equal">
+      <formula>"正常返回"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="49" priority="32" operator="equal">
+      <formula>"待测试"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="48" priority="33" operator="equal">
+      <formula>"需要处理"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="47" priority="34" operator="equal">
+      <formula>"需要处理"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="46" priority="35" operator="equal">
+      <formula>"需要处理"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="45" priority="36" operator="equal">
+      <formula>"正常返回"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J45">
+    <cfRule type="cellIs" dxfId="44" priority="16" operator="equal">
+      <formula>"正常返回"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="43" priority="17" operator="equal">
+      <formula>"待测试"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="42" priority="18" operator="equal">
+      <formula>"需要处理"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="41" priority="19" operator="equal">
+      <formula>"需要处理"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="40" priority="20" operator="equal">
+      <formula>"需要处理"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="39" priority="21" operator="equal">
+      <formula>"正常返回"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J1:J2 J4:J1048576">
+    <cfRule type="cellIs" dxfId="38" priority="698" operator="equal">
+      <formula>$J$68</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="37" priority="699" operator="equal">
+      <formula>$J$60</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="36" priority="700" operator="equal">
+      <formula>$J$57</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="35" priority="701" operator="equal">
+      <formula>$J$49</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="34" priority="702" operator="equal">
+      <formula>$J$49</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="33" priority="703" operator="equal">
+      <formula>$J$60</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="32" priority="704" operator="equal">
+      <formula>$J$60</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="31" priority="705" operator="equal">
+      <formula>$J$60</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="30" priority="706" operator="equal">
+      <formula>$J$7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J3">
-    <cfRule type="cellIs" dxfId="182" priority="523" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="1" operator="equal">
       <formula>"正常返回"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="181" priority="524" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="2" operator="equal">
       <formula>"待测试"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="180" priority="525" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="3" operator="equal">
       <formula>"需要处理"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="179" priority="526" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="4" operator="equal">
       <formula>"需要处理"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="178" priority="527" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="5" operator="equal">
       <formula>"需要处理"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="177" priority="528" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="6" operator="equal">
       <formula>"正常返回"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J22">
-    <cfRule type="cellIs" dxfId="176" priority="508" operator="equal">
-      <formula>"正常返回"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="175" priority="509" operator="equal">
-      <formula>"待测试"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="174" priority="510" operator="equal">
-      <formula>"需要处理"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="173" priority="511" operator="equal">
-      <formula>"需要处理"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="172" priority="512" operator="equal">
-      <formula>"需要处理"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="171" priority="513" operator="equal">
-      <formula>"正常返回"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J24">
-    <cfRule type="cellIs" dxfId="170" priority="493" operator="equal">
-      <formula>"正常返回"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="169" priority="494" operator="equal">
-      <formula>"待测试"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="168" priority="495" operator="equal">
-      <formula>"需要处理"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="167" priority="496" operator="equal">
-      <formula>"需要处理"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="166" priority="497" operator="equal">
-      <formula>"需要处理"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="165" priority="498" operator="equal">
-      <formula>"正常返回"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J25">
-    <cfRule type="cellIs" dxfId="164" priority="478" operator="equal">
-      <formula>"正常返回"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="163" priority="479" operator="equal">
-      <formula>"待测试"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="162" priority="480" operator="equal">
-      <formula>"需要处理"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="161" priority="481" operator="equal">
-      <formula>"需要处理"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="160" priority="482" operator="equal">
-      <formula>"需要处理"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="159" priority="483" operator="equal">
-      <formula>"正常返回"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J23">
-    <cfRule type="cellIs" dxfId="158" priority="463" operator="equal">
-      <formula>"正常返回"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="157" priority="464" operator="equal">
-      <formula>"待测试"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="156" priority="465" operator="equal">
-      <formula>"需要处理"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="155" priority="466" operator="equal">
-      <formula>"需要处理"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="154" priority="467" operator="equal">
-      <formula>"需要处理"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="153" priority="468" operator="equal">
-      <formula>"正常返回"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J27 J29:J30 J34">
-    <cfRule type="cellIs" dxfId="152" priority="373" operator="equal">
-      <formula>"正常返回"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="151" priority="374" operator="equal">
-      <formula>"待测试"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="150" priority="375" operator="equal">
-      <formula>"需要处理"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="149" priority="376" operator="equal">
-      <formula>"需要处理"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="148" priority="377" operator="equal">
-      <formula>"需要处理"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="147" priority="378" operator="equal">
-      <formula>"正常返回"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J35">
-    <cfRule type="cellIs" dxfId="146" priority="367" operator="equal">
-      <formula>"正常返回"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="145" priority="368" operator="equal">
-      <formula>"待测试"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="144" priority="369" operator="equal">
-      <formula>"需要处理"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="143" priority="370" operator="equal">
-      <formula>"需要处理"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="142" priority="371" operator="equal">
-      <formula>"需要处理"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="141" priority="372" operator="equal">
-      <formula>"正常返回"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J37">
-    <cfRule type="cellIs" dxfId="140" priority="361" operator="equal">
-      <formula>"正常返回"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="139" priority="362" operator="equal">
-      <formula>"待测试"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="138" priority="363" operator="equal">
-      <formula>"需要处理"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="137" priority="364" operator="equal">
-      <formula>"需要处理"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="136" priority="365" operator="equal">
-      <formula>"需要处理"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="135" priority="366" operator="equal">
-      <formula>"正常返回"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J38">
-    <cfRule type="cellIs" dxfId="134" priority="355" operator="equal">
-      <formula>"正常返回"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="133" priority="356" operator="equal">
-      <formula>"待测试"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="132" priority="357" operator="equal">
-      <formula>"需要处理"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="131" priority="358" operator="equal">
-      <formula>"需要处理"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="130" priority="359" operator="equal">
-      <formula>"需要处理"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="129" priority="360" operator="equal">
-      <formula>"正常返回"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J36">
-    <cfRule type="cellIs" dxfId="128" priority="349" operator="equal">
-      <formula>"正常返回"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="127" priority="350" operator="equal">
-      <formula>"待测试"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="126" priority="351" operator="equal">
-      <formula>"需要处理"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="125" priority="352" operator="equal">
-      <formula>"需要处理"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="124" priority="353" operator="equal">
-      <formula>"需要处理"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="123" priority="354" operator="equal">
-      <formula>"正常返回"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J54">
-    <cfRule type="cellIs" dxfId="122" priority="301" operator="equal">
-      <formula>"正常返回"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="121" priority="302" operator="equal">
-      <formula>"待测试"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="120" priority="303" operator="equal">
-      <formula>"需要处理"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="119" priority="304" operator="equal">
-      <formula>"需要处理"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="118" priority="305" operator="equal">
-      <formula>"需要处理"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="117" priority="306" operator="equal">
-      <formula>"正常返回"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J9">
-    <cfRule type="cellIs" dxfId="116" priority="271" operator="equal">
-      <formula>"正常返回"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="115" priority="272" operator="equal">
-      <formula>"待测试"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="114" priority="273" operator="equal">
-      <formula>"需要处理"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="113" priority="274" operator="equal">
-      <formula>"需要处理"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="112" priority="275" operator="equal">
-      <formula>"需要处理"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="111" priority="276" operator="equal">
-      <formula>"正常返回"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J10">
-    <cfRule type="cellIs" dxfId="110" priority="256" operator="equal">
-      <formula>"正常返回"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="109" priority="257" operator="equal">
-      <formula>"待测试"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="108" priority="258" operator="equal">
-      <formula>"需要处理"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="107" priority="259" operator="equal">
-      <formula>"需要处理"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="106" priority="260" operator="equal">
-      <formula>"需要处理"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="105" priority="261" operator="equal">
-      <formula>"正常返回"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J11">
-    <cfRule type="cellIs" dxfId="104" priority="241" operator="equal">
-      <formula>"正常返回"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="103" priority="242" operator="equal">
-      <formula>"待测试"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="102" priority="243" operator="equal">
-      <formula>"需要处理"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="101" priority="244" operator="equal">
-      <formula>"需要处理"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="100" priority="245" operator="equal">
-      <formula>"需要处理"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="99" priority="246" operator="equal">
-      <formula>"正常返回"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J12">
-    <cfRule type="cellIs" dxfId="98" priority="226" operator="equal">
-      <formula>"正常返回"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="97" priority="227" operator="equal">
-      <formula>"待测试"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="96" priority="228" operator="equal">
-      <formula>"需要处理"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="95" priority="229" operator="equal">
-      <formula>"需要处理"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="94" priority="230" operator="equal">
-      <formula>"需要处理"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="93" priority="231" operator="equal">
-      <formula>"正常返回"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J14">
-    <cfRule type="cellIs" dxfId="92" priority="196" operator="equal">
-      <formula>"正常返回"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="91" priority="197" operator="equal">
-      <formula>"待测试"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="90" priority="198" operator="equal">
-      <formula>"需要处理"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="89" priority="199" operator="equal">
-      <formula>"需要处理"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="88" priority="200" operator="equal">
-      <formula>"需要处理"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="87" priority="201" operator="equal">
-      <formula>"正常返回"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J26">
-    <cfRule type="cellIs" dxfId="86" priority="181" operator="equal">
-      <formula>"正常返回"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="85" priority="182" operator="equal">
-      <formula>"待测试"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="84" priority="183" operator="equal">
-      <formula>"需要处理"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="83" priority="184" operator="equal">
-      <formula>"需要处理"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="82" priority="185" operator="equal">
-      <formula>"需要处理"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="81" priority="186" operator="equal">
-      <formula>"正常返回"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J15">
-    <cfRule type="cellIs" dxfId="80" priority="166" operator="equal">
-      <formula>"正常返回"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="79" priority="167" operator="equal">
-      <formula>"待测试"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="78" priority="168" operator="equal">
-      <formula>"需要处理"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="77" priority="169" operator="equal">
-      <formula>"需要处理"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="76" priority="170" operator="equal">
-      <formula>"需要处理"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="75" priority="171" operator="equal">
-      <formula>"正常返回"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J28">
-    <cfRule type="cellIs" dxfId="74" priority="151" operator="equal">
-      <formula>"正常返回"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="73" priority="152" operator="equal">
-      <formula>"待测试"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="72" priority="153" operator="equal">
-      <formula>"需要处理"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="71" priority="154" operator="equal">
-      <formula>"需要处理"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="70" priority="155" operator="equal">
-      <formula>"需要处理"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="69" priority="156" operator="equal">
-      <formula>"正常返回"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J19">
-    <cfRule type="cellIs" dxfId="68" priority="136" operator="equal">
-      <formula>"正常返回"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="67" priority="137" operator="equal">
-      <formula>"待测试"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="66" priority="138" operator="equal">
-      <formula>"需要处理"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="65" priority="139" operator="equal">
-      <formula>"需要处理"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="64" priority="140" operator="equal">
-      <formula>"需要处理"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="63" priority="141" operator="equal">
-      <formula>"正常返回"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J33">
-    <cfRule type="cellIs" dxfId="62" priority="121" operator="equal">
-      <formula>"正常返回"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="61" priority="122" operator="equal">
-      <formula>"待测试"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="60" priority="123" operator="equal">
-      <formula>"需要处理"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="59" priority="124" operator="equal">
-      <formula>"需要处理"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="58" priority="125" operator="equal">
-      <formula>"需要处理"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="57" priority="126" operator="equal">
-      <formula>"正常返回"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J46">
-    <cfRule type="cellIs" dxfId="56" priority="106" operator="equal">
-      <formula>"正常返回"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="55" priority="107" operator="equal">
-      <formula>"待测试"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="54" priority="108" operator="equal">
-      <formula>"需要处理"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="53" priority="109" operator="equal">
-      <formula>"需要处理"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="52" priority="110" operator="equal">
-      <formula>"需要处理"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="51" priority="111" operator="equal">
-      <formula>"正常返回"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J18">
-    <cfRule type="cellIs" dxfId="50" priority="91" operator="equal">
-      <formula>"正常返回"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="49" priority="92" operator="equal">
-      <formula>"待测试"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="48" priority="93" operator="equal">
-      <formula>"需要处理"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="47" priority="94" operator="equal">
-      <formula>"需要处理"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="46" priority="95" operator="equal">
-      <formula>"需要处理"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="45" priority="96" operator="equal">
-      <formula>"正常返回"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J20">
-    <cfRule type="cellIs" dxfId="44" priority="76" operator="equal">
-      <formula>"正常返回"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="43" priority="77" operator="equal">
-      <formula>"待测试"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="42" priority="78" operator="equal">
-      <formula>"需要处理"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="41" priority="79" operator="equal">
-      <formula>"需要处理"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="80" operator="equal">
-      <formula>"需要处理"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="39" priority="81" operator="equal">
-      <formula>"正常返回"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J32">
-    <cfRule type="cellIs" dxfId="38" priority="61" operator="equal">
-      <formula>"正常返回"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="37" priority="62" operator="equal">
-      <formula>"待测试"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="63" operator="equal">
-      <formula>"需要处理"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="35" priority="64" operator="equal">
-      <formula>"需要处理"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="65" operator="equal">
-      <formula>"需要处理"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="66" operator="equal">
-      <formula>"正常返回"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J31">
-    <cfRule type="cellIs" dxfId="32" priority="46" operator="equal">
-      <formula>"正常返回"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="31" priority="47" operator="equal">
-      <formula>"待测试"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="48" operator="equal">
-      <formula>"需要处理"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="29" priority="49" operator="equal">
-      <formula>"需要处理"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="50" operator="equal">
-      <formula>"需要处理"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="51" operator="equal">
-      <formula>"正常返回"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J45">
-    <cfRule type="cellIs" dxfId="26" priority="31" operator="equal">
-      <formula>"正常返回"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="32" operator="equal">
-      <formula>"待测试"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="33" operator="equal">
-      <formula>"需要处理"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="23" priority="34" operator="equal">
-      <formula>"需要处理"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="35" operator="equal">
-      <formula>"需要处理"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="36" operator="equal">
-      <formula>"正常返回"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J47">
-    <cfRule type="cellIs" dxfId="20" priority="16" operator="equal">
-      <formula>"正常返回"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="17" operator="equal">
-      <formula>"待测试"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="18" operator="equal">
-      <formula>"需要处理"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="19" operator="equal">
-      <formula>"需要处理"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="20" operator="equal">
-      <formula>"需要处理"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="21" operator="equal">
-      <formula>"正常返回"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J44">
-    <cfRule type="cellIs" dxfId="14" priority="1" operator="equal">
-      <formula>"正常返回"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="2" operator="equal">
-      <formula>"待测试"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="3" operator="equal">
-      <formula>"需要处理"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="4" operator="equal">
-      <formula>"需要处理"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="5" operator="equal">
-      <formula>"需要处理"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="6" operator="equal">
-      <formula>"正常返回"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J1:J1048576">
-    <cfRule type="cellIs" dxfId="8" priority="683" operator="equal">
-      <formula>$J$67</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="684" operator="equal">
-      <formula>$J$59</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="685" operator="equal">
-      <formula>$J$56</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="686" operator="equal">
-      <formula>$J$48</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="687" operator="equal">
-      <formula>$J$48</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="688" operator="equal">
-      <formula>$J$59</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="689" operator="equal">
-      <formula>$J$59</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="690" operator="equal">
-      <formula>$J$59</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="691" operator="equal">
-      <formula>$J$6</formula>
+  <conditionalFormatting sqref="J3">
+    <cfRule type="cellIs" dxfId="17" priority="7" operator="equal">
+      <formula>$J$68</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="16" priority="8" operator="equal">
+      <formula>$J$60</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="15" priority="9" operator="equal">
+      <formula>$J$57</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="14" priority="10" operator="equal">
+      <formula>$J$49</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="11" operator="equal">
+      <formula>$J$49</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="12" operator="equal">
+      <formula>$J$60</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="13" operator="equal">
+      <formula>$J$60</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="14" operator="equal">
+      <formula>$J$60</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="15" operator="equal">
+      <formula>$J$7</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O1:O1048576">
-      <formula1>$AL$6:$AL$13</formula1>
+      <formula1>$AL$7:$AL$14</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1:H1048576">
-      <formula1>$AJ$6:$AJ$9</formula1>
+      <formula1>$AJ$7:$AJ$10</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I1048576">
-      <formula1>$AK$6:$AK$15</formula1>
+      <formula1>$AK$7:$AK$16</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/biz/MC-MSC-Web/qxy接口定义文档2016-8-8/【千校云】接口列表.xlsx
+++ b/biz/MC-MSC-Web/qxy接口定义文档2016-8-8/【千校云】接口列表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27750" windowHeight="13335" activeTab="2"/>
+    <workbookView windowWidth="19095" windowHeight="10965"/>
   </bookViews>
   <sheets>
     <sheet name="变更日志" sheetId="1" r:id="rId1"/>
@@ -132,7 +132,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1038">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1039">
   <si>
     <t>序号</t>
   </si>
@@ -174,6 +174,9 @@
   </si>
   <si>
     <t>新增作业教师布置作业列表查询接口(11.1.1-2)，变更作业班级作业列表查询接口(11.1.1-1)url</t>
+  </si>
+  <si>
+    <t>新增教师学期年级班级查询接口，修改作业班级查询接口、作业教师查询接口及作业搜索接口</t>
   </si>
   <si>
     <t>模块</t>
@@ -3552,7 +3555,7 @@
     <t>作业班级作业列表查询接口</t>
   </si>
   <si>
-    <t>/qxy/task/class?cid=[cid]&amp;tid=[tid]&amp;page=[page]&amp;size=[size]&amp;token=[token]</t>
+    <t>/qxy/task/class?cid=[cid]&amp;page=[page]&amp;size=[size]&amp;token=[token]</t>
   </si>
   <si>
     <t>11.1.1-2</t>
@@ -5876,7 +5879,7 @@
   <sheetPr/>
   <dimension ref="B2:F42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
@@ -5998,9 +6001,15 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="C8" s="49"/>
-      <c r="D8" s="49"/>
-      <c r="E8" s="54"/>
+      <c r="C8" s="48">
+        <v>42639</v>
+      </c>
+      <c r="D8" s="49" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8" s="54" t="s">
+        <v>12</v>
+      </c>
       <c r="F8" s="55"/>
     </row>
     <row r="9" customHeight="1" spans="2:6">
@@ -6359,7 +6368,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E146" sqref="E146"/>
+      <selection pane="bottomRight" activeCell="G146" sqref="G146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
@@ -6388,49 +6397,49 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G1" s="20" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H1" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I1" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J1" s="21" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K1" s="22" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L1" s="8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M1" s="8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N1" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="O1" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="P1" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:16">
@@ -6438,345 +6447,345 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G2" s="20" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J2" s="21" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="P2" s="10" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="4:16">
       <c r="D3" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G3" s="25" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J3" s="21" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K3" s="22" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="L3" s="8" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P3" s="10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="4:10">
       <c r="D4" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G4" s="20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J4" s="21" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="4:38">
       <c r="D5" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G5" s="20" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J5" s="21" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K5" s="22" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L5" s="8" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AJ5" s="11" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="AK5" s="11" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AL5" s="11" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="3:38">
       <c r="C6" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G6" s="25" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J6" s="21" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K6" s="22" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M6" s="8" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AJ6" s="11" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK6" s="11" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AL6" s="11" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="4:37">
       <c r="D7" s="4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G7" s="25" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J7" s="21" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K7" s="22" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M7" s="8" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK7" s="11" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="4:13">
       <c r="D8" s="4" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G8" s="25" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J8" s="21" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K8" s="22" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="L8" s="8" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="M8" s="8" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="4:13">
       <c r="D9" s="4" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G9" s="25" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J9" s="21" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L9" s="8" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M9" s="8" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="4:16">
       <c r="D10" s="4" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G10" s="20" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J10" s="21" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="P10" s="10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="4:16">
       <c r="D11" s="4" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G11" s="25" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I11" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J11" s="21" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K11" s="22" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="L11" s="8" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="N11" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="P11" s="10" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="4:16">
       <c r="D12" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G12" s="25" t="s">
+        <v>89</v>
+      </c>
+      <c r="H12" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="I12" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="J12" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="K12" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="L12" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="N12" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="E12" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="G12" s="25" t="s">
-        <v>88</v>
-      </c>
-      <c r="H12" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="I12" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="J12" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="K12" s="22" t="s">
-        <v>59</v>
-      </c>
-      <c r="L12" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="N12" s="7" t="s">
-        <v>85</v>
-      </c>
       <c r="P12" s="10" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="1:16">
@@ -6784,379 +6793,379 @@
         <v>2</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D13" s="23" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G13" s="25" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J13" s="21" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L13" s="8" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="M13" s="8" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="P13" s="10" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="4:14">
       <c r="D14" s="4" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G14" s="20" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="H14" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J14" s="21" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K14" s="22" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L14" s="8" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="M14" s="8" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="N14" s="13" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="4:13">
       <c r="D15" s="4" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G15" s="20" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H15" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J15" s="21" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M15" s="8" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="16" customHeight="1" spans="4:14">
       <c r="D16" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="G16" s="20" t="s">
         <v>109</v>
       </c>
-      <c r="E16" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="G16" s="20" t="s">
-        <v>108</v>
-      </c>
       <c r="H16" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J16" s="21" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K16" s="22" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="L16" s="8" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="M16" s="8" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="N16" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="4:14">
       <c r="D17" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="G17" s="20" t="s">
+        <v>119</v>
+      </c>
+      <c r="H17" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="J17" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="K17" s="22" t="s">
+        <v>113</v>
+      </c>
+      <c r="L17" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="M17" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="N17" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="F17" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="G17" s="20" t="s">
-        <v>118</v>
-      </c>
-      <c r="H17" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="J17" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="K17" s="22" t="s">
-        <v>112</v>
-      </c>
-      <c r="L17" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="M17" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="N17" s="7" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="18" customHeight="1" spans="4:14">
       <c r="D18" s="4" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G18" s="20" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="H18" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J18" s="21" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K18" s="22" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="L18" s="8" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="M18" s="8" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="N18" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="19" customHeight="1" spans="4:14">
       <c r="D19" s="4" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G19" s="20" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="H19" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J19" s="21" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K19" s="22" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="L19" s="8" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="M19" s="8" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="N19" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="20" customHeight="1" spans="4:13">
       <c r="D20" s="4" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="G20" s="20" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H20" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J20" s="21" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M20" s="8" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="21" customHeight="1" spans="4:8">
       <c r="D21" s="4" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G21" s="20" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="H21" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="22" ht="33" customHeight="1" spans="3:13">
       <c r="C22" s="24" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G22" s="26" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="H22" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J22" s="21" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L22" s="8" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="M22" s="18" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="23" customHeight="1" spans="4:14">
       <c r="D23" s="4" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G23" s="27" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="H23" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J23" s="21" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L23" s="8" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="M23" s="8" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="N23" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="24" customHeight="1" spans="4:13">
       <c r="D24" s="4" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G24" s="27" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="H24" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J24" s="21" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L24" s="8" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="M24" s="8" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="25" customHeight="1" spans="4:14">
       <c r="D25" s="4" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="G25" s="27" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="H25" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J25" s="21" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K25" s="22" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="L25" s="8" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="M25" s="8" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="N25" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="26" customHeight="1" spans="1:14">
@@ -7164,938 +7173,938 @@
         <v>3</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G26" s="25" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="H26" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I26" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J26" s="21" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L26" s="8" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="M26" s="8" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="N26" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="27" customHeight="1" spans="4:14">
       <c r="D27" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G27" s="25" t="s">
+        <v>160</v>
+      </c>
+      <c r="H27" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="I27" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="J27" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="K27" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="L27" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="M27" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="N27" s="7" t="s">
         <v>157</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="F27" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="G27" s="25" t="s">
-        <v>159</v>
-      </c>
-      <c r="H27" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="I27" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="J27" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="K27" s="22" t="s">
-        <v>59</v>
-      </c>
-      <c r="L27" s="8" t="s">
-        <v>160</v>
-      </c>
-      <c r="M27" s="8" t="s">
-        <v>155</v>
-      </c>
-      <c r="N27" s="7" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="28" customHeight="1" spans="4:14">
       <c r="D28" s="4" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G28" s="25" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="H28" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I28" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J28" s="21" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K28" s="22" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="L28" s="8" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="M28" s="8" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="N28" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="29" customHeight="1" spans="4:16">
       <c r="D29" s="4" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G29" s="20" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="H29" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J29" s="21" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L29" s="8" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="M29" s="8" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="P29" s="10" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="30" customHeight="1" spans="4:14">
       <c r="D30" s="4" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G30" s="20" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="H30" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J30" s="21" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L30" s="8" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="M30" s="8" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="N30" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="31" customHeight="1" spans="4:14">
       <c r="D31" s="4" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G31" s="20" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="H31" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J31" s="21" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L31" s="8" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M31" s="8">
         <v>404</v>
       </c>
       <c r="N31" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="32" customHeight="1" spans="4:13">
       <c r="D32" s="4" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G32" s="20" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="H32" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J32" s="21" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L32" s="8" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="M32" s="8" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="33" customHeight="1" spans="4:13">
       <c r="D33" s="4" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="G33" s="20" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="H33" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J33" s="21" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K33" s="22" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="L33" s="8" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="M33" s="8" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="34" customHeight="1" spans="4:13">
       <c r="D34" s="4" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G34" s="20" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="H34" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J34" s="21" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K34" s="22" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="L34" s="8" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="M34" s="8" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="35" customHeight="1" spans="4:10">
       <c r="D35" s="4" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G35" s="20" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="H35" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J35" s="21" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="36" customHeight="1" spans="4:10">
       <c r="D36" s="4" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G36" s="20" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="H36" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J36" s="21" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="37" customHeight="1" spans="3:13">
       <c r="C37" s="24" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G37" s="27" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="H37" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J37" s="21" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L37" s="8" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="M37" s="8" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="38" customHeight="1" spans="4:14">
       <c r="D38" s="4" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G38" s="27" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="H38" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J38" s="21" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L38" s="8" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="M38" s="8" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="N38" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="39" customHeight="1" spans="4:14">
       <c r="D39" s="4" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="G39" s="27" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="H39" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J39" s="21" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L39" s="8" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="M39" s="8" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="N39" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="40" customHeight="1" spans="3:13">
       <c r="C40" s="24" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G40" s="27" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="H40" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J40" s="21" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M40" s="8" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="41" customHeight="1" spans="4:13">
       <c r="D41" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="F41" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="G41" s="27" t="s">
         <v>216</v>
       </c>
-      <c r="E41" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="F41" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="G41" s="27" t="s">
-        <v>215</v>
-      </c>
       <c r="H41" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J41" s="21" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L41" s="8" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="M41" s="8" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="42" customHeight="1" spans="4:16">
       <c r="D42" s="4" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="G42" s="27" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="H42" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J42" s="21" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L42" s="8" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="M42" s="8" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="N42" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="P42" s="10" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="43" customHeight="1" spans="3:13">
       <c r="C43" s="1" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G43" s="25" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="H43" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I43" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J43" s="21" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M43" s="8" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="44" customHeight="1" spans="4:13">
       <c r="D44" s="4" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G44" s="25" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="H44" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="I44" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J44" s="21" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="M44" s="8" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="45" customHeight="1" spans="4:14">
       <c r="D45" s="4" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G45" s="20" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="H45" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J45" s="21" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K45" s="22" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="L45" s="8" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="M45" s="8" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="N45" s="7" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="46" customHeight="1" spans="4:13">
       <c r="D46" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F46" s="5" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="G46" s="20" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="H46" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J46" s="21" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M46" s="8" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="47" customHeight="1" spans="4:13">
       <c r="D47" s="4" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G47" s="25" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="H47" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I47" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J47" s="21" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K47" s="22" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L47" s="8" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="M47" s="8" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="48" customHeight="1" spans="4:14">
       <c r="D48" s="4" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="F48" s="5" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G48" s="20" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="H48" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J48" s="21" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K48" s="22" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="L48" s="8" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="M48" s="8" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="N48" s="7" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="49" customHeight="1" spans="3:13">
       <c r="C49" s="24" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G49" s="27" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="H49" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J49" s="21" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L49" s="8" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="M49" s="8" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="50" customHeight="1" spans="4:13">
       <c r="D50" s="4" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="F50" s="5" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G50" s="27" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="H50" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J50" s="21" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M50" s="8" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="51" customHeight="1" spans="4:13">
       <c r="D51" s="4" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="F51" s="5" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G51" s="27" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="H51" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J51" s="21" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L51" s="8" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="M51" s="8" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="52" customHeight="1" spans="4:14">
       <c r="D52" s="4" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="F52" s="5" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="G52" s="27" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="H52" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J52" s="21" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L52" s="8" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="M52" s="8" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="N52" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="53" customHeight="1" spans="3:16">
       <c r="C53" s="24" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="F53" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G53" s="28" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="H53" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I53" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J53" s="21" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K53" s="22" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="L53" s="8" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="M53" s="8" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="N53" s="7" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="P53" s="10" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="54" customHeight="1" spans="4:13">
       <c r="D54" s="4" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="F54" s="5" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G54" s="27" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="H54" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J54" s="21" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L54" s="8" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="M54" s="8" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="55" customHeight="1" spans="4:13">
       <c r="D55" s="4" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="F55" s="5" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G55" s="27" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="H55" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J55" s="21" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K55" s="22" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="L55" s="8" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="M55" s="8" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="56" customHeight="1" spans="4:14">
       <c r="D56" s="4" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="F56" s="5" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="G56" s="27" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="H56" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J56" s="21" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L56" s="8" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="M56" s="8" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="N56" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="57" customHeight="1" spans="4:10">
       <c r="D57" s="4" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="F57" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G57" s="20" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="H57" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J57" s="21" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="58" customHeight="1" spans="4:10">
       <c r="D58" s="4" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="F58" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G58" s="20" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="H58" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J58" s="21" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="59" s="1" customFormat="1" customHeight="1" spans="1:16">
@@ -8103,29 +8112,29 @@
         <v>4</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="F59" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G59" s="20" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="H59" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I59" s="7"/>
       <c r="J59" s="21" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K59" s="22"/>
       <c r="L59" s="8"/>
@@ -8137,103 +8146,103 @@
     <row r="60" s="1" customFormat="1" customHeight="1" spans="1:16">
       <c r="A60" s="3"/>
       <c r="D60" s="4" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="E60" s="15" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="F60" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G60" s="20" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="H60" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I60" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J60" s="21" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K60" s="22" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="L60" s="8" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="M60" s="8" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="N60" s="7" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="O60" s="9"/>
       <c r="P60" s="10" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="61" s="1" customFormat="1" customHeight="1" spans="1:16">
       <c r="A61" s="3"/>
       <c r="D61" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="E61" s="15" t="s">
+        <v>296</v>
+      </c>
+      <c r="F61" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G61" s="25" t="s">
+        <v>297</v>
+      </c>
+      <c r="H61" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="I61" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="J61" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="K61" s="22" t="s">
+        <v>298</v>
+      </c>
+      <c r="L61" s="8" t="s">
+        <v>299</v>
+      </c>
+      <c r="M61" s="8" t="s">
         <v>294</v>
       </c>
-      <c r="E61" s="15" t="s">
-        <v>295</v>
-      </c>
-      <c r="F61" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="G61" s="25" t="s">
-        <v>296</v>
-      </c>
-      <c r="H61" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="I61" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="J61" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="K61" s="22" t="s">
-        <v>297</v>
-      </c>
-      <c r="L61" s="8" t="s">
-        <v>298</v>
-      </c>
-      <c r="M61" s="8" t="s">
-        <v>293</v>
-      </c>
       <c r="N61" s="7" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="O61" s="9"/>
       <c r="P61" s="10" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="62" s="1" customFormat="1" customHeight="1" spans="1:16">
       <c r="A62" s="3"/>
       <c r="D62" s="4" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="F62" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G62" s="20" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="H62" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I62" s="7"/>
       <c r="J62" s="21" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K62" s="22"/>
       <c r="L62" s="8"/>
@@ -8246,42 +8255,42 @@
       <c r="A63" s="3"/>
       <c r="B63" s="1"/>
       <c r="C63" s="1" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="F63" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G63" s="25" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="H63" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I63" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J63" s="21" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K63" s="22"/>
       <c r="L63" s="8" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="M63" s="8" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="N63" s="7" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="O63" s="9"/>
       <c r="P63" s="10" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="64" s="2" customFormat="1" customHeight="1" spans="1:16">
@@ -8289,23 +8298,23 @@
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
       <c r="D64" s="4" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="F64" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G64" s="20" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="H64" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I64" s="7"/>
       <c r="J64" s="21" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K64" s="22"/>
       <c r="L64" s="8"/>
@@ -8319,32 +8328,32 @@
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
       <c r="D65" s="4" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="F65" s="5" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G65" s="20" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="H65" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I65" s="7"/>
       <c r="J65" s="21" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K65" s="22" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="L65" s="8" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="M65" s="8" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="N65" s="7"/>
       <c r="O65" s="9"/>
@@ -8355,41 +8364,41 @@
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
       <c r="D66" s="4" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="F66" s="5" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G66" s="30" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="H66" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I66" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J66" s="21" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K66" s="22" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="L66" s="8" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="M66" s="8" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="N66" s="7" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="O66" s="9"/>
       <c r="P66" s="10" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="67" s="2" customFormat="1" customHeight="1" spans="1:16">
@@ -8397,41 +8406,41 @@
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
       <c r="D67" s="4" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="F67" s="5" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G67" s="30" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="H67" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I67" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J67" s="21" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K67" s="22" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="L67" s="8" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="M67" s="8" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="N67" s="7" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="O67" s="9"/>
       <c r="P67" s="10" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="68" s="2" customFormat="1" customHeight="1" spans="1:16">
@@ -8439,39 +8448,39 @@
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
       <c r="D68" s="4" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="F68" s="5" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="G68" s="30" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="H68" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I68" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J68" s="21" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K68" s="22" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="L68" s="8"/>
       <c r="M68" s="8" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="N68" s="7" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="O68" s="9"/>
       <c r="P68" s="10" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="69" s="2" customFormat="1" customHeight="1" spans="1:16">
@@ -8479,23 +8488,23 @@
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
       <c r="D69" s="4" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="F69" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G69" s="20" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="H69" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I69" s="7"/>
       <c r="J69" s="21" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K69" s="22"/>
       <c r="L69" s="8"/>
@@ -8509,23 +8518,23 @@
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
       <c r="D70" s="4" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="F70" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G70" s="20" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="H70" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I70" s="7"/>
       <c r="J70" s="21" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K70" s="22"/>
       <c r="L70" s="8"/>
@@ -8538,34 +8547,34 @@
       <c r="A71" s="3"/>
       <c r="B71" s="1"/>
       <c r="C71" s="1" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="D71" s="4" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="F71" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G71" s="31" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="H71" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I71" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J71" s="21" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K71" s="22" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="L71" s="8" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="M71" s="8">
         <v>404</v>
@@ -8573,7 +8582,7 @@
       <c r="N71" s="7"/>
       <c r="O71" s="9"/>
       <c r="P71" s="10" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="72" s="2" customFormat="1" customHeight="1" spans="1:16">
@@ -8581,25 +8590,25 @@
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
       <c r="D72" s="4" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="F72" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G72" s="25" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="H72" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I72" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J72" s="21" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K72" s="22"/>
       <c r="L72" s="8"/>
@@ -8609,7 +8618,7 @@
       <c r="N72" s="7"/>
       <c r="O72" s="9"/>
       <c r="P72" s="10" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
     <row r="73" s="2" customFormat="1" customHeight="1" spans="1:16">
@@ -8617,37 +8626,37 @@
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
       <c r="D73" s="4" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="F73" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G73" s="28" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="H73" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I73" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J73" s="21" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K73" s="22"/>
       <c r="L73" s="8"/>
       <c r="M73" s="8" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="N73" s="7" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="O73" s="9"/>
       <c r="P73" s="10" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="74" s="2" customFormat="1" customHeight="1" spans="1:16">
@@ -8655,39 +8664,39 @@
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
       <c r="D74" s="4" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="F74" s="5" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G74" s="27" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="H74" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I74" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J74" s="21" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K74" s="22"/>
       <c r="L74" s="8" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="M74" s="8" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="N74" s="7" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="O74" s="9"/>
       <c r="P74" s="10" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="75" s="2" customFormat="1" customHeight="1" spans="1:16">
@@ -8695,35 +8704,35 @@
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
       <c r="D75" s="4" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="F75" s="5" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G75" s="27" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="H75" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I75" s="7"/>
       <c r="J75" s="21" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K75" s="22"/>
       <c r="L75" s="8" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="M75" s="8" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="N75" s="7"/>
       <c r="O75" s="9"/>
       <c r="P75" s="10" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
     </row>
     <row r="76" s="2" customFormat="1" customHeight="1" spans="1:16">
@@ -8731,39 +8740,39 @@
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
       <c r="D76" s="4" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="F76" s="5" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="G76" s="27" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="H76" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I76" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J76" s="21" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K76" s="22"/>
       <c r="L76" s="8" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="M76" s="8" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="N76" s="7" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="O76" s="9"/>
       <c r="P76" s="10" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="77" s="2" customFormat="1" customHeight="1" spans="1:16">
@@ -8771,39 +8780,39 @@
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
       <c r="D77" s="4" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="F77" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G77" s="31" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="H77" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I77" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J77" s="21" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K77" s="22" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="L77" s="8"/>
       <c r="M77" s="8">
         <v>404</v>
       </c>
       <c r="N77" s="7" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="O77" s="9"/>
       <c r="P77" s="10" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="78" s="2" customFormat="1" customHeight="1" spans="1:16">
@@ -8811,41 +8820,41 @@
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
       <c r="D78" s="4" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="F78" s="5" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G78" s="32" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="H78" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I78" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J78" s="21" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K78" s="22" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="L78" s="8" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="M78" s="8">
         <v>404</v>
       </c>
       <c r="N78" s="7" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="O78" s="9"/>
       <c r="P78" s="10" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="79" s="2" customFormat="1" customHeight="1" spans="1:16">
@@ -8853,41 +8862,41 @@
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
       <c r="D79" s="4" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="F79" s="5" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G79" s="32" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="H79" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I79" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J79" s="21" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K79" s="22" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="L79" s="8" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="M79" s="8">
         <v>404</v>
       </c>
       <c r="N79" s="7" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="O79" s="9"/>
       <c r="P79" s="10" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="80" s="2" customFormat="1" customHeight="1" spans="1:16">
@@ -8895,65 +8904,65 @@
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
       <c r="D80" s="4" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="F80" s="5" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="G80" s="32" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="H80" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I80" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J80" s="21" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K80" s="22" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="L80" s="8"/>
       <c r="M80" s="8">
         <v>404</v>
       </c>
       <c r="N80" s="7" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="O80" s="9"/>
       <c r="P80" s="10" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="81" s="2" customFormat="1" customHeight="1" spans="1:16">
       <c r="A81" s="3"/>
       <c r="B81" s="1"/>
       <c r="C81" s="1" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="D81" s="4" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="F81" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G81" s="20" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="H81" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I81" s="7"/>
       <c r="J81" s="21" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K81" s="22"/>
       <c r="L81" s="8"/>
@@ -8967,41 +8976,41 @@
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
       <c r="D82" s="29" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="F82" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G82" s="28" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="H82" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I82" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J82" s="21" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K82" s="22" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="L82" s="8" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="M82" s="8" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="N82" s="7" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="O82" s="9"/>
       <c r="P82" s="10" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="83" s="2" customFormat="1" customHeight="1" spans="1:16">
@@ -9009,41 +9018,41 @@
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
       <c r="D83" s="4" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="F83" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G83" s="28" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="H83" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I83" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J83" s="21" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K83" s="22" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="L83" s="8" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="M83" s="8" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="N83" s="7" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="O83" s="9"/>
       <c r="P83" s="10" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="84" s="2" customFormat="1" customHeight="1" spans="1:16">
@@ -9051,23 +9060,23 @@
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
       <c r="D84" s="4" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="F84" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G84" s="20" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="H84" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I84" s="7"/>
       <c r="J84" s="21" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K84" s="22"/>
       <c r="L84" s="8"/>
@@ -9081,23 +9090,23 @@
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
       <c r="D85" s="4" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="F85" s="5" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G85" s="20" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="H85" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I85" s="7"/>
       <c r="J85" s="21" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K85" s="22"/>
       <c r="L85" s="8"/>
@@ -9111,23 +9120,23 @@
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
       <c r="D86" s="4" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="F86" s="5" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G86" s="20" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="H86" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I86" s="7"/>
       <c r="J86" s="21" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K86" s="22"/>
       <c r="L86" s="8"/>
@@ -9135,7 +9144,7 @@
       <c r="N86" s="7"/>
       <c r="O86" s="9"/>
       <c r="P86" s="10" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
     </row>
     <row r="87" s="2" customFormat="1" customHeight="1" spans="1:16">
@@ -9143,23 +9152,23 @@
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
       <c r="D87" s="4" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="F87" s="5" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="G87" s="20" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="H87" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I87" s="7"/>
       <c r="J87" s="21" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K87" s="22"/>
       <c r="L87" s="8"/>
@@ -9173,35 +9182,35 @@
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
       <c r="D88" s="4" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="F88" s="5" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G88" s="20" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="H88" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I88" s="7"/>
       <c r="J88" s="21" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K88" s="22" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="L88" s="8" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="M88" s="8" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="N88" s="7" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="O88" s="9"/>
       <c r="P88" s="10"/>
@@ -9211,29 +9220,29 @@
         <v>5</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="D89" s="4" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="F89" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G89" s="20" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="H89" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I89" s="7"/>
       <c r="J89" s="21" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K89" s="22"/>
       <c r="L89" s="8"/>
@@ -9247,41 +9256,41 @@
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
       <c r="D90" s="23" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="E90" s="16" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="F90" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G90" s="25" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="H90" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I90" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J90" s="21" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K90" s="22" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="L90" s="8" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="M90" s="8" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="N90" s="7" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="O90" s="9"/>
       <c r="P90" s="10" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="91" s="2" customFormat="1" customHeight="1" spans="1:16">
@@ -9289,23 +9298,23 @@
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
       <c r="D91" s="4" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="F91" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G91" s="20" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="H91" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I91" s="7"/>
       <c r="J91" s="21" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K91" s="22"/>
       <c r="L91" s="8"/>
@@ -9318,26 +9327,26 @@
       <c r="A92" s="3"/>
       <c r="B92" s="1"/>
       <c r="C92" s="1" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="D92" s="4" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="F92" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G92" s="20" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="H92" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I92" s="7"/>
       <c r="J92" s="21" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K92" s="22"/>
       <c r="L92" s="8"/>
@@ -9351,23 +9360,23 @@
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
       <c r="D93" s="4" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="F93" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G93" s="20" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="H93" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I93" s="7"/>
       <c r="J93" s="21" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K93" s="22"/>
       <c r="L93" s="8"/>
@@ -9381,23 +9390,23 @@
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
       <c r="D94" s="4" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="F94" s="5" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G94" s="20" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="H94" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I94" s="7"/>
       <c r="J94" s="21" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K94" s="22"/>
       <c r="L94" s="8"/>
@@ -9411,23 +9420,23 @@
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
       <c r="D95" s="4" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="F95" s="5" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G95" s="20" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="H95" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I95" s="7"/>
       <c r="J95" s="21" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K95" s="22"/>
       <c r="L95" s="8"/>
@@ -9440,44 +9449,44 @@
       <c r="A96" s="3"/>
       <c r="B96" s="1"/>
       <c r="C96" s="1" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="D96" s="4" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="E96" s="16" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="F96" s="5" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G96" s="30" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="H96" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I96" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J96" s="21" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K96" s="22" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="L96" s="8" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="M96" s="8" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="N96" s="7" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="O96" s="9"/>
       <c r="P96" s="10" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="97" s="2" customFormat="1" customHeight="1" spans="1:16">
@@ -9485,106 +9494,106 @@
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
       <c r="D97" s="4" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="E97" s="16" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="F97" s="5" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G97" s="30" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="H97" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I97" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J97" s="21" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K97" s="22" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="L97" s="8" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="M97" s="8" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="N97" s="7" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="O97" s="9"/>
       <c r="P97" s="10" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="98" s="1" customFormat="1" customHeight="1" spans="1:16">
       <c r="A98" s="3"/>
       <c r="D98" s="4" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="E98" s="16" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="F98" s="5" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G98" s="30" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="H98" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I98" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J98" s="21" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K98" s="22" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="L98" s="8" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="M98" s="8" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="N98" s="7" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="O98" s="9"/>
       <c r="P98" s="10" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="99" s="1" customFormat="1" customHeight="1" spans="1:16">
       <c r="A99" s="3"/>
       <c r="C99" s="1" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="D99" s="4" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="F99" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G99" s="20" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="H99" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I99" s="7"/>
       <c r="J99" s="21" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K99" s="22"/>
       <c r="L99" s="8"/>
@@ -9596,23 +9605,23 @@
     <row r="100" s="1" customFormat="1" customHeight="1" spans="1:16">
       <c r="A100" s="3"/>
       <c r="D100" s="4" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="F100" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G100" s="20" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="H100" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I100" s="7"/>
       <c r="J100" s="21" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K100" s="22"/>
       <c r="L100" s="8"/>
@@ -9626,38 +9635,38 @@
         <v>6</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="D101" s="4" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="F101" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G101" s="20" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="H101" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I101" s="7"/>
       <c r="J101" s="21" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K101" s="22" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="L101" s="8" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="M101" s="8" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="N101" s="7"/>
       <c r="O101" s="9"/>
@@ -9666,32 +9675,32 @@
     <row r="102" s="1" customFormat="1" customHeight="1" spans="1:16">
       <c r="A102" s="3"/>
       <c r="D102" s="23" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="F102" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G102" s="25" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="H102" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I102" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J102" s="21" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K102" s="22"/>
       <c r="L102" s="8" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="M102" s="8" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="N102" s="7"/>
       <c r="O102" s="9"/>
@@ -9700,32 +9709,32 @@
     <row r="103" s="1" customFormat="1" customHeight="1" spans="1:16">
       <c r="A103" s="3"/>
       <c r="D103" s="4" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="F103" s="5" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G103" s="20" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="H103" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I103" s="7"/>
       <c r="J103" s="21" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K103" s="22" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="L103" s="8" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="M103" s="8" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="N103" s="7"/>
       <c r="O103" s="9"/>
@@ -9734,32 +9743,32 @@
     <row r="104" s="1" customFormat="1" customHeight="1" spans="1:16">
       <c r="A104" s="3"/>
       <c r="D104" s="4" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="F104" s="5" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G104" s="20" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="H104" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I104" s="7"/>
       <c r="J104" s="21" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K104" s="22" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="L104" s="8" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="M104" s="8" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="N104" s="7"/>
       <c r="O104" s="9"/>
@@ -9768,30 +9777,30 @@
     <row r="105" s="1" customFormat="1" customHeight="1" spans="1:16">
       <c r="A105" s="3"/>
       <c r="D105" s="4" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="F105" s="5" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="G105" s="20" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="H105" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I105" s="7"/>
       <c r="J105" s="21" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K105" s="22" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="L105" s="8"/>
       <c r="M105" s="8" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="N105" s="7"/>
       <c r="O105" s="9"/>
@@ -9800,36 +9809,36 @@
     <row r="106" s="1" customFormat="1" customHeight="1" spans="1:16">
       <c r="A106" s="3"/>
       <c r="C106" s="1" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="D106" s="4" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="F106" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G106" s="27" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="H106" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I106" s="7"/>
       <c r="J106" s="21" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K106" s="22"/>
       <c r="L106" s="17" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="M106" s="18" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="N106" s="7" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="O106" s="9"/>
       <c r="P106" s="10"/>
@@ -9837,33 +9846,33 @@
     <row r="107" s="1" customFormat="1" ht="46.5" customHeight="1" spans="1:16">
       <c r="A107" s="3"/>
       <c r="D107" s="4" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="F107" s="5" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G107" s="33" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H107" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I107" s="7"/>
       <c r="J107" s="21" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K107" s="35"/>
       <c r="L107" s="13" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="M107" s="13" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="N107" s="7" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="O107" s="9"/>
       <c r="P107" s="10"/>
@@ -9871,35 +9880,35 @@
     <row r="108" s="1" customFormat="1" ht="45" customHeight="1" spans="1:16">
       <c r="A108" s="3"/>
       <c r="D108" s="4" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="F108" s="5" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="G108" s="27" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H108" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I108" s="7"/>
       <c r="J108" s="21" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K108" s="22" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="L108" s="8" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="M108" s="8" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="N108" s="7" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="O108" s="9"/>
       <c r="P108" s="10"/>
@@ -9907,30 +9916,30 @@
     <row r="109" s="1" customFormat="1" ht="35.25" customHeight="1" spans="1:16">
       <c r="A109" s="3"/>
       <c r="D109" s="4" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="F109" s="5" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="G109" s="27" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H109" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I109" s="7"/>
       <c r="J109" s="21" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K109" s="22"/>
       <c r="L109" s="8" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="M109" s="8" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="N109" s="7"/>
       <c r="O109" s="9"/>
@@ -9941,36 +9950,36 @@
         <v>7</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="C110" s="24" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="D110" s="4" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="F110" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G110" s="5" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="H110" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I110" s="7"/>
       <c r="J110" s="21" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K110" s="22"/>
       <c r="L110" s="8" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="M110" s="18" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="N110" s="7"/>
       <c r="O110" s="9"/>
@@ -9979,34 +9988,34 @@
     <row r="111" s="1" customFormat="1" customHeight="1" spans="1:16">
       <c r="A111" s="3"/>
       <c r="D111" s="4" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="F111" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G111" s="34" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="H111" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I111" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J111" s="21" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K111" s="22" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="L111" s="17" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="M111" s="18" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="N111" s="7"/>
       <c r="O111" s="9"/>
@@ -10017,34 +10026,34 @@
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
       <c r="D112" s="4" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="F112" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G112" s="25" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="H112" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I112" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J112" s="21" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K112" s="22" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="L112" s="8" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="M112" s="8" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="N112" s="7"/>
       <c r="O112" s="9"/>
@@ -10055,30 +10064,30 @@
       <c r="B113" s="1"/>
       <c r="C113" s="1"/>
       <c r="D113" s="4" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="F113" s="5" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G113" s="20" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="H113" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I113" s="7"/>
       <c r="J113" s="21" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K113" s="22"/>
       <c r="L113" s="8" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="M113" s="8" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="N113" s="7"/>
       <c r="O113" s="9"/>
@@ -10089,30 +10098,30 @@
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
       <c r="D114" s="4" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="F114" s="5" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G114" s="20" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="H114" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I114" s="7"/>
       <c r="J114" s="21" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K114" s="22"/>
       <c r="L114" s="8" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="M114" s="8" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="N114" s="7"/>
       <c r="O114" s="9"/>
@@ -10122,33 +10131,33 @@
       <c r="A115" s="3"/>
       <c r="B115" s="1"/>
       <c r="C115" s="1" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="D115" s="4" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="F115" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G115" s="27" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="H115" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I115" s="7"/>
       <c r="J115" s="21" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K115" s="22"/>
       <c r="L115" s="8" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="M115" s="8" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="N115" s="7"/>
       <c r="O115" s="9"/>
@@ -10159,35 +10168,35 @@
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
       <c r="D116" s="4" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="F116" s="5" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G116" s="27" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="H116" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I116" s="7"/>
       <c r="J116" s="21" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K116" s="22"/>
       <c r="L116" s="8" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="M116" s="8" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="N116" s="7"/>
       <c r="O116" s="9"/>
       <c r="P116" s="10" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
     </row>
     <row r="117" s="2" customFormat="1" customHeight="1" spans="1:16">
@@ -10195,37 +10204,37 @@
       <c r="B117" s="1"/>
       <c r="C117" s="1"/>
       <c r="D117" s="4" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="F117" s="5" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G117" s="27" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="H117" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I117" s="7"/>
       <c r="J117" s="21" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K117" s="22" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="L117" s="8" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="M117" s="8" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="N117" s="7"/>
       <c r="O117" s="9"/>
       <c r="P117" s="10" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
     </row>
     <row r="118" s="2" customFormat="1" customHeight="1" spans="1:16">
@@ -10233,28 +10242,28 @@
       <c r="B118" s="1"/>
       <c r="C118" s="1"/>
       <c r="D118" s="4" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="F118" s="5" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="G118" s="27" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="H118" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I118" s="7"/>
       <c r="J118" s="21" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K118" s="22"/>
       <c r="L118" s="8"/>
       <c r="M118" s="8" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="N118" s="7"/>
       <c r="O118" s="9"/>
@@ -10264,31 +10273,31 @@
       <c r="A119" s="3"/>
       <c r="B119" s="1"/>
       <c r="C119" s="24" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="D119" s="4" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="F119" s="5" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G119" s="27" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="H119" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I119" s="7"/>
       <c r="J119" s="21" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K119" s="22"/>
       <c r="L119" s="8"/>
       <c r="M119" s="8" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="N119" s="7"/>
       <c r="O119" s="9"/>
@@ -10299,30 +10308,30 @@
       <c r="B120" s="1"/>
       <c r="C120" s="1"/>
       <c r="D120" s="4" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="F120" s="5" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G120" s="27" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="H120" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I120" s="7"/>
       <c r="J120" s="21" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K120" s="22"/>
       <c r="L120" s="8" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="M120" s="8" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="N120" s="7"/>
       <c r="O120" s="9"/>
@@ -10333,28 +10342,28 @@
       <c r="B121" s="1"/>
       <c r="C121" s="1"/>
       <c r="D121" s="4" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="F121" s="5" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="G121" s="27" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="H121" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I121" s="7"/>
       <c r="J121" s="21" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K121" s="22"/>
       <c r="L121" s="8"/>
       <c r="M121" s="8" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="N121" s="7"/>
       <c r="O121" s="9"/>
@@ -10365,29 +10374,29 @@
         <v>8</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="D122" s="4" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="F122" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G122" s="20" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="H122" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I122" s="7"/>
       <c r="J122" s="21" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K122" s="22"/>
       <c r="L122" s="8"/>
@@ -10401,39 +10410,39 @@
       <c r="B123" s="1"/>
       <c r="C123" s="1"/>
       <c r="D123" s="4" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="F123" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G123" s="25" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="H123" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I123" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J123" s="21" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K123" s="22" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="L123" s="8" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="M123" s="8" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="N123" s="7"/>
       <c r="O123" s="9"/>
       <c r="P123" s="10" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
     </row>
     <row r="124" s="2" customFormat="1" customHeight="1" spans="1:16">
@@ -10441,67 +10450,67 @@
       <c r="B124" s="1"/>
       <c r="C124" s="23"/>
       <c r="D124" s="29" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="F124" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G124" s="25" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="H124" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I124" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J124" s="21" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K124" s="22" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L124" s="8" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="M124" s="8" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="N124" s="7" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="O124" s="9"/>
       <c r="P124" s="10" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="125" s="2" customFormat="1" customHeight="1" spans="1:16">
       <c r="A125" s="3"/>
       <c r="B125" s="1"/>
       <c r="C125" s="1" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="D125" s="4" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="F125" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G125" s="20" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="H125" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I125" s="7"/>
       <c r="J125" s="21" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K125" s="22"/>
       <c r="L125" s="8"/>
@@ -10515,35 +10524,35 @@
       <c r="B126" s="1"/>
       <c r="C126" s="1"/>
       <c r="D126" s="29" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="E126" s="15" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="F126" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G126" s="20" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="H126" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I126" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J126" s="21" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K126" s="22"/>
       <c r="L126" s="8"/>
       <c r="M126" s="8"/>
       <c r="N126" s="7" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="O126" s="9"/>
       <c r="P126" s="10" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="127" s="2" customFormat="1" customHeight="1" spans="1:16">
@@ -10551,39 +10560,39 @@
       <c r="B127" s="1"/>
       <c r="C127" s="1"/>
       <c r="D127" s="4" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="E127" s="15" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="F127" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G127" s="20" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="H127" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I127" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J127" s="21" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K127" s="22" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L127" s="8" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="M127" s="8"/>
       <c r="N127" s="7" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="O127" s="9"/>
       <c r="P127" s="10" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="128" s="2" customFormat="1" customHeight="1" spans="1:16">
@@ -10591,30 +10600,30 @@
       <c r="B128" s="1"/>
       <c r="C128" s="1"/>
       <c r="D128" s="4" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="F128" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G128" s="20" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="H128" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I128" s="7"/>
       <c r="J128" s="21" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K128" s="22"/>
       <c r="L128" s="8" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="M128" s="8" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="N128" s="7"/>
       <c r="O128" s="9"/>
@@ -10625,30 +10634,30 @@
       <c r="B129" s="1"/>
       <c r="C129" s="1"/>
       <c r="D129" s="4" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="F129" s="5" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G129" s="20" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="H129" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I129" s="7"/>
       <c r="J129" s="21" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K129" s="22"/>
       <c r="L129" s="8" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="M129" s="8" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="N129" s="7"/>
       <c r="O129" s="9"/>
@@ -10659,32 +10668,32 @@
       <c r="B130" s="1"/>
       <c r="C130" s="1"/>
       <c r="D130" s="4" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="F130" s="5" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G130" s="20" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="H130" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I130" s="7"/>
       <c r="J130" s="21" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K130" s="22" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="L130" s="8" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="M130" s="8" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="N130" s="7"/>
       <c r="O130" s="9"/>
@@ -10695,32 +10704,32 @@
       <c r="B131" s="1"/>
       <c r="C131" s="1"/>
       <c r="D131" s="4" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="F131" s="5" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="G131" s="20" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="H131" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I131" s="7"/>
       <c r="J131" s="21" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K131" s="22" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="L131" s="8" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="M131" s="8" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="N131" s="7"/>
       <c r="O131" s="9"/>
@@ -10731,32 +10740,32 @@
       <c r="B132" s="1"/>
       <c r="C132" s="1"/>
       <c r="D132" s="4" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="F132" s="5" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G132" s="20" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="H132" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I132" s="7"/>
       <c r="J132" s="21" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K132" s="22" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="L132" s="8" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="M132" s="8" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="N132" s="7"/>
       <c r="O132" s="9"/>
@@ -10766,26 +10775,26 @@
       <c r="A133" s="3"/>
       <c r="B133" s="1"/>
       <c r="C133" s="24" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="D133" s="4" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="F133" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G133" s="20" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="H133" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I133" s="7"/>
       <c r="J133" s="21" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K133" s="22"/>
       <c r="L133" s="8"/>
@@ -10799,41 +10808,41 @@
       <c r="B134" s="1"/>
       <c r="C134" s="1"/>
       <c r="D134" s="29" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="E134" s="15" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="F134" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G134" s="27" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="H134" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I134" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J134" s="21" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K134" s="22" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="L134" s="8" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="M134" s="8" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="N134" s="7" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="O134" s="9"/>
       <c r="P134" s="10" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="135" s="2" customFormat="1" customHeight="1" spans="1:16">
@@ -10841,41 +10850,41 @@
       <c r="B135" s="1"/>
       <c r="C135" s="1"/>
       <c r="D135" s="4" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="E135" s="15" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="F135" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G135" s="27" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="H135" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I135" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J135" s="21" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K135" s="22" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="L135" s="8" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="M135" s="8" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="N135" s="7" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="O135" s="9"/>
       <c r="P135" s="10" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="136" s="2" customFormat="1" customHeight="1" spans="1:16">
@@ -10883,30 +10892,30 @@
       <c r="B136" s="1"/>
       <c r="C136" s="1"/>
       <c r="D136" s="4" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="F136" s="5" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G136" s="27" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="H136" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I136" s="7"/>
       <c r="J136" s="21" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K136" s="22"/>
       <c r="L136" s="8" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="M136" s="8" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="N136" s="7"/>
       <c r="O136" s="9"/>
@@ -10917,28 +10926,28 @@
       <c r="B137" s="1"/>
       <c r="C137" s="1"/>
       <c r="D137" s="4" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="F137" s="5" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G137" s="27" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="H137" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I137" s="7"/>
       <c r="J137" s="21" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K137" s="22"/>
       <c r="L137" s="8"/>
       <c r="M137" s="8" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="N137" s="7"/>
       <c r="O137" s="9"/>
@@ -10949,28 +10958,28 @@
       <c r="B138" s="1"/>
       <c r="C138" s="1"/>
       <c r="D138" s="4" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="F138" s="5" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G138" s="27" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="H138" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I138" s="7"/>
       <c r="J138" s="21" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K138" s="22"/>
       <c r="L138" s="8"/>
       <c r="M138" s="8" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="N138" s="7"/>
       <c r="O138" s="9"/>
@@ -10981,29 +10990,29 @@
       <c r="B139" s="1"/>
       <c r="C139" s="1"/>
       <c r="D139" s="4" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="E139" s="15" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="F139" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G139" s="20" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="H139" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I139" s="7"/>
       <c r="J139" s="21" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K139" s="22" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="L139" s="8" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="M139" s="8"/>
       <c r="N139" s="7"/>
@@ -11015,31 +11024,31 @@
       <c r="B140" s="1"/>
       <c r="C140" s="1"/>
       <c r="D140" s="4" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="E140" s="15" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="F140" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G140" s="20" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="H140" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I140" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J140" s="21" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K140" s="22" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="L140" s="8" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="M140" s="8"/>
       <c r="N140" s="7"/>
@@ -11051,32 +11060,32 @@
         <v>9</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="D141" s="4" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="E141" s="1" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="F141" s="5" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G141" s="20" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="H141" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I141" s="7"/>
       <c r="J141" s="21" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K141" s="22" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="L141" s="8"/>
       <c r="M141" s="8"/>
@@ -11088,38 +11097,38 @@
       <c r="A142" s="3"/>
       <c r="B142" s="1"/>
       <c r="C142" s="24" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="D142" s="4" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="E142" s="1" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="F142" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G142" s="26" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="H142" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I142" s="7"/>
       <c r="J142" s="21" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K142" s="22"/>
       <c r="L142" s="17" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="M142" s="18" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="N142" s="7"/>
       <c r="O142" s="9"/>
       <c r="P142" s="10" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
     </row>
     <row r="143" s="2" customFormat="1" customHeight="1" spans="1:16">
@@ -11127,30 +11136,30 @@
       <c r="B143" s="1"/>
       <c r="C143" s="1"/>
       <c r="D143" s="4" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="E143" s="1" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="F143" s="5" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G143" s="27" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="H143" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I143" s="7"/>
       <c r="J143" s="21" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K143" s="39"/>
       <c r="L143" s="18" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="M143" s="18" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="N143" s="7"/>
       <c r="O143" s="9"/>
@@ -11161,35 +11170,35 @@
       <c r="B144" s="1"/>
       <c r="C144" s="1"/>
       <c r="D144" s="4" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="E144" s="1" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="F144" s="5" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G144" s="27" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="H144" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I144" s="7"/>
       <c r="J144" s="21" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K144" s="22" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="L144" s="8" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="M144" s="18" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="N144" s="7" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="O144" s="9"/>
       <c r="P144" s="10"/>
@@ -11199,30 +11208,30 @@
       <c r="B145" s="1"/>
       <c r="C145" s="1"/>
       <c r="D145" s="4" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="E145" s="1" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="F145" s="5" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="G145" s="27" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="H145" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I145" s="7"/>
       <c r="J145" s="21" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K145" s="22"/>
       <c r="L145" s="8" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="M145" s="18" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="N145" s="7"/>
       <c r="O145" s="9"/>
@@ -11232,31 +11241,31 @@
       <c r="A146" s="3"/>
       <c r="B146" s="1"/>
       <c r="C146" s="1" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="D146" s="4" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="E146" s="1" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="F146" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G146" s="5" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="H146" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I146" s="7"/>
       <c r="J146" s="21" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K146" s="40"/>
       <c r="L146" s="17"/>
       <c r="M146" s="18" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="N146" s="7"/>
       <c r="O146" s="9"/>
@@ -11267,41 +11276,41 @@
       <c r="B147" s="1"/>
       <c r="C147" s="1"/>
       <c r="D147" s="29" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="E147" s="1" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="F147" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G147" s="33" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="H147" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I147" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J147" s="21" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K147" s="40" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="L147" s="17" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="M147" s="7" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="N147" s="7" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="O147" s="9"/>
       <c r="P147" s="10" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="148" s="2" customFormat="1" customHeight="1" spans="1:16">
@@ -11309,41 +11318,41 @@
       <c r="B148" s="1"/>
       <c r="C148" s="1"/>
       <c r="D148" s="4" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="E148" s="1" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="F148" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G148" s="33" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="H148" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I148" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J148" s="21" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K148" s="40" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="L148" s="17" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="M148" s="7" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="N148" s="7" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="O148" s="9"/>
       <c r="P148" s="10" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="149" s="2" customFormat="1" customHeight="1" spans="1:16">
@@ -11351,30 +11360,30 @@
       <c r="B149" s="1"/>
       <c r="C149" s="1"/>
       <c r="D149" s="4" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="E149" s="1" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="F149" s="5" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G149" s="33" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="H149" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I149" s="7"/>
       <c r="J149" s="21" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K149" s="9"/>
       <c r="L149" s="7" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="M149" s="7" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="N149" s="7"/>
       <c r="O149" s="9"/>
@@ -11385,30 +11394,30 @@
       <c r="B150" s="1"/>
       <c r="C150" s="1"/>
       <c r="D150" s="4" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="E150" s="1" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="F150" s="5" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G150" s="27" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="H150" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I150" s="7"/>
       <c r="J150" s="21" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K150" s="22"/>
       <c r="L150" s="8" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="M150" s="8" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="N150" s="7"/>
       <c r="O150" s="9"/>
@@ -11419,30 +11428,30 @@
       <c r="B151" s="1"/>
       <c r="C151" s="1"/>
       <c r="D151" s="4" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="E151" s="1" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="F151" s="5" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="G151" s="27" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="H151" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I151" s="7"/>
       <c r="J151" s="21" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K151" s="22"/>
       <c r="L151" s="8" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="M151" s="8" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="N151" s="7"/>
       <c r="O151" s="9"/>
@@ -11453,83 +11462,83 @@
       <c r="B152" s="1"/>
       <c r="C152" s="1"/>
       <c r="D152" s="4" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="E152" s="1" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="F152" s="5" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G152" s="20" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="H152" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I152" s="7"/>
       <c r="J152" s="21" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K152" s="22" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="L152" s="8" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="M152" s="8" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="N152" s="7" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="O152" s="9"/>
       <c r="P152" s="10" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
     </row>
     <row r="153" s="2" customFormat="1" customHeight="1" spans="1:16">
       <c r="A153" s="3"/>
       <c r="B153" s="1"/>
       <c r="C153" s="1" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="D153" s="29" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="E153" s="1" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="F153" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G153" s="36" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="H153" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I153" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J153" s="21" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K153" s="40" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="L153" s="17" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="M153" s="18" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="N153" s="7" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="O153" s="9"/>
       <c r="P153" s="10" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="154" s="2" customFormat="1" customHeight="1" spans="1:16">
@@ -11537,39 +11546,39 @@
       <c r="B154" s="1"/>
       <c r="C154" s="1"/>
       <c r="D154" s="4" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="E154" s="1" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="F154" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G154" s="36" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="H154" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I154" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J154" s="21" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K154" s="40"/>
       <c r="L154" s="17" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="M154" s="18" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="N154" s="7" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="O154" s="9"/>
       <c r="P154" s="10" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="155" s="2" customFormat="1" customHeight="1" spans="1:16">
@@ -11577,30 +11586,30 @@
       <c r="B155" s="1"/>
       <c r="C155" s="1"/>
       <c r="D155" s="4" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="E155" s="1" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="F155" s="5" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G155" s="37" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="H155" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I155" s="7"/>
       <c r="J155" s="21" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K155" s="9"/>
       <c r="L155" s="7" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="M155" s="7" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="N155" s="7"/>
       <c r="O155" s="9"/>
@@ -11611,30 +11620,30 @@
       <c r="B156" s="1"/>
       <c r="C156" s="1"/>
       <c r="D156" s="4" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="E156" s="1" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="F156" s="5" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G156" s="20" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="H156" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I156" s="7"/>
       <c r="J156" s="21" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K156" s="22"/>
       <c r="L156" s="8" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="M156" s="8" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="N156" s="7"/>
       <c r="O156" s="9"/>
@@ -11645,33 +11654,33 @@
       <c r="B157" s="1"/>
       <c r="C157" s="1"/>
       <c r="D157" s="4" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="E157" s="1" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="F157" s="5" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G157" s="20" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="H157" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I157" s="7"/>
       <c r="J157" s="21" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K157" s="22"/>
       <c r="L157" s="8" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="M157" s="8" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="N157" s="7" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="O157" s="9"/>
       <c r="P157" s="10"/>
@@ -11681,35 +11690,35 @@
       <c r="B158" s="1"/>
       <c r="C158" s="1"/>
       <c r="D158" s="4" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="E158" s="1" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="F158" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G158" s="26" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="H158" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I158" s="7"/>
       <c r="J158" s="21" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K158" s="22"/>
       <c r="L158" s="8" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="M158" s="18" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="N158" s="7"/>
       <c r="O158" s="9"/>
       <c r="P158" s="10" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
     </row>
     <row r="159" s="2" customFormat="1" customHeight="1" spans="1:16">
@@ -11717,30 +11726,30 @@
       <c r="B159" s="1"/>
       <c r="C159" s="1"/>
       <c r="D159" s="4" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="E159" s="1" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="F159" s="5" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G159" s="38" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="H159" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I159" s="7"/>
       <c r="J159" s="21" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K159" s="35"/>
       <c r="L159" s="13" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="M159" s="18" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="N159" s="7"/>
       <c r="O159" s="9"/>
@@ -11751,30 +11760,30 @@
       <c r="B160" s="1"/>
       <c r="C160" s="1"/>
       <c r="D160" s="4" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="E160" s="1" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="F160" s="5" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G160" s="27" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="H160" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I160" s="7"/>
       <c r="J160" s="21" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K160" s="22"/>
       <c r="L160" s="8" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="M160" s="8" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="N160" s="7"/>
       <c r="O160" s="9"/>
@@ -11785,28 +11794,28 @@
       <c r="B161" s="1"/>
       <c r="C161" s="1"/>
       <c r="D161" s="4" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="E161" s="1" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="F161" s="5" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="G161" s="27" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="H161" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I161" s="7"/>
       <c r="J161" s="21" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K161" s="22"/>
       <c r="L161" s="8"/>
       <c r="M161" s="8" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="N161" s="7"/>
       <c r="O161" s="9"/>
@@ -11817,35 +11826,35 @@
       <c r="B162" s="1"/>
       <c r="C162" s="1"/>
       <c r="D162" s="4" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="E162" s="1" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="F162" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G162" s="26" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="H162" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I162" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J162" s="21" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K162" s="22" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="L162" s="8" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="M162" s="8"/>
       <c r="N162" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="O162" s="9"/>
       <c r="P162" s="10"/>
@@ -11855,30 +11864,30 @@
       <c r="B163" s="1"/>
       <c r="C163" s="1"/>
       <c r="D163" s="4" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="E163" s="1" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="F163" s="5" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G163" s="26" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="H163" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I163" s="7"/>
       <c r="J163" s="21" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K163" s="22"/>
       <c r="L163" s="8" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="M163" s="8" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="N163" s="7"/>
       <c r="O163" s="9"/>
@@ -11889,32 +11898,32 @@
       <c r="B164" s="1"/>
       <c r="C164" s="1"/>
       <c r="D164" s="4" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="E164" s="1" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="F164" s="5" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G164" s="27" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="H164" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I164" s="7"/>
       <c r="J164" s="21" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K164" s="22" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="L164" s="8" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="M164" s="8" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="N164" s="7"/>
       <c r="O164" s="9"/>
@@ -11925,32 +11934,32 @@
       <c r="B165" s="1"/>
       <c r="C165" s="1"/>
       <c r="D165" s="4" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="E165" s="1" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="F165" s="5" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="G165" s="27" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="H165" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I165" s="7"/>
       <c r="J165" s="21" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K165" s="22" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="L165" s="8" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="M165" s="8" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="N165" s="7"/>
       <c r="O165" s="9"/>
@@ -11960,38 +11969,38 @@
       <c r="A166" s="3"/>
       <c r="B166" s="1"/>
       <c r="C166" s="24" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="D166" s="4" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="E166" s="1" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="F166" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G166" s="26" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="H166" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I166" s="7"/>
       <c r="J166" s="21" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K166" s="22"/>
       <c r="L166" s="17" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="M166" s="18" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="N166" s="7"/>
       <c r="O166" s="9"/>
       <c r="P166" s="10" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
     </row>
     <row r="167" s="2" customFormat="1" customHeight="1" spans="1:16">
@@ -11999,30 +12008,30 @@
       <c r="B167" s="1"/>
       <c r="C167" s="1"/>
       <c r="D167" s="4" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="E167" s="1" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="F167" s="5" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G167" s="33" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="H167" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I167" s="7"/>
       <c r="J167" s="21" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K167" s="39"/>
       <c r="L167" s="18" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="M167" s="18" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="N167" s="7"/>
       <c r="O167" s="9"/>
@@ -12033,30 +12042,30 @@
       <c r="B168" s="1"/>
       <c r="C168" s="1"/>
       <c r="D168" s="4" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="E168" s="1" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="F168" s="5" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G168" s="26" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="H168" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I168" s="7"/>
       <c r="J168" s="21" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K168" s="39"/>
       <c r="L168" s="18" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="M168" s="18" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="N168" s="7"/>
       <c r="O168" s="9"/>
@@ -12067,30 +12076,30 @@
       <c r="B169" s="1"/>
       <c r="C169" s="1"/>
       <c r="D169" s="4" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="E169" s="1" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="F169" s="5" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="G169" s="27" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="H169" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I169" s="7"/>
       <c r="J169" s="21" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K169" s="39"/>
       <c r="L169" s="18" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="M169" s="18" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="N169" s="7"/>
       <c r="O169" s="9"/>
@@ -12100,40 +12109,40 @@
       <c r="A170" s="3"/>
       <c r="B170" s="1"/>
       <c r="C170" s="24" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="D170" s="4" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="E170" s="1" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="F170" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G170" s="26" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="H170" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I170" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J170" s="21" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K170" s="22" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="L170" s="17" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="M170" s="18" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="N170" s="7" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="O170" s="9"/>
       <c r="P170" s="10"/>
@@ -12143,22 +12152,22 @@
       <c r="B171" s="1"/>
       <c r="C171" s="1"/>
       <c r="D171" s="4" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="E171" s="1" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="F171" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G171" s="38" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="H171" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="I171" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J171" s="21"/>
       <c r="K171" s="9"/>
@@ -12173,30 +12182,30 @@
       <c r="B172" s="1"/>
       <c r="C172" s="1"/>
       <c r="D172" s="4" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="E172" s="1" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="F172" s="5" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G172" s="38" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="H172" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I172" s="7"/>
       <c r="J172" s="21" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K172" s="9"/>
       <c r="L172" s="7" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="M172" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="N172" s="7"/>
       <c r="O172" s="9"/>
@@ -12207,30 +12216,30 @@
       <c r="B173" s="1"/>
       <c r="C173" s="1"/>
       <c r="D173" s="4" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="E173" s="1" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="F173" s="5" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G173" s="38" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="H173" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I173" s="7"/>
       <c r="J173" s="21" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K173" s="35"/>
       <c r="L173" s="13" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="M173" s="18" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="N173" s="7"/>
       <c r="O173" s="9"/>
@@ -12241,32 +12250,32 @@
       <c r="B174" s="1"/>
       <c r="C174" s="1"/>
       <c r="D174" s="4" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="E174" s="1" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="F174" s="5" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="G174" s="38" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="H174" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I174" s="7"/>
       <c r="J174" s="21" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K174" s="35" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="L174" s="13" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="M174" s="18" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="N174" s="7"/>
       <c r="O174" s="9"/>
@@ -12277,41 +12286,41 @@
       <c r="B175" s="1"/>
       <c r="C175" s="1"/>
       <c r="D175" s="4" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="E175" s="1" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="F175" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G175" s="31" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="H175" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I175" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J175" s="21" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K175" s="22" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L175" s="17" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="M175" s="18" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="N175" s="7" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="O175" s="9"/>
       <c r="P175" s="10" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="176" s="2" customFormat="1" customHeight="1" spans="1:16">
@@ -12319,52 +12328,52 @@
       <c r="B176" s="1"/>
       <c r="C176" s="1"/>
       <c r="D176" s="4" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="E176" s="1" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="F176" s="5"/>
       <c r="G176" s="31"/>
       <c r="H176" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I176" s="7"/>
       <c r="J176" s="21" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K176" s="22" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="L176" s="8"/>
       <c r="M176" s="18"/>
       <c r="N176" s="7"/>
       <c r="O176" s="9"/>
       <c r="P176" s="10" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="177" s="2" customFormat="1" customHeight="1" spans="1:16">
       <c r="A177" s="3"/>
       <c r="B177" s="1"/>
       <c r="C177" s="1" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="D177" s="4" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="E177" s="1" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="F177" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G177" s="20" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="H177" s="7"/>
       <c r="I177" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J177" s="21"/>
       <c r="K177" s="22"/>
@@ -12379,20 +12388,20 @@
       <c r="B178" s="1"/>
       <c r="C178" s="1"/>
       <c r="D178" s="4" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="E178" s="1" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="F178" s="5" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G178" s="20" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="H178" s="7"/>
       <c r="I178" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J178" s="21"/>
       <c r="K178" s="22"/>
@@ -12407,20 +12416,20 @@
       <c r="B179" s="1"/>
       <c r="C179" s="1"/>
       <c r="D179" s="4" t="s">
+        <v>768</v>
+      </c>
+      <c r="E179" s="1" t="s">
+        <v>769</v>
+      </c>
+      <c r="F179" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="G179" s="20" t="s">
         <v>767</v>
-      </c>
-      <c r="E179" s="1" t="s">
-        <v>768</v>
-      </c>
-      <c r="F179" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="G179" s="20" t="s">
-        <v>766</v>
       </c>
       <c r="H179" s="7"/>
       <c r="I179" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J179" s="21"/>
       <c r="K179" s="22"/>
@@ -12435,20 +12444,20 @@
       <c r="B180" s="1"/>
       <c r="C180" s="1"/>
       <c r="D180" s="4" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="E180" s="1" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="F180" s="5" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="G180" s="20" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="H180" s="7"/>
       <c r="I180" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J180" s="21"/>
       <c r="K180" s="22"/>
@@ -12460,424 +12469,424 @@
     </row>
     <row r="181" s="2" customFormat="1" customHeight="1" spans="1:16">
       <c r="A181" s="3" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="D181" s="4" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="E181" s="16" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="F181" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G181" s="34" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="H181" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="I181" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J181" s="21" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K181" s="40"/>
       <c r="L181" s="17"/>
       <c r="M181" s="18"/>
       <c r="N181" s="7" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="O181" s="9"/>
       <c r="P181" s="10"/>
     </row>
     <row r="182" customHeight="1" spans="4:14">
       <c r="D182" s="4" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="E182" s="16" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="F182" s="5" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G182" s="5" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="H182" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="I182" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J182" s="21" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K182" s="35" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="L182" s="19"/>
       <c r="M182" s="18"/>
       <c r="N182" s="7" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="183" customHeight="1" spans="4:14">
       <c r="D183" s="4" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="E183" s="16" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="F183" s="5" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G183" s="5" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="H183" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="I183" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J183" s="21" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K183" s="39"/>
       <c r="L183" s="18"/>
       <c r="M183" s="18"/>
       <c r="N183" s="7" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="184" customHeight="1" spans="4:14">
       <c r="D184" s="4" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="E184" s="16" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="F184" s="5" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="G184" s="5" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="H184" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="I184" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J184" s="21" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K184" s="39"/>
       <c r="L184" s="18"/>
       <c r="M184" s="18"/>
       <c r="N184" s="7" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="185" customHeight="1" spans="4:14">
       <c r="D185" s="4" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="E185" s="16" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="F185" s="5" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="G185" s="5" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="H185" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="I185" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J185" s="21" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="K185" s="39"/>
       <c r="L185" s="18"/>
       <c r="M185" s="18"/>
       <c r="N185" s="7" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="186" customHeight="1" spans="2:10">
       <c r="B186" s="1" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="D186" s="4" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="E186" s="1" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="G186" s="20" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="J186" s="21" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="187" customHeight="1" spans="4:10">
       <c r="D187" s="4" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="E187" s="1" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="G187" s="20" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="J187" s="21" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="188" customHeight="1" spans="4:10">
       <c r="D188" s="4" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="E188" s="1" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="F188" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G188" s="20" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="J188" s="21" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="189" customHeight="1" spans="4:10">
       <c r="D189" s="4" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="E189" s="1" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="G189" s="20" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="J189" s="21" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="190" customHeight="1" spans="4:10">
       <c r="D190" s="4" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="E190" s="1" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="F190" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G190" s="20" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="J190" s="21" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="191" customHeight="1" spans="3:10">
       <c r="C191" s="1" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="D191" s="4" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="E191" s="1" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="F191" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G191" s="20" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="J191" s="21" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="192" customHeight="1" spans="4:10">
       <c r="D192" s="4" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="E192" s="1" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="F192" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G192" s="20" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="J192" s="21" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="193" customHeight="1" spans="4:10">
       <c r="D193" s="4" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="E193" s="1" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="F193" s="5" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G193" s="20" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="J193" s="21" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="194" customHeight="1" spans="4:10">
       <c r="D194" s="4" t="s">
+        <v>816</v>
+      </c>
+      <c r="E194" s="1" t="s">
+        <v>817</v>
+      </c>
+      <c r="F194" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="G194" s="20" t="s">
         <v>815</v>
       </c>
-      <c r="E194" s="1" t="s">
-        <v>816</v>
-      </c>
-      <c r="F194" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="G194" s="20" t="s">
-        <v>814</v>
-      </c>
       <c r="J194" s="21" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="195" customHeight="1" spans="4:10">
       <c r="D195" s="4" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="E195" s="1" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="F195" s="5" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="G195" s="20" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="J195" s="21" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="196" customHeight="1" spans="3:10">
       <c r="C196" s="1" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="D196" s="4" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="E196" s="1" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="F196" s="5" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G196" s="20" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="J196" s="21" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="197" customHeight="1" spans="4:11">
       <c r="D197" s="4" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="E197" s="1" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="F197" s="5" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G197" s="20" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="J197" s="21" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="K197" s="22" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
     </row>
     <row r="198" customHeight="1" spans="4:11">
       <c r="D198" s="4" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="E198" s="1" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="F198" s="5" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G198" s="20" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="J198" s="21" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="K198" s="22" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
     </row>
     <row r="199" customHeight="1" spans="4:10">
       <c r="D199" s="4" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="E199" s="1" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="F199" s="5" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G199" s="20" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="J199" s="21" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="200" customHeight="1" spans="4:11">
       <c r="D200" s="4" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="E200" s="1" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="F200" s="5" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G200" s="20" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="J200" s="21" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K200" s="22">
         <v>12233</v>
@@ -12885,16 +12894,16 @@
     </row>
     <row r="201" customHeight="1" spans="4:10">
       <c r="D201" s="4" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="E201" s="1" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="G201" s="20" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="J201" s="21" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="202" customHeight="1" spans="1:10">
@@ -12902,192 +12911,192 @@
         <v>10</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="C202" s="1" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="D202" s="4" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="E202" s="1" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="F202" s="5" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G202" s="20" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="J202" s="21" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="203" customHeight="1" spans="4:10">
       <c r="D203" s="4" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="E203" s="1" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="F203" s="5" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G203" s="20" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="J203" s="21" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="204" customHeight="1" spans="4:10">
       <c r="D204" s="4" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="E204" s="1" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="F204" s="5" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G204" s="20" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="J204" s="21" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="205" customHeight="1" spans="4:10">
       <c r="D205" s="4" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="E205" s="1" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="F205" s="5" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G205" s="20" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="J205" s="21" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="206" customHeight="1" spans="4:10">
       <c r="D206" s="4" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="E206" s="1" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="F206" s="5" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G206" s="20" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="J206" s="21" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="207" customHeight="1" spans="3:10">
       <c r="C207" s="1" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="D207" s="4" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="E207" s="1" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="F207" s="5" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G207" s="20" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="J207" s="21" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="208" customHeight="1" spans="4:10">
       <c r="D208" s="4" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="E208" s="1" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="F208" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G208" s="20" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="J208" s="21" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="209" customHeight="1" spans="4:10">
       <c r="D209" s="4" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="E209" s="1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="F209" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G209" s="20" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="H209" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J209" s="21" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="210" customHeight="1" spans="4:10">
       <c r="D210" s="4" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="E210" s="1" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="F210" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G210" s="20" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="H210" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J210" s="21" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="211" customHeight="1" spans="4:10">
       <c r="D211" s="4" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="E211" s="1" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="G211" s="20" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="J211" s="21" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="212" customHeight="1" spans="3:7">
       <c r="C212" s="1" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="G212" s="20" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
     </row>
   </sheetData>
@@ -13156,12 +13165,12 @@
   <sheetPr/>
   <dimension ref="A1:XFD216"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="7" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G9" sqref="G9"/>
+      <selection pane="bottomRight" activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
@@ -13190,49 +13199,49 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H1" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I1" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J1" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K1" s="8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L1" s="8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M1" s="8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N1" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="O1" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="P1" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:7">
@@ -13240,50 +13249,50 @@
         <v>11</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="4:7">
       <c r="D3" s="4" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="4:16384">
       <c r="D4" s="4" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="Q4" s="14"/>
       <c r="R4" s="14"/>
@@ -29656,154 +29665,154 @@
     </row>
     <row r="5" customHeight="1" spans="4:7">
       <c r="D5" s="4" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="4:7">
       <c r="D6" s="4" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="4:7">
       <c r="D7" s="4" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="4:38">
       <c r="D8" s="4" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="AJ8" s="11" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="AK8" s="11" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AL8" s="11" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="4:7">
       <c r="D9" s="4" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="4:38">
       <c r="D10" s="4" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="AJ10" s="11" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK10" s="11" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AL10" s="11" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="4:37">
       <c r="D11" s="4" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="AJ11" s="11" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK11" s="11" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="4:7">
       <c r="D12" s="4" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="4:7">
       <c r="D13" s="4" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="4:7">
       <c r="D14" s="4" t="s">
-        <v>905</v>
+        <v>906</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="1:7">
@@ -29811,382 +29820,382 @@
         <v>12</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>908</v>
+        <v>909</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>910</v>
+        <v>911</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
     </row>
     <row r="16" customHeight="1" spans="4:7">
       <c r="D16" s="4" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>912</v>
+        <v>913</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="4:7">
       <c r="D17" s="4" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>915</v>
+        <v>916</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>916</v>
+        <v>917</v>
       </c>
     </row>
     <row r="18" customHeight="1" spans="4:7">
       <c r="D18" s="4" t="s">
-        <v>917</v>
+        <v>918</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>918</v>
+        <v>919</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>919</v>
+        <v>920</v>
       </c>
     </row>
     <row r="19" customHeight="1" spans="4:7">
       <c r="D19" s="4" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>921</v>
+        <v>922</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>922</v>
+        <v>923</v>
       </c>
     </row>
     <row r="20" customHeight="1" spans="4:7">
       <c r="D20" s="4" t="s">
-        <v>923</v>
+        <v>924</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>924</v>
+        <v>925</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>925</v>
+        <v>926</v>
       </c>
     </row>
     <row r="21" customHeight="1" spans="3:16">
       <c r="C21" s="12"/>
       <c r="D21" s="4" t="s">
+        <v>927</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>928</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="G21" s="6" t="s">
         <v>926</v>
       </c>
-      <c r="E21" s="1" t="s">
-        <v>927</v>
-      </c>
-      <c r="F21" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="G21" s="6" t="s">
-        <v>925</v>
-      </c>
       <c r="P21" s="10" t="s">
-        <v>928</v>
+        <v>929</v>
       </c>
     </row>
     <row r="22" customHeight="1" spans="4:7">
       <c r="D22" s="4" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>930</v>
+        <v>931</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G22" s="6" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
     </row>
     <row r="23" customHeight="1" spans="4:7">
       <c r="D23" s="4" t="s">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
     </row>
     <row r="24" customHeight="1" spans="4:7">
       <c r="D24" s="4" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G24" s="6" t="s">
-        <v>937</v>
+        <v>938</v>
       </c>
     </row>
     <row r="25" customHeight="1" spans="4:7">
       <c r="D25" s="4" t="s">
+        <v>939</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>940</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="G25" s="6" t="s">
         <v>938</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>939</v>
-      </c>
-      <c r="F25" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="G25" s="6" t="s">
-        <v>937</v>
       </c>
     </row>
     <row r="26" customHeight="1" spans="4:7">
       <c r="D26" s="4" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>941</v>
+        <v>942</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G26" s="6" t="s">
-        <v>942</v>
+        <v>943</v>
       </c>
     </row>
     <row r="27" customHeight="1" spans="4:7">
       <c r="D27" s="4" t="s">
-        <v>943</v>
+        <v>944</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>944</v>
+        <v>945</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="G27" s="6" t="s">
-        <v>937</v>
+        <v>938</v>
       </c>
     </row>
     <row r="28" customHeight="1" spans="3:7">
       <c r="C28" s="1" t="s">
-        <v>945</v>
+        <v>946</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>946</v>
+        <v>947</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="G28" s="6" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
     </row>
     <row r="29" customHeight="1" spans="4:7">
       <c r="D29" s="4" t="s">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>948</v>
+        <v>949</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G29" s="6" t="s">
-        <v>949</v>
+        <v>950</v>
       </c>
     </row>
     <row r="30" customHeight="1" spans="4:7">
       <c r="D30" s="4" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G30" s="6" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
     </row>
     <row r="31" customHeight="1" spans="4:7">
       <c r="D31" s="4" t="s">
-        <v>953</v>
+        <v>954</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>954</v>
+        <v>955</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G31" s="6" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
     </row>
     <row r="32" customHeight="1" spans="4:7">
       <c r="D32" s="4" t="s">
-        <v>956</v>
+        <v>957</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G32" s="6" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
     </row>
     <row r="33" customHeight="1" spans="4:16">
       <c r="D33" s="4" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="G33" s="6" t="s">
-        <v>961</v>
+        <v>962</v>
       </c>
       <c r="P33" s="10" t="s">
-        <v>962</v>
+        <v>963</v>
       </c>
     </row>
     <row r="34" customHeight="1" spans="4:16">
       <c r="D34" s="4" t="s">
+        <v>964</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>965</v>
+      </c>
+      <c r="F34" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="G34" s="6" t="s">
+        <v>962</v>
+      </c>
+      <c r="P34" s="10" t="s">
         <v>963</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>964</v>
-      </c>
-      <c r="F34" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="G34" s="6" t="s">
-        <v>961</v>
-      </c>
-      <c r="P34" s="10" t="s">
-        <v>962</v>
       </c>
     </row>
     <row r="35" customHeight="1" spans="4:16">
       <c r="D35" s="4" t="s">
-        <v>965</v>
+        <v>966</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>966</v>
+        <v>967</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="G35" s="6" t="s">
-        <v>967</v>
+        <v>968</v>
       </c>
       <c r="P35" s="10" t="s">
-        <v>962</v>
+        <v>963</v>
       </c>
     </row>
     <row r="36" customHeight="1" spans="4:7">
       <c r="D36" s="4" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>969</v>
+        <v>970</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G36" s="6" t="s">
-        <v>970</v>
+        <v>971</v>
       </c>
     </row>
     <row r="37" customHeight="1" spans="4:7">
       <c r="D37" s="4" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G37" s="6" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
     </row>
     <row r="38" customHeight="1" spans="4:7">
       <c r="D38" s="4" t="s">
+        <v>975</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>976</v>
+      </c>
+      <c r="F38" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="G38" s="6" t="s">
         <v>974</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>975</v>
-      </c>
-      <c r="F38" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="G38" s="6" t="s">
-        <v>973</v>
       </c>
     </row>
     <row r="39" customHeight="1" spans="4:7">
       <c r="D39" s="4" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G39" s="6" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
     </row>
     <row r="40" customHeight="1" spans="4:7">
       <c r="D40" s="4" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="G40" s="6" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
     </row>
     <row r="41" customHeight="1" spans="1:7">
@@ -30194,293 +30203,293 @@
         <v>13</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>982</v>
+        <v>983</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>984</v>
+        <v>985</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G41" s="6" t="s">
-        <v>985</v>
+        <v>986</v>
       </c>
     </row>
     <row r="42" customHeight="1" spans="4:7">
       <c r="D42" s="4" t="s">
-        <v>986</v>
+        <v>987</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>987</v>
+        <v>988</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G42" s="6" t="s">
-        <v>988</v>
+        <v>989</v>
       </c>
     </row>
     <row r="43" customHeight="1" spans="4:7">
       <c r="D43" s="4" t="s">
+        <v>990</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>991</v>
+      </c>
+      <c r="F43" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="G43" s="6" t="s">
         <v>989</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>990</v>
-      </c>
-      <c r="F43" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="G43" s="6" t="s">
-        <v>988</v>
       </c>
     </row>
     <row r="44" customHeight="1" spans="4:7">
       <c r="D44" s="4" t="s">
-        <v>991</v>
+        <v>992</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>992</v>
+        <v>993</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="G44" s="6" t="s">
-        <v>988</v>
+        <v>989</v>
       </c>
     </row>
     <row r="45" customHeight="1" spans="4:14">
       <c r="D45" s="4" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>994</v>
+        <v>995</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G45" s="6" t="s">
-        <v>995</v>
+        <v>996</v>
       </c>
       <c r="N45" s="13"/>
     </row>
     <row r="46" customHeight="1" spans="4:7">
       <c r="D46" s="4" t="s">
-        <v>996</v>
+        <v>997</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>997</v>
+        <v>998</v>
       </c>
       <c r="F46" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G46" s="6" t="s">
-        <v>998</v>
+        <v>999</v>
       </c>
     </row>
     <row r="47" customHeight="1" spans="4:14">
       <c r="D47" s="4" t="s">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G47" s="6" t="s">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="N47" s="13"/>
     </row>
     <row r="48" customHeight="1" spans="3:7">
       <c r="C48" s="1" t="s">
-        <v>1002</v>
+        <v>1003</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="F48" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G48" s="6" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="49" customHeight="1" spans="4:7">
       <c r="D49" s="4" t="s">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G49" s="6" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="50" customHeight="1" spans="4:7">
       <c r="D50" s="4" t="s">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>1008</v>
+        <v>1009</v>
       </c>
       <c r="F50" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G50" s="6" t="s">
-        <v>1009</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="51" customHeight="1" spans="4:7">
       <c r="D51" s="4" t="s">
-        <v>1010</v>
+        <v>1011</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>1011</v>
+        <v>1012</v>
       </c>
       <c r="F51" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G51" s="6" t="s">
-        <v>1012</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="52" customHeight="1" spans="4:7">
       <c r="D52" s="4" t="s">
-        <v>1013</v>
+        <v>1014</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="F52" s="5" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="G52" s="6" t="s">
-        <v>1015</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="53" customHeight="1" spans="4:7">
       <c r="D53" s="4" t="s">
-        <v>1016</v>
+        <v>1017</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>1017</v>
+        <v>1018</v>
       </c>
       <c r="F53" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G53" s="6" t="s">
-        <v>1018</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="54" customHeight="1" spans="4:7">
       <c r="D54" s="4" t="s">
-        <v>1019</v>
+        <v>1020</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>1020</v>
+        <v>1021</v>
       </c>
       <c r="F54" s="5" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G54" s="6" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="55" customHeight="1" spans="4:7">
       <c r="D55" s="4" t="s">
+        <v>1023</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>1024</v>
+      </c>
+      <c r="F55" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="G55" s="6" t="s">
         <v>1022</v>
-      </c>
-      <c r="E55" s="1" t="s">
-        <v>1023</v>
-      </c>
-      <c r="F55" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="G55" s="6" t="s">
-        <v>1021</v>
       </c>
     </row>
     <row r="56" customHeight="1" spans="4:7">
       <c r="D56" s="4" t="s">
-        <v>1024</v>
+        <v>1025</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>1025</v>
+        <v>1026</v>
       </c>
       <c r="F56" s="5" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="G56" s="6" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="57" customHeight="1" spans="4:7">
       <c r="D57" s="4" t="s">
-        <v>1026</v>
+        <v>1027</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="F57" s="5" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G57" s="6" t="s">
-        <v>1028</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="58" customHeight="1" spans="4:7">
       <c r="D58" s="4" t="s">
-        <v>1029</v>
+        <v>1030</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>1030</v>
+        <v>1031</v>
       </c>
       <c r="F58" s="5" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="G58" s="6" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="59" customHeight="1" spans="4:7">
       <c r="D59" s="4" t="s">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="F59" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G59" s="6" t="s">
-        <v>1034</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="60" customHeight="1" spans="4:7">
       <c r="D60" s="4" t="s">
-        <v>1035</v>
+        <v>1036</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>1036</v>
+        <v>1037</v>
       </c>
       <c r="F60" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G60" s="6" t="s">
-        <v>1037</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="94" s="1" customFormat="1" customHeight="1" spans="1:16">

--- a/biz/MC-MSC-Web/qxy接口定义文档2016-8-8/【千校云】接口列表.xlsx
+++ b/biz/MC-MSC-Web/qxy接口定义文档2016-8-8/【千校云】接口列表.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19095" windowHeight="10965" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19095" windowHeight="10965"/>
   </bookViews>
   <sheets>
     <sheet name="变更日志" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
     <definedName name="_a12">#REF!</definedName>
     <definedName name="_au１２">[1]目次!$C$39</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'业务接口（1-10）'!$A$1:$AL$212</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'业务接口（11-13)'!$A$1:$AL$218</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'业务接口（11-13)'!$A$1:$AL$220</definedName>
     <definedName name="_ｑ12" localSheetId="1">#REF!</definedName>
     <definedName name="_ｑ12" localSheetId="2">#REF!</definedName>
     <definedName name="_ｑ12">#REF!</definedName>
@@ -137,7 +137,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2092" uniqueCount="1051">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2102" uniqueCount="1060">
   <si>
     <t>序号</t>
   </si>
@@ -4120,6 +4120,43 @@
 4、德育班级评分班级搜索接口序号变更为12.1.3-1；
 5、新增德育班级评分年级班级搜索接口（12.1.3-2）；
 6、变更德育个人评分列表年级班级查询接口（12.2.2）url，新增gradeId、order参数，变更可选参数和必填参数项；</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>12.2.14</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>德育个人项目详情查询接口</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>GET</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>12.1.14</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>/qxy/moraleducation/class/info?mecItemId=[mecItemId]&amp;token=[token]</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>德育班级项目详情查询接口</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>/qxy/moraleducation/personal/info?mepItemId=[mepItemId]&amp;token=[token]</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、新增德育班级项目详情查询接口（12.1.14）；
+2、新增德育个人项目详情查询接口（12.2.14）；</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>luodibashi</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
 </sst>
@@ -4651,7 +4688,211 @@
     <cellStyle name="常规 2" xfId="1"/>
     <cellStyle name="超链接" xfId="2" builtinId="8"/>
   </cellStyles>
-  <dxfs count="43">
+  <dxfs count="55">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -5000,74 +5241,6 @@
       <fill>
         <patternFill patternType="solid">
           <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
         </patternFill>
       </fill>
     </dxf>
@@ -5697,8 +5870,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:F42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -5846,14 +6019,20 @@
       </c>
       <c r="F9" s="55"/>
     </row>
-    <row r="10" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="47">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="C10" s="49"/>
-      <c r="D10" s="49"/>
-      <c r="E10" s="54"/>
+      <c r="C10" s="48">
+        <v>42640</v>
+      </c>
+      <c r="D10" s="49" t="s">
+        <v>1059</v>
+      </c>
+      <c r="E10" s="54" t="s">
+        <v>1058</v>
+      </c>
       <c r="F10" s="55"/>
     </row>
     <row r="11" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -12925,29 +13104,29 @@
   <autoFilter ref="A1:AL212"/>
   <phoneticPr fontId="13" type="noConversion"/>
   <conditionalFormatting sqref="J1:J1048576">
-    <cfRule type="cellIs" dxfId="30" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="1" stopIfTrue="1" operator="equal">
       <formula>$J$34</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="29" priority="2" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="2" stopIfTrue="1" operator="equal">
       <formula>$J$26</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="3" stopIfTrue="1" operator="equal">
       <formula>$J$23</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J1:J43 J211:J1048576 J163:J170 J45:J161 J186:J208 J180:J184 J172:J176">
-    <cfRule type="cellIs" dxfId="27" priority="4" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="4" stopIfTrue="1" operator="equal">
       <formula>"正常返回"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="5" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="5" stopIfTrue="1" operator="equal">
       <formula>"待测试"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="6" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="6" stopIfTrue="1" operator="equal">
       <formula>"需要处理"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J27:J28">
-    <cfRule type="cellIs" dxfId="24" priority="7" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="7" stopIfTrue="1" operator="equal">
       <formula>"url参数变更，待处理测试"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12984,13 +13163,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:XFD219"/>
+  <dimension ref="A1:XFD221"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="7" ySplit="1" topLeftCell="H17" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D21" sqref="D21"/>
+      <selection pane="bottomRight" activeCell="E47" sqref="E47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -29853,109 +30032,106 @@
       </c>
     </row>
     <row r="30" spans="3:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C30" s="1" t="s">
+      <c r="D30" s="4" t="s">
+        <v>1054</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>1056</v>
+      </c>
+      <c r="F30" s="5" t="s">
+        <v>1053</v>
+      </c>
+      <c r="G30" s="6" t="s">
+        <v>1055</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C31" s="1" t="s">
         <v>936</v>
       </c>
-      <c r="D30" s="4" t="s">
+      <c r="D31" s="4" t="s">
         <v>1045</v>
       </c>
-      <c r="E30" s="1" t="s">
+      <c r="E31" s="1" t="s">
         <v>1027</v>
       </c>
-      <c r="G30" s="6" t="s">
+      <c r="G31" s="6" t="s">
         <v>1035</v>
-      </c>
-    </row>
-    <row r="31" spans="3:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D31" s="4" t="s">
-        <v>1034</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>1029</v>
-      </c>
-      <c r="G31" s="6" t="s">
-        <v>1036</v>
       </c>
     </row>
     <row r="32" spans="3:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D32" s="4" t="s">
-        <v>1049</v>
+        <v>1034</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>1037</v>
-      </c>
-      <c r="F32" s="5" t="s">
-        <v>32</v>
+        <v>1029</v>
       </c>
       <c r="G32" s="6" t="s">
-        <v>1039</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="33" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D33" s="4" t="s">
-        <v>1038</v>
+        <v>1049</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>937</v>
+        <v>1037</v>
       </c>
       <c r="F33" s="5" t="s">
         <v>32</v>
       </c>
       <c r="G33" s="6" t="s">
-        <v>938</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="34" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D34" s="4" t="s">
-        <v>939</v>
+        <v>1038</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>940</v>
+        <v>937</v>
       </c>
       <c r="F34" s="5" t="s">
         <v>32</v>
       </c>
       <c r="G34" s="6" t="s">
-        <v>941</v>
+        <v>938</v>
       </c>
     </row>
     <row r="35" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D35" s="4" t="s">
-        <v>942</v>
+        <v>939</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>943</v>
+        <v>940</v>
       </c>
       <c r="F35" s="5" t="s">
         <v>32</v>
       </c>
       <c r="G35" s="6" t="s">
-        <v>944</v>
+        <v>941</v>
       </c>
     </row>
     <row r="36" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D36" s="4" t="s">
-        <v>945</v>
+        <v>942</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>946</v>
+        <v>943</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>128</v>
+        <v>32</v>
       </c>
       <c r="G36" s="6" t="s">
-        <v>947</v>
-      </c>
-      <c r="P36" s="10" t="s">
-        <v>948</v>
+        <v>944</v>
       </c>
     </row>
     <row r="37" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D37" s="4" t="s">
-        <v>949</v>
+        <v>945</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>950</v>
+        <v>946</v>
       </c>
       <c r="F37" s="5" t="s">
         <v>128</v>
@@ -29969,16 +30145,16 @@
     </row>
     <row r="38" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D38" s="4" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
       <c r="F38" s="5" t="s">
         <v>128</v>
       </c>
       <c r="G38" s="6" t="s">
-        <v>953</v>
+        <v>947</v>
       </c>
       <c r="P38" s="10" t="s">
         <v>948</v>
@@ -29986,41 +30162,44 @@
     </row>
     <row r="39" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D39" s="4" t="s">
-        <v>954</v>
+        <v>951</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>955</v>
+        <v>952</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>32</v>
+        <v>128</v>
       </c>
       <c r="G39" s="6" t="s">
-        <v>956</v>
+        <v>953</v>
+      </c>
+      <c r="P39" s="10" t="s">
+        <v>948</v>
       </c>
     </row>
     <row r="40" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D40" s="4" t="s">
-        <v>957</v>
+        <v>954</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>958</v>
+        <v>955</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>108</v>
+        <v>32</v>
       </c>
       <c r="G40" s="6" t="s">
-        <v>959</v>
+        <v>956</v>
       </c>
     </row>
     <row r="41" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D41" s="4" t="s">
-        <v>960</v>
+        <v>957</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>961</v>
+        <v>958</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="G41" s="6" t="s">
         <v>959</v>
@@ -30028,92 +30207,92 @@
     </row>
     <row r="42" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D42" s="4" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="F42" s="5" t="s">
         <v>112</v>
       </c>
       <c r="G42" s="6" t="s">
-        <v>964</v>
+        <v>959</v>
       </c>
     </row>
     <row r="43" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D43" s="4" t="s">
+        <v>962</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>963</v>
+      </c>
+      <c r="F43" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="G43" s="6" t="s">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D44" s="4" t="s">
         <v>965</v>
       </c>
-      <c r="E43" s="1" t="s">
+      <c r="E44" s="1" t="s">
         <v>966</v>
       </c>
-      <c r="F43" s="5" t="s">
+      <c r="F44" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="G43" s="6" t="s">
+      <c r="G44" s="6" t="s">
         <v>959</v>
-      </c>
-    </row>
-    <row r="44" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="3">
-        <v>13</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>967</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>968</v>
-      </c>
-      <c r="D44" s="4" t="s">
-        <v>969</v>
-      </c>
-      <c r="E44" s="1" t="s">
-        <v>970</v>
-      </c>
-      <c r="F44" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="G44" s="6" t="s">
-        <v>971</v>
       </c>
     </row>
     <row r="45" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D45" s="4" t="s">
-        <v>972</v>
+        <v>1051</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>973</v>
+        <v>1052</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>108</v>
+        <v>1053</v>
       </c>
       <c r="G45" s="6" t="s">
-        <v>974</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="46" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A46" s="3">
+        <v>13</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>967</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>968</v>
+      </c>
       <c r="D46" s="4" t="s">
-        <v>975</v>
+        <v>969</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>976</v>
+        <v>970</v>
       </c>
       <c r="F46" s="5" t="s">
-        <v>112</v>
+        <v>32</v>
       </c>
       <c r="G46" s="6" t="s">
-        <v>974</v>
+        <v>971</v>
       </c>
     </row>
     <row r="47" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D47" s="4" t="s">
-        <v>977</v>
+        <v>972</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>978</v>
+        <v>973</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>128</v>
+        <v>108</v>
       </c>
       <c r="G47" s="6" t="s">
         <v>974</v>
@@ -30121,172 +30300,172 @@
     </row>
     <row r="48" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D48" s="4" t="s">
-        <v>979</v>
+        <v>975</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>980</v>
+        <v>976</v>
       </c>
       <c r="F48" s="5" t="s">
-        <v>32</v>
+        <v>112</v>
       </c>
       <c r="G48" s="6" t="s">
-        <v>981</v>
-      </c>
-      <c r="N48" s="13"/>
+        <v>974</v>
+      </c>
     </row>
     <row r="49" spans="3:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D49" s="4" t="s">
-        <v>982</v>
+        <v>977</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>983</v>
+        <v>978</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>32</v>
+        <v>128</v>
       </c>
       <c r="G49" s="6" t="s">
-        <v>984</v>
+        <v>974</v>
       </c>
     </row>
     <row r="50" spans="3:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D50" s="4" t="s">
-        <v>985</v>
+        <v>979</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>986</v>
+        <v>980</v>
       </c>
       <c r="F50" s="5" t="s">
         <v>32</v>
       </c>
       <c r="G50" s="6" t="s">
-        <v>987</v>
+        <v>981</v>
       </c>
       <c r="N50" s="13"/>
     </row>
     <row r="51" spans="3:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C51" s="1" t="s">
-        <v>988</v>
-      </c>
       <c r="D51" s="4" t="s">
-        <v>989</v>
+        <v>982</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>290</v>
+        <v>983</v>
       </c>
       <c r="F51" s="5" t="s">
         <v>32</v>
       </c>
       <c r="G51" s="6" t="s">
-        <v>990</v>
+        <v>984</v>
       </c>
     </row>
     <row r="52" spans="3:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D52" s="4" t="s">
-        <v>991</v>
+        <v>985</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>295</v>
+        <v>986</v>
       </c>
       <c r="F52" s="5" t="s">
         <v>32</v>
       </c>
       <c r="G52" s="6" t="s">
-        <v>992</v>
-      </c>
+        <v>987</v>
+      </c>
+      <c r="N52" s="13"/>
     </row>
     <row r="53" spans="3:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C53" s="1" t="s">
+        <v>988</v>
+      </c>
       <c r="D53" s="4" t="s">
-        <v>993</v>
+        <v>989</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>994</v>
+        <v>290</v>
       </c>
       <c r="F53" s="5" t="s">
         <v>32</v>
       </c>
       <c r="G53" s="6" t="s">
-        <v>995</v>
+        <v>990</v>
       </c>
     </row>
     <row r="54" spans="3:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D54" s="4" t="s">
-        <v>996</v>
+        <v>991</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>997</v>
+        <v>295</v>
       </c>
       <c r="F54" s="5" t="s">
         <v>32</v>
       </c>
       <c r="G54" s="6" t="s">
-        <v>998</v>
+        <v>992</v>
       </c>
     </row>
     <row r="55" spans="3:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D55" s="4" t="s">
-        <v>999</v>
+        <v>993</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>1000</v>
+        <v>994</v>
       </c>
       <c r="F55" s="5" t="s">
-        <v>128</v>
+        <v>32</v>
       </c>
       <c r="G55" s="6" t="s">
-        <v>1001</v>
+        <v>995</v>
       </c>
     </row>
     <row r="56" spans="3:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D56" s="4" t="s">
-        <v>1002</v>
+        <v>996</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>1003</v>
+        <v>997</v>
       </c>
       <c r="F56" s="5" t="s">
         <v>32</v>
       </c>
       <c r="G56" s="6" t="s">
-        <v>1004</v>
+        <v>998</v>
       </c>
     </row>
     <row r="57" spans="3:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D57" s="4" t="s">
-        <v>1005</v>
+        <v>999</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>1006</v>
+        <v>1000</v>
       </c>
       <c r="F57" s="5" t="s">
-        <v>108</v>
+        <v>128</v>
       </c>
       <c r="G57" s="6" t="s">
-        <v>1007</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="58" spans="3:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D58" s="4" t="s">
-        <v>1008</v>
+        <v>1002</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>1009</v>
+        <v>1003</v>
       </c>
       <c r="F58" s="5" t="s">
-        <v>112</v>
+        <v>32</v>
       </c>
       <c r="G58" s="6" t="s">
-        <v>1007</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="59" spans="3:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D59" s="4" t="s">
-        <v>1010</v>
+        <v>1005</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>1011</v>
+        <v>1006</v>
       </c>
       <c r="F59" s="5" t="s">
-        <v>128</v>
+        <v>108</v>
       </c>
       <c r="G59" s="6" t="s">
         <v>1007</v>
@@ -30294,95 +30473,91 @@
     </row>
     <row r="60" spans="3:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D60" s="4" t="s">
-        <v>1012</v>
+        <v>1008</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>1013</v>
+        <v>1009</v>
       </c>
       <c r="F60" s="5" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="G60" s="6" t="s">
-        <v>1014</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="61" spans="3:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D61" s="4" t="s">
-        <v>1015</v>
+        <v>1010</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>1016</v>
+        <v>1011</v>
       </c>
       <c r="F61" s="5" t="s">
         <v>128</v>
       </c>
       <c r="G61" s="6" t="s">
-        <v>1017</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="62" spans="3:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D62" s="4" t="s">
-        <v>1018</v>
+        <v>1012</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>1019</v>
+        <v>1013</v>
       </c>
       <c r="F62" s="5" t="s">
-        <v>32</v>
+        <v>108</v>
       </c>
       <c r="G62" s="6" t="s">
-        <v>1020</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="63" spans="3:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D63" s="4" t="s">
+        <v>1015</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>1016</v>
+      </c>
+      <c r="F63" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="G63" s="6" t="s">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="64" spans="3:14" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D64" s="4" t="s">
+        <v>1018</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>1019</v>
+      </c>
+      <c r="F64" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G64" s="6" t="s">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="65" spans="4:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D65" s="4" t="s">
         <v>1021</v>
       </c>
-      <c r="E63" s="1" t="s">
+      <c r="E65" s="1" t="s">
         <v>1022</v>
       </c>
-      <c r="F63" s="5" t="s">
+      <c r="F65" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="G63" s="6" t="s">
+      <c r="G65" s="6" t="s">
         <v>1023</v>
       </c>
-    </row>
-    <row r="97" spans="1:16" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A97" s="3"/>
-      <c r="D97" s="4"/>
-      <c r="F97" s="5"/>
-      <c r="G97" s="6"/>
-      <c r="H97" s="7"/>
-      <c r="I97" s="7"/>
-      <c r="J97" s="7"/>
-      <c r="K97" s="8"/>
-      <c r="L97" s="8"/>
-      <c r="M97" s="8"/>
-      <c r="N97" s="7"/>
-      <c r="O97" s="9"/>
-      <c r="P97" s="10"/>
-    </row>
-    <row r="98" spans="1:16" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A98" s="3"/>
-      <c r="D98" s="4"/>
-      <c r="E98" s="15"/>
-      <c r="F98" s="5"/>
-      <c r="G98" s="6"/>
-      <c r="H98" s="7"/>
-      <c r="I98" s="7"/>
-      <c r="J98" s="7"/>
-      <c r="K98" s="8"/>
-      <c r="L98" s="8"/>
-      <c r="M98" s="8"/>
-      <c r="N98" s="7"/>
-      <c r="O98" s="9"/>
-      <c r="P98" s="10"/>
     </row>
     <row r="99" spans="1:16" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A99" s="3"/>
       <c r="D99" s="4"/>
-      <c r="E99" s="15"/>
       <c r="F99" s="5"/>
       <c r="G99" s="6"/>
       <c r="H99" s="7"/>
@@ -30398,6 +30573,7 @@
     <row r="100" spans="1:16" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A100" s="3"/>
       <c r="D100" s="4"/>
+      <c r="E100" s="15"/>
       <c r="F100" s="5"/>
       <c r="G100" s="6"/>
       <c r="H100" s="7"/>
@@ -30410,12 +30586,10 @@
       <c r="O100" s="9"/>
       <c r="P100" s="10"/>
     </row>
-    <row r="101" spans="1:16" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:16" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A101" s="3"/>
-      <c r="B101" s="1"/>
-      <c r="C101" s="1"/>
       <c r="D101" s="4"/>
-      <c r="E101" s="1"/>
+      <c r="E101" s="15"/>
       <c r="F101" s="5"/>
       <c r="G101" s="6"/>
       <c r="H101" s="7"/>
@@ -30428,12 +30602,9 @@
       <c r="O101" s="9"/>
       <c r="P101" s="10"/>
     </row>
-    <row r="102" spans="1:16" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:16" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A102" s="3"/>
-      <c r="B102" s="1"/>
-      <c r="C102" s="1"/>
       <c r="D102" s="4"/>
-      <c r="E102" s="1"/>
       <c r="F102" s="5"/>
       <c r="G102" s="6"/>
       <c r="H102" s="7"/>
@@ -30901,7 +31072,7 @@
       <c r="B128" s="1"/>
       <c r="C128" s="1"/>
       <c r="D128" s="4"/>
-      <c r="E128" s="16"/>
+      <c r="E128" s="1"/>
       <c r="F128" s="5"/>
       <c r="G128" s="6"/>
       <c r="H128" s="7"/>
@@ -30937,7 +31108,7 @@
       <c r="B130" s="1"/>
       <c r="C130" s="1"/>
       <c r="D130" s="4"/>
-      <c r="E130" s="1"/>
+      <c r="E130" s="16"/>
       <c r="F130" s="5"/>
       <c r="G130" s="6"/>
       <c r="H130" s="7"/>
@@ -31009,7 +31180,7 @@
       <c r="B134" s="1"/>
       <c r="C134" s="1"/>
       <c r="D134" s="4"/>
-      <c r="E134" s="16"/>
+      <c r="E134" s="1"/>
       <c r="F134" s="5"/>
       <c r="G134" s="6"/>
       <c r="H134" s="7"/>
@@ -31027,7 +31198,7 @@
       <c r="B135" s="1"/>
       <c r="C135" s="1"/>
       <c r="D135" s="4"/>
-      <c r="E135" s="16"/>
+      <c r="E135" s="1"/>
       <c r="F135" s="5"/>
       <c r="G135" s="6"/>
       <c r="H135" s="7"/>
@@ -31040,8 +31211,10 @@
       <c r="O135" s="9"/>
       <c r="P135" s="10"/>
     </row>
-    <row r="136" spans="1:16" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:16" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A136" s="3"/>
+      <c r="B136" s="1"/>
+      <c r="C136" s="1"/>
       <c r="D136" s="4"/>
       <c r="E136" s="16"/>
       <c r="F136" s="5"/>
@@ -31056,9 +31229,12 @@
       <c r="O136" s="9"/>
       <c r="P136" s="10"/>
     </row>
-    <row r="137" spans="1:16" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="137" spans="1:16" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A137" s="3"/>
+      <c r="B137" s="1"/>
+      <c r="C137" s="1"/>
       <c r="D137" s="4"/>
+      <c r="E137" s="16"/>
       <c r="F137" s="5"/>
       <c r="G137" s="6"/>
       <c r="H137" s="7"/>
@@ -31074,6 +31250,7 @@
     <row r="138" spans="1:16" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A138" s="3"/>
       <c r="D138" s="4"/>
+      <c r="E138" s="16"/>
       <c r="F138" s="5"/>
       <c r="G138" s="6"/>
       <c r="H138" s="7"/>
@@ -31170,13 +31347,13 @@
       <c r="I144" s="7"/>
       <c r="J144" s="7"/>
       <c r="K144" s="8"/>
-      <c r="L144" s="17"/>
-      <c r="M144" s="18"/>
+      <c r="L144" s="8"/>
+      <c r="M144" s="8"/>
       <c r="N144" s="7"/>
       <c r="O144" s="9"/>
       <c r="P144" s="10"/>
     </row>
-    <row r="145" spans="1:16" s="1" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="145" spans="1:16" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A145" s="3"/>
       <c r="D145" s="4"/>
       <c r="F145" s="5"/>
@@ -31184,14 +31361,14 @@
       <c r="H145" s="7"/>
       <c r="I145" s="7"/>
       <c r="J145" s="7"/>
-      <c r="K145" s="13"/>
-      <c r="L145" s="13"/>
-      <c r="M145" s="13"/>
+      <c r="K145" s="8"/>
+      <c r="L145" s="8"/>
+      <c r="M145" s="8"/>
       <c r="N145" s="7"/>
       <c r="O145" s="9"/>
       <c r="P145" s="10"/>
     </row>
-    <row r="146" spans="1:16" s="1" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="146" spans="1:16" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A146" s="3"/>
       <c r="D146" s="4"/>
       <c r="F146" s="5"/>
@@ -31200,13 +31377,13 @@
       <c r="I146" s="7"/>
       <c r="J146" s="7"/>
       <c r="K146" s="8"/>
-      <c r="L146" s="8"/>
-      <c r="M146" s="8"/>
+      <c r="L146" s="17"/>
+      <c r="M146" s="18"/>
       <c r="N146" s="7"/>
       <c r="O146" s="9"/>
       <c r="P146" s="10"/>
     </row>
-    <row r="147" spans="1:16" s="1" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="147" spans="1:16" s="1" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A147" s="3"/>
       <c r="D147" s="4"/>
       <c r="F147" s="5"/>
@@ -31214,14 +31391,14 @@
       <c r="H147" s="7"/>
       <c r="I147" s="7"/>
       <c r="J147" s="7"/>
-      <c r="K147" s="8"/>
-      <c r="L147" s="8"/>
-      <c r="M147" s="8"/>
+      <c r="K147" s="13"/>
+      <c r="L147" s="13"/>
+      <c r="M147" s="13"/>
       <c r="N147" s="7"/>
       <c r="O147" s="9"/>
       <c r="P147" s="10"/>
     </row>
-    <row r="148" spans="1:16" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="148" spans="1:16" s="1" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A148" s="3"/>
       <c r="D148" s="4"/>
       <c r="F148" s="5"/>
@@ -31231,12 +31408,12 @@
       <c r="J148" s="7"/>
       <c r="K148" s="8"/>
       <c r="L148" s="8"/>
-      <c r="M148" s="18"/>
+      <c r="M148" s="8"/>
       <c r="N148" s="7"/>
       <c r="O148" s="9"/>
       <c r="P148" s="10"/>
     </row>
-    <row r="149" spans="1:16" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="149" spans="1:16" s="1" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A149" s="3"/>
       <c r="D149" s="4"/>
       <c r="F149" s="5"/>
@@ -31245,18 +31422,15 @@
       <c r="I149" s="7"/>
       <c r="J149" s="7"/>
       <c r="K149" s="8"/>
-      <c r="L149" s="17"/>
-      <c r="M149" s="18"/>
+      <c r="L149" s="8"/>
+      <c r="M149" s="8"/>
       <c r="N149" s="7"/>
       <c r="O149" s="9"/>
       <c r="P149" s="10"/>
     </row>
-    <row r="150" spans="1:16" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="150" spans="1:16" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A150" s="3"/>
-      <c r="B150" s="1"/>
-      <c r="C150" s="1"/>
       <c r="D150" s="4"/>
-      <c r="E150" s="1"/>
       <c r="F150" s="5"/>
       <c r="G150" s="6"/>
       <c r="H150" s="7"/>
@@ -31264,25 +31438,22 @@
       <c r="J150" s="7"/>
       <c r="K150" s="8"/>
       <c r="L150" s="8"/>
-      <c r="M150" s="8"/>
+      <c r="M150" s="18"/>
       <c r="N150" s="7"/>
       <c r="O150" s="9"/>
       <c r="P150" s="10"/>
     </row>
-    <row r="151" spans="1:16" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="151" spans="1:16" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A151" s="3"/>
-      <c r="B151" s="1"/>
-      <c r="C151" s="1"/>
       <c r="D151" s="4"/>
-      <c r="E151" s="1"/>
       <c r="F151" s="5"/>
       <c r="G151" s="6"/>
       <c r="H151" s="7"/>
       <c r="I151" s="7"/>
       <c r="J151" s="7"/>
       <c r="K151" s="8"/>
-      <c r="L151" s="8"/>
-      <c r="M151" s="8"/>
+      <c r="L151" s="17"/>
+      <c r="M151" s="18"/>
       <c r="N151" s="7"/>
       <c r="O151" s="9"/>
       <c r="P151" s="10"/>
@@ -31508,7 +31679,7 @@
       <c r="B164" s="1"/>
       <c r="C164" s="1"/>
       <c r="D164" s="4"/>
-      <c r="E164" s="15"/>
+      <c r="E164" s="1"/>
       <c r="F164" s="5"/>
       <c r="G164" s="6"/>
       <c r="H164" s="7"/>
@@ -31526,7 +31697,7 @@
       <c r="B165" s="1"/>
       <c r="C165" s="1"/>
       <c r="D165" s="4"/>
-      <c r="E165" s="15"/>
+      <c r="E165" s="1"/>
       <c r="F165" s="5"/>
       <c r="G165" s="6"/>
       <c r="H165" s="7"/>
@@ -31544,7 +31715,7 @@
       <c r="B166" s="1"/>
       <c r="C166" s="1"/>
       <c r="D166" s="4"/>
-      <c r="E166" s="1"/>
+      <c r="E166" s="15"/>
       <c r="F166" s="5"/>
       <c r="G166" s="6"/>
       <c r="H166" s="7"/>
@@ -31562,7 +31733,7 @@
       <c r="B167" s="1"/>
       <c r="C167" s="1"/>
       <c r="D167" s="4"/>
-      <c r="E167" s="1"/>
+      <c r="E167" s="15"/>
       <c r="F167" s="5"/>
       <c r="G167" s="6"/>
       <c r="H167" s="7"/>
@@ -31652,7 +31823,7 @@
       <c r="B172" s="1"/>
       <c r="C172" s="1"/>
       <c r="D172" s="4"/>
-      <c r="E172" s="15"/>
+      <c r="E172" s="1"/>
       <c r="F172" s="5"/>
       <c r="G172" s="6"/>
       <c r="H172" s="7"/>
@@ -31670,7 +31841,7 @@
       <c r="B173" s="1"/>
       <c r="C173" s="1"/>
       <c r="D173" s="4"/>
-      <c r="E173" s="15"/>
+      <c r="E173" s="1"/>
       <c r="F173" s="5"/>
       <c r="G173" s="6"/>
       <c r="H173" s="7"/>
@@ -31688,7 +31859,7 @@
       <c r="B174" s="1"/>
       <c r="C174" s="1"/>
       <c r="D174" s="4"/>
-      <c r="E174" s="1"/>
+      <c r="E174" s="15"/>
       <c r="F174" s="5"/>
       <c r="G174" s="6"/>
       <c r="H174" s="7"/>
@@ -31706,7 +31877,7 @@
       <c r="B175" s="1"/>
       <c r="C175" s="1"/>
       <c r="D175" s="4"/>
-      <c r="E175" s="1"/>
+      <c r="E175" s="15"/>
       <c r="F175" s="5"/>
       <c r="G175" s="6"/>
       <c r="H175" s="7"/>
@@ -31742,7 +31913,7 @@
       <c r="B177" s="1"/>
       <c r="C177" s="1"/>
       <c r="D177" s="4"/>
-      <c r="E177" s="15"/>
+      <c r="E177" s="1"/>
       <c r="F177" s="5"/>
       <c r="G177" s="6"/>
       <c r="H177" s="7"/>
@@ -31760,7 +31931,7 @@
       <c r="B178" s="1"/>
       <c r="C178" s="1"/>
       <c r="D178" s="4"/>
-      <c r="E178" s="15"/>
+      <c r="E178" s="1"/>
       <c r="F178" s="5"/>
       <c r="G178" s="6"/>
       <c r="H178" s="7"/>
@@ -31778,7 +31949,7 @@
       <c r="B179" s="1"/>
       <c r="C179" s="1"/>
       <c r="D179" s="4"/>
-      <c r="E179" s="1"/>
+      <c r="E179" s="15"/>
       <c r="F179" s="5"/>
       <c r="G179" s="6"/>
       <c r="H179" s="7"/>
@@ -31796,15 +31967,15 @@
       <c r="B180" s="1"/>
       <c r="C180" s="1"/>
       <c r="D180" s="4"/>
-      <c r="E180" s="1"/>
+      <c r="E180" s="15"/>
       <c r="F180" s="5"/>
       <c r="G180" s="6"/>
       <c r="H180" s="7"/>
       <c r="I180" s="7"/>
       <c r="J180" s="7"/>
       <c r="K180" s="8"/>
-      <c r="L180" s="17"/>
-      <c r="M180" s="18"/>
+      <c r="L180" s="8"/>
+      <c r="M180" s="8"/>
       <c r="N180" s="7"/>
       <c r="O180" s="9"/>
       <c r="P180" s="10"/>
@@ -31820,9 +31991,9 @@
       <c r="H181" s="7"/>
       <c r="I181" s="7"/>
       <c r="J181" s="7"/>
-      <c r="K181" s="18"/>
-      <c r="L181" s="18"/>
-      <c r="M181" s="18"/>
+      <c r="K181" s="8"/>
+      <c r="L181" s="8"/>
+      <c r="M181" s="8"/>
       <c r="N181" s="7"/>
       <c r="O181" s="9"/>
       <c r="P181" s="10"/>
@@ -31839,7 +32010,7 @@
       <c r="I182" s="7"/>
       <c r="J182" s="7"/>
       <c r="K182" s="8"/>
-      <c r="L182" s="8"/>
+      <c r="L182" s="17"/>
       <c r="M182" s="18"/>
       <c r="N182" s="7"/>
       <c r="O182" s="9"/>
@@ -31856,8 +32027,8 @@
       <c r="H183" s="7"/>
       <c r="I183" s="7"/>
       <c r="J183" s="7"/>
-      <c r="K183" s="8"/>
-      <c r="L183" s="8"/>
+      <c r="K183" s="18"/>
+      <c r="L183" s="18"/>
       <c r="M183" s="18"/>
       <c r="N183" s="7"/>
       <c r="O183" s="9"/>
@@ -31874,8 +32045,8 @@
       <c r="H184" s="7"/>
       <c r="I184" s="7"/>
       <c r="J184" s="7"/>
-      <c r="K184" s="17"/>
-      <c r="L184" s="17"/>
+      <c r="K184" s="8"/>
+      <c r="L184" s="8"/>
       <c r="M184" s="18"/>
       <c r="N184" s="7"/>
       <c r="O184" s="9"/>
@@ -31892,9 +32063,9 @@
       <c r="H185" s="7"/>
       <c r="I185" s="7"/>
       <c r="J185" s="7"/>
-      <c r="K185" s="17"/>
-      <c r="L185" s="17"/>
-      <c r="M185" s="7"/>
+      <c r="K185" s="8"/>
+      <c r="L185" s="8"/>
+      <c r="M185" s="18"/>
       <c r="N185" s="7"/>
       <c r="O185" s="9"/>
       <c r="P185" s="10"/>
@@ -31912,7 +32083,7 @@
       <c r="J186" s="7"/>
       <c r="K186" s="17"/>
       <c r="L186" s="17"/>
-      <c r="M186" s="7"/>
+      <c r="M186" s="18"/>
       <c r="N186" s="7"/>
       <c r="O186" s="9"/>
       <c r="P186" s="10"/>
@@ -31928,8 +32099,8 @@
       <c r="H187" s="7"/>
       <c r="I187" s="7"/>
       <c r="J187" s="7"/>
-      <c r="K187" s="7"/>
-      <c r="L187" s="7"/>
+      <c r="K187" s="17"/>
+      <c r="L187" s="17"/>
       <c r="M187" s="7"/>
       <c r="N187" s="7"/>
       <c r="O187" s="9"/>
@@ -31946,9 +32117,9 @@
       <c r="H188" s="7"/>
       <c r="I188" s="7"/>
       <c r="J188" s="7"/>
-      <c r="K188" s="8"/>
-      <c r="L188" s="8"/>
-      <c r="M188" s="8"/>
+      <c r="K188" s="17"/>
+      <c r="L188" s="17"/>
+      <c r="M188" s="7"/>
       <c r="N188" s="7"/>
       <c r="O188" s="9"/>
       <c r="P188" s="10"/>
@@ -31964,9 +32135,9 @@
       <c r="H189" s="7"/>
       <c r="I189" s="7"/>
       <c r="J189" s="7"/>
-      <c r="K189" s="8"/>
-      <c r="L189" s="8"/>
-      <c r="M189" s="8"/>
+      <c r="K189" s="7"/>
+      <c r="L189" s="7"/>
+      <c r="M189" s="7"/>
       <c r="N189" s="7"/>
       <c r="O189" s="9"/>
       <c r="P189" s="10"/>
@@ -32000,9 +32171,9 @@
       <c r="H191" s="7"/>
       <c r="I191" s="7"/>
       <c r="J191" s="7"/>
-      <c r="K191" s="17"/>
-      <c r="L191" s="17"/>
-      <c r="M191" s="18"/>
+      <c r="K191" s="8"/>
+      <c r="L191" s="8"/>
+      <c r="M191" s="8"/>
       <c r="N191" s="7"/>
       <c r="O191" s="9"/>
       <c r="P191" s="10"/>
@@ -32018,9 +32189,9 @@
       <c r="H192" s="7"/>
       <c r="I192" s="7"/>
       <c r="J192" s="7"/>
-      <c r="K192" s="17"/>
-      <c r="L192" s="17"/>
-      <c r="M192" s="18"/>
+      <c r="K192" s="8"/>
+      <c r="L192" s="8"/>
+      <c r="M192" s="8"/>
       <c r="N192" s="7"/>
       <c r="O192" s="9"/>
       <c r="P192" s="10"/>
@@ -32036,9 +32207,9 @@
       <c r="H193" s="7"/>
       <c r="I193" s="7"/>
       <c r="J193" s="7"/>
-      <c r="K193" s="7"/>
-      <c r="L193" s="7"/>
-      <c r="M193" s="7"/>
+      <c r="K193" s="17"/>
+      <c r="L193" s="17"/>
+      <c r="M193" s="18"/>
       <c r="N193" s="7"/>
       <c r="O193" s="9"/>
       <c r="P193" s="10"/>
@@ -32054,9 +32225,9 @@
       <c r="H194" s="7"/>
       <c r="I194" s="7"/>
       <c r="J194" s="7"/>
-      <c r="K194" s="8"/>
-      <c r="L194" s="8"/>
-      <c r="M194" s="8"/>
+      <c r="K194" s="17"/>
+      <c r="L194" s="17"/>
+      <c r="M194" s="18"/>
       <c r="N194" s="7"/>
       <c r="O194" s="9"/>
       <c r="P194" s="10"/>
@@ -32072,9 +32243,9 @@
       <c r="H195" s="7"/>
       <c r="I195" s="7"/>
       <c r="J195" s="7"/>
-      <c r="K195" s="8"/>
-      <c r="L195" s="8"/>
-      <c r="M195" s="8"/>
+      <c r="K195" s="7"/>
+      <c r="L195" s="7"/>
+      <c r="M195" s="7"/>
       <c r="N195" s="7"/>
       <c r="O195" s="9"/>
       <c r="P195" s="10"/>
@@ -32092,7 +32263,7 @@
       <c r="J196" s="7"/>
       <c r="K196" s="8"/>
       <c r="L196" s="8"/>
-      <c r="M196" s="18"/>
+      <c r="M196" s="8"/>
       <c r="N196" s="7"/>
       <c r="O196" s="9"/>
       <c r="P196" s="10"/>
@@ -32108,9 +32279,9 @@
       <c r="H197" s="7"/>
       <c r="I197" s="7"/>
       <c r="J197" s="7"/>
-      <c r="K197" s="13"/>
-      <c r="L197" s="13"/>
-      <c r="M197" s="18"/>
+      <c r="K197" s="8"/>
+      <c r="L197" s="8"/>
+      <c r="M197" s="8"/>
       <c r="N197" s="7"/>
       <c r="O197" s="9"/>
       <c r="P197" s="10"/>
@@ -32128,7 +32299,7 @@
       <c r="J198" s="7"/>
       <c r="K198" s="8"/>
       <c r="L198" s="8"/>
-      <c r="M198" s="8"/>
+      <c r="M198" s="18"/>
       <c r="N198" s="7"/>
       <c r="O198" s="9"/>
       <c r="P198" s="10"/>
@@ -32144,9 +32315,9 @@
       <c r="H199" s="7"/>
       <c r="I199" s="7"/>
       <c r="J199" s="7"/>
-      <c r="K199" s="8"/>
-      <c r="L199" s="8"/>
-      <c r="M199" s="8"/>
+      <c r="K199" s="13"/>
+      <c r="L199" s="13"/>
+      <c r="M199" s="18"/>
       <c r="N199" s="7"/>
       <c r="O199" s="9"/>
       <c r="P199" s="10"/>
@@ -32235,8 +32406,8 @@
       <c r="I204" s="7"/>
       <c r="J204" s="7"/>
       <c r="K204" s="8"/>
-      <c r="L204" s="17"/>
-      <c r="M204" s="18"/>
+      <c r="L204" s="8"/>
+      <c r="M204" s="8"/>
       <c r="N204" s="7"/>
       <c r="O204" s="9"/>
       <c r="P204" s="10"/>
@@ -32252,9 +32423,9 @@
       <c r="H205" s="7"/>
       <c r="I205" s="7"/>
       <c r="J205" s="7"/>
-      <c r="K205" s="18"/>
-      <c r="L205" s="18"/>
-      <c r="M205" s="18"/>
+      <c r="K205" s="8"/>
+      <c r="L205" s="8"/>
+      <c r="M205" s="8"/>
       <c r="N205" s="7"/>
       <c r="O205" s="9"/>
       <c r="P205" s="10"/>
@@ -32270,8 +32441,8 @@
       <c r="H206" s="7"/>
       <c r="I206" s="7"/>
       <c r="J206" s="7"/>
-      <c r="K206" s="18"/>
-      <c r="L206" s="18"/>
+      <c r="K206" s="8"/>
+      <c r="L206" s="17"/>
       <c r="M206" s="18"/>
       <c r="N206" s="7"/>
       <c r="O206" s="9"/>
@@ -32306,8 +32477,8 @@
       <c r="H208" s="7"/>
       <c r="I208" s="7"/>
       <c r="J208" s="7"/>
-      <c r="K208" s="8"/>
-      <c r="L208" s="17"/>
+      <c r="K208" s="18"/>
+      <c r="L208" s="18"/>
       <c r="M208" s="18"/>
       <c r="N208" s="7"/>
       <c r="O208" s="9"/>
@@ -32324,9 +32495,9 @@
       <c r="H209" s="7"/>
       <c r="I209" s="7"/>
       <c r="J209" s="7"/>
-      <c r="K209" s="7"/>
-      <c r="L209" s="7"/>
-      <c r="M209" s="7"/>
+      <c r="K209" s="18"/>
+      <c r="L209" s="18"/>
+      <c r="M209" s="18"/>
       <c r="N209" s="7"/>
       <c r="O209" s="9"/>
       <c r="P209" s="10"/>
@@ -32342,8 +32513,8 @@
       <c r="H210" s="7"/>
       <c r="I210" s="7"/>
       <c r="J210" s="7"/>
-      <c r="K210" s="13"/>
-      <c r="L210" s="13"/>
+      <c r="K210" s="8"/>
+      <c r="L210" s="17"/>
       <c r="M210" s="18"/>
       <c r="N210" s="7"/>
       <c r="O210" s="9"/>
@@ -32360,9 +32531,9 @@
       <c r="H211" s="7"/>
       <c r="I211" s="7"/>
       <c r="J211" s="7"/>
-      <c r="K211" s="13"/>
-      <c r="L211" s="13"/>
-      <c r="M211" s="18"/>
+      <c r="K211" s="7"/>
+      <c r="L211" s="7"/>
+      <c r="M211" s="7"/>
       <c r="N211" s="7"/>
       <c r="O211" s="9"/>
       <c r="P211" s="10"/>
@@ -32378,8 +32549,8 @@
       <c r="H212" s="7"/>
       <c r="I212" s="7"/>
       <c r="J212" s="7"/>
-      <c r="K212" s="8"/>
-      <c r="L212" s="17"/>
+      <c r="K212" s="13"/>
+      <c r="L212" s="13"/>
       <c r="M212" s="18"/>
       <c r="N212" s="7"/>
       <c r="O212" s="9"/>
@@ -32396,8 +32567,8 @@
       <c r="H213" s="7"/>
       <c r="I213" s="7"/>
       <c r="J213" s="7"/>
-      <c r="K213" s="8"/>
-      <c r="L213" s="8"/>
+      <c r="K213" s="13"/>
+      <c r="L213" s="13"/>
       <c r="M213" s="18"/>
       <c r="N213" s="7"/>
       <c r="O213" s="9"/>
@@ -32415,8 +32586,8 @@
       <c r="I214" s="7"/>
       <c r="J214" s="7"/>
       <c r="K214" s="8"/>
-      <c r="L214" s="8"/>
-      <c r="M214" s="8"/>
+      <c r="L214" s="17"/>
+      <c r="M214" s="18"/>
       <c r="N214" s="7"/>
       <c r="O214" s="9"/>
       <c r="P214" s="10"/>
@@ -32426,35 +32597,59 @@
       <c r="B215" s="1"/>
       <c r="C215" s="1"/>
       <c r="D215" s="4"/>
-      <c r="E215" s="16"/>
+      <c r="E215" s="1"/>
       <c r="F215" s="5"/>
       <c r="G215" s="6"/>
       <c r="H215" s="7"/>
       <c r="I215" s="7"/>
       <c r="J215" s="7"/>
-      <c r="K215" s="17"/>
-      <c r="L215" s="17"/>
+      <c r="K215" s="8"/>
+      <c r="L215" s="8"/>
       <c r="M215" s="18"/>
       <c r="N215" s="7"/>
       <c r="O215" s="9"/>
       <c r="P215" s="10"/>
     </row>
-    <row r="216" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E216" s="16"/>
-      <c r="K216" s="13"/>
-      <c r="L216" s="19"/>
-      <c r="M216" s="18"/>
-    </row>
-    <row r="217" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="216" spans="1:16" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A216" s="3"/>
+      <c r="B216" s="1"/>
+      <c r="C216" s="1"/>
+      <c r="D216" s="4"/>
+      <c r="E216" s="1"/>
+      <c r="F216" s="5"/>
+      <c r="G216" s="6"/>
+      <c r="H216" s="7"/>
+      <c r="I216" s="7"/>
+      <c r="J216" s="7"/>
+      <c r="K216" s="8"/>
+      <c r="L216" s="8"/>
+      <c r="M216" s="8"/>
+      <c r="N216" s="7"/>
+      <c r="O216" s="9"/>
+      <c r="P216" s="10"/>
+    </row>
+    <row r="217" spans="1:16" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A217" s="3"/>
+      <c r="B217" s="1"/>
+      <c r="C217" s="1"/>
+      <c r="D217" s="4"/>
       <c r="E217" s="16"/>
-      <c r="K217" s="18"/>
-      <c r="L217" s="18"/>
+      <c r="F217" s="5"/>
+      <c r="G217" s="6"/>
+      <c r="H217" s="7"/>
+      <c r="I217" s="7"/>
+      <c r="J217" s="7"/>
+      <c r="K217" s="17"/>
+      <c r="L217" s="17"/>
       <c r="M217" s="18"/>
+      <c r="N217" s="7"/>
+      <c r="O217" s="9"/>
+      <c r="P217" s="10"/>
     </row>
     <row r="218" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E218" s="16"/>
-      <c r="K218" s="18"/>
-      <c r="L218" s="18"/>
+      <c r="K218" s="13"/>
+      <c r="L218" s="19"/>
       <c r="M218" s="18"/>
     </row>
     <row r="219" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -32463,95 +32658,151 @@
       <c r="L219" s="18"/>
       <c r="M219" s="18"/>
     </row>
+    <row r="220" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E220" s="16"/>
+      <c r="K220" s="18"/>
+      <c r="L220" s="18"/>
+      <c r="M220" s="18"/>
+    </row>
+    <row r="221" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E221" s="16"/>
+      <c r="K221" s="18"/>
+      <c r="L221" s="18"/>
+      <c r="M221" s="18"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:AL218"/>
+  <autoFilter ref="A1:AL220"/>
   <phoneticPr fontId="13" type="noConversion"/>
-  <conditionalFormatting sqref="J1:J15 J20:J30 J17:J18 J32:J1048576">
-    <cfRule type="cellIs" dxfId="23" priority="25" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="J1:J15 J20:J29 J17:J18 J33:J44 J46:J1048576 J31">
+    <cfRule type="cellIs" dxfId="41" priority="37" stopIfTrue="1" operator="equal">
       <formula>"正常返回"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="26" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="38" stopIfTrue="1" operator="equal">
       <formula>"待测试"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="27" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="39" stopIfTrue="1" operator="equal">
       <formula>"需要处理"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J5:J15 J20:J30 J17:J18 J32:J1048576">
-    <cfRule type="cellIs" dxfId="20" priority="28" stopIfTrue="1" operator="equal">
-      <formula>$J$72</formula>
+  <conditionalFormatting sqref="J5:J15 J20:J29 J17:J18 J33:J44 J46:J1048576 J31">
+    <cfRule type="cellIs" dxfId="38" priority="40" stopIfTrue="1" operator="equal">
+      <formula>$J$74</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="29" stopIfTrue="1" operator="equal">
-      <formula>$J$64</formula>
+    <cfRule type="cellIs" dxfId="37" priority="41" stopIfTrue="1" operator="equal">
+      <formula>$J$66</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="30" stopIfTrue="1" operator="equal">
-      <formula>$J$61</formula>
+    <cfRule type="cellIs" dxfId="36" priority="42" stopIfTrue="1" operator="equal">
+      <formula>$J$63</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J19">
-    <cfRule type="cellIs" dxfId="17" priority="19" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="31" stopIfTrue="1" operator="equal">
       <formula>"正常返回"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="20" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="32" stopIfTrue="1" operator="equal">
       <formula>"待测试"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="21" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="33" stopIfTrue="1" operator="equal">
       <formula>"需要处理"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J19">
-    <cfRule type="cellIs" dxfId="14" priority="22" stopIfTrue="1" operator="equal">
-      <formula>$J$72</formula>
+    <cfRule type="cellIs" dxfId="32" priority="34" stopIfTrue="1" operator="equal">
+      <formula>$J$74</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="23" stopIfTrue="1" operator="equal">
-      <formula>$J$64</formula>
+    <cfRule type="cellIs" dxfId="31" priority="35" stopIfTrue="1" operator="equal">
+      <formula>$J$66</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="24" stopIfTrue="1" operator="equal">
-      <formula>$J$61</formula>
+    <cfRule type="cellIs" dxfId="30" priority="36" stopIfTrue="1" operator="equal">
+      <formula>$J$63</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J16">
-    <cfRule type="cellIs" dxfId="11" priority="13" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="25" stopIfTrue="1" operator="equal">
       <formula>"正常返回"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="14" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="26" stopIfTrue="1" operator="equal">
       <formula>"待测试"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="15" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="27" stopIfTrue="1" operator="equal">
       <formula>"需要处理"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J16">
-    <cfRule type="cellIs" dxfId="8" priority="16" stopIfTrue="1" operator="equal">
-      <formula>$J$72</formula>
+    <cfRule type="cellIs" dxfId="26" priority="28" stopIfTrue="1" operator="equal">
+      <formula>$J$74</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="17" stopIfTrue="1" operator="equal">
-      <formula>$J$64</formula>
+    <cfRule type="cellIs" dxfId="25" priority="29" stopIfTrue="1" operator="equal">
+      <formula>$J$66</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="18" stopIfTrue="1" operator="equal">
-      <formula>$J$61</formula>
+    <cfRule type="cellIs" dxfId="24" priority="30" stopIfTrue="1" operator="equal">
+      <formula>$J$63</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J31">
-    <cfRule type="cellIs" dxfId="5" priority="7" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="J32">
+    <cfRule type="cellIs" dxfId="23" priority="19" stopIfTrue="1" operator="equal">
       <formula>"正常返回"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="8" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="20" stopIfTrue="1" operator="equal">
       <formula>"待测试"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="9" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="21" stopIfTrue="1" operator="equal">
       <formula>"需要处理"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J31">
-    <cfRule type="cellIs" dxfId="2" priority="10" stopIfTrue="1" operator="equal">
-      <formula>$J$72</formula>
+  <conditionalFormatting sqref="J32">
+    <cfRule type="cellIs" dxfId="20" priority="22" stopIfTrue="1" operator="equal">
+      <formula>$J$74</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="11" stopIfTrue="1" operator="equal">
-      <formula>$J$64</formula>
+    <cfRule type="cellIs" dxfId="19" priority="23" stopIfTrue="1" operator="equal">
+      <formula>$J$66</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="12" stopIfTrue="1" operator="equal">
-      <formula>$J$61</formula>
+    <cfRule type="cellIs" dxfId="18" priority="24" stopIfTrue="1" operator="equal">
+      <formula>$J$63</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J45">
+    <cfRule type="cellIs" dxfId="17" priority="7" stopIfTrue="1" operator="equal">
+      <formula>"正常返回"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="16" priority="8" stopIfTrue="1" operator="equal">
+      <formula>"待测试"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="15" priority="9" stopIfTrue="1" operator="equal">
+      <formula>"需要处理"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J45">
+    <cfRule type="cellIs" dxfId="14" priority="10" stopIfTrue="1" operator="equal">
+      <formula>$J$74</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="11" stopIfTrue="1" operator="equal">
+      <formula>$J$66</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="12" stopIfTrue="1" operator="equal">
+      <formula>$J$63</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J30">
+    <cfRule type="cellIs" dxfId="11" priority="1" stopIfTrue="1" operator="equal">
+      <formula>"正常返回"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="2" stopIfTrue="1" operator="equal">
+      <formula>"待测试"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="3" stopIfTrue="1" operator="equal">
+      <formula>"需要处理"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J30">
+    <cfRule type="cellIs" dxfId="5" priority="4" stopIfTrue="1" operator="equal">
+      <formula>$J$74</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="5" stopIfTrue="1" operator="equal">
+      <formula>$J$66</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="6" stopIfTrue="1" operator="equal">
+      <formula>$J$63</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
